--- a/INTE-Performance-JAMU-2018.xlsx
+++ b/INTE-Performance-JAMU-2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Lopez\Desktop\ASAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirnazertuche/Desktop/ASAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AA9F1A-4CC8-4E51-A92A-002A35D56504}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58090CBD-724B-684B-A4E3-BECDC3DC85EE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24" yWindow="4404" windowWidth="25596" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAMUPerformance" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="06" sheetId="7" r:id="rId7"/>
     <sheet name="07" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -143,9 +143,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,6 +345,12 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -553,17 +559,17 @@
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -610,7 +616,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="4" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -649,7 +655,7 @@
     <xf numFmtId="10" fontId="14" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -720,13 +726,13 @@
     <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -744,7 +750,7 @@
     <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="19" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -906,7 +912,7 @@
     <xf numFmtId="3" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="28" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="28" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -918,20 +924,26 @@
     <xf numFmtId="10" fontId="26" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="29" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="40% - Énfasis5" xfId="4" builtinId="47"/>
-    <cellStyle name="60% - Énfasis5" xfId="5" builtinId="48"/>
+    <cellStyle name="40% - Accent5" xfId="4" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
     <cellStyle name="60% - Énfasis6 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Énfasis5" xfId="3" builtinId="45"/>
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Accent5" xfId="3" builtinId="45"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Millares 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="Total" xfId="9" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="164">
@@ -1202,7 +1214,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1675,7 +1687,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1700,7 +1712,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2218,7 +2230,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2243,7 +2255,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2761,7 +2773,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2786,7 +2798,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3304,7 +3316,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3329,7 +3341,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3847,7 +3859,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3872,7 +3884,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4151,7 +4163,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4248,7 +4260,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4320,7 +4332,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4357,30 +4369,30 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>JAMUPerformance!$C$227:$C$233</c:f>
+              <c:f>JAMUPerformance!$C$234:$C$240</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>28220</c:v>
+                  <c:v>2661</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18581</c:v>
+                  <c:v>17841</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3248</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15219</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15548</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6281</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2553</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4409,30 +4421,15 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>JAMUPerformance!$D$227:$D$233</c:f>
+              <c:f>JAMUPerformance!$D$234:$D$240</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>25339</c:v>
+                  <c:v>2357</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16980</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2907</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12728</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14170</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5552</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2234</c:v>
+                  <c:v>17087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4461,30 +4458,15 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>JAMUPerformance!$F$227:$F$233</c:f>
+              <c:f>JAMUPerformance!$F$234:$F$240</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2633</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1281</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1112</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1143</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>38</c:v>
+                  <c:v>654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4513,7 +4495,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>JAMUPerformance!$H$227:$H$233</c:f>
+              <c:f>JAMUPerformance!$H$234:$H$240</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4521,21 +4503,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4567,30 +4534,15 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>JAMUPerformance!$J$227:$J$233</c:f>
+              <c:f>JAMUPerformance!$J$234:$J$240</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>248</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>229</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1379</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>281</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4621,7 +4573,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>JAMUPerformance!$L$227:$L$233</c:f>
+              <c:f>JAMUPerformance!$L$234:$L$240</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4629,21 +4581,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4710,7 +4647,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530867824"/>
@@ -4769,7 +4706,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530869456"/>
@@ -4811,7 +4748,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -4850,7 +4787,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4880,7 +4817,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4894,7 +4831,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4966,7 +4903,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5131,88 +5068,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>01/02/2018</c:v>
+                  <c:v>2/1/18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02/02/2018</c:v>
+                  <c:v>2/2/18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>03/02/2018</c:v>
+                  <c:v>2/3/18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/02/2018</c:v>
+                  <c:v>2/4/18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/02/2018</c:v>
+                  <c:v>2/5/18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>06/02/2018</c:v>
+                  <c:v>2/6/18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>07/02/2018</c:v>
+                  <c:v>2/7/18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>08/02/2018</c:v>
+                  <c:v>2/8/18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>09/02/2018</c:v>
+                  <c:v>2/9/18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10/02/2018</c:v>
+                  <c:v>2/10/18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11/02/2018</c:v>
+                  <c:v>2/11/18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12/02/2018</c:v>
+                  <c:v>2/12/18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13/02/2018</c:v>
+                  <c:v>2/13/18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14/02/2018</c:v>
+                  <c:v>2/14/18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15/02/2018</c:v>
+                  <c:v>2/15/18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16/02/2018</c:v>
+                  <c:v>2/16/18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17/02/2018</c:v>
+                  <c:v>2/17/18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18/02/2018</c:v>
+                  <c:v>2/18/18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19/02/2018</c:v>
+                  <c:v>2/19/18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20/02/2018</c:v>
+                  <c:v>2/20/18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21/02/2018</c:v>
+                  <c:v>2/21/18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22/02/2018</c:v>
+                  <c:v>2/22/18</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23/02/2018</c:v>
+                  <c:v>2/23/18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24/02/2018</c:v>
+                  <c:v>2/24/18</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25/02/2018</c:v>
+                  <c:v>2/25/18</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26/02/2018</c:v>
+                  <c:v>2/26/18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27/02/2018</c:v>
+                  <c:v>2/27/18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28/02/2018</c:v>
+                  <c:v>2/28/18</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -5348,88 +5285,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>01/02/2018</c:v>
+                  <c:v>2/1/18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02/02/2018</c:v>
+                  <c:v>2/2/18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>03/02/2018</c:v>
+                  <c:v>2/3/18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/02/2018</c:v>
+                  <c:v>2/4/18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/02/2018</c:v>
+                  <c:v>2/5/18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>06/02/2018</c:v>
+                  <c:v>2/6/18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>07/02/2018</c:v>
+                  <c:v>2/7/18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>08/02/2018</c:v>
+                  <c:v>2/8/18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>09/02/2018</c:v>
+                  <c:v>2/9/18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10/02/2018</c:v>
+                  <c:v>2/10/18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11/02/2018</c:v>
+                  <c:v>2/11/18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12/02/2018</c:v>
+                  <c:v>2/12/18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13/02/2018</c:v>
+                  <c:v>2/13/18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14/02/2018</c:v>
+                  <c:v>2/14/18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15/02/2018</c:v>
+                  <c:v>2/15/18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16/02/2018</c:v>
+                  <c:v>2/16/18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17/02/2018</c:v>
+                  <c:v>2/17/18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18/02/2018</c:v>
+                  <c:v>2/18/18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19/02/2018</c:v>
+                  <c:v>2/19/18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20/02/2018</c:v>
+                  <c:v>2/20/18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21/02/2018</c:v>
+                  <c:v>2/21/18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22/02/2018</c:v>
+                  <c:v>2/22/18</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23/02/2018</c:v>
+                  <c:v>2/23/18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24/02/2018</c:v>
+                  <c:v>2/24/18</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25/02/2018</c:v>
+                  <c:v>2/25/18</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26/02/2018</c:v>
+                  <c:v>2/26/18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27/02/2018</c:v>
+                  <c:v>2/27/18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28/02/2018</c:v>
+                  <c:v>2/28/18</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -5565,88 +5502,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>01/02/2018</c:v>
+                  <c:v>2/1/18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02/02/2018</c:v>
+                  <c:v>2/2/18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>03/02/2018</c:v>
+                  <c:v>2/3/18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/02/2018</c:v>
+                  <c:v>2/4/18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/02/2018</c:v>
+                  <c:v>2/5/18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>06/02/2018</c:v>
+                  <c:v>2/6/18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>07/02/2018</c:v>
+                  <c:v>2/7/18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>08/02/2018</c:v>
+                  <c:v>2/8/18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>09/02/2018</c:v>
+                  <c:v>2/9/18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10/02/2018</c:v>
+                  <c:v>2/10/18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11/02/2018</c:v>
+                  <c:v>2/11/18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12/02/2018</c:v>
+                  <c:v>2/12/18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13/02/2018</c:v>
+                  <c:v>2/13/18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14/02/2018</c:v>
+                  <c:v>2/14/18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15/02/2018</c:v>
+                  <c:v>2/15/18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16/02/2018</c:v>
+                  <c:v>2/16/18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17/02/2018</c:v>
+                  <c:v>2/17/18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18/02/2018</c:v>
+                  <c:v>2/18/18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19/02/2018</c:v>
+                  <c:v>2/19/18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20/02/2018</c:v>
+                  <c:v>2/20/18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21/02/2018</c:v>
+                  <c:v>2/21/18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22/02/2018</c:v>
+                  <c:v>2/22/18</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23/02/2018</c:v>
+                  <c:v>2/23/18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24/02/2018</c:v>
+                  <c:v>2/24/18</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25/02/2018</c:v>
+                  <c:v>2/25/18</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26/02/2018</c:v>
+                  <c:v>2/26/18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27/02/2018</c:v>
+                  <c:v>2/27/18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28/02/2018</c:v>
+                  <c:v>2/28/18</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -5784,88 +5721,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>01/02/2018</c:v>
+                  <c:v>2/1/18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02/02/2018</c:v>
+                  <c:v>2/2/18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>03/02/2018</c:v>
+                  <c:v>2/3/18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/02/2018</c:v>
+                  <c:v>2/4/18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/02/2018</c:v>
+                  <c:v>2/5/18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>06/02/2018</c:v>
+                  <c:v>2/6/18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>07/02/2018</c:v>
+                  <c:v>2/7/18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>08/02/2018</c:v>
+                  <c:v>2/8/18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>09/02/2018</c:v>
+                  <c:v>2/9/18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10/02/2018</c:v>
+                  <c:v>2/10/18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11/02/2018</c:v>
+                  <c:v>2/11/18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12/02/2018</c:v>
+                  <c:v>2/12/18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13/02/2018</c:v>
+                  <c:v>2/13/18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14/02/2018</c:v>
+                  <c:v>2/14/18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15/02/2018</c:v>
+                  <c:v>2/15/18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16/02/2018</c:v>
+                  <c:v>2/16/18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17/02/2018</c:v>
+                  <c:v>2/17/18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18/02/2018</c:v>
+                  <c:v>2/18/18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19/02/2018</c:v>
+                  <c:v>2/19/18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20/02/2018</c:v>
+                  <c:v>2/20/18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21/02/2018</c:v>
+                  <c:v>2/21/18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22/02/2018</c:v>
+                  <c:v>2/22/18</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23/02/2018</c:v>
+                  <c:v>2/23/18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24/02/2018</c:v>
+                  <c:v>2/24/18</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25/02/2018</c:v>
+                  <c:v>2/25/18</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26/02/2018</c:v>
+                  <c:v>2/26/18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27/02/2018</c:v>
+                  <c:v>2/27/18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28/02/2018</c:v>
+                  <c:v>2/28/18</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -6003,88 +5940,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>01/02/2018</c:v>
+                  <c:v>2/1/18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02/02/2018</c:v>
+                  <c:v>2/2/18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>03/02/2018</c:v>
+                  <c:v>2/3/18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/02/2018</c:v>
+                  <c:v>2/4/18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/02/2018</c:v>
+                  <c:v>2/5/18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>06/02/2018</c:v>
+                  <c:v>2/6/18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>07/02/2018</c:v>
+                  <c:v>2/7/18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>08/02/2018</c:v>
+                  <c:v>2/8/18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>09/02/2018</c:v>
+                  <c:v>2/9/18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10/02/2018</c:v>
+                  <c:v>2/10/18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11/02/2018</c:v>
+                  <c:v>2/11/18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12/02/2018</c:v>
+                  <c:v>2/12/18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13/02/2018</c:v>
+                  <c:v>2/13/18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14/02/2018</c:v>
+                  <c:v>2/14/18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15/02/2018</c:v>
+                  <c:v>2/15/18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16/02/2018</c:v>
+                  <c:v>2/16/18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17/02/2018</c:v>
+                  <c:v>2/17/18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18/02/2018</c:v>
+                  <c:v>2/18/18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19/02/2018</c:v>
+                  <c:v>2/19/18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20/02/2018</c:v>
+                  <c:v>2/20/18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21/02/2018</c:v>
+                  <c:v>2/21/18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22/02/2018</c:v>
+                  <c:v>2/22/18</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23/02/2018</c:v>
+                  <c:v>2/23/18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24/02/2018</c:v>
+                  <c:v>2/24/18</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25/02/2018</c:v>
+                  <c:v>2/25/18</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26/02/2018</c:v>
+                  <c:v>2/26/18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27/02/2018</c:v>
+                  <c:v>2/27/18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28/02/2018</c:v>
+                  <c:v>2/28/18</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -6250,7 +6187,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530864560"/>
@@ -6309,7 +6246,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530865104"/>
@@ -6351,7 +6288,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -6390,7 +6327,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6420,7 +6357,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6434,7 +6371,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6506,7 +6443,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6676,7 +6613,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -6906,7 +6843,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -7136,7 +7073,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -7368,7 +7305,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -7600,7 +7537,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -7862,7 +7799,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="302953280"/>
@@ -7921,7 +7858,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="302951104"/>
@@ -7963,7 +7900,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -8002,7 +7939,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8032,7 +7969,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8046,7 +7983,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8118,7 +8055,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8285,7 +8222,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8509,7 +8446,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8733,7 +8670,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8959,7 +8896,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -9185,7 +9122,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -9441,7 +9378,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593585056"/>
@@ -9500,7 +9437,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593573632"/>
@@ -9542,7 +9479,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -9581,7 +9518,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9611,7 +9548,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9625,7 +9562,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9697,7 +9634,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9867,7 +9804,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -10097,7 +10034,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -10327,7 +10264,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -10559,7 +10496,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -10791,7 +10728,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -11053,7 +10990,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593578528"/>
@@ -11112,7 +11049,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593585600"/>
@@ -11154,7 +11091,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -11193,7 +11130,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11223,7 +11160,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11237,7 +11174,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11309,7 +11246,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11506,7 +11443,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -11729,7 +11666,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -11952,7 +11889,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -12177,7 +12114,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -12402,7 +12339,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -12657,7 +12594,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593574720"/>
@@ -12716,7 +12653,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593574176"/>
@@ -12758,7 +12695,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -12797,7 +12734,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12827,7 +12764,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12841,7 +12778,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12913,7 +12850,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12952,7 +12889,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13178,7 +13115,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13404,7 +13341,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13630,7 +13567,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13858,7 +13795,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -14086,7 +14023,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -14313,7 +14250,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -14347,7 +14284,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530867824"/>
@@ -14405,7 +14342,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530869456"/>
@@ -14447,7 +14384,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -14486,7 +14423,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -14516,7 +14453,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -18425,13 +18362,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28140</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:row>241</xdr:row>
       <xdr:rowOff>143435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>18055</xdr:colOff>
-      <xdr:row>262</xdr:row>
+      <xdr:row>269</xdr:row>
       <xdr:rowOff>31376</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -18721,8 +18658,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla18" displayName="Tabla18" ref="B16:M234" totalsRowCount="1" headerRowDxfId="161" dataDxfId="160" totalsRowDxfId="159">
-  <autoFilter ref="B16:M233" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla18" displayName="Tabla18" ref="B16:M241" totalsRowCount="1" headerRowDxfId="161" dataDxfId="160" totalsRowDxfId="159">
+  <autoFilter ref="B16:M240" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2016" month="5" day="9" dateTimeGrouping="day"/>
@@ -18741,47 +18678,47 @@
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="158" totalsRowDxfId="11"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="157" totalsRowDxfId="10">
-      <totalsRowFormula>SUM(C227:C233)</totalsRowFormula>
+      <totalsRowFormula>SUM(C234:C240)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="156" totalsRowDxfId="9">
-      <totalsRowFormula>SUM(D227:D233)</totalsRowFormula>
+      <totalsRowFormula>SUM(D234:D240)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="155" totalsRowDxfId="8">
       <calculatedColumnFormula>Tabla18[Transactions 
 Complete]/Tabla18[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(E227:E233)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(E234:E240)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="154" totalsRowDxfId="7">
-      <totalsRowFormula>SUM(F227:F233)</totalsRowFormula>
+      <totalsRowFormula>SUM(F234:F240)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="153" totalsRowDxfId="6">
       <calculatedColumnFormula>Tabla18[Transactions 
 Failed]/Tabla18[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(G227:G233)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(G234:G240)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="152" totalsRowDxfId="5">
-      <totalsRowFormula>SUM(H227:H233)</totalsRowFormula>
+      <totalsRowFormula>SUM(H234:H240)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="151" totalsRowDxfId="4">
       <calculatedColumnFormula>Tabla18[Transactions 
 In_Prog]/Tabla18[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(I227:I233)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(I234:I240)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="150" totalsRowDxfId="3">
-      <totalsRowFormula>SUM(J227:J233)</totalsRowFormula>
+      <totalsRowFormula>SUM(J234:J240)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="149" totalsRowDxfId="2">
       <calculatedColumnFormula>Tabla18[Transactions 
 Timeout]/Tabla18[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(K227:K233)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(K234:K240)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="148" totalsRowDxfId="1">
-      <totalsRowFormula>SUM(L227:L233)</totalsRowFormula>
+      <totalsRowFormula>SUM(L234:L240)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="147" totalsRowDxfId="0">
       <calculatedColumnFormula>Tabla18[Transactions
 Trans Fail]/Tabla18[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(M227:M233)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(M234:M240)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -19428,31 +19365,31 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="B1:M238"/>
+  <dimension ref="B1:M245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O237" sqref="O237"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L235" sqref="L235"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="1"/>
+    <col min="14" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -19468,7 +19405,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -19486,7 +19423,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -19504,7 +19441,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -19520,13 +19457,13 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="13">
         <f>SUM(C6:C10)</f>
-        <v>1811959</v>
+        <v>1832461</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -19539,17 +19476,17 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="13">
         <f>D15</f>
-        <v>1635996</v>
+        <v>1655440</v>
       </c>
       <c r="D6" s="14">
         <f>C6/C5</f>
-        <v>0.9028879792533937</v>
+        <v>0.90339712550499029</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -19561,17 +19498,17 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="13">
         <f>F15</f>
-        <v>113224</v>
+        <v>113963</v>
       </c>
       <c r="D7" s="14">
         <f>C7/C5</f>
-        <v>6.2487065104674E-2</v>
+        <v>6.2191228080706769E-2</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -19583,7 +19520,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -19593,7 +19530,7 @@
       </c>
       <c r="D8" s="14">
         <f>C8/C5</f>
-        <v>1.2141555079336785E-5</v>
+        <v>1.2005712536310459E-5</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -19605,17 +19542,17 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="13">
         <f>J15</f>
-        <v>62717</v>
+        <v>63036</v>
       </c>
       <c r="D9" s="14">
         <f>C9/C5</f>
-        <v>3.4612814086852961E-2</v>
+        <v>3.439964070176664E-2</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -19627,7 +19564,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -19649,13 +19586,13 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="15">
         <f>SUM(C6:C10)</f>
-        <v>1811959</v>
+        <v>1832461</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -19668,7 +19605,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -19682,7 +19619,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -19696,49 +19633,49 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="120" t="s">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="120"/>
-    </row>
-    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="122"/>
+    </row>
+    <row r="15" spans="2:13" ht="28" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="17">
         <f>SUM(Tabla18[Total])</f>
-        <v>1811964.07</v>
+        <v>1832466.12</v>
       </c>
       <c r="D15" s="17">
         <f>SUM(Tabla18[Transactions 
 Complete])</f>
-        <v>1635996</v>
+        <v>1655440</v>
       </c>
       <c r="E15" s="18">
         <f>AVERAGE(Tabla18[%
 Complete])</f>
-        <v>0.88434552890169993</v>
+        <v>0.86493961964624133</v>
       </c>
       <c r="F15" s="17">
         <f>SUM(Tabla18[Transactions 
 Failed])</f>
-        <v>113224</v>
+        <v>113963</v>
       </c>
       <c r="G15" s="18">
         <f>AVERAGE(Tabla18[% 
 Failed])</f>
-        <v>5.1321935428381336E-2</v>
+        <v>5.0024375020663439E-2</v>
       </c>
       <c r="H15" s="17">
         <f>SUM(Tabla18[Transactions 
@@ -19748,17 +19685,17 @@
       <c r="I15" s="18">
         <f>AVERAGE(Tabla18[%
 In_Prog])</f>
-        <v>1.4217342243591261E-5</v>
+        <v>1.3773050298479035E-5</v>
       </c>
       <c r="J15" s="17">
         <f>SUM(Tabla18[Transactions 
 Timeout])</f>
-        <v>62717</v>
+        <v>63036</v>
       </c>
       <c r="K15" s="18">
         <f>AVERAGE(Tabla18[%
 Timeout])</f>
-        <v>3.2054968133318276E-2</v>
+        <v>3.1445683210585017E-2</v>
       </c>
       <c r="L15" s="17">
         <f>SUM(Tabla18[Transactions
@@ -19771,7 +19708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -19809,7 +19746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24">
         <v>43101</v>
       </c>
@@ -19857,7 +19794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24">
         <v>43102</v>
       </c>
@@ -19905,7 +19842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24">
         <v>43103</v>
       </c>
@@ -19953,7 +19890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24">
         <v>43104</v>
       </c>
@@ -20001,7 +19938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24">
         <v>43105</v>
       </c>
@@ -20049,7 +19986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24">
         <v>43106</v>
       </c>
@@ -20097,7 +20034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" s="24">
         <v>43107</v>
       </c>
@@ -20145,7 +20082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B24" s="24">
         <v>43108</v>
       </c>
@@ -20193,7 +20130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B25" s="24">
         <v>43109</v>
       </c>
@@ -20241,7 +20178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24">
         <v>43110</v>
       </c>
@@ -20289,7 +20226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24">
         <v>43111</v>
       </c>
@@ -20337,7 +20274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24">
         <v>43112</v>
       </c>
@@ -20385,7 +20322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24">
         <v>43113</v>
       </c>
@@ -20433,7 +20370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B30" s="24">
         <v>43114</v>
       </c>
@@ -20481,7 +20418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30">
         <v>43115</v>
       </c>
@@ -20529,7 +20466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30">
         <v>43116</v>
       </c>
@@ -20577,7 +20514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" s="30">
         <v>43117</v>
       </c>
@@ -20625,7 +20562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B34" s="30">
         <v>43118</v>
       </c>
@@ -20673,7 +20610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B35" s="30">
         <v>43119</v>
       </c>
@@ -20721,7 +20658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B36" s="30">
         <v>43120</v>
       </c>
@@ -20769,7 +20706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B37" s="30">
         <v>43121</v>
       </c>
@@ -20817,7 +20754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B38" s="38">
         <v>43122</v>
       </c>
@@ -20865,7 +20802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B39" s="38">
         <v>43123</v>
       </c>
@@ -20913,7 +20850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B40" s="38">
         <v>43124</v>
       </c>
@@ -20961,7 +20898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B41" s="38">
         <v>43125</v>
       </c>
@@ -21009,7 +20946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B42" s="38">
         <v>43126</v>
       </c>
@@ -21057,7 +20994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B43" s="38">
         <v>43127</v>
       </c>
@@ -21105,7 +21042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B44" s="38">
         <v>43128</v>
       </c>
@@ -21153,7 +21090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B45" s="41">
         <v>43129</v>
       </c>
@@ -21201,7 +21138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B46" s="41">
         <v>43130</v>
       </c>
@@ -21249,7 +21186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" s="41">
         <v>43131</v>
       </c>
@@ -21297,7 +21234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" s="41">
         <v>43132</v>
       </c>
@@ -21345,7 +21282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" s="41">
         <v>43133</v>
       </c>
@@ -21393,7 +21330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" s="41">
         <v>43134</v>
       </c>
@@ -21441,7 +21378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B51" s="41">
         <v>43135</v>
       </c>
@@ -21489,7 +21426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B52" s="41">
         <v>43136</v>
       </c>
@@ -21537,7 +21474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B53" s="41">
         <v>43137</v>
       </c>
@@ -21585,7 +21522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B54" s="41">
         <v>43138</v>
       </c>
@@ -21633,7 +21570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B55" s="41">
         <v>43139</v>
       </c>
@@ -21681,7 +21618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B56" s="41">
         <v>43140</v>
       </c>
@@ -21729,7 +21666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B57" s="41">
         <v>43141</v>
       </c>
@@ -21777,7 +21714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B58" s="41">
         <v>43142</v>
       </c>
@@ -21825,7 +21762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B59" s="41">
         <v>43143</v>
       </c>
@@ -21873,7 +21810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B60" s="41">
         <v>43144</v>
       </c>
@@ -21921,7 +21858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B61" s="41">
         <v>43145</v>
       </c>
@@ -21969,7 +21906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B62" s="41">
         <v>43146</v>
       </c>
@@ -22017,7 +21954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B63" s="41">
         <v>43147</v>
       </c>
@@ -22065,7 +22002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B64" s="41">
         <v>43148</v>
       </c>
@@ -22113,7 +22050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" s="41">
         <v>43149</v>
       </c>
@@ -22161,7 +22098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B66" s="41">
         <v>43150</v>
       </c>
@@ -22209,7 +22146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" s="41">
         <v>43151</v>
       </c>
@@ -22257,7 +22194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B68" s="41">
         <v>43152</v>
       </c>
@@ -22305,7 +22242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" s="41">
         <v>43153</v>
       </c>
@@ -22353,7 +22290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B70" s="41">
         <v>43154</v>
       </c>
@@ -22401,7 +22338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B71" s="41">
         <v>43155</v>
       </c>
@@ -22449,7 +22386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B72" s="41">
         <v>43156</v>
       </c>
@@ -22497,7 +22434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B73" s="41">
         <v>43157</v>
       </c>
@@ -22545,7 +22482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B74" s="41">
         <v>43158</v>
       </c>
@@ -22593,7 +22530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B75" s="41">
         <v>43159</v>
       </c>
@@ -22641,7 +22578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B76" s="41">
         <v>43160</v>
       </c>
@@ -22689,7 +22626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B77" s="41">
         <v>43161</v>
       </c>
@@ -22737,7 +22674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B78" s="41">
         <v>43162</v>
       </c>
@@ -22785,7 +22722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B79" s="41">
         <v>43163</v>
       </c>
@@ -22833,7 +22770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B80" s="41">
         <v>43164</v>
       </c>
@@ -22881,7 +22818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B81" s="41">
         <v>43165</v>
       </c>
@@ -22929,7 +22866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B82" s="41">
         <v>43166</v>
       </c>
@@ -22977,7 +22914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B83" s="41">
         <v>43167</v>
       </c>
@@ -23025,7 +22962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B84" s="41">
         <v>43168</v>
       </c>
@@ -23073,7 +23010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B85" s="41">
         <v>43169</v>
       </c>
@@ -23121,7 +23058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" s="41">
         <v>43170</v>
       </c>
@@ -23169,7 +23106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B87" s="41">
         <v>43171</v>
       </c>
@@ -23217,7 +23154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B88" s="41">
         <v>43172</v>
       </c>
@@ -23265,7 +23202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B89" s="41">
         <v>43173</v>
       </c>
@@ -23313,7 +23250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B90" s="41">
         <v>43174</v>
       </c>
@@ -23361,7 +23298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B91" s="41">
         <v>43175</v>
       </c>
@@ -23409,7 +23346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B92" s="41">
         <v>43176</v>
       </c>
@@ -23457,7 +23394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" s="41">
         <v>43177</v>
       </c>
@@ -23505,7 +23442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B94" s="53">
         <v>43178</v>
       </c>
@@ -23553,7 +23490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B95" s="53">
         <v>43179</v>
       </c>
@@ -23601,7 +23538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B96" s="53">
         <v>43180</v>
       </c>
@@ -23649,7 +23586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B97" s="53">
         <v>43181</v>
       </c>
@@ -23697,7 +23634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B98" s="53">
         <v>43182</v>
       </c>
@@ -23745,7 +23682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B99" s="53">
         <v>43183</v>
       </c>
@@ -23793,7 +23730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B100" s="53">
         <v>43184</v>
       </c>
@@ -23841,7 +23778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B101" s="53">
         <v>43185</v>
       </c>
@@ -23889,7 +23826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B102" s="53">
         <v>43186</v>
       </c>
@@ -23937,7 +23874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" s="53">
         <v>43187</v>
       </c>
@@ -23985,7 +23922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" s="53">
         <v>43188</v>
       </c>
@@ -24033,7 +23970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B105" s="53">
         <v>43189</v>
       </c>
@@ -24081,7 +24018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B106" s="53">
         <v>43190</v>
       </c>
@@ -24129,7 +24066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B107" s="53">
         <v>43191</v>
       </c>
@@ -24177,7 +24114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B108" s="53">
         <v>43192</v>
       </c>
@@ -24225,7 +24162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B109" s="53">
         <v>43193</v>
       </c>
@@ -24273,7 +24210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B110" s="53">
         <v>43194</v>
       </c>
@@ -24321,7 +24258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B111" s="53">
         <v>43195</v>
       </c>
@@ -24369,7 +24306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B112" s="53">
         <v>43196</v>
       </c>
@@ -24417,7 +24354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B113" s="53">
         <v>43197</v>
       </c>
@@ -24465,7 +24402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B114" s="53">
         <v>43198</v>
       </c>
@@ -24513,7 +24450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B115" s="53">
         <v>43199</v>
       </c>
@@ -24561,7 +24498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B116" s="53">
         <v>43200</v>
       </c>
@@ -24609,7 +24546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B117" s="53">
         <v>43201</v>
       </c>
@@ -24649,7 +24586,7 @@
         <v>1.9376715646697885E-3</v>
       </c>
       <c r="L117" s="50">
-        <f>C805</f>
+        <f>C812</f>
         <v>0</v>
       </c>
       <c r="M117" s="35">
@@ -24658,7 +24595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B118" s="53">
         <v>43202</v>
       </c>
@@ -24706,7 +24643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B119" s="53">
         <v>43203</v>
       </c>
@@ -24754,7 +24691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B120" s="53">
         <v>43204</v>
       </c>
@@ -24802,7 +24739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B121" s="53">
         <v>43205</v>
       </c>
@@ -24850,7 +24787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B122" s="53">
         <v>43206</v>
       </c>
@@ -24898,7 +24835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B123" s="53">
         <v>43207</v>
       </c>
@@ -24946,7 +24883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B124" s="53">
         <v>43208</v>
       </c>
@@ -24994,7 +24931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B125" s="53">
         <v>43209</v>
       </c>
@@ -25042,7 +24979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B126" s="53">
         <v>43210</v>
       </c>
@@ -25090,7 +25027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B127" s="53">
         <v>43211</v>
       </c>
@@ -25138,7 +25075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B128" s="53">
         <v>43212</v>
       </c>
@@ -25186,7 +25123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" s="53">
         <v>43213</v>
       </c>
@@ -25234,7 +25171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B130" s="53">
         <v>43214</v>
       </c>
@@ -25282,7 +25219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" s="53">
         <v>43215</v>
       </c>
@@ -25330,7 +25267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B132" s="53">
         <v>43216</v>
       </c>
@@ -25378,7 +25315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B133" s="53">
         <v>43217</v>
       </c>
@@ -25426,7 +25363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B134" s="53">
         <v>43218</v>
       </c>
@@ -25474,7 +25411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B135" s="53">
         <v>43219</v>
       </c>
@@ -25522,7 +25459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B136" s="53">
         <v>43220</v>
       </c>
@@ -25570,7 +25507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B137" s="53">
         <v>43221</v>
       </c>
@@ -25618,7 +25555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B138" s="53">
         <v>43222</v>
       </c>
@@ -25666,7 +25603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B139" s="53">
         <v>43223</v>
       </c>
@@ -25714,7 +25651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B140" s="53">
         <v>43224</v>
       </c>
@@ -25762,7 +25699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B141" s="53">
         <v>43225</v>
       </c>
@@ -25810,7 +25747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B142" s="53">
         <v>43226</v>
       </c>
@@ -25858,7 +25795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B143" s="59">
         <v>43227</v>
       </c>
@@ -25906,7 +25843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B144" s="59">
         <v>43228</v>
       </c>
@@ -25954,7 +25891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B145" s="59">
         <v>43229</v>
       </c>
@@ -26002,7 +25939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B146" s="59">
         <v>43230</v>
       </c>
@@ -26050,7 +25987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B147" s="59">
         <v>43231</v>
       </c>
@@ -26098,7 +26035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B148" s="59">
         <v>43232</v>
       </c>
@@ -26146,7 +26083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B149" s="41">
         <v>43233</v>
       </c>
@@ -26194,7 +26131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B150" s="41">
         <v>43234</v>
       </c>
@@ -26242,7 +26179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B151" s="41">
         <v>43235</v>
       </c>
@@ -26290,7 +26227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B152" s="41">
         <v>43236</v>
       </c>
@@ -26338,7 +26275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B153" s="41">
         <v>43237</v>
       </c>
@@ -26386,7 +26323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B154" s="41">
         <v>43238</v>
       </c>
@@ -26434,7 +26371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B155" s="41">
         <v>43239</v>
       </c>
@@ -26482,7 +26419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B156" s="41">
         <v>43240</v>
       </c>
@@ -26530,7 +26467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B157" s="41">
         <v>43241</v>
       </c>
@@ -26578,7 +26515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B158" s="41">
         <v>43242</v>
       </c>
@@ -26626,7 +26563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B159" s="41">
         <v>43243</v>
       </c>
@@ -26674,7 +26611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B160" s="41">
         <v>43244</v>
       </c>
@@ -26722,7 +26659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B161" s="41">
         <v>43245</v>
       </c>
@@ -26770,7 +26707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B162" s="41">
         <v>43246</v>
       </c>
@@ -26818,7 +26755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B163" s="41">
         <v>43247</v>
       </c>
@@ -26866,7 +26803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B164" s="41">
         <v>43248</v>
       </c>
@@ -26914,7 +26851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B165" s="41">
         <v>43249</v>
       </c>
@@ -26962,7 +26899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B166" s="41">
         <v>43250</v>
       </c>
@@ -27010,7 +26947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B167" s="41">
         <v>43251</v>
       </c>
@@ -27058,7 +26995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B168" s="41">
         <v>43252</v>
       </c>
@@ -27106,7 +27043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B169" s="41">
         <v>43253</v>
       </c>
@@ -27154,7 +27091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B170" s="41">
         <v>43254</v>
       </c>
@@ -27202,7 +27139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B171" s="41">
         <v>43255</v>
       </c>
@@ -27250,7 +27187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B172" s="41">
         <v>43256</v>
       </c>
@@ -27298,7 +27235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B173" s="41">
         <v>43257</v>
       </c>
@@ -27346,7 +27283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B174" s="41">
         <v>43258</v>
       </c>
@@ -27394,7 +27331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B175" s="41">
         <v>43259</v>
       </c>
@@ -27442,7 +27379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B176" s="41">
         <v>43260</v>
       </c>
@@ -27490,7 +27427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B177" s="41">
         <v>43261</v>
       </c>
@@ -27538,7 +27475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B178" s="41">
         <v>43262</v>
       </c>
@@ -27586,7 +27523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B179" s="41">
         <v>43263</v>
       </c>
@@ -27634,7 +27571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B180" s="41">
         <v>43264</v>
       </c>
@@ -27682,7 +27619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B181" s="41">
         <v>43265</v>
       </c>
@@ -27730,7 +27667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B182" s="41">
         <v>43266</v>
       </c>
@@ -27778,7 +27715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B183" s="41">
         <v>43267</v>
       </c>
@@ -27826,7 +27763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B184" s="41">
         <v>43268</v>
       </c>
@@ -27874,7 +27811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B185" s="79">
         <v>43269</v>
       </c>
@@ -27922,7 +27859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B186" s="79">
         <v>43270</v>
       </c>
@@ -27970,7 +27907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B187" s="79">
         <v>43271</v>
       </c>
@@ -28018,7 +27955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B188" s="79">
         <v>43272</v>
       </c>
@@ -28066,7 +28003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B189" s="79">
         <v>43273</v>
       </c>
@@ -28114,7 +28051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B190" s="79">
         <v>43274</v>
       </c>
@@ -28162,7 +28099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B191" s="79">
         <v>43275</v>
       </c>
@@ -28210,7 +28147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B192" s="79">
         <v>43276</v>
       </c>
@@ -28258,7 +28195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B193" s="79">
         <v>43277</v>
       </c>
@@ -28306,7 +28243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B194" s="79">
         <v>43278</v>
       </c>
@@ -28354,7 +28291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B195" s="79">
         <v>43279</v>
       </c>
@@ -28402,7 +28339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B196" s="79">
         <v>43280</v>
       </c>
@@ -28450,7 +28387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B197" s="79">
         <v>43281</v>
       </c>
@@ -28498,7 +28435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B198" s="79">
         <v>43282</v>
       </c>
@@ -28546,7 +28483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B199" s="79">
         <v>43283</v>
       </c>
@@ -28594,7 +28531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B200" s="79">
         <v>43284</v>
       </c>
@@ -28642,7 +28579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B201" s="79">
         <v>43285</v>
       </c>
@@ -28690,7 +28627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B202" s="79">
         <v>43286</v>
       </c>
@@ -28738,7 +28675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B203" s="79">
         <v>43287</v>
       </c>
@@ -28786,7 +28723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B204" s="79">
         <v>43288</v>
       </c>
@@ -28834,7 +28771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B205" s="79">
         <v>43289</v>
       </c>
@@ -28882,7 +28819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B206" s="79">
         <v>43290</v>
       </c>
@@ -28930,7 +28867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B207" s="79">
         <v>43291</v>
       </c>
@@ -28978,7 +28915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B208" s="79">
         <v>43292</v>
       </c>
@@ -29026,7 +28963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B209" s="79">
         <v>43293</v>
       </c>
@@ -29074,7 +29011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B210" s="79">
         <v>43294</v>
       </c>
@@ -29122,7 +29059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B211" s="79">
         <v>43295</v>
       </c>
@@ -29170,7 +29107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B212" s="79">
         <v>43296</v>
       </c>
@@ -29218,7 +29155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B213" s="79">
         <v>43297</v>
       </c>
@@ -29266,7 +29203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B214" s="79">
         <v>43298</v>
       </c>
@@ -29314,7 +29251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B215" s="79">
         <v>43299</v>
       </c>
@@ -29362,7 +29299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B216" s="79">
         <v>43300</v>
       </c>
@@ -29410,7 +29347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B217" s="79">
         <v>43301</v>
       </c>
@@ -29458,7 +29395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B218" s="79">
         <v>43302</v>
       </c>
@@ -29506,7 +29443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B219" s="79">
         <v>43303</v>
       </c>
@@ -29554,7 +29491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B220" s="79">
         <v>43304</v>
       </c>
@@ -29602,7 +29539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B221" s="79">
         <v>43305</v>
       </c>
@@ -29650,7 +29587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B222" s="79">
         <v>43306</v>
       </c>
@@ -29698,7 +29635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B223" s="79">
         <v>43307</v>
       </c>
@@ -29746,7 +29683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B224" s="79">
         <v>43308</v>
       </c>
@@ -29794,7 +29731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B225" s="79">
         <v>43309</v>
       </c>
@@ -29842,7 +29779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B226" s="79">
         <v>43310</v>
       </c>
@@ -29890,7 +29827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B227" s="79">
         <v>43311</v>
       </c>
@@ -29938,7 +29875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B228" s="79">
         <v>43312</v>
       </c>
@@ -29986,7 +29923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B229" s="79">
         <v>43313</v>
       </c>
@@ -30034,7 +29971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B230" s="79">
         <v>43314</v>
       </c>
@@ -30082,7 +30019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B231" s="79">
         <v>43315</v>
       </c>
@@ -30130,7 +30067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B232" s="79">
         <v>43316</v>
       </c>
@@ -30178,7 +30115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B233" s="79">
         <v>43317</v>
       </c>
@@ -30226,66 +30163,352 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B234" s="29" t="s">
+    <row r="234" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B234" s="79">
+        <v>43318</v>
+      </c>
+      <c r="C234" s="120">
+        <v>2661</v>
+      </c>
+      <c r="D234" s="120">
+        <v>2357</v>
+      </c>
+      <c r="E234" s="121">
+        <f>Tabla18[Transactions 
+Complete]/Tabla18[Total]</f>
+        <v>0.88575723412251028</v>
+      </c>
+      <c r="F234" s="120">
+        <v>85</v>
+      </c>
+      <c r="G234" s="121">
+        <f>Tabla18[Transactions 
+Failed]/Tabla18[Total]</f>
+        <v>3.1942878617061257E-2</v>
+      </c>
+      <c r="H234" s="120">
+        <v>0</v>
+      </c>
+      <c r="I234" s="121">
+        <f>Tabla18[Transactions 
+In_Prog]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J234" s="120">
+        <v>219</v>
+      </c>
+      <c r="K234" s="121">
+        <f>Tabla18[Transactions 
+Timeout]/Tabla18[Total]</f>
+        <v>8.2299887260428417E-2</v>
+      </c>
+      <c r="L234" s="120">
+        <v>0</v>
+      </c>
+      <c r="M234" s="121">
+        <f>Tabla18[Transactions
+Trans Fail]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B235" s="79">
+        <v>43319</v>
+      </c>
+      <c r="C235" s="120">
+        <v>17841</v>
+      </c>
+      <c r="D235" s="120">
+        <v>17087</v>
+      </c>
+      <c r="E235" s="121">
+        <f>Tabla18[Transactions 
+Complete]/Tabla18[Total]</f>
+        <v>0.9577377949666499</v>
+      </c>
+      <c r="F235" s="120">
+        <v>654</v>
+      </c>
+      <c r="G235" s="121">
+        <f>Tabla18[Transactions 
+Failed]/Tabla18[Total]</f>
+        <v>3.6657138052799729E-2</v>
+      </c>
+      <c r="H235" s="120">
+        <v>0</v>
+      </c>
+      <c r="I235" s="121">
+        <f>Tabla18[Transactions 
+In_Prog]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J235" s="120">
+        <v>100</v>
+      </c>
+      <c r="K235" s="121">
+        <f>Tabla18[Transactions 
+Timeout]/Tabla18[Total]</f>
+        <v>5.6050669805504175E-3</v>
+      </c>
+      <c r="L235" s="120">
+        <v>0</v>
+      </c>
+      <c r="M235" s="121">
+        <f>Tabla18[Transactions
+Trans Fail]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B236" s="79">
+        <v>43320</v>
+      </c>
+      <c r="C236" s="120">
+        <v>0.01</v>
+      </c>
+      <c r="D236" s="120"/>
+      <c r="E236" s="121">
+        <f>Tabla18[Transactions 
+Complete]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="F236" s="120"/>
+      <c r="G236" s="121">
+        <f>Tabla18[Transactions 
+Failed]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="H236" s="120"/>
+      <c r="I236" s="121">
+        <f>Tabla18[Transactions 
+In_Prog]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J236" s="120"/>
+      <c r="K236" s="121">
+        <f>Tabla18[Transactions 
+Timeout]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="L236" s="120"/>
+      <c r="M236" s="121">
+        <f>Tabla18[Transactions
+Trans Fail]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B237" s="79">
+        <v>43321</v>
+      </c>
+      <c r="C237" s="120">
+        <v>0.01</v>
+      </c>
+      <c r="D237" s="120"/>
+      <c r="E237" s="121">
+        <f>Tabla18[Transactions 
+Complete]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="F237" s="120"/>
+      <c r="G237" s="121">
+        <f>Tabla18[Transactions 
+Failed]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="H237" s="120"/>
+      <c r="I237" s="121">
+        <f>Tabla18[Transactions 
+In_Prog]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J237" s="120"/>
+      <c r="K237" s="121">
+        <f>Tabla18[Transactions 
+Timeout]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="L237" s="120"/>
+      <c r="M237" s="121">
+        <f>Tabla18[Transactions
+Trans Fail]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B238" s="79">
+        <v>43322</v>
+      </c>
+      <c r="C238" s="120">
+        <v>0.01</v>
+      </c>
+      <c r="D238" s="120"/>
+      <c r="E238" s="121">
+        <f>Tabla18[Transactions 
+Complete]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="F238" s="120"/>
+      <c r="G238" s="121">
+        <f>Tabla18[Transactions 
+Failed]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="H238" s="120"/>
+      <c r="I238" s="121">
+        <f>Tabla18[Transactions 
+In_Prog]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J238" s="120"/>
+      <c r="K238" s="121">
+        <f>Tabla18[Transactions 
+Timeout]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="L238" s="120"/>
+      <c r="M238" s="121">
+        <f>Tabla18[Transactions
+Trans Fail]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B239" s="79">
+        <v>43323</v>
+      </c>
+      <c r="C239" s="120">
+        <v>0.01</v>
+      </c>
+      <c r="D239" s="120"/>
+      <c r="E239" s="121">
+        <f>Tabla18[Transactions 
+Complete]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="F239" s="120"/>
+      <c r="G239" s="121">
+        <f>Tabla18[Transactions 
+Failed]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="H239" s="120"/>
+      <c r="I239" s="121">
+        <f>Tabla18[Transactions 
+In_Prog]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J239" s="120"/>
+      <c r="K239" s="121">
+        <f>Tabla18[Transactions 
+Timeout]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="L239" s="120"/>
+      <c r="M239" s="121">
+        <f>Tabla18[Transactions
+Trans Fail]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B240" s="79">
+        <v>43324</v>
+      </c>
+      <c r="C240" s="120">
+        <v>0.01</v>
+      </c>
+      <c r="D240" s="120"/>
+      <c r="E240" s="121">
+        <f>Tabla18[Transactions 
+Complete]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="F240" s="120"/>
+      <c r="G240" s="121">
+        <f>Tabla18[Transactions 
+Failed]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="H240" s="120"/>
+      <c r="I240" s="121">
+        <f>Tabla18[Transactions 
+In_Prog]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J240" s="120"/>
+      <c r="K240" s="121">
+        <f>Tabla18[Transactions 
+Timeout]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="L240" s="120"/>
+      <c r="M240" s="121">
+        <f>Tabla18[Transactions
+Trans Fail]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="2:13" ht="22" x14ac:dyDescent="0.2">
+      <c r="B241" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C234" s="39">
-        <f>SUM(C227:C233)</f>
-        <v>89650</v>
-      </c>
-      <c r="D234" s="39">
-        <f>SUM(D227:D233)</f>
-        <v>79910</v>
-      </c>
-      <c r="E234" s="36">
-        <f>AVERAGE(E227:E233)</f>
-        <v>0.88763388716672831</v>
-      </c>
-      <c r="F234" s="39">
-        <f>SUM(F227:F233)</f>
-        <v>6830</v>
-      </c>
-      <c r="G234" s="36">
-        <f>AVERAGE(G227:G233)</f>
-        <v>6.2771408946747501E-2</v>
-      </c>
-      <c r="H234" s="39">
-        <f>SUM(H227:H233)</f>
-        <v>1</v>
-      </c>
-      <c r="I234" s="36">
-        <f>AVERAGE(I227:I233)</f>
-        <v>4.3983110485573539E-5</v>
-      </c>
-      <c r="J234" s="39">
-        <f>SUM(J227:J233)</f>
-        <v>2909</v>
-      </c>
-      <c r="K234" s="36">
-        <f>AVERAGE(K227:K233)</f>
-        <v>4.9550720776038629E-2</v>
-      </c>
-      <c r="L234" s="39">
-        <f>SUM(L227:L233)</f>
-        <v>0</v>
-      </c>
-      <c r="M234" s="36">
-        <f>AVERAGE(M227:M233)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E235" s="26"/>
-    </row>
-    <row r="236" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E236" s="26"/>
-    </row>
-    <row r="237" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E237" s="26"/>
-    </row>
-    <row r="238" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E238" s="26"/>
+      <c r="C241" s="39">
+        <f>SUM(C234:C240)</f>
+        <v>20502.049999999992</v>
+      </c>
+      <c r="D241" s="39">
+        <f>SUM(D234:D240)</f>
+        <v>19444</v>
+      </c>
+      <c r="E241" s="36">
+        <f>AVERAGE(E234:E240)</f>
+        <v>0.26335643272702292</v>
+      </c>
+      <c r="F241" s="39">
+        <f>SUM(F234:F240)</f>
+        <v>739</v>
+      </c>
+      <c r="G241" s="36">
+        <f>AVERAGE(G234:G240)</f>
+        <v>9.8000023814087123E-3</v>
+      </c>
+      <c r="H241" s="39">
+        <f>SUM(H234:H240)</f>
+        <v>0</v>
+      </c>
+      <c r="I241" s="36">
+        <f>AVERAGE(I234:I240)</f>
+        <v>0</v>
+      </c>
+      <c r="J241" s="39">
+        <f>SUM(J234:J240)</f>
+        <v>319</v>
+      </c>
+      <c r="K241" s="36">
+        <f>AVERAGE(K234:K240)</f>
+        <v>1.2557850605854117E-2</v>
+      </c>
+      <c r="L241" s="39">
+        <f>SUM(L234:L240)</f>
+        <v>0</v>
+      </c>
+      <c r="M241" s="36">
+        <f>AVERAGE(M234:M240)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E242" s="26"/>
+    </row>
+    <row r="243" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E243" s="26"/>
+    </row>
+    <row r="244" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E244" s="26"/>
+    </row>
+    <row r="245" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E245" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -30308,12 +30531,12 @@
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="44">
         <v>43101</v>
       </c>
@@ -30351,7 +30574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="47">
         <v>43102</v>
       </c>
@@ -30389,7 +30612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="44">
         <v>43103</v>
       </c>
@@ -30427,7 +30650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="47">
         <v>43104</v>
       </c>
@@ -30465,7 +30688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="44">
         <v>43105</v>
       </c>
@@ -30503,7 +30726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="47">
         <v>43106</v>
       </c>
@@ -30541,7 +30764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="44">
         <v>43107</v>
       </c>
@@ -30579,7 +30802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="47">
         <v>43108</v>
       </c>
@@ -30617,7 +30840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="44">
         <v>43109</v>
       </c>
@@ -30655,7 +30878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="47">
         <v>43110</v>
       </c>
@@ -30693,7 +30916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="44">
         <v>43111</v>
       </c>
@@ -30731,7 +30954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="47">
         <v>43112</v>
       </c>
@@ -30769,7 +30992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="44">
         <v>43113</v>
       </c>
@@ -30807,7 +31030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="47">
         <v>43114</v>
       </c>
@@ -30845,7 +31068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="44">
         <v>43115</v>
       </c>
@@ -30883,7 +31106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="47">
         <v>43116</v>
       </c>
@@ -30921,7 +31144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="44">
         <v>43117</v>
       </c>
@@ -30959,7 +31182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="47">
         <v>43118</v>
       </c>
@@ -30997,7 +31220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="44">
         <v>43119</v>
       </c>
@@ -31035,7 +31258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="47">
         <v>43120</v>
       </c>
@@ -31073,7 +31296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="44">
         <v>43121</v>
       </c>
@@ -31111,7 +31334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="47">
         <v>43122</v>
       </c>
@@ -31149,7 +31372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="44">
         <v>43123</v>
       </c>
@@ -31187,7 +31410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="47">
         <v>43124</v>
       </c>
@@ -31225,7 +31448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="44">
         <v>43125</v>
       </c>
@@ -31263,7 +31486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="47">
         <v>43126</v>
       </c>
@@ -31301,7 +31524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="44">
         <v>43127</v>
       </c>
@@ -31339,7 +31562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="47">
         <v>43128</v>
       </c>
@@ -31377,7 +31600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="44">
         <v>43129</v>
       </c>
@@ -31415,7 +31638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="47">
         <v>43130</v>
       </c>
@@ -31453,7 +31676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="44">
         <v>43131</v>
       </c>
@@ -31491,7 +31714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B32" s="48">
         <f>SUM(B1:B31)</f>
         <v>272552</v>
@@ -31554,25 +31777,25 @@
       <selection activeCell="B15" sqref="B15:M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="33"/>
+    <col min="14" max="16384" width="11.5" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -31588,7 +31811,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -31606,7 +31829,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -31624,7 +31847,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -31640,7 +31863,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -31659,7 +31882,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -31681,7 +31904,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
@@ -31703,7 +31926,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -31725,7 +31948,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -31747,7 +31970,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -31769,7 +31992,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -31788,7 +32011,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -31802,7 +32025,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -31816,23 +32039,23 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="120" t="s">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="120"/>
-    </row>
-    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="122"/>
+    </row>
+    <row r="15" spans="2:13" ht="28" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
@@ -31881,7 +32104,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -31919,7 +32142,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="41">
         <v>43132</v>
       </c>
@@ -31962,7 +32185,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="41">
         <v>43133</v>
       </c>
@@ -32005,7 +32228,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="41">
         <v>43134</v>
       </c>
@@ -32048,7 +32271,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="41">
         <v>43135</v>
       </c>
@@ -32091,7 +32314,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="41">
         <v>43136</v>
       </c>
@@ -32134,7 +32357,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="41">
         <v>43137</v>
       </c>
@@ -32177,7 +32400,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="41">
         <v>43138</v>
       </c>
@@ -32220,7 +32443,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="41">
         <v>43139</v>
       </c>
@@ -32263,7 +32486,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="41">
         <v>43140</v>
       </c>
@@ -32306,7 +32529,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="41">
         <v>43141</v>
       </c>
@@ -32349,7 +32572,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="41">
         <v>43142</v>
       </c>
@@ -32392,7 +32615,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="41">
         <v>43143</v>
       </c>
@@ -32435,7 +32658,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="41">
         <v>43144</v>
       </c>
@@ -32478,7 +32701,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="41">
         <v>43145</v>
       </c>
@@ -32521,7 +32744,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="41">
         <v>43146</v>
       </c>
@@ -32564,7 +32787,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="41">
         <v>43147</v>
       </c>
@@ -32607,7 +32830,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="41">
         <v>43148</v>
       </c>
@@ -32650,7 +32873,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="41">
         <v>43149</v>
       </c>
@@ -32693,7 +32916,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="41">
         <v>43150</v>
       </c>
@@ -32736,7 +32959,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="41">
         <v>43151</v>
       </c>
@@ -32779,7 +33002,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="41">
         <v>43152</v>
       </c>
@@ -32822,7 +33045,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="41">
         <v>43153</v>
       </c>
@@ -32865,7 +33088,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="41">
         <v>43154</v>
       </c>
@@ -32908,7 +33131,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="41">
         <v>43155</v>
       </c>
@@ -32951,7 +33174,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="41">
         <v>43156</v>
       </c>
@@ -32994,7 +33217,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="41">
         <v>43157</v>
       </c>
@@ -33037,7 +33260,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="41">
         <v>43158</v>
       </c>
@@ -33080,7 +33303,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="41">
         <v>43159</v>
       </c>
@@ -33123,7 +33346,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" ht="22" x14ac:dyDescent="0.2">
       <c r="B45" s="29" t="s">
         <v>26</v>
       </c>
@@ -33172,16 +33395,16 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E46" s="26"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E47" s="26"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E48" s="26"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E49" s="26"/>
     </row>
   </sheetData>
@@ -33208,25 +33431,25 @@
       <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="33"/>
+    <col min="14" max="16384" width="11.5" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -33242,7 +33465,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -33260,7 +33483,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -33278,7 +33501,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -33294,7 +33517,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -33313,7 +33536,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -33335,7 +33558,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
@@ -33357,7 +33580,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -33379,7 +33602,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -33401,7 +33624,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -33423,7 +33646,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -33442,7 +33665,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -33456,7 +33679,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -33470,23 +33693,23 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="120" t="s">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="120"/>
-    </row>
-    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="122"/>
+    </row>
+    <row r="15" spans="2:13" ht="28" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
@@ -33535,7 +33758,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -33573,7 +33796,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="41">
         <v>43160</v>
       </c>
@@ -33616,7 +33839,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="41">
         <v>43161</v>
       </c>
@@ -33659,7 +33882,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="41">
         <v>43162</v>
       </c>
@@ -33702,7 +33925,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="41">
         <v>43163</v>
       </c>
@@ -33745,7 +33968,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="41">
         <v>43164</v>
       </c>
@@ -33788,7 +34011,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="41">
         <v>43165</v>
       </c>
@@ -33831,7 +34054,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="41">
         <v>43166</v>
       </c>
@@ -33874,7 +34097,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="41">
         <v>43167</v>
       </c>
@@ -33917,7 +34140,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="41">
         <v>43168</v>
       </c>
@@ -33960,7 +34183,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="41">
         <v>43169</v>
       </c>
@@ -34003,7 +34226,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="41">
         <v>43170</v>
       </c>
@@ -34046,7 +34269,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="41">
         <v>43171</v>
       </c>
@@ -34089,7 +34312,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="41">
         <v>43172</v>
       </c>
@@ -34132,7 +34355,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="41">
         <v>43173</v>
       </c>
@@ -34175,7 +34398,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="41">
         <v>43174</v>
       </c>
@@ -34218,7 +34441,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="41">
         <v>43175</v>
       </c>
@@ -34261,7 +34484,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="41">
         <v>43176</v>
       </c>
@@ -34304,7 +34527,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="41">
         <v>43177</v>
       </c>
@@ -34347,7 +34570,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="53">
         <v>43178</v>
       </c>
@@ -34390,7 +34613,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="53">
         <v>43179</v>
       </c>
@@ -34433,7 +34656,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="53">
         <v>43180</v>
       </c>
@@ -34476,7 +34699,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="53">
         <v>43181</v>
       </c>
@@ -34519,7 +34742,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="53">
         <v>43182</v>
       </c>
@@ -34562,7 +34785,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="53">
         <v>43183</v>
       </c>
@@ -34605,7 +34828,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="53">
         <v>43184</v>
       </c>
@@ -34648,7 +34871,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="53">
         <v>43185</v>
       </c>
@@ -34691,7 +34914,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="53">
         <v>43186</v>
       </c>
@@ -34734,7 +34957,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="53">
         <v>43187</v>
       </c>
@@ -34777,7 +35000,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="53">
         <v>43188</v>
       </c>
@@ -34820,7 +35043,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="53">
         <v>43189</v>
       </c>
@@ -34863,7 +35086,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" s="53">
         <v>43190</v>
       </c>
@@ -34906,7 +35129,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" ht="22" x14ac:dyDescent="0.2">
       <c r="B48" s="54" t="s">
         <v>26</v>
       </c>
@@ -34955,16 +35178,16 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E49" s="26"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E51" s="26"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E52" s="26"/>
     </row>
   </sheetData>
@@ -34991,25 +35214,25 @@
       <selection activeCell="B17" sqref="B17:M47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="33"/>
+    <col min="14" max="16384" width="11.5" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -35025,7 +35248,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -35043,7 +35266,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -35061,7 +35284,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -35077,7 +35300,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -35096,7 +35319,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -35118,7 +35341,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
@@ -35140,7 +35363,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -35162,7 +35385,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -35184,7 +35407,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -35206,7 +35429,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -35225,7 +35448,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -35239,7 +35462,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -35253,23 +35476,23 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="120" t="s">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="120"/>
-    </row>
-    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="122"/>
+    </row>
+    <row r="15" spans="2:13" ht="28" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
@@ -35318,7 +35541,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -35356,7 +35579,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="53">
         <v>43191</v>
       </c>
@@ -35399,7 +35622,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="53">
         <v>43192</v>
       </c>
@@ -35442,7 +35665,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="53">
         <v>43193</v>
       </c>
@@ -35485,7 +35708,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="53">
         <v>43194</v>
       </c>
@@ -35528,7 +35751,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="53">
         <v>43195</v>
       </c>
@@ -35571,7 +35794,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="53">
         <v>43196</v>
       </c>
@@ -35614,7 +35837,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="53">
         <v>43197</v>
       </c>
@@ -35657,7 +35880,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="53">
         <v>43198</v>
       </c>
@@ -35700,7 +35923,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="53">
         <v>43199</v>
       </c>
@@ -35743,7 +35966,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="53">
         <v>43200</v>
       </c>
@@ -35786,7 +36009,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="53">
         <v>43201</v>
       </c>
@@ -35830,7 +36053,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="53">
         <v>43202</v>
       </c>
@@ -35873,7 +36096,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="53">
         <v>43203</v>
       </c>
@@ -35916,7 +36139,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="53">
         <v>43204</v>
       </c>
@@ -35959,7 +36182,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="53">
         <v>43205</v>
       </c>
@@ -36002,7 +36225,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="53">
         <v>43206</v>
       </c>
@@ -36045,7 +36268,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="53">
         <v>43207</v>
       </c>
@@ -36088,7 +36311,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="53">
         <v>43208</v>
       </c>
@@ -36131,7 +36354,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="53">
         <v>43209</v>
       </c>
@@ -36174,7 +36397,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="53">
         <v>43210</v>
       </c>
@@ -36217,7 +36440,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="53">
         <v>43211</v>
       </c>
@@ -36260,7 +36483,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="53">
         <v>43212</v>
       </c>
@@ -36303,7 +36526,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="53">
         <v>43213</v>
       </c>
@@ -36346,7 +36569,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="53">
         <v>43214</v>
       </c>
@@ -36389,7 +36612,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="53">
         <v>43215</v>
       </c>
@@ -36432,7 +36655,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="53">
         <v>43216</v>
       </c>
@@ -36475,7 +36698,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="53">
         <v>43217</v>
       </c>
@@ -36518,7 +36741,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="53">
         <v>43218</v>
       </c>
@@ -36561,7 +36784,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="53">
         <v>43219</v>
       </c>
@@ -36604,7 +36827,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="53">
         <v>43220</v>
       </c>
@@ -36647,7 +36870,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" ht="22" x14ac:dyDescent="0.2">
       <c r="B47" s="54" t="s">
         <v>26</v>
       </c>
@@ -36696,16 +36919,16 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E48" s="26"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E49" s="26"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E51" s="26"/>
     </row>
   </sheetData>
@@ -36732,25 +36955,25 @@
       <selection activeCell="B17" sqref="B17:M48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="33"/>
+    <col min="14" max="16384" width="11.5" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -36766,7 +36989,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -36784,7 +37007,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -36802,7 +37025,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -36818,7 +37041,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -36837,7 +37060,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -36859,7 +37082,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
@@ -36881,7 +37104,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -36903,7 +37126,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -36925,7 +37148,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -36947,7 +37170,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -36966,7 +37189,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -36980,7 +37203,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -36994,23 +37217,23 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="120" t="s">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="120"/>
-    </row>
-    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="122"/>
+    </row>
+    <row r="15" spans="2:13" ht="28" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
@@ -37059,7 +37282,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -37097,7 +37320,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="53">
         <v>43221</v>
       </c>
@@ -37140,7 +37363,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="53">
         <v>43222</v>
       </c>
@@ -37183,7 +37406,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="53">
         <v>43223</v>
       </c>
@@ -37226,7 +37449,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="53">
         <v>43224</v>
       </c>
@@ -37269,7 +37492,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="53">
         <v>43225</v>
       </c>
@@ -37312,7 +37535,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="53">
         <v>43226</v>
       </c>
@@ -37355,7 +37578,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="59">
         <v>43227</v>
       </c>
@@ -37398,7 +37621,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="59">
         <v>43228</v>
       </c>
@@ -37441,7 +37664,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="59">
         <v>43229</v>
       </c>
@@ -37484,7 +37707,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="59">
         <v>43230</v>
       </c>
@@ -37527,7 +37750,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="59">
         <v>43231</v>
       </c>
@@ -37570,7 +37793,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="59">
         <v>43232</v>
       </c>
@@ -37613,7 +37836,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="41">
         <v>43233</v>
       </c>
@@ -37656,7 +37879,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="41">
         <v>43234</v>
       </c>
@@ -37699,7 +37922,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="41">
         <v>43235</v>
       </c>
@@ -37742,7 +37965,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="41">
         <v>43236</v>
       </c>
@@ -37785,7 +38008,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="41">
         <v>43237</v>
       </c>
@@ -37828,7 +38051,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="41">
         <v>43238</v>
       </c>
@@ -37871,7 +38094,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="41">
         <v>43239</v>
       </c>
@@ -37914,7 +38137,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="41">
         <v>43240</v>
       </c>
@@ -37957,7 +38180,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="41">
         <v>43241</v>
       </c>
@@ -38000,7 +38223,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="41">
         <v>43242</v>
       </c>
@@ -38043,7 +38266,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="41">
         <v>43243</v>
       </c>
@@ -38086,7 +38309,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="41">
         <v>43244</v>
       </c>
@@ -38129,7 +38352,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="41">
         <v>43245</v>
       </c>
@@ -38172,7 +38395,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="41">
         <v>43246</v>
       </c>
@@ -38215,7 +38438,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="41">
         <v>43247</v>
       </c>
@@ -38258,7 +38481,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="41">
         <v>43248</v>
       </c>
@@ -38301,7 +38524,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="41">
         <v>43249</v>
       </c>
@@ -38344,7 +38567,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="41">
         <v>43250</v>
       </c>
@@ -38387,7 +38610,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" s="41">
         <v>43251</v>
       </c>
@@ -38430,7 +38653,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" ht="22" x14ac:dyDescent="0.2">
       <c r="B48" s="56" t="s">
         <v>26</v>
       </c>
@@ -38479,16 +38702,16 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E49" s="26"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E51" s="26"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E52" s="26"/>
     </row>
   </sheetData>
@@ -38515,25 +38738,25 @@
       <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="33"/>
+    <col min="14" max="16384" width="11.5" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -38549,7 +38772,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -38567,7 +38790,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -38585,7 +38808,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -38601,7 +38824,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -38620,7 +38843,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -38642,7 +38865,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
@@ -38664,7 +38887,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -38686,7 +38909,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -38708,7 +38931,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -38730,7 +38953,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -38749,7 +38972,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -38763,7 +38986,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -38777,23 +39000,23 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="120" t="s">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="120"/>
-    </row>
-    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="122"/>
+    </row>
+    <row r="15" spans="2:13" ht="28" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
@@ -38852,7 +39075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -38890,7 +39113,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="79">
         <v>43252</v>
       </c>
@@ -38938,7 +39161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="79">
         <v>43253</v>
       </c>
@@ -38986,7 +39209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="79">
         <v>43254</v>
       </c>
@@ -39034,7 +39257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="79">
         <v>43255</v>
       </c>
@@ -39082,7 +39305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="79">
         <v>43256</v>
       </c>
@@ -39130,7 +39353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="79">
         <v>43257</v>
       </c>
@@ -39178,7 +39401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="79">
         <v>43258</v>
       </c>
@@ -39226,7 +39449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="79">
         <v>43259</v>
       </c>
@@ -39274,7 +39497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="79">
         <v>43260</v>
       </c>
@@ -39322,7 +39545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="79">
         <v>43261</v>
       </c>
@@ -39370,7 +39593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="79">
         <v>43262</v>
       </c>
@@ -39418,7 +39641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="79">
         <v>43263</v>
       </c>
@@ -39466,7 +39689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B29" s="79">
         <v>43264</v>
       </c>
@@ -39514,7 +39737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="79">
         <v>43265</v>
       </c>
@@ -39562,7 +39785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B31" s="79">
         <v>43266</v>
       </c>
@@ -39610,7 +39833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B32" s="79">
         <v>43267</v>
       </c>
@@ -39658,7 +39881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B33" s="79">
         <v>43268</v>
       </c>
@@ -39706,7 +39929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B34" s="79">
         <v>43269</v>
       </c>
@@ -39754,7 +39977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B35" s="79">
         <v>43270</v>
       </c>
@@ -39802,7 +40025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B36" s="79">
         <v>43271</v>
       </c>
@@ -39850,7 +40073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B37" s="79">
         <v>43272</v>
       </c>
@@ -39898,7 +40121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B38" s="79">
         <v>43273</v>
       </c>
@@ -39946,7 +40169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B39" s="79">
         <v>43274</v>
       </c>
@@ -39994,7 +40217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B40" s="79">
         <v>43275</v>
       </c>
@@ -40042,7 +40265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B41" s="79">
         <v>43276</v>
       </c>
@@ -40090,7 +40313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="79">
         <v>43277</v>
       </c>
@@ -40138,7 +40361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="79">
         <v>43278</v>
       </c>
@@ -40186,7 +40409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="79">
         <v>43279</v>
       </c>
@@ -40234,7 +40457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="79">
         <v>43280</v>
       </c>
@@ -40282,7 +40505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="79">
         <v>43281</v>
       </c>
@@ -40330,7 +40553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" ht="22" x14ac:dyDescent="0.2">
       <c r="B47" s="62" t="s">
         <v>26</v>
       </c>
@@ -40379,16 +40602,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E48" s="26"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E49" s="26"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E51" s="26"/>
     </row>
   </sheetData>
@@ -40412,9 +40635,9 @@
       <selection activeCell="A2" sqref="A2:L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="114">
         <v>43282</v>
       </c>
@@ -40452,7 +40675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="110">
         <v>43283</v>
       </c>
@@ -40490,7 +40713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="114">
         <v>43284</v>
       </c>
@@ -40528,7 +40751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="110">
         <v>43285</v>
       </c>
@@ -40566,7 +40789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="114">
         <v>43286</v>
       </c>
@@ -40604,7 +40827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="110">
         <v>43287</v>
       </c>
@@ -40642,7 +40865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="114">
         <v>43288</v>
       </c>
@@ -40680,7 +40903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="110">
         <v>43289</v>
       </c>
@@ -40718,7 +40941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="114">
         <v>43290</v>
       </c>
@@ -40756,7 +40979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="110">
         <v>43291</v>
       </c>
@@ -40794,7 +41017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="114">
         <v>43292</v>
       </c>
@@ -40832,7 +41055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="110">
         <v>43293</v>
       </c>
@@ -40870,7 +41093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="114">
         <v>43294</v>
       </c>
@@ -40908,7 +41131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="110">
         <v>43295</v>
       </c>
@@ -40946,7 +41169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="114">
         <v>43296</v>
       </c>
@@ -40984,7 +41207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="110">
         <v>43297</v>
       </c>
@@ -41022,7 +41245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="114">
         <v>43298</v>
       </c>
@@ -41060,7 +41283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="110">
         <v>43299</v>
       </c>
@@ -41098,7 +41321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="114">
         <v>43300</v>
       </c>
@@ -41136,7 +41359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="110">
         <v>43301</v>
       </c>
@@ -41174,7 +41397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="114">
         <v>43302</v>
       </c>
@@ -41212,7 +41435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="110">
         <v>43303</v>
       </c>
@@ -41250,7 +41473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="114">
         <v>43304</v>
       </c>
@@ -41288,7 +41511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="110">
         <v>43305</v>
       </c>
@@ -41326,7 +41549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="114">
         <v>43306</v>
       </c>
@@ -41364,7 +41587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="110">
         <v>43307</v>
       </c>
@@ -41402,7 +41625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="114">
         <v>43308</v>
       </c>
@@ -41440,7 +41663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="110">
         <v>43309</v>
       </c>
@@ -41478,7 +41701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="114">
         <v>43310</v>
       </c>
@@ -41516,7 +41739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="110">
         <v>43311</v>
       </c>
@@ -41554,7 +41777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="114">
         <v>43312</v>
       </c>
@@ -41592,7 +41815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="21" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="23" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A33" s="116" t="s">
         <v>27</v>
       </c>

--- a/INTE-Performance-JAMU-2018.xlsx
+++ b/INTE-Performance-JAMU-2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirnazertuche/Desktop/ASAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58090CBD-724B-684B-A4E3-BECDC3DC85EE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4D2CA3-81F1-7A43-8024-B05960DC6732}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="6240" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAMUPerformance" sheetId="1" r:id="rId1"/>
@@ -4380,7 +4380,7 @@
                   <c:v>17841</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                  <c:v>12515</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.01</c:v>
@@ -4431,6 +4431,9 @@
                 <c:pt idx="1">
                   <c:v>17087</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>11976</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4468,6 +4471,9 @@
                 <c:pt idx="1">
                   <c:v>654</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>492</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4503,6 +4509,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4544,6 +4553,9 @@
                 <c:pt idx="1">
                   <c:v>100</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4581,6 +4593,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -19368,7 +19383,7 @@
   <dimension ref="B1:M245"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L235" sqref="L235"/>
+      <selection activeCell="L236" sqref="L236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19463,7 +19478,7 @@
       </c>
       <c r="C5" s="13">
         <f>SUM(C6:C10)</f>
-        <v>1832461</v>
+        <v>1844976</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -19482,11 +19497,11 @@
       </c>
       <c r="C6" s="13">
         <f>D15</f>
-        <v>1655440</v>
+        <v>1667416</v>
       </c>
       <c r="D6" s="14">
         <f>C6/C5</f>
-        <v>0.90339712550499029</v>
+        <v>0.90376026571619361</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -19504,11 +19519,11 @@
       </c>
       <c r="C7" s="13">
         <f>F15</f>
-        <v>113963</v>
+        <v>114455</v>
       </c>
       <c r="D7" s="14">
         <f>C7/C5</f>
-        <v>6.2191228080706769E-2</v>
+        <v>6.203603732514678E-2</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -19530,7 +19545,7 @@
       </c>
       <c r="D8" s="14">
         <f>C8/C5</f>
-        <v>1.2005712536310459E-5</v>
+        <v>1.1924274353704331E-5</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -19548,11 +19563,11 @@
       </c>
       <c r="C9" s="13">
         <f>J15</f>
-        <v>63036</v>
+        <v>63083</v>
       </c>
       <c r="D9" s="14">
         <f>C9/C5</f>
-        <v>3.439964070176664E-2</v>
+        <v>3.419177268430592E-2</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -19592,7 +19607,7 @@
       </c>
       <c r="C11" s="15">
         <f>SUM(C6:C10)</f>
-        <v>1832461</v>
+        <v>1844976</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -19655,27 +19670,27 @@
       </c>
       <c r="C15" s="17">
         <f>SUM(Tabla18[Total])</f>
-        <v>1832466.12</v>
+        <v>1844981.11</v>
       </c>
       <c r="D15" s="17">
         <f>SUM(Tabla18[Transactions 
 Complete])</f>
-        <v>1655440</v>
+        <v>1667416</v>
       </c>
       <c r="E15" s="18">
         <f>AVERAGE(Tabla18[%
 Complete])</f>
-        <v>0.86493961964624133</v>
+        <v>0.86921163608365926</v>
       </c>
       <c r="F15" s="17">
         <f>SUM(Tabla18[Transactions 
 Failed])</f>
-        <v>113963</v>
+        <v>114455</v>
       </c>
       <c r="G15" s="18">
         <f>AVERAGE(Tabla18[% 
 Failed])</f>
-        <v>5.0024375020663439E-2</v>
+        <v>5.0199878701960174E-2</v>
       </c>
       <c r="H15" s="17">
         <f>SUM(Tabla18[Transactions 
@@ -19690,12 +19705,12 @@
       <c r="J15" s="17">
         <f>SUM(Tabla18[Transactions 
 Timeout])</f>
-        <v>63036</v>
+        <v>63083</v>
       </c>
       <c r="K15" s="18">
         <f>AVERAGE(Tabla18[%
 Timeout])</f>
-        <v>3.1445683210585017E-2</v>
+        <v>3.1462448806156049E-2</v>
       </c>
       <c r="L15" s="17">
         <f>SUM(Tabla18[Transactions
@@ -30264,33 +30279,43 @@
         <v>43320</v>
       </c>
       <c r="C236" s="120">
-        <v>0.01</v>
-      </c>
-      <c r="D236" s="120"/>
+        <v>12515</v>
+      </c>
+      <c r="D236" s="120">
+        <v>11976</v>
+      </c>
       <c r="E236" s="121">
         <f>Tabla18[Transactions 
 Complete]/Tabla18[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="F236" s="120"/>
+        <v>0.95693168198162204</v>
+      </c>
+      <c r="F236" s="120">
+        <v>492</v>
+      </c>
       <c r="G236" s="121">
         <f>Tabla18[Transactions 
 Failed]/Tabla18[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="H236" s="120"/>
+        <v>3.9312824610467437E-2</v>
+      </c>
+      <c r="H236" s="120">
+        <v>0</v>
+      </c>
       <c r="I236" s="121">
         <f>Tabla18[Transactions 
 In_Prog]/Tabla18[Total]</f>
         <v>0</v>
       </c>
-      <c r="J236" s="120"/>
+      <c r="J236" s="120">
+        <v>47</v>
+      </c>
       <c r="K236" s="121">
         <f>Tabla18[Transactions 
 Timeout]/Tabla18[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="L236" s="120"/>
+        <v>3.7554934079105074E-3</v>
+      </c>
+      <c r="L236" s="120">
+        <v>0</v>
+      </c>
       <c r="M236" s="121">
         <f>Tabla18[Transactions
 Trans Fail]/Tabla18[Total]</f>
@@ -30455,23 +30480,23 @@
       </c>
       <c r="C241" s="39">
         <f>SUM(C234:C240)</f>
-        <v>20502.049999999992</v>
+        <v>33017.040000000008</v>
       </c>
       <c r="D241" s="39">
         <f>SUM(D234:D240)</f>
-        <v>19444</v>
+        <v>31420</v>
       </c>
       <c r="E241" s="36">
         <f>AVERAGE(E234:E240)</f>
-        <v>0.26335643272702292</v>
+        <v>0.40006095872439751</v>
       </c>
       <c r="F241" s="39">
         <f>SUM(F234:F240)</f>
-        <v>739</v>
+        <v>1231</v>
       </c>
       <c r="G241" s="36">
         <f>AVERAGE(G234:G240)</f>
-        <v>9.8000023814087123E-3</v>
+        <v>1.541612018290406E-2</v>
       </c>
       <c r="H241" s="39">
         <f>SUM(H234:H240)</f>
@@ -30483,11 +30508,11 @@
       </c>
       <c r="J241" s="39">
         <f>SUM(J234:J240)</f>
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="K241" s="36">
         <f>AVERAGE(K234:K240)</f>
-        <v>1.2557850605854117E-2</v>
+        <v>1.3094349664127048E-2</v>
       </c>
       <c r="L241" s="39">
         <f>SUM(L234:L240)</f>

--- a/INTE-Performance-JAMU-2018.xlsx
+++ b/INTE-Performance-JAMU-2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirnazertuche/Desktop/ASAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4D2CA3-81F1-7A43-8024-B05960DC6732}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4EEA9D-A617-9E4E-8556-B6A10D386E35}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="6240" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAMUPerformance" sheetId="1" r:id="rId1"/>
@@ -4383,7 +4383,7 @@
                   <c:v>12515</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01</c:v>
+                  <c:v>10570</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.01</c:v>
@@ -4434,6 +4434,9 @@
                 <c:pt idx="2">
                   <c:v>11976</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>10040</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4474,6 +4477,9 @@
                 <c:pt idx="2">
                   <c:v>492</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>485</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4512,6 +4518,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4556,6 +4565,9 @@
                 <c:pt idx="2">
                   <c:v>47</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4596,6 +4608,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -19382,8 +19397,8 @@
   </sheetPr>
   <dimension ref="B1:M245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L236" sqref="L236"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L237" sqref="L237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19478,7 +19493,7 @@
       </c>
       <c r="C5" s="13">
         <f>SUM(C6:C10)</f>
-        <v>1844976</v>
+        <v>1855546</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -19497,11 +19512,11 @@
       </c>
       <c r="C6" s="13">
         <f>D15</f>
-        <v>1667416</v>
+        <v>1677456</v>
       </c>
       <c r="D6" s="14">
         <f>C6/C5</f>
-        <v>0.90376026571619361</v>
+        <v>0.90402285903987289</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -19519,11 +19534,11 @@
       </c>
       <c r="C7" s="13">
         <f>F15</f>
-        <v>114455</v>
+        <v>114940</v>
       </c>
       <c r="D7" s="14">
         <f>C7/C5</f>
-        <v>6.203603732514678E-2</v>
+        <v>6.1944031568066757E-2</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -19545,7 +19560,7 @@
       </c>
       <c r="D8" s="14">
         <f>C8/C5</f>
-        <v>1.1924274353704331E-5</v>
+        <v>1.1856348481794577E-5</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -19563,11 +19578,11 @@
       </c>
       <c r="C9" s="13">
         <f>J15</f>
-        <v>63083</v>
+        <v>63128</v>
       </c>
       <c r="D9" s="14">
         <f>C9/C5</f>
-        <v>3.419177268430592E-2</v>
+        <v>3.4021253043578545E-2</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -19607,7 +19622,7 @@
       </c>
       <c r="C11" s="15">
         <f>SUM(C6:C10)</f>
-        <v>1844976</v>
+        <v>1855546</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -19670,27 +19685,27 @@
       </c>
       <c r="C15" s="17">
         <f>SUM(Tabla18[Total])</f>
-        <v>1844981.11</v>
+        <v>1855551.1</v>
       </c>
       <c r="D15" s="17">
         <f>SUM(Tabla18[Transactions 
 Complete])</f>
-        <v>1667416</v>
+        <v>1677456</v>
       </c>
       <c r="E15" s="18">
         <f>AVERAGE(Tabla18[%
 Complete])</f>
-        <v>0.86921163608365926</v>
+        <v>0.87345207398067237</v>
       </c>
       <c r="F15" s="17">
         <f>SUM(Tabla18[Transactions 
 Failed])</f>
-        <v>114455</v>
+        <v>114940</v>
       </c>
       <c r="G15" s="18">
         <f>AVERAGE(Tabla18[% 
 Failed])</f>
-        <v>5.0199878701960174E-2</v>
+        <v>5.0404720572483221E-2</v>
       </c>
       <c r="H15" s="17">
         <f>SUM(Tabla18[Transactions 
@@ -19705,12 +19720,12 @@
       <c r="J15" s="17">
         <f>SUM(Tabla18[Transactions 
 Timeout])</f>
-        <v>63083</v>
+        <v>63128</v>
       </c>
       <c r="K15" s="18">
         <f>AVERAGE(Tabla18[%
 Timeout])</f>
-        <v>3.1462448806156049E-2</v>
+        <v>3.1481454752905612E-2</v>
       </c>
       <c r="L15" s="17">
         <f>SUM(Tabla18[Transactions
@@ -30327,33 +30342,43 @@
         <v>43321</v>
       </c>
       <c r="C237" s="120">
-        <v>0.01</v>
-      </c>
-      <c r="D237" s="120"/>
+        <v>10570</v>
+      </c>
+      <c r="D237" s="120">
+        <v>10040</v>
+      </c>
       <c r="E237" s="121">
         <f>Tabla18[Transactions 
 Complete]/Tabla18[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="F237" s="120"/>
+        <v>0.94985808893093659</v>
+      </c>
+      <c r="F237" s="120">
+        <v>485</v>
+      </c>
       <c r="G237" s="121">
         <f>Tabla18[Transactions 
 Failed]/Tabla18[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="H237" s="120"/>
+        <v>4.5884578997161779E-2</v>
+      </c>
+      <c r="H237" s="120">
+        <v>0</v>
+      </c>
       <c r="I237" s="121">
         <f>Tabla18[Transactions 
 In_Prog]/Tabla18[Total]</f>
         <v>0</v>
       </c>
-      <c r="J237" s="120"/>
+      <c r="J237" s="120">
+        <v>45</v>
+      </c>
       <c r="K237" s="121">
         <f>Tabla18[Transactions 
 Timeout]/Tabla18[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="L237" s="120"/>
+        <v>4.2573320719016088E-3</v>
+      </c>
+      <c r="L237" s="120">
+        <v>0</v>
+      </c>
       <c r="M237" s="121">
         <f>Tabla18[Transactions
 Trans Fail]/Tabla18[Total]</f>
@@ -30480,23 +30505,23 @@
       </c>
       <c r="C241" s="39">
         <f>SUM(C234:C240)</f>
-        <v>33017.040000000008</v>
+        <v>43587.030000000006</v>
       </c>
       <c r="D241" s="39">
         <f>SUM(D234:D240)</f>
-        <v>31420</v>
+        <v>41460</v>
       </c>
       <c r="E241" s="36">
         <f>AVERAGE(E234:E240)</f>
-        <v>0.40006095872439751</v>
+        <v>0.53575497142881701</v>
       </c>
       <c r="F241" s="39">
         <f>SUM(F234:F240)</f>
-        <v>1231</v>
+        <v>1716</v>
       </c>
       <c r="G241" s="36">
         <f>AVERAGE(G234:G240)</f>
-        <v>1.541612018290406E-2</v>
+        <v>2.1971060039641461E-2</v>
       </c>
       <c r="H241" s="39">
         <f>SUM(H234:H240)</f>
@@ -30508,11 +30533,11 @@
       </c>
       <c r="J241" s="39">
         <f>SUM(J234:J240)</f>
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="K241" s="36">
         <f>AVERAGE(K234:K240)</f>
-        <v>1.3094349664127048E-2</v>
+        <v>1.3702539960112992E-2</v>
       </c>
       <c r="L241" s="39">
         <f>SUM(L234:L240)</f>

--- a/INTE-Performance-JAMU-2018.xlsx
+++ b/INTE-Performance-JAMU-2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirnazertuche/Desktop/ASAP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Lopez\Desktop\ASAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4EEA9D-A617-9E4E-8556-B6A10D386E35}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7764FE4E-D06F-43BE-99FC-9C52BB908F32}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="84" yWindow="456" windowWidth="25596" windowHeight="14436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAMUPerformance" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="06" sheetId="7" r:id="rId7"/>
     <sheet name="07" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -143,7 +143,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
@@ -559,13 +559,13 @@
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -616,7 +616,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="4" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -655,7 +655,7 @@
     <xf numFmtId="10" fontId="14" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -726,13 +726,13 @@
     <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -750,7 +750,7 @@
     <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="19" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -912,7 +912,7 @@
     <xf numFmtId="3" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="28" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -935,15 +935,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="40% - Accent5" xfId="4" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
+    <cellStyle name="40% - Énfasis5" xfId="4" builtinId="47"/>
+    <cellStyle name="60% - Énfasis5" xfId="5" builtinId="48"/>
     <cellStyle name="60% - Énfasis6 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Accent5" xfId="3" builtinId="45"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Énfasis5" xfId="3" builtinId="45"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Millares 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
     <cellStyle name="Total" xfId="9" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="164">
@@ -1214,7 +1214,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1687,7 +1687,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1712,7 +1712,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2230,7 +2230,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2255,7 +2255,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2773,7 +2773,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2798,7 +2798,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3316,7 +3316,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3341,7 +3341,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3859,7 +3859,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3884,7 +3884,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4163,7 +4163,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4260,7 +4260,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4332,7 +4332,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4386,13 +4386,13 @@
                   <c:v>10570</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01</c:v>
+                  <c:v>8441</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                  <c:v>4142</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.01</c:v>
+                  <c:v>1860</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4437,6 +4437,15 @@
                 <c:pt idx="3">
                   <c:v>10040</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>7872</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3871</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1800</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4480,6 +4489,15 @@
                 <c:pt idx="3">
                   <c:v>485</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4521,6 +4539,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4568,6 +4595,15 @@
                 <c:pt idx="3">
                   <c:v>45</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4611,6 +4647,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4677,7 +4722,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530867824"/>
@@ -4736,7 +4781,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530869456"/>
@@ -4778,7 +4823,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -4817,7 +4862,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4847,7 +4892,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4861,7 +4906,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4933,7 +4978,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5098,88 +5143,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>2/1/18</c:v>
+                  <c:v>01/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2/2/18</c:v>
+                  <c:v>02/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2/3/18</c:v>
+                  <c:v>03/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2/4/18</c:v>
+                  <c:v>04/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2/5/18</c:v>
+                  <c:v>05/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2/6/18</c:v>
+                  <c:v>06/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2/7/18</c:v>
+                  <c:v>07/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2/8/18</c:v>
+                  <c:v>08/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2/9/18</c:v>
+                  <c:v>09/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2/10/18</c:v>
+                  <c:v>10/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2/11/18</c:v>
+                  <c:v>11/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2/12/18</c:v>
+                  <c:v>12/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2/13/18</c:v>
+                  <c:v>13/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2/14/18</c:v>
+                  <c:v>14/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2/15/18</c:v>
+                  <c:v>15/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2/16/18</c:v>
+                  <c:v>16/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2/17/18</c:v>
+                  <c:v>17/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2/18/18</c:v>
+                  <c:v>18/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2/19/18</c:v>
+                  <c:v>19/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2/20/18</c:v>
+                  <c:v>20/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2/21/18</c:v>
+                  <c:v>21/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2/22/18</c:v>
+                  <c:v>22/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2/23/18</c:v>
+                  <c:v>23/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2/24/18</c:v>
+                  <c:v>24/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2/25/18</c:v>
+                  <c:v>25/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2/26/18</c:v>
+                  <c:v>26/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2/27/18</c:v>
+                  <c:v>27/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2/28/18</c:v>
+                  <c:v>28/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -5315,88 +5360,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>2/1/18</c:v>
+                  <c:v>01/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2/2/18</c:v>
+                  <c:v>02/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2/3/18</c:v>
+                  <c:v>03/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2/4/18</c:v>
+                  <c:v>04/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2/5/18</c:v>
+                  <c:v>05/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2/6/18</c:v>
+                  <c:v>06/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2/7/18</c:v>
+                  <c:v>07/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2/8/18</c:v>
+                  <c:v>08/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2/9/18</c:v>
+                  <c:v>09/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2/10/18</c:v>
+                  <c:v>10/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2/11/18</c:v>
+                  <c:v>11/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2/12/18</c:v>
+                  <c:v>12/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2/13/18</c:v>
+                  <c:v>13/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2/14/18</c:v>
+                  <c:v>14/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2/15/18</c:v>
+                  <c:v>15/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2/16/18</c:v>
+                  <c:v>16/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2/17/18</c:v>
+                  <c:v>17/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2/18/18</c:v>
+                  <c:v>18/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2/19/18</c:v>
+                  <c:v>19/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2/20/18</c:v>
+                  <c:v>20/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2/21/18</c:v>
+                  <c:v>21/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2/22/18</c:v>
+                  <c:v>22/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2/23/18</c:v>
+                  <c:v>23/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2/24/18</c:v>
+                  <c:v>24/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2/25/18</c:v>
+                  <c:v>25/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2/26/18</c:v>
+                  <c:v>26/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2/27/18</c:v>
+                  <c:v>27/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2/28/18</c:v>
+                  <c:v>28/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -5532,88 +5577,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>2/1/18</c:v>
+                  <c:v>01/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2/2/18</c:v>
+                  <c:v>02/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2/3/18</c:v>
+                  <c:v>03/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2/4/18</c:v>
+                  <c:v>04/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2/5/18</c:v>
+                  <c:v>05/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2/6/18</c:v>
+                  <c:v>06/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2/7/18</c:v>
+                  <c:v>07/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2/8/18</c:v>
+                  <c:v>08/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2/9/18</c:v>
+                  <c:v>09/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2/10/18</c:v>
+                  <c:v>10/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2/11/18</c:v>
+                  <c:v>11/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2/12/18</c:v>
+                  <c:v>12/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2/13/18</c:v>
+                  <c:v>13/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2/14/18</c:v>
+                  <c:v>14/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2/15/18</c:v>
+                  <c:v>15/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2/16/18</c:v>
+                  <c:v>16/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2/17/18</c:v>
+                  <c:v>17/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2/18/18</c:v>
+                  <c:v>18/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2/19/18</c:v>
+                  <c:v>19/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2/20/18</c:v>
+                  <c:v>20/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2/21/18</c:v>
+                  <c:v>21/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2/22/18</c:v>
+                  <c:v>22/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2/23/18</c:v>
+                  <c:v>23/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2/24/18</c:v>
+                  <c:v>24/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2/25/18</c:v>
+                  <c:v>25/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2/26/18</c:v>
+                  <c:v>26/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2/27/18</c:v>
+                  <c:v>27/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2/28/18</c:v>
+                  <c:v>28/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -5751,88 +5796,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>2/1/18</c:v>
+                  <c:v>01/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2/2/18</c:v>
+                  <c:v>02/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2/3/18</c:v>
+                  <c:v>03/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2/4/18</c:v>
+                  <c:v>04/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2/5/18</c:v>
+                  <c:v>05/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2/6/18</c:v>
+                  <c:v>06/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2/7/18</c:v>
+                  <c:v>07/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2/8/18</c:v>
+                  <c:v>08/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2/9/18</c:v>
+                  <c:v>09/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2/10/18</c:v>
+                  <c:v>10/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2/11/18</c:v>
+                  <c:v>11/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2/12/18</c:v>
+                  <c:v>12/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2/13/18</c:v>
+                  <c:v>13/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2/14/18</c:v>
+                  <c:v>14/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2/15/18</c:v>
+                  <c:v>15/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2/16/18</c:v>
+                  <c:v>16/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2/17/18</c:v>
+                  <c:v>17/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2/18/18</c:v>
+                  <c:v>18/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2/19/18</c:v>
+                  <c:v>19/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2/20/18</c:v>
+                  <c:v>20/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2/21/18</c:v>
+                  <c:v>21/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2/22/18</c:v>
+                  <c:v>22/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2/23/18</c:v>
+                  <c:v>23/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2/24/18</c:v>
+                  <c:v>24/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2/25/18</c:v>
+                  <c:v>25/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2/26/18</c:v>
+                  <c:v>26/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2/27/18</c:v>
+                  <c:v>27/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2/28/18</c:v>
+                  <c:v>28/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -5970,88 +6015,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>2/1/18</c:v>
+                  <c:v>01/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2/2/18</c:v>
+                  <c:v>02/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2/3/18</c:v>
+                  <c:v>03/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2/4/18</c:v>
+                  <c:v>04/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2/5/18</c:v>
+                  <c:v>05/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2/6/18</c:v>
+                  <c:v>06/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2/7/18</c:v>
+                  <c:v>07/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2/8/18</c:v>
+                  <c:v>08/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2/9/18</c:v>
+                  <c:v>09/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2/10/18</c:v>
+                  <c:v>10/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2/11/18</c:v>
+                  <c:v>11/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2/12/18</c:v>
+                  <c:v>12/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2/13/18</c:v>
+                  <c:v>13/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2/14/18</c:v>
+                  <c:v>14/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2/15/18</c:v>
+                  <c:v>15/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2/16/18</c:v>
+                  <c:v>16/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2/17/18</c:v>
+                  <c:v>17/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2/18/18</c:v>
+                  <c:v>18/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2/19/18</c:v>
+                  <c:v>19/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2/20/18</c:v>
+                  <c:v>20/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2/21/18</c:v>
+                  <c:v>21/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2/22/18</c:v>
+                  <c:v>22/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2/23/18</c:v>
+                  <c:v>23/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2/24/18</c:v>
+                  <c:v>24/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2/25/18</c:v>
+                  <c:v>25/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2/26/18</c:v>
+                  <c:v>26/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2/27/18</c:v>
+                  <c:v>27/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2/28/18</c:v>
+                  <c:v>28/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -6217,7 +6262,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530864560"/>
@@ -6276,7 +6321,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530865104"/>
@@ -6318,7 +6363,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -6357,7 +6402,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6387,7 +6432,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6401,7 +6446,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6473,7 +6518,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6643,7 +6688,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -6873,7 +6918,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -7103,7 +7148,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -7335,7 +7380,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -7567,7 +7612,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -7829,7 +7874,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="302953280"/>
@@ -7888,7 +7933,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="302951104"/>
@@ -7930,7 +7975,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -7969,7 +8014,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7999,7 +8044,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8013,7 +8058,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8085,7 +8130,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8252,7 +8297,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8476,7 +8521,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8700,7 +8745,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8926,7 +8971,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -9152,7 +9197,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -9408,7 +9453,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593585056"/>
@@ -9467,7 +9512,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593573632"/>
@@ -9509,7 +9554,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -9548,7 +9593,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9578,7 +9623,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9592,7 +9637,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9664,7 +9709,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9834,7 +9879,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -10064,7 +10109,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -10294,7 +10339,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -10526,7 +10571,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -10758,7 +10803,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -11020,7 +11065,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593578528"/>
@@ -11079,7 +11124,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593585600"/>
@@ -11121,7 +11166,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -11160,7 +11205,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11190,7 +11235,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11204,7 +11249,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11276,7 +11321,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11473,7 +11518,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -11696,7 +11741,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -11919,7 +11964,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -12144,7 +12189,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -12369,7 +12414,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -12624,7 +12669,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593574720"/>
@@ -12683,7 +12728,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593574176"/>
@@ -12725,7 +12770,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -12764,7 +12809,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12794,7 +12839,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12808,7 +12853,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12880,7 +12925,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12919,7 +12964,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13145,7 +13190,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13371,7 +13416,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13597,7 +13642,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13825,7 +13870,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -14053,7 +14098,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -14280,7 +14325,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -14314,7 +14359,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530867824"/>
@@ -14372,7 +14417,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530869456"/>
@@ -14414,7 +14459,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -14453,7 +14498,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -14483,7 +14528,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -19397,29 +19442,29 @@
   </sheetPr>
   <dimension ref="B1:M245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L237" sqref="L237"/>
+    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L240" sqref="L240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="1"/>
+    <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -19435,7 +19480,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -19453,7 +19498,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -19471,7 +19516,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -19487,13 +19532,13 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="13">
         <f>SUM(C6:C10)</f>
-        <v>1855546</v>
+        <v>1869989</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -19506,17 +19551,17 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="13">
         <f>D15</f>
-        <v>1677456</v>
+        <v>1690999</v>
       </c>
       <c r="D6" s="14">
         <f>C6/C5</f>
-        <v>0.90402285903987289</v>
+        <v>0.90428285941788966</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -19528,17 +19573,17 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="13">
         <f>F15</f>
-        <v>114940</v>
+        <v>115709</v>
       </c>
       <c r="D7" s="14">
         <f>C7/C5</f>
-        <v>6.1944031568066757E-2</v>
+        <v>6.1876834569615118E-2</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -19550,7 +19595,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -19560,7 +19605,7 @@
       </c>
       <c r="D8" s="14">
         <f>C8/C5</f>
-        <v>1.1856348481794577E-5</v>
+        <v>1.1764775086912277E-5</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -19572,17 +19617,17 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="13">
         <f>J15</f>
-        <v>63128</v>
+        <v>63259</v>
       </c>
       <c r="D9" s="14">
         <f>C9/C5</f>
-        <v>3.4021253043578545E-2</v>
+        <v>3.3828541237408347E-2</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -19594,7 +19639,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -19616,13 +19661,13 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="15">
         <f>SUM(C6:C10)</f>
-        <v>1855546</v>
+        <v>1869989</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -19635,7 +19680,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -19649,7 +19694,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -19663,7 +19708,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
@@ -19679,33 +19724,33 @@
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
     </row>
-    <row r="15" spans="2:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="17">
         <f>SUM(Tabla18[Total])</f>
-        <v>1855551.1</v>
+        <v>1869994.07</v>
       </c>
       <c r="D15" s="17">
         <f>SUM(Tabla18[Transactions 
 Complete])</f>
-        <v>1677456</v>
+        <v>1690999</v>
       </c>
       <c r="E15" s="18">
         <f>AVERAGE(Tabla18[%
 Complete])</f>
-        <v>0.87345207398067237</v>
+        <v>0.88610790224378544</v>
       </c>
       <c r="F15" s="17">
         <f>SUM(Tabla18[Transactions 
 Failed])</f>
-        <v>114940</v>
+        <v>115709</v>
       </c>
       <c r="G15" s="18">
         <f>AVERAGE(Tabla18[% 
 Failed])</f>
-        <v>5.0404720572483221E-2</v>
+        <v>5.096839739996116E-2</v>
       </c>
       <c r="H15" s="17">
         <f>SUM(Tabla18[Transactions 
@@ -19720,12 +19765,12 @@
       <c r="J15" s="17">
         <f>SUM(Tabla18[Transactions 
 Timeout])</f>
-        <v>63128</v>
+        <v>63259</v>
       </c>
       <c r="K15" s="18">
         <f>AVERAGE(Tabla18[%
 Timeout])</f>
-        <v>3.1481454752905612E-2</v>
+        <v>3.1654806805171763E-2</v>
       </c>
       <c r="L15" s="17">
         <f>SUM(Tabla18[Transactions
@@ -19738,7 +19783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -19776,7 +19821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17" s="24">
         <v>43101</v>
       </c>
@@ -19824,7 +19869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B18" s="24">
         <v>43102</v>
       </c>
@@ -19872,7 +19917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19" s="24">
         <v>43103</v>
       </c>
@@ -19920,7 +19965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" s="24">
         <v>43104</v>
       </c>
@@ -19968,7 +20013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="24">
         <v>43105</v>
       </c>
@@ -20016,7 +20061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" s="24">
         <v>43106</v>
       </c>
@@ -20064,7 +20109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24">
         <v>43107</v>
       </c>
@@ -20112,7 +20157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B24" s="24">
         <v>43108</v>
       </c>
@@ -20160,7 +20205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B25" s="24">
         <v>43109</v>
       </c>
@@ -20208,7 +20253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" s="24">
         <v>43110</v>
       </c>
@@ -20256,7 +20301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" s="24">
         <v>43111</v>
       </c>
@@ -20304,7 +20349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B28" s="24">
         <v>43112</v>
       </c>
@@ -20352,7 +20397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B29" s="24">
         <v>43113</v>
       </c>
@@ -20400,7 +20445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B30" s="24">
         <v>43114</v>
       </c>
@@ -20448,7 +20493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B31" s="30">
         <v>43115</v>
       </c>
@@ -20496,7 +20541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B32" s="30">
         <v>43116</v>
       </c>
@@ -20544,7 +20589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33" s="30">
         <v>43117</v>
       </c>
@@ -20592,7 +20637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B34" s="30">
         <v>43118</v>
       </c>
@@ -20640,7 +20685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" s="30">
         <v>43119</v>
       </c>
@@ -20688,7 +20733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" s="30">
         <v>43120</v>
       </c>
@@ -20736,7 +20781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" s="30">
         <v>43121</v>
       </c>
@@ -20784,7 +20829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" s="38">
         <v>43122</v>
       </c>
@@ -20832,7 +20877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39" s="38">
         <v>43123</v>
       </c>
@@ -20880,7 +20925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B40" s="38">
         <v>43124</v>
       </c>
@@ -20928,7 +20973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" s="38">
         <v>43125</v>
       </c>
@@ -20976,7 +21021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" s="38">
         <v>43126</v>
       </c>
@@ -21024,7 +21069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" s="38">
         <v>43127</v>
       </c>
@@ -21072,7 +21117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" s="38">
         <v>43128</v>
       </c>
@@ -21120,7 +21165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" s="41">
         <v>43129</v>
       </c>
@@ -21168,7 +21213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46" s="41">
         <v>43130</v>
       </c>
@@ -21216,7 +21261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B47" s="41">
         <v>43131</v>
       </c>
@@ -21264,7 +21309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" s="41">
         <v>43132</v>
       </c>
@@ -21312,7 +21357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B49" s="41">
         <v>43133</v>
       </c>
@@ -21360,7 +21405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B50" s="41">
         <v>43134</v>
       </c>
@@ -21408,7 +21453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B51" s="41">
         <v>43135</v>
       </c>
@@ -21456,7 +21501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B52" s="41">
         <v>43136</v>
       </c>
@@ -21504,7 +21549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B53" s="41">
         <v>43137</v>
       </c>
@@ -21552,7 +21597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B54" s="41">
         <v>43138</v>
       </c>
@@ -21600,7 +21645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B55" s="41">
         <v>43139</v>
       </c>
@@ -21648,7 +21693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B56" s="41">
         <v>43140</v>
       </c>
@@ -21696,7 +21741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B57" s="41">
         <v>43141</v>
       </c>
@@ -21744,7 +21789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B58" s="41">
         <v>43142</v>
       </c>
@@ -21792,7 +21837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B59" s="41">
         <v>43143</v>
       </c>
@@ -21840,7 +21885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B60" s="41">
         <v>43144</v>
       </c>
@@ -21888,7 +21933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B61" s="41">
         <v>43145</v>
       </c>
@@ -21936,7 +21981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B62" s="41">
         <v>43146</v>
       </c>
@@ -21984,7 +22029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B63" s="41">
         <v>43147</v>
       </c>
@@ -22032,7 +22077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B64" s="41">
         <v>43148</v>
       </c>
@@ -22080,7 +22125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B65" s="41">
         <v>43149</v>
       </c>
@@ -22128,7 +22173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B66" s="41">
         <v>43150</v>
       </c>
@@ -22176,7 +22221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B67" s="41">
         <v>43151</v>
       </c>
@@ -22224,7 +22269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B68" s="41">
         <v>43152</v>
       </c>
@@ -22272,7 +22317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B69" s="41">
         <v>43153</v>
       </c>
@@ -22320,7 +22365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B70" s="41">
         <v>43154</v>
       </c>
@@ -22368,7 +22413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B71" s="41">
         <v>43155</v>
       </c>
@@ -22416,7 +22461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B72" s="41">
         <v>43156</v>
       </c>
@@ -22464,7 +22509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B73" s="41">
         <v>43157</v>
       </c>
@@ -22512,7 +22557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B74" s="41">
         <v>43158</v>
       </c>
@@ -22560,7 +22605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B75" s="41">
         <v>43159</v>
       </c>
@@ -22608,7 +22653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B76" s="41">
         <v>43160</v>
       </c>
@@ -22656,7 +22701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B77" s="41">
         <v>43161</v>
       </c>
@@ -22704,7 +22749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B78" s="41">
         <v>43162</v>
       </c>
@@ -22752,7 +22797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B79" s="41">
         <v>43163</v>
       </c>
@@ -22800,7 +22845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B80" s="41">
         <v>43164</v>
       </c>
@@ -22848,7 +22893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B81" s="41">
         <v>43165</v>
       </c>
@@ -22896,7 +22941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B82" s="41">
         <v>43166</v>
       </c>
@@ -22944,7 +22989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B83" s="41">
         <v>43167</v>
       </c>
@@ -22992,7 +23037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B84" s="41">
         <v>43168</v>
       </c>
@@ -23040,7 +23085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B85" s="41">
         <v>43169</v>
       </c>
@@ -23088,7 +23133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B86" s="41">
         <v>43170</v>
       </c>
@@ -23136,7 +23181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B87" s="41">
         <v>43171</v>
       </c>
@@ -23184,7 +23229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B88" s="41">
         <v>43172</v>
       </c>
@@ -23232,7 +23277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B89" s="41">
         <v>43173</v>
       </c>
@@ -23280,7 +23325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B90" s="41">
         <v>43174</v>
       </c>
@@ -23328,7 +23373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B91" s="41">
         <v>43175</v>
       </c>
@@ -23376,7 +23421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B92" s="41">
         <v>43176</v>
       </c>
@@ -23424,7 +23469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B93" s="41">
         <v>43177</v>
       </c>
@@ -23472,7 +23517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B94" s="53">
         <v>43178</v>
       </c>
@@ -23520,7 +23565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B95" s="53">
         <v>43179</v>
       </c>
@@ -23568,7 +23613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B96" s="53">
         <v>43180</v>
       </c>
@@ -23616,7 +23661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B97" s="53">
         <v>43181</v>
       </c>
@@ -23664,7 +23709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B98" s="53">
         <v>43182</v>
       </c>
@@ -23712,7 +23757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B99" s="53">
         <v>43183</v>
       </c>
@@ -23760,7 +23805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B100" s="53">
         <v>43184</v>
       </c>
@@ -23808,7 +23853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B101" s="53">
         <v>43185</v>
       </c>
@@ -23856,7 +23901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B102" s="53">
         <v>43186</v>
       </c>
@@ -23904,7 +23949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B103" s="53">
         <v>43187</v>
       </c>
@@ -23952,7 +23997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B104" s="53">
         <v>43188</v>
       </c>
@@ -24000,7 +24045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B105" s="53">
         <v>43189</v>
       </c>
@@ -24048,7 +24093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B106" s="53">
         <v>43190</v>
       </c>
@@ -24096,7 +24141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B107" s="53">
         <v>43191</v>
       </c>
@@ -24144,7 +24189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B108" s="53">
         <v>43192</v>
       </c>
@@ -24192,7 +24237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B109" s="53">
         <v>43193</v>
       </c>
@@ -24240,7 +24285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B110" s="53">
         <v>43194</v>
       </c>
@@ -24288,7 +24333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B111" s="53">
         <v>43195</v>
       </c>
@@ -24336,7 +24381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B112" s="53">
         <v>43196</v>
       </c>
@@ -24384,7 +24429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B113" s="53">
         <v>43197</v>
       </c>
@@ -24432,7 +24477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B114" s="53">
         <v>43198</v>
       </c>
@@ -24480,7 +24525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B115" s="53">
         <v>43199</v>
       </c>
@@ -24528,7 +24573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B116" s="53">
         <v>43200</v>
       </c>
@@ -24576,7 +24621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B117" s="53">
         <v>43201</v>
       </c>
@@ -24625,7 +24670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B118" s="53">
         <v>43202</v>
       </c>
@@ -24673,7 +24718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B119" s="53">
         <v>43203</v>
       </c>
@@ -24721,7 +24766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B120" s="53">
         <v>43204</v>
       </c>
@@ -24769,7 +24814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B121" s="53">
         <v>43205</v>
       </c>
@@ -24817,7 +24862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B122" s="53">
         <v>43206</v>
       </c>
@@ -24865,7 +24910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B123" s="53">
         <v>43207</v>
       </c>
@@ -24913,7 +24958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B124" s="53">
         <v>43208</v>
       </c>
@@ -24961,7 +25006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B125" s="53">
         <v>43209</v>
       </c>
@@ -25009,7 +25054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B126" s="53">
         <v>43210</v>
       </c>
@@ -25057,7 +25102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B127" s="53">
         <v>43211</v>
       </c>
@@ -25105,7 +25150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B128" s="53">
         <v>43212</v>
       </c>
@@ -25153,7 +25198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B129" s="53">
         <v>43213</v>
       </c>
@@ -25201,7 +25246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B130" s="53">
         <v>43214</v>
       </c>
@@ -25249,7 +25294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B131" s="53">
         <v>43215</v>
       </c>
@@ -25297,7 +25342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B132" s="53">
         <v>43216</v>
       </c>
@@ -25345,7 +25390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B133" s="53">
         <v>43217</v>
       </c>
@@ -25393,7 +25438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B134" s="53">
         <v>43218</v>
       </c>
@@ -25441,7 +25486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B135" s="53">
         <v>43219</v>
       </c>
@@ -25489,7 +25534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B136" s="53">
         <v>43220</v>
       </c>
@@ -25537,7 +25582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B137" s="53">
         <v>43221</v>
       </c>
@@ -25585,7 +25630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B138" s="53">
         <v>43222</v>
       </c>
@@ -25633,7 +25678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B139" s="53">
         <v>43223</v>
       </c>
@@ -25681,7 +25726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B140" s="53">
         <v>43224</v>
       </c>
@@ -25729,7 +25774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B141" s="53">
         <v>43225</v>
       </c>
@@ -25777,7 +25822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B142" s="53">
         <v>43226</v>
       </c>
@@ -25825,7 +25870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B143" s="59">
         <v>43227</v>
       </c>
@@ -25873,7 +25918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B144" s="59">
         <v>43228</v>
       </c>
@@ -25921,7 +25966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B145" s="59">
         <v>43229</v>
       </c>
@@ -25969,7 +26014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B146" s="59">
         <v>43230</v>
       </c>
@@ -26017,7 +26062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B147" s="59">
         <v>43231</v>
       </c>
@@ -26065,7 +26110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B148" s="59">
         <v>43232</v>
       </c>
@@ -26113,7 +26158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B149" s="41">
         <v>43233</v>
       </c>
@@ -26161,7 +26206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B150" s="41">
         <v>43234</v>
       </c>
@@ -26209,7 +26254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B151" s="41">
         <v>43235</v>
       </c>
@@ -26257,7 +26302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B152" s="41">
         <v>43236</v>
       </c>
@@ -26305,7 +26350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B153" s="41">
         <v>43237</v>
       </c>
@@ -26353,7 +26398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B154" s="41">
         <v>43238</v>
       </c>
@@ -26401,7 +26446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B155" s="41">
         <v>43239</v>
       </c>
@@ -26449,7 +26494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B156" s="41">
         <v>43240</v>
       </c>
@@ -26497,7 +26542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B157" s="41">
         <v>43241</v>
       </c>
@@ -26545,7 +26590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B158" s="41">
         <v>43242</v>
       </c>
@@ -26593,7 +26638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B159" s="41">
         <v>43243</v>
       </c>
@@ -26641,7 +26686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B160" s="41">
         <v>43244</v>
       </c>
@@ -26689,7 +26734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B161" s="41">
         <v>43245</v>
       </c>
@@ -26737,7 +26782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B162" s="41">
         <v>43246</v>
       </c>
@@ -26785,7 +26830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B163" s="41">
         <v>43247</v>
       </c>
@@ -26833,7 +26878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B164" s="41">
         <v>43248</v>
       </c>
@@ -26881,7 +26926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B165" s="41">
         <v>43249</v>
       </c>
@@ -26929,7 +26974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B166" s="41">
         <v>43250</v>
       </c>
@@ -26977,7 +27022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B167" s="41">
         <v>43251</v>
       </c>
@@ -27025,7 +27070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B168" s="41">
         <v>43252</v>
       </c>
@@ -27073,7 +27118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B169" s="41">
         <v>43253</v>
       </c>
@@ -27121,7 +27166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B170" s="41">
         <v>43254</v>
       </c>
@@ -27169,7 +27214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B171" s="41">
         <v>43255</v>
       </c>
@@ -27217,7 +27262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B172" s="41">
         <v>43256</v>
       </c>
@@ -27265,7 +27310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B173" s="41">
         <v>43257</v>
       </c>
@@ -27313,7 +27358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B174" s="41">
         <v>43258</v>
       </c>
@@ -27361,7 +27406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B175" s="41">
         <v>43259</v>
       </c>
@@ -27409,7 +27454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B176" s="41">
         <v>43260</v>
       </c>
@@ -27457,7 +27502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B177" s="41">
         <v>43261</v>
       </c>
@@ -27505,7 +27550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B178" s="41">
         <v>43262</v>
       </c>
@@ -27553,7 +27598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B179" s="41">
         <v>43263</v>
       </c>
@@ -27601,7 +27646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B180" s="41">
         <v>43264</v>
       </c>
@@ -27649,7 +27694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B181" s="41">
         <v>43265</v>
       </c>
@@ -27697,7 +27742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B182" s="41">
         <v>43266</v>
       </c>
@@ -27745,7 +27790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B183" s="41">
         <v>43267</v>
       </c>
@@ -27793,7 +27838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B184" s="41">
         <v>43268</v>
       </c>
@@ -27841,7 +27886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B185" s="79">
         <v>43269</v>
       </c>
@@ -27889,7 +27934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B186" s="79">
         <v>43270</v>
       </c>
@@ -27937,7 +27982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B187" s="79">
         <v>43271</v>
       </c>
@@ -27985,7 +28030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B188" s="79">
         <v>43272</v>
       </c>
@@ -28033,7 +28078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B189" s="79">
         <v>43273</v>
       </c>
@@ -28081,7 +28126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B190" s="79">
         <v>43274</v>
       </c>
@@ -28129,7 +28174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B191" s="79">
         <v>43275</v>
       </c>
@@ -28177,7 +28222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B192" s="79">
         <v>43276</v>
       </c>
@@ -28225,7 +28270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B193" s="79">
         <v>43277</v>
       </c>
@@ -28273,7 +28318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B194" s="79">
         <v>43278</v>
       </c>
@@ -28321,7 +28366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B195" s="79">
         <v>43279</v>
       </c>
@@ -28369,7 +28414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B196" s="79">
         <v>43280</v>
       </c>
@@ -28417,7 +28462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B197" s="79">
         <v>43281</v>
       </c>
@@ -28465,7 +28510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B198" s="79">
         <v>43282</v>
       </c>
@@ -28513,7 +28558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B199" s="79">
         <v>43283</v>
       </c>
@@ -28561,7 +28606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B200" s="79">
         <v>43284</v>
       </c>
@@ -28609,7 +28654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B201" s="79">
         <v>43285</v>
       </c>
@@ -28657,7 +28702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B202" s="79">
         <v>43286</v>
       </c>
@@ -28705,7 +28750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B203" s="79">
         <v>43287</v>
       </c>
@@ -28753,7 +28798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B204" s="79">
         <v>43288</v>
       </c>
@@ -28801,7 +28846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B205" s="79">
         <v>43289</v>
       </c>
@@ -28849,7 +28894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B206" s="79">
         <v>43290</v>
       </c>
@@ -28897,7 +28942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B207" s="79">
         <v>43291</v>
       </c>
@@ -28945,7 +28990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B208" s="79">
         <v>43292</v>
       </c>
@@ -28993,7 +29038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B209" s="79">
         <v>43293</v>
       </c>
@@ -29041,7 +29086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B210" s="79">
         <v>43294</v>
       </c>
@@ -29089,7 +29134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B211" s="79">
         <v>43295</v>
       </c>
@@ -29137,7 +29182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B212" s="79">
         <v>43296</v>
       </c>
@@ -29185,7 +29230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B213" s="79">
         <v>43297</v>
       </c>
@@ -29233,7 +29278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B214" s="79">
         <v>43298</v>
       </c>
@@ -29281,7 +29326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B215" s="79">
         <v>43299</v>
       </c>
@@ -29329,7 +29374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B216" s="79">
         <v>43300</v>
       </c>
@@ -29377,7 +29422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B217" s="79">
         <v>43301</v>
       </c>
@@ -29425,7 +29470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B218" s="79">
         <v>43302</v>
       </c>
@@ -29473,7 +29518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B219" s="79">
         <v>43303</v>
       </c>
@@ -29521,7 +29566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B220" s="79">
         <v>43304</v>
       </c>
@@ -29569,7 +29614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B221" s="79">
         <v>43305</v>
       </c>
@@ -29617,7 +29662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B222" s="79">
         <v>43306</v>
       </c>
@@ -29665,7 +29710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B223" s="79">
         <v>43307</v>
       </c>
@@ -29713,7 +29758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B224" s="79">
         <v>43308</v>
       </c>
@@ -29761,7 +29806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B225" s="79">
         <v>43309</v>
       </c>
@@ -29809,7 +29854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B226" s="79">
         <v>43310</v>
       </c>
@@ -29857,7 +29902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B227" s="79">
         <v>43311</v>
       </c>
@@ -29905,7 +29950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B228" s="79">
         <v>43312</v>
       </c>
@@ -29953,7 +29998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B229" s="79">
         <v>43313</v>
       </c>
@@ -30001,7 +30046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B230" s="79">
         <v>43314</v>
       </c>
@@ -30049,7 +30094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B231" s="79">
         <v>43315</v>
       </c>
@@ -30097,7 +30142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B232" s="79">
         <v>43316</v>
       </c>
@@ -30145,7 +30190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B233" s="79">
         <v>43317</v>
       </c>
@@ -30193,7 +30238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B234" s="79">
         <v>43318</v>
       </c>
@@ -30241,7 +30286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B235" s="79">
         <v>43319</v>
       </c>
@@ -30289,7 +30334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B236" s="79">
         <v>43320</v>
       </c>
@@ -30337,7 +30382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B237" s="79">
         <v>43321</v>
       </c>
@@ -30385,143 +30430,173 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B238" s="79">
         <v>43322</v>
       </c>
       <c r="C238" s="120">
-        <v>0.01</v>
-      </c>
-      <c r="D238" s="120"/>
+        <v>8441</v>
+      </c>
+      <c r="D238" s="120">
+        <v>7872</v>
+      </c>
       <c r="E238" s="121">
         <f>Tabla18[Transactions 
 Complete]/Tabla18[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="F238" s="120"/>
+        <v>0.93259092524582399</v>
+      </c>
+      <c r="F238" s="120">
+        <v>524</v>
+      </c>
       <c r="G238" s="121">
         <f>Tabla18[Transactions 
 Failed]/Tabla18[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="H238" s="120"/>
+        <v>6.2077952849188482E-2</v>
+      </c>
+      <c r="H238" s="120">
+        <v>0</v>
+      </c>
       <c r="I238" s="121">
         <f>Tabla18[Transactions 
 In_Prog]/Tabla18[Total]</f>
         <v>0</v>
       </c>
-      <c r="J238" s="120"/>
+      <c r="J238" s="120">
+        <v>45</v>
+      </c>
       <c r="K238" s="121">
         <f>Tabla18[Transactions 
 Timeout]/Tabla18[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="L238" s="120"/>
+        <v>5.3311219049875609E-3</v>
+      </c>
+      <c r="L238" s="120">
+        <v>0</v>
+      </c>
       <c r="M238" s="121">
         <f>Tabla18[Transactions
 Trans Fail]/Tabla18[Total]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B239" s="79">
         <v>43323</v>
       </c>
       <c r="C239" s="120">
-        <v>0.01</v>
-      </c>
-      <c r="D239" s="120"/>
+        <v>4142</v>
+      </c>
+      <c r="D239" s="120">
+        <v>3871</v>
+      </c>
       <c r="E239" s="121">
         <f>Tabla18[Transactions 
 Complete]/Tabla18[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="F239" s="120"/>
+        <v>0.93457267020762913</v>
+      </c>
+      <c r="F239" s="120">
+        <v>228</v>
+      </c>
       <c r="G239" s="121">
         <f>Tabla18[Transactions 
 Failed]/Tabla18[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="H239" s="120"/>
+        <v>5.5045871559633031E-2</v>
+      </c>
+      <c r="H239" s="120">
+        <v>0</v>
+      </c>
       <c r="I239" s="121">
         <f>Tabla18[Transactions 
 In_Prog]/Tabla18[Total]</f>
         <v>0</v>
       </c>
-      <c r="J239" s="120"/>
+      <c r="J239" s="120">
+        <v>43</v>
+      </c>
       <c r="K239" s="121">
         <f>Tabla18[Transactions 
 Timeout]/Tabla18[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="L239" s="120"/>
+        <v>1.0381458232737808E-2</v>
+      </c>
+      <c r="L239" s="120">
+        <v>0</v>
+      </c>
       <c r="M239" s="121">
         <f>Tabla18[Transactions
 Trans Fail]/Tabla18[Total]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B240" s="79">
         <v>43324</v>
       </c>
       <c r="C240" s="120">
-        <v>0.01</v>
-      </c>
-      <c r="D240" s="120"/>
+        <v>1860</v>
+      </c>
+      <c r="D240" s="120">
+        <v>1800</v>
+      </c>
       <c r="E240" s="121">
         <f>Tabla18[Transactions 
 Complete]/Tabla18[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="F240" s="120"/>
+        <v>0.967741935483871</v>
+      </c>
+      <c r="F240" s="120">
+        <v>17</v>
+      </c>
       <c r="G240" s="121">
         <f>Tabla18[Transactions 
 Failed]/Tabla18[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="H240" s="120"/>
+        <v>9.1397849462365593E-3</v>
+      </c>
+      <c r="H240" s="120">
+        <v>0</v>
+      </c>
       <c r="I240" s="121">
         <f>Tabla18[Transactions 
 In_Prog]/Tabla18[Total]</f>
         <v>0</v>
       </c>
-      <c r="J240" s="120"/>
+      <c r="J240" s="120">
+        <v>43</v>
+      </c>
       <c r="K240" s="121">
         <f>Tabla18[Transactions 
 Timeout]/Tabla18[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="L240" s="120"/>
+        <v>2.3118279569892472E-2</v>
+      </c>
+      <c r="L240" s="120">
+        <v>0</v>
+      </c>
       <c r="M240" s="121">
         <f>Tabla18[Transactions
 Trans Fail]/Tabla18[Total]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="2:13" ht="22" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B241" s="29" t="s">
         <v>26</v>
       </c>
       <c r="C241" s="39">
         <f>SUM(C234:C240)</f>
-        <v>43587.030000000006</v>
+        <v>58030</v>
       </c>
       <c r="D241" s="39">
         <f>SUM(D234:D240)</f>
-        <v>41460</v>
+        <v>55003</v>
       </c>
       <c r="E241" s="36">
         <f>AVERAGE(E234:E240)</f>
-        <v>0.53575497142881701</v>
+        <v>0.94074147584843471</v>
       </c>
       <c r="F241" s="39">
         <f>SUM(F234:F240)</f>
-        <v>1716</v>
+        <v>2485</v>
       </c>
       <c r="G241" s="36">
         <f>AVERAGE(G234:G240)</f>
-        <v>2.1971060039641461E-2</v>
+        <v>4.000871851893547E-2</v>
       </c>
       <c r="H241" s="39">
         <f>SUM(H234:H240)</f>
@@ -30533,11 +30608,11 @@
       </c>
       <c r="J241" s="39">
         <f>SUM(J234:J240)</f>
-        <v>411</v>
+        <v>542</v>
       </c>
       <c r="K241" s="36">
         <f>AVERAGE(K234:K240)</f>
-        <v>1.3702539960112992E-2</v>
+        <v>1.9249805632629829E-2</v>
       </c>
       <c r="L241" s="39">
         <f>SUM(L234:L240)</f>
@@ -30548,16 +30623,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E242" s="26"/>
     </row>
-    <row r="243" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E243" s="26"/>
     </row>
-    <row r="244" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E244" s="26"/>
     </row>
-    <row r="245" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E245" s="26"/>
     </row>
   </sheetData>
@@ -30581,12 +30656,12 @@
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="44">
         <v>43101</v>
       </c>
@@ -30624,7 +30699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="47">
         <v>43102</v>
       </c>
@@ -30662,7 +30737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="44">
         <v>43103</v>
       </c>
@@ -30700,7 +30775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="47">
         <v>43104</v>
       </c>
@@ -30738,7 +30813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="44">
         <v>43105</v>
       </c>
@@ -30776,7 +30851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="47">
         <v>43106</v>
       </c>
@@ -30814,7 +30889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="44">
         <v>43107</v>
       </c>
@@ -30852,7 +30927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="47">
         <v>43108</v>
       </c>
@@ -30890,7 +30965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="44">
         <v>43109</v>
       </c>
@@ -30928,7 +31003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="47">
         <v>43110</v>
       </c>
@@ -30966,7 +31041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="44">
         <v>43111</v>
       </c>
@@ -31004,7 +31079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="47">
         <v>43112</v>
       </c>
@@ -31042,7 +31117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="44">
         <v>43113</v>
       </c>
@@ -31080,7 +31155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="47">
         <v>43114</v>
       </c>
@@ -31118,7 +31193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="44">
         <v>43115</v>
       </c>
@@ -31156,7 +31231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="47">
         <v>43116</v>
       </c>
@@ -31194,7 +31269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="44">
         <v>43117</v>
       </c>
@@ -31232,7 +31307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="47">
         <v>43118</v>
       </c>
@@ -31270,7 +31345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="44">
         <v>43119</v>
       </c>
@@ -31308,7 +31383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="47">
         <v>43120</v>
       </c>
@@ -31346,7 +31421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="44">
         <v>43121</v>
       </c>
@@ -31384,7 +31459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="47">
         <v>43122</v>
       </c>
@@ -31422,7 +31497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="44">
         <v>43123</v>
       </c>
@@ -31460,7 +31535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="47">
         <v>43124</v>
       </c>
@@ -31498,7 +31573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="44">
         <v>43125</v>
       </c>
@@ -31536,7 +31611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="47">
         <v>43126</v>
       </c>
@@ -31574,7 +31649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="44">
         <v>43127</v>
       </c>
@@ -31612,7 +31687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="47">
         <v>43128</v>
       </c>
@@ -31650,7 +31725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="44">
         <v>43129</v>
       </c>
@@ -31688,7 +31763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="47">
         <v>43130</v>
       </c>
@@ -31726,7 +31801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="44">
         <v>43131</v>
       </c>
@@ -31764,7 +31839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B32" s="48">
         <f>SUM(B1:B31)</f>
         <v>272552</v>
@@ -31827,25 +31902,25 @@
       <selection activeCell="B15" sqref="B15:M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="33"/>
+    <col min="14" max="16384" width="11.44140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -31861,7 +31936,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -31879,7 +31954,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -31897,7 +31972,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -31913,7 +31988,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -31932,7 +32007,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -31954,7 +32029,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
@@ -31976,7 +32051,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -31998,7 +32073,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -32020,7 +32095,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -32042,7 +32117,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -32061,7 +32136,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -32075,7 +32150,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -32089,7 +32164,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
@@ -32105,7 +32180,7 @@
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
     </row>
-    <row r="15" spans="2:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
@@ -32154,7 +32229,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -32192,7 +32267,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="41">
         <v>43132</v>
       </c>
@@ -32235,7 +32310,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="41">
         <v>43133</v>
       </c>
@@ -32278,7 +32353,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="41">
         <v>43134</v>
       </c>
@@ -32321,7 +32396,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="41">
         <v>43135</v>
       </c>
@@ -32364,7 +32439,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="41">
         <v>43136</v>
       </c>
@@ -32407,7 +32482,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="41">
         <v>43137</v>
       </c>
@@ -32450,7 +32525,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="41">
         <v>43138</v>
       </c>
@@ -32493,7 +32568,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="41">
         <v>43139</v>
       </c>
@@ -32536,7 +32611,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="41">
         <v>43140</v>
       </c>
@@ -32579,7 +32654,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="41">
         <v>43141</v>
       </c>
@@ -32622,7 +32697,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="41">
         <v>43142</v>
       </c>
@@ -32665,7 +32740,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="41">
         <v>43143</v>
       </c>
@@ -32708,7 +32783,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="41">
         <v>43144</v>
       </c>
@@ -32751,7 +32826,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="41">
         <v>43145</v>
       </c>
@@ -32794,7 +32869,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="41">
         <v>43146</v>
       </c>
@@ -32837,7 +32912,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="41">
         <v>43147</v>
       </c>
@@ -32880,7 +32955,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="41">
         <v>43148</v>
       </c>
@@ -32923,7 +32998,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="41">
         <v>43149</v>
       </c>
@@ -32966,7 +33041,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="41">
         <v>43150</v>
       </c>
@@ -33009,7 +33084,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="41">
         <v>43151</v>
       </c>
@@ -33052,7 +33127,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="41">
         <v>43152</v>
       </c>
@@ -33095,7 +33170,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="41">
         <v>43153</v>
       </c>
@@ -33138,7 +33213,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="41">
         <v>43154</v>
       </c>
@@ -33181,7 +33256,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="41">
         <v>43155</v>
       </c>
@@ -33224,7 +33299,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="41">
         <v>43156</v>
       </c>
@@ -33267,7 +33342,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="41">
         <v>43157</v>
       </c>
@@ -33310,7 +33385,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="41">
         <v>43158</v>
       </c>
@@ -33353,7 +33428,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="41">
         <v>43159</v>
       </c>
@@ -33396,7 +33471,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B45" s="29" t="s">
         <v>26</v>
       </c>
@@ -33445,16 +33520,16 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E46" s="26"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E47" s="26"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E48" s="26"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E49" s="26"/>
     </row>
   </sheetData>
@@ -33481,25 +33556,25 @@
       <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="33"/>
+    <col min="14" max="16384" width="11.44140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -33515,7 +33590,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -33533,7 +33608,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -33551,7 +33626,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -33567,7 +33642,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -33586,7 +33661,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -33608,7 +33683,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
@@ -33630,7 +33705,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -33652,7 +33727,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -33674,7 +33749,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -33696,7 +33771,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -33715,7 +33790,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -33729,7 +33804,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -33743,7 +33818,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
@@ -33759,7 +33834,7 @@
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
     </row>
-    <row r="15" spans="2:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
@@ -33808,7 +33883,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -33846,7 +33921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="41">
         <v>43160</v>
       </c>
@@ -33889,7 +33964,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="41">
         <v>43161</v>
       </c>
@@ -33932,7 +34007,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="41">
         <v>43162</v>
       </c>
@@ -33975,7 +34050,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="41">
         <v>43163</v>
       </c>
@@ -34018,7 +34093,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="41">
         <v>43164</v>
       </c>
@@ -34061,7 +34136,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="41">
         <v>43165</v>
       </c>
@@ -34104,7 +34179,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="41">
         <v>43166</v>
       </c>
@@ -34147,7 +34222,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="41">
         <v>43167</v>
       </c>
@@ -34190,7 +34265,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="41">
         <v>43168</v>
       </c>
@@ -34233,7 +34308,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="41">
         <v>43169</v>
       </c>
@@ -34276,7 +34351,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="41">
         <v>43170</v>
       </c>
@@ -34319,7 +34394,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="41">
         <v>43171</v>
       </c>
@@ -34362,7 +34437,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="41">
         <v>43172</v>
       </c>
@@ -34405,7 +34480,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="41">
         <v>43173</v>
       </c>
@@ -34448,7 +34523,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="41">
         <v>43174</v>
       </c>
@@ -34491,7 +34566,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="41">
         <v>43175</v>
       </c>
@@ -34534,7 +34609,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="41">
         <v>43176</v>
       </c>
@@ -34577,7 +34652,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="41">
         <v>43177</v>
       </c>
@@ -34620,7 +34695,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="53">
         <v>43178</v>
       </c>
@@ -34663,7 +34738,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="53">
         <v>43179</v>
       </c>
@@ -34706,7 +34781,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="53">
         <v>43180</v>
       </c>
@@ -34749,7 +34824,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="53">
         <v>43181</v>
       </c>
@@ -34792,7 +34867,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="53">
         <v>43182</v>
       </c>
@@ -34835,7 +34910,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="53">
         <v>43183</v>
       </c>
@@ -34878,7 +34953,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="53">
         <v>43184</v>
       </c>
@@ -34921,7 +34996,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="53">
         <v>43185</v>
       </c>
@@ -34964,7 +35039,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="53">
         <v>43186</v>
       </c>
@@ -35007,7 +35082,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="53">
         <v>43187</v>
       </c>
@@ -35050,7 +35125,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="53">
         <v>43188</v>
       </c>
@@ -35093,7 +35168,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="53">
         <v>43189</v>
       </c>
@@ -35136,7 +35211,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="53">
         <v>43190</v>
       </c>
@@ -35179,7 +35254,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B48" s="54" t="s">
         <v>26</v>
       </c>
@@ -35228,16 +35303,16 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E49" s="26"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E51" s="26"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E52" s="26"/>
     </row>
   </sheetData>
@@ -35264,25 +35339,25 @@
       <selection activeCell="B17" sqref="B17:M47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="33"/>
+    <col min="14" max="16384" width="11.44140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -35298,7 +35373,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -35316,7 +35391,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -35334,7 +35409,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -35350,7 +35425,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -35369,7 +35444,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -35391,7 +35466,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
@@ -35413,7 +35488,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -35435,7 +35510,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -35457,7 +35532,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -35479,7 +35554,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -35498,7 +35573,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -35512,7 +35587,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -35526,7 +35601,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
@@ -35542,7 +35617,7 @@
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
     </row>
-    <row r="15" spans="2:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
@@ -35591,7 +35666,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -35629,7 +35704,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="53">
         <v>43191</v>
       </c>
@@ -35672,7 +35747,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="53">
         <v>43192</v>
       </c>
@@ -35715,7 +35790,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="53">
         <v>43193</v>
       </c>
@@ -35758,7 +35833,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="53">
         <v>43194</v>
       </c>
@@ -35801,7 +35876,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="53">
         <v>43195</v>
       </c>
@@ -35844,7 +35919,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="53">
         <v>43196</v>
       </c>
@@ -35887,7 +35962,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="53">
         <v>43197</v>
       </c>
@@ -35930,7 +36005,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="53">
         <v>43198</v>
       </c>
@@ -35973,7 +36048,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="53">
         <v>43199</v>
       </c>
@@ -36016,7 +36091,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="53">
         <v>43200</v>
       </c>
@@ -36059,7 +36134,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="53">
         <v>43201</v>
       </c>
@@ -36103,7 +36178,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="53">
         <v>43202</v>
       </c>
@@ -36146,7 +36221,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="53">
         <v>43203</v>
       </c>
@@ -36189,7 +36264,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="53">
         <v>43204</v>
       </c>
@@ -36232,7 +36307,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="53">
         <v>43205</v>
       </c>
@@ -36275,7 +36350,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="53">
         <v>43206</v>
       </c>
@@ -36318,7 +36393,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="53">
         <v>43207</v>
       </c>
@@ -36361,7 +36436,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="53">
         <v>43208</v>
       </c>
@@ -36404,7 +36479,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="53">
         <v>43209</v>
       </c>
@@ -36447,7 +36522,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="53">
         <v>43210</v>
       </c>
@@ -36490,7 +36565,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="53">
         <v>43211</v>
       </c>
@@ -36533,7 +36608,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="53">
         <v>43212</v>
       </c>
@@ -36576,7 +36651,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="53">
         <v>43213</v>
       </c>
@@ -36619,7 +36694,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="53">
         <v>43214</v>
       </c>
@@ -36662,7 +36737,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="53">
         <v>43215</v>
       </c>
@@ -36705,7 +36780,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="53">
         <v>43216</v>
       </c>
@@ -36748,7 +36823,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="53">
         <v>43217</v>
       </c>
@@ -36791,7 +36866,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="53">
         <v>43218</v>
       </c>
@@ -36834,7 +36909,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="53">
         <v>43219</v>
       </c>
@@ -36877,7 +36952,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="53">
         <v>43220</v>
       </c>
@@ -36920,7 +36995,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B47" s="54" t="s">
         <v>26</v>
       </c>
@@ -36969,16 +37044,16 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E48" s="26"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E49" s="26"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E51" s="26"/>
     </row>
   </sheetData>
@@ -37005,25 +37080,25 @@
       <selection activeCell="B17" sqref="B17:M48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="33"/>
+    <col min="14" max="16384" width="11.44140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -37039,7 +37114,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -37057,7 +37132,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -37075,7 +37150,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -37091,7 +37166,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -37110,7 +37185,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -37132,7 +37207,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
@@ -37154,7 +37229,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -37176,7 +37251,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -37198,7 +37273,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -37220,7 +37295,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -37239,7 +37314,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -37253,7 +37328,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -37267,7 +37342,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
@@ -37283,7 +37358,7 @@
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
     </row>
-    <row r="15" spans="2:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
@@ -37332,7 +37407,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -37370,7 +37445,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="53">
         <v>43221</v>
       </c>
@@ -37413,7 +37488,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="53">
         <v>43222</v>
       </c>
@@ -37456,7 +37531,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="53">
         <v>43223</v>
       </c>
@@ -37499,7 +37574,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="53">
         <v>43224</v>
       </c>
@@ -37542,7 +37617,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="53">
         <v>43225</v>
       </c>
@@ -37585,7 +37660,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="53">
         <v>43226</v>
       </c>
@@ -37628,7 +37703,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="59">
         <v>43227</v>
       </c>
@@ -37671,7 +37746,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="59">
         <v>43228</v>
       </c>
@@ -37714,7 +37789,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="59">
         <v>43229</v>
       </c>
@@ -37757,7 +37832,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="59">
         <v>43230</v>
       </c>
@@ -37800,7 +37875,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="59">
         <v>43231</v>
       </c>
@@ -37843,7 +37918,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="59">
         <v>43232</v>
       </c>
@@ -37886,7 +37961,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="41">
         <v>43233</v>
       </c>
@@ -37929,7 +38004,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="41">
         <v>43234</v>
       </c>
@@ -37972,7 +38047,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="41">
         <v>43235</v>
       </c>
@@ -38015,7 +38090,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="41">
         <v>43236</v>
       </c>
@@ -38058,7 +38133,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="41">
         <v>43237</v>
       </c>
@@ -38101,7 +38176,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="41">
         <v>43238</v>
       </c>
@@ -38144,7 +38219,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="41">
         <v>43239</v>
       </c>
@@ -38187,7 +38262,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="41">
         <v>43240</v>
       </c>
@@ -38230,7 +38305,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="41">
         <v>43241</v>
       </c>
@@ -38273,7 +38348,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="41">
         <v>43242</v>
       </c>
@@ -38316,7 +38391,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="41">
         <v>43243</v>
       </c>
@@ -38359,7 +38434,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="41">
         <v>43244</v>
       </c>
@@ -38402,7 +38477,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="41">
         <v>43245</v>
       </c>
@@ -38445,7 +38520,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="41">
         <v>43246</v>
       </c>
@@ -38488,7 +38563,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="41">
         <v>43247</v>
       </c>
@@ -38531,7 +38606,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="41">
         <v>43248</v>
       </c>
@@ -38574,7 +38649,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="41">
         <v>43249</v>
       </c>
@@ -38617,7 +38692,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="41">
         <v>43250</v>
       </c>
@@ -38660,7 +38735,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="41">
         <v>43251</v>
       </c>
@@ -38703,7 +38778,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B48" s="56" t="s">
         <v>26</v>
       </c>
@@ -38752,16 +38827,16 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E49" s="26"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E51" s="26"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E52" s="26"/>
     </row>
   </sheetData>
@@ -38788,25 +38863,25 @@
       <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="33"/>
+    <col min="14" max="16384" width="11.44140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -38822,7 +38897,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -38840,7 +38915,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -38858,7 +38933,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -38874,7 +38949,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -38893,7 +38968,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -38915,7 +38990,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
@@ -38937,7 +39012,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -38959,7 +39034,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -38981,7 +39056,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -39003,7 +39078,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -39022,7 +39097,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -39036,7 +39111,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -39050,7 +39125,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
@@ -39066,7 +39141,7 @@
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
     </row>
-    <row r="15" spans="2:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
@@ -39125,7 +39200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -39163,7 +39238,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="79">
         <v>43252</v>
       </c>
@@ -39211,7 +39286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="79">
         <v>43253</v>
       </c>
@@ -39259,7 +39334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="79">
         <v>43254</v>
       </c>
@@ -39307,7 +39382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="79">
         <v>43255</v>
       </c>
@@ -39355,7 +39430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="79">
         <v>43256</v>
       </c>
@@ -39403,7 +39478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="79">
         <v>43257</v>
       </c>
@@ -39451,7 +39526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="79">
         <v>43258</v>
       </c>
@@ -39499,7 +39574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="79">
         <v>43259</v>
       </c>
@@ -39547,7 +39622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="79">
         <v>43260</v>
       </c>
@@ -39595,7 +39670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="79">
         <v>43261</v>
       </c>
@@ -39643,7 +39718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="79">
         <v>43262</v>
       </c>
@@ -39691,7 +39766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="79">
         <v>43263</v>
       </c>
@@ -39739,7 +39814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="79">
         <v>43264</v>
       </c>
@@ -39787,7 +39862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="79">
         <v>43265</v>
       </c>
@@ -39835,7 +39910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="79">
         <v>43266</v>
       </c>
@@ -39883,7 +39958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="79">
         <v>43267</v>
       </c>
@@ -39931,7 +40006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="79">
         <v>43268</v>
       </c>
@@ -39979,7 +40054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="79">
         <v>43269</v>
       </c>
@@ -40027,7 +40102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="79">
         <v>43270</v>
       </c>
@@ -40075,7 +40150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="79">
         <v>43271</v>
       </c>
@@ -40123,7 +40198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="79">
         <v>43272</v>
       </c>
@@ -40171,7 +40246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="79">
         <v>43273</v>
       </c>
@@ -40219,7 +40294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="79">
         <v>43274</v>
       </c>
@@ -40267,7 +40342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="79">
         <v>43275</v>
       </c>
@@ -40315,7 +40390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="79">
         <v>43276</v>
       </c>
@@ -40363,7 +40438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="79">
         <v>43277</v>
       </c>
@@ -40411,7 +40486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="79">
         <v>43278</v>
       </c>
@@ -40459,7 +40534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="79">
         <v>43279</v>
       </c>
@@ -40507,7 +40582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="79">
         <v>43280</v>
       </c>
@@ -40555,7 +40630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="79">
         <v>43281</v>
       </c>
@@ -40603,7 +40678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B47" s="62" t="s">
         <v>26</v>
       </c>
@@ -40652,16 +40727,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E48" s="26"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E49" s="26"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E51" s="26"/>
     </row>
   </sheetData>
@@ -40685,9 +40760,9 @@
       <selection activeCell="A2" sqref="A2:L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="114">
         <v>43282</v>
       </c>
@@ -40725,7 +40800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="110">
         <v>43283</v>
       </c>
@@ -40763,7 +40838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="114">
         <v>43284</v>
       </c>
@@ -40801,7 +40876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="110">
         <v>43285</v>
       </c>
@@ -40839,7 +40914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="114">
         <v>43286</v>
       </c>
@@ -40877,7 +40952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="110">
         <v>43287</v>
       </c>
@@ -40915,7 +40990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="114">
         <v>43288</v>
       </c>
@@ -40953,7 +41028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="110">
         <v>43289</v>
       </c>
@@ -40991,7 +41066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="114">
         <v>43290</v>
       </c>
@@ -41029,7 +41104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="110">
         <v>43291</v>
       </c>
@@ -41067,7 +41142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="114">
         <v>43292</v>
       </c>
@@ -41105,7 +41180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="110">
         <v>43293</v>
       </c>
@@ -41143,7 +41218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="114">
         <v>43294</v>
       </c>
@@ -41181,7 +41256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="110">
         <v>43295</v>
       </c>
@@ -41219,7 +41294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="114">
         <v>43296</v>
       </c>
@@ -41257,7 +41332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="110">
         <v>43297</v>
       </c>
@@ -41295,7 +41370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="114">
         <v>43298</v>
       </c>
@@ -41333,7 +41408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="110">
         <v>43299</v>
       </c>
@@ -41371,7 +41446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="114">
         <v>43300</v>
       </c>
@@ -41409,7 +41484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="110">
         <v>43301</v>
       </c>
@@ -41447,7 +41522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="114">
         <v>43302</v>
       </c>
@@ -41485,7 +41560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="110">
         <v>43303</v>
       </c>
@@ -41523,7 +41598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="114">
         <v>43304</v>
       </c>
@@ -41561,7 +41636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="110">
         <v>43305</v>
       </c>
@@ -41599,7 +41674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="114">
         <v>43306</v>
       </c>
@@ -41637,7 +41712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="110">
         <v>43307</v>
       </c>
@@ -41675,7 +41750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="114">
         <v>43308</v>
       </c>
@@ -41713,7 +41788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="110">
         <v>43309</v>
       </c>
@@ -41751,7 +41826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="114">
         <v>43310</v>
       </c>
@@ -41789,7 +41864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="110">
         <v>43311</v>
       </c>
@@ -41827,7 +41902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="114">
         <v>43312</v>
       </c>
@@ -41865,7 +41940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="23" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="21" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A33" s="116" t="s">
         <v>27</v>
       </c>

--- a/INTE-Performance-JAMU-2018.xlsx
+++ b/INTE-Performance-JAMU-2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Lopez\Desktop\ASAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirnazertuche/Desktop/ASAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7764FE4E-D06F-43BE-99FC-9C52BB908F32}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119A7FF2-7A90-954C-A92D-D0374DAB046B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="84" yWindow="456" windowWidth="25596" windowHeight="14436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="1720" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAMUPerformance" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,14 @@
     <sheet name="06" sheetId="7" r:id="rId7"/>
     <sheet name="07" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -143,7 +150,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
@@ -559,13 +566,13 @@
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -616,7 +623,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="4" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -655,7 +662,7 @@
     <xf numFmtId="10" fontId="14" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -726,13 +733,13 @@
     <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -750,7 +757,7 @@
     <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="19" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -912,7 +919,7 @@
     <xf numFmtId="3" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="28" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="28" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -935,15 +942,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="40% - Énfasis5" xfId="4" builtinId="47"/>
-    <cellStyle name="60% - Énfasis5" xfId="5" builtinId="48"/>
+    <cellStyle name="40% - Accent5" xfId="4" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
     <cellStyle name="60% - Énfasis6 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Énfasis5" xfId="3" builtinId="45"/>
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Accent5" xfId="3" builtinId="45"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Millares 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="Total" xfId="9" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="164">
@@ -1214,7 +1221,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1687,7 +1694,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1712,7 +1719,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2230,7 +2237,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2255,7 +2262,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2773,7 +2780,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2798,7 +2805,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3316,7 +3323,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3341,7 +3348,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3859,7 +3866,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3884,7 +3891,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4163,7 +4170,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4260,7 +4267,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4332,7 +4339,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4369,30 +4376,30 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>JAMUPerformance!$C$234:$C$240</c:f>
+              <c:f>JAMUPerformance!$C$241:$C$247</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2661</c:v>
+                  <c:v>8353</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17841</c:v>
+                  <c:v>11435</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12515</c:v>
+                  <c:v>14747</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10570</c:v>
+                  <c:v>11675</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8441</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4142</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1860</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4421,30 +4428,21 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>JAMUPerformance!$D$234:$D$240</c:f>
+              <c:f>JAMUPerformance!$D$241:$D$247</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2357</c:v>
+                  <c:v>7784</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17087</c:v>
+                  <c:v>10889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11976</c:v>
+                  <c:v>13769</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10040</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7872</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3871</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1800</c:v>
+                  <c:v>11194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4473,30 +4471,21 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>JAMUPerformance!$F$234:$F$240</c:f>
+              <c:f>JAMUPerformance!$F$241:$F$247</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>85</c:v>
+                  <c:v>526</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>654</c:v>
+                  <c:v>503</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>492</c:v>
+                  <c:v>930</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>485</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>524</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>228</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4525,7 +4514,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>JAMUPerformance!$H$234:$H$240</c:f>
+              <c:f>JAMUPerformance!$H$241:$H$247</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4539,15 +4528,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4579,30 +4559,21 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>JAMUPerformance!$J$234:$J$240</c:f>
+              <c:f>JAMUPerformance!$J$241:$J$247</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>219</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4633,7 +4604,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>JAMUPerformance!$L$234:$L$240</c:f>
+              <c:f>JAMUPerformance!$L$241:$L$247</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4647,15 +4618,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4722,7 +4684,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530867824"/>
@@ -4781,7 +4743,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530869456"/>
@@ -4823,7 +4785,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -4862,7 +4824,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4892,7 +4854,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4906,7 +4868,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4978,7 +4940,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5143,88 +5105,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>01/02/2018</c:v>
+                  <c:v>2/1/18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02/02/2018</c:v>
+                  <c:v>2/2/18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>03/02/2018</c:v>
+                  <c:v>2/3/18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/02/2018</c:v>
+                  <c:v>2/4/18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/02/2018</c:v>
+                  <c:v>2/5/18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>06/02/2018</c:v>
+                  <c:v>2/6/18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>07/02/2018</c:v>
+                  <c:v>2/7/18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>08/02/2018</c:v>
+                  <c:v>2/8/18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>09/02/2018</c:v>
+                  <c:v>2/9/18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10/02/2018</c:v>
+                  <c:v>2/10/18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11/02/2018</c:v>
+                  <c:v>2/11/18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12/02/2018</c:v>
+                  <c:v>2/12/18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13/02/2018</c:v>
+                  <c:v>2/13/18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14/02/2018</c:v>
+                  <c:v>2/14/18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15/02/2018</c:v>
+                  <c:v>2/15/18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16/02/2018</c:v>
+                  <c:v>2/16/18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17/02/2018</c:v>
+                  <c:v>2/17/18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18/02/2018</c:v>
+                  <c:v>2/18/18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19/02/2018</c:v>
+                  <c:v>2/19/18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20/02/2018</c:v>
+                  <c:v>2/20/18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21/02/2018</c:v>
+                  <c:v>2/21/18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22/02/2018</c:v>
+                  <c:v>2/22/18</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23/02/2018</c:v>
+                  <c:v>2/23/18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24/02/2018</c:v>
+                  <c:v>2/24/18</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25/02/2018</c:v>
+                  <c:v>2/25/18</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26/02/2018</c:v>
+                  <c:v>2/26/18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27/02/2018</c:v>
+                  <c:v>2/27/18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28/02/2018</c:v>
+                  <c:v>2/28/18</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -5360,88 +5322,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>01/02/2018</c:v>
+                  <c:v>2/1/18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02/02/2018</c:v>
+                  <c:v>2/2/18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>03/02/2018</c:v>
+                  <c:v>2/3/18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/02/2018</c:v>
+                  <c:v>2/4/18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/02/2018</c:v>
+                  <c:v>2/5/18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>06/02/2018</c:v>
+                  <c:v>2/6/18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>07/02/2018</c:v>
+                  <c:v>2/7/18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>08/02/2018</c:v>
+                  <c:v>2/8/18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>09/02/2018</c:v>
+                  <c:v>2/9/18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10/02/2018</c:v>
+                  <c:v>2/10/18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11/02/2018</c:v>
+                  <c:v>2/11/18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12/02/2018</c:v>
+                  <c:v>2/12/18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13/02/2018</c:v>
+                  <c:v>2/13/18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14/02/2018</c:v>
+                  <c:v>2/14/18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15/02/2018</c:v>
+                  <c:v>2/15/18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16/02/2018</c:v>
+                  <c:v>2/16/18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17/02/2018</c:v>
+                  <c:v>2/17/18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18/02/2018</c:v>
+                  <c:v>2/18/18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19/02/2018</c:v>
+                  <c:v>2/19/18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20/02/2018</c:v>
+                  <c:v>2/20/18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21/02/2018</c:v>
+                  <c:v>2/21/18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22/02/2018</c:v>
+                  <c:v>2/22/18</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23/02/2018</c:v>
+                  <c:v>2/23/18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24/02/2018</c:v>
+                  <c:v>2/24/18</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25/02/2018</c:v>
+                  <c:v>2/25/18</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26/02/2018</c:v>
+                  <c:v>2/26/18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27/02/2018</c:v>
+                  <c:v>2/27/18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28/02/2018</c:v>
+                  <c:v>2/28/18</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -5577,88 +5539,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>01/02/2018</c:v>
+                  <c:v>2/1/18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02/02/2018</c:v>
+                  <c:v>2/2/18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>03/02/2018</c:v>
+                  <c:v>2/3/18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/02/2018</c:v>
+                  <c:v>2/4/18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/02/2018</c:v>
+                  <c:v>2/5/18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>06/02/2018</c:v>
+                  <c:v>2/6/18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>07/02/2018</c:v>
+                  <c:v>2/7/18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>08/02/2018</c:v>
+                  <c:v>2/8/18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>09/02/2018</c:v>
+                  <c:v>2/9/18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10/02/2018</c:v>
+                  <c:v>2/10/18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11/02/2018</c:v>
+                  <c:v>2/11/18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12/02/2018</c:v>
+                  <c:v>2/12/18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13/02/2018</c:v>
+                  <c:v>2/13/18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14/02/2018</c:v>
+                  <c:v>2/14/18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15/02/2018</c:v>
+                  <c:v>2/15/18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16/02/2018</c:v>
+                  <c:v>2/16/18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17/02/2018</c:v>
+                  <c:v>2/17/18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18/02/2018</c:v>
+                  <c:v>2/18/18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19/02/2018</c:v>
+                  <c:v>2/19/18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20/02/2018</c:v>
+                  <c:v>2/20/18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21/02/2018</c:v>
+                  <c:v>2/21/18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22/02/2018</c:v>
+                  <c:v>2/22/18</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23/02/2018</c:v>
+                  <c:v>2/23/18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24/02/2018</c:v>
+                  <c:v>2/24/18</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25/02/2018</c:v>
+                  <c:v>2/25/18</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26/02/2018</c:v>
+                  <c:v>2/26/18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27/02/2018</c:v>
+                  <c:v>2/27/18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28/02/2018</c:v>
+                  <c:v>2/28/18</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -5796,88 +5758,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>01/02/2018</c:v>
+                  <c:v>2/1/18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02/02/2018</c:v>
+                  <c:v>2/2/18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>03/02/2018</c:v>
+                  <c:v>2/3/18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/02/2018</c:v>
+                  <c:v>2/4/18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/02/2018</c:v>
+                  <c:v>2/5/18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>06/02/2018</c:v>
+                  <c:v>2/6/18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>07/02/2018</c:v>
+                  <c:v>2/7/18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>08/02/2018</c:v>
+                  <c:v>2/8/18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>09/02/2018</c:v>
+                  <c:v>2/9/18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10/02/2018</c:v>
+                  <c:v>2/10/18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11/02/2018</c:v>
+                  <c:v>2/11/18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12/02/2018</c:v>
+                  <c:v>2/12/18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13/02/2018</c:v>
+                  <c:v>2/13/18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14/02/2018</c:v>
+                  <c:v>2/14/18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15/02/2018</c:v>
+                  <c:v>2/15/18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16/02/2018</c:v>
+                  <c:v>2/16/18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17/02/2018</c:v>
+                  <c:v>2/17/18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18/02/2018</c:v>
+                  <c:v>2/18/18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19/02/2018</c:v>
+                  <c:v>2/19/18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20/02/2018</c:v>
+                  <c:v>2/20/18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21/02/2018</c:v>
+                  <c:v>2/21/18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22/02/2018</c:v>
+                  <c:v>2/22/18</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23/02/2018</c:v>
+                  <c:v>2/23/18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24/02/2018</c:v>
+                  <c:v>2/24/18</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25/02/2018</c:v>
+                  <c:v>2/25/18</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26/02/2018</c:v>
+                  <c:v>2/26/18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27/02/2018</c:v>
+                  <c:v>2/27/18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28/02/2018</c:v>
+                  <c:v>2/28/18</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -6015,88 +5977,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>01/02/2018</c:v>
+                  <c:v>2/1/18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02/02/2018</c:v>
+                  <c:v>2/2/18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>03/02/2018</c:v>
+                  <c:v>2/3/18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/02/2018</c:v>
+                  <c:v>2/4/18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/02/2018</c:v>
+                  <c:v>2/5/18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>06/02/2018</c:v>
+                  <c:v>2/6/18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>07/02/2018</c:v>
+                  <c:v>2/7/18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>08/02/2018</c:v>
+                  <c:v>2/8/18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>09/02/2018</c:v>
+                  <c:v>2/9/18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10/02/2018</c:v>
+                  <c:v>2/10/18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11/02/2018</c:v>
+                  <c:v>2/11/18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12/02/2018</c:v>
+                  <c:v>2/12/18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13/02/2018</c:v>
+                  <c:v>2/13/18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14/02/2018</c:v>
+                  <c:v>2/14/18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15/02/2018</c:v>
+                  <c:v>2/15/18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16/02/2018</c:v>
+                  <c:v>2/16/18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17/02/2018</c:v>
+                  <c:v>2/17/18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18/02/2018</c:v>
+                  <c:v>2/18/18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19/02/2018</c:v>
+                  <c:v>2/19/18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20/02/2018</c:v>
+                  <c:v>2/20/18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21/02/2018</c:v>
+                  <c:v>2/21/18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22/02/2018</c:v>
+                  <c:v>2/22/18</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23/02/2018</c:v>
+                  <c:v>2/23/18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24/02/2018</c:v>
+                  <c:v>2/24/18</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25/02/2018</c:v>
+                  <c:v>2/25/18</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26/02/2018</c:v>
+                  <c:v>2/26/18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27/02/2018</c:v>
+                  <c:v>2/27/18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28/02/2018</c:v>
+                  <c:v>2/28/18</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -6262,7 +6224,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530864560"/>
@@ -6321,7 +6283,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530865104"/>
@@ -6363,7 +6325,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -6402,7 +6364,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6432,7 +6394,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6446,7 +6408,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6518,7 +6480,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6688,7 +6650,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -6918,7 +6880,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -7148,7 +7110,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -7380,7 +7342,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -7612,7 +7574,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -7874,7 +7836,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="302953280"/>
@@ -7933,7 +7895,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="302951104"/>
@@ -7975,7 +7937,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -8014,7 +7976,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8044,7 +8006,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8058,7 +8020,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8130,7 +8092,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8297,7 +8259,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8521,7 +8483,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8745,7 +8707,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8971,7 +8933,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -9197,7 +9159,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -9453,7 +9415,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593585056"/>
@@ -9512,7 +9474,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593573632"/>
@@ -9554,7 +9516,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -9593,7 +9555,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9623,7 +9585,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9637,7 +9599,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9709,7 +9671,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9879,7 +9841,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -10109,7 +10071,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -10339,7 +10301,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -10571,7 +10533,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -10803,7 +10765,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -11065,7 +11027,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593578528"/>
@@ -11124,7 +11086,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593585600"/>
@@ -11166,7 +11128,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -11205,7 +11167,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11235,7 +11197,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11249,7 +11211,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11321,7 +11283,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11518,7 +11480,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -11741,7 +11703,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -11964,7 +11926,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -12189,7 +12151,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -12414,7 +12376,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -12669,7 +12631,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593574720"/>
@@ -12728,7 +12690,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593574176"/>
@@ -12770,7 +12732,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -12809,7 +12771,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12839,7 +12801,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12853,7 +12815,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12925,7 +12887,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12964,7 +12926,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13190,7 +13152,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13416,7 +13378,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13642,7 +13604,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13870,7 +13832,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -14098,7 +14060,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -14325,7 +14287,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -14359,7 +14321,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530867824"/>
@@ -14417,7 +14379,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530869456"/>
@@ -14459,7 +14421,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -14498,7 +14460,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -14528,7 +14490,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -18437,13 +18399,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28140</xdr:colOff>
-      <xdr:row>241</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>143435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>18055</xdr:colOff>
-      <xdr:row>269</xdr:row>
+      <xdr:row>276</xdr:row>
       <xdr:rowOff>31376</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -18733,8 +18695,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla18" displayName="Tabla18" ref="B16:M241" totalsRowCount="1" headerRowDxfId="161" dataDxfId="160" totalsRowDxfId="159">
-  <autoFilter ref="B16:M240" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla18" displayName="Tabla18" ref="B16:M248" totalsRowCount="1" headerRowDxfId="161" dataDxfId="160" totalsRowDxfId="159">
+  <autoFilter ref="B16:M247" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2016" month="5" day="9" dateTimeGrouping="day"/>
@@ -18753,47 +18715,47 @@
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="158" totalsRowDxfId="11"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="157" totalsRowDxfId="10">
-      <totalsRowFormula>SUM(C234:C240)</totalsRowFormula>
+      <totalsRowFormula>SUM(C241:C247)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="156" totalsRowDxfId="9">
-      <totalsRowFormula>SUM(D234:D240)</totalsRowFormula>
+      <totalsRowFormula>SUM(D241:D247)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="155" totalsRowDxfId="8">
       <calculatedColumnFormula>Tabla18[Transactions 
 Complete]/Tabla18[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(E234:E240)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(E241:E247)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="154" totalsRowDxfId="7">
-      <totalsRowFormula>SUM(F234:F240)</totalsRowFormula>
+      <totalsRowFormula>SUM(F241:F247)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="153" totalsRowDxfId="6">
       <calculatedColumnFormula>Tabla18[Transactions 
 Failed]/Tabla18[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(G234:G240)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(G241:G247)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="152" totalsRowDxfId="5">
-      <totalsRowFormula>SUM(H234:H240)</totalsRowFormula>
+      <totalsRowFormula>SUM(H241:H247)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="151" totalsRowDxfId="4">
       <calculatedColumnFormula>Tabla18[Transactions 
 In_Prog]/Tabla18[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(I234:I240)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(I241:I247)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="150" totalsRowDxfId="3">
-      <totalsRowFormula>SUM(J234:J240)</totalsRowFormula>
+      <totalsRowFormula>SUM(J241:J247)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="149" totalsRowDxfId="2">
       <calculatedColumnFormula>Tabla18[Transactions 
 Timeout]/Tabla18[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(K234:K240)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(K241:K247)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="148" totalsRowDxfId="1">
-      <totalsRowFormula>SUM(L234:L240)</totalsRowFormula>
+      <totalsRowFormula>SUM(L241:L247)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="147" totalsRowDxfId="0">
       <calculatedColumnFormula>Tabla18[Transactions
 Trans Fail]/Tabla18[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(M234:M240)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(M241:M247)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -19440,31 +19402,31 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="B1:M245"/>
+  <dimension ref="B1:M252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L240" sqref="L240"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L244" sqref="L244"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="1"/>
+    <col min="14" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -19480,7 +19442,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -19498,7 +19460,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -19516,7 +19478,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -19532,13 +19494,13 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="13">
         <f>SUM(C6:C10)</f>
-        <v>1869989</v>
+        <v>1916199</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -19551,17 +19513,17 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="13">
         <f>D15</f>
-        <v>1690999</v>
+        <v>1734635</v>
       </c>
       <c r="D6" s="14">
         <f>C6/C5</f>
-        <v>0.90428285941788966</v>
+        <v>0.9052478369939656</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -19573,17 +19535,17 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="13">
         <f>F15</f>
-        <v>115709</v>
+        <v>118100</v>
       </c>
       <c r="D7" s="14">
         <f>C7/C5</f>
-        <v>6.1876834569615118E-2</v>
+        <v>6.1632429617174418E-2</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -19595,7 +19557,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -19605,7 +19567,7 @@
       </c>
       <c r="D8" s="14">
         <f>C8/C5</f>
-        <v>1.1764775086912277E-5</v>
+        <v>1.1481062248753914E-5</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -19617,17 +19579,17 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="13">
         <f>J15</f>
-        <v>63259</v>
+        <v>63442</v>
       </c>
       <c r="D9" s="14">
         <f>C9/C5</f>
-        <v>3.3828541237408347E-2</v>
+        <v>3.3108252326611173E-2</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -19639,7 +19601,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -19661,13 +19623,13 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="15">
         <f>SUM(C6:C10)</f>
-        <v>1869989</v>
+        <v>1916199</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -19680,7 +19642,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -19694,7 +19656,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -19708,7 +19670,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
@@ -19724,33 +19686,33 @@
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
     </row>
-    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="17">
         <f>SUM(Tabla18[Total])</f>
-        <v>1869994.07</v>
+        <v>1916204.1</v>
       </c>
       <c r="D15" s="17">
         <f>SUM(Tabla18[Transactions 
 Complete])</f>
-        <v>1690999</v>
+        <v>1734635</v>
       </c>
       <c r="E15" s="18">
         <f>AVERAGE(Tabla18[%
 Complete])</f>
-        <v>0.88610790224378544</v>
+        <v>0.87560512989438366</v>
       </c>
       <c r="F15" s="17">
         <f>SUM(Tabla18[Transactions 
 Failed])</f>
-        <v>115709</v>
+        <v>118100</v>
       </c>
       <c r="G15" s="18">
         <f>AVERAGE(Tabla18[% 
 Failed])</f>
-        <v>5.096839739996116E-2</v>
+        <v>5.0320112455838534E-2</v>
       </c>
       <c r="H15" s="17">
         <f>SUM(Tabla18[Transactions 
@@ -19760,17 +19722,17 @@
       <c r="I15" s="18">
         <f>AVERAGE(Tabla18[%
 In_Prog])</f>
-        <v>1.3773050298479035E-5</v>
+        <v>1.3355685137919065E-5</v>
       </c>
       <c r="J15" s="17">
         <f>SUM(Tabla18[Transactions 
 Timeout])</f>
-        <v>63259</v>
+        <v>63442</v>
       </c>
       <c r="K15" s="18">
         <f>AVERAGE(Tabla18[%
 Timeout])</f>
-        <v>3.1654806805171763E-2</v>
+        <v>3.0766393340503833E-2</v>
       </c>
       <c r="L15" s="17">
         <f>SUM(Tabla18[Transactions
@@ -19783,7 +19745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -19821,7 +19783,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24">
         <v>43101</v>
       </c>
@@ -19869,7 +19831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24">
         <v>43102</v>
       </c>
@@ -19917,7 +19879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24">
         <v>43103</v>
       </c>
@@ -19965,7 +19927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24">
         <v>43104</v>
       </c>
@@ -20013,7 +19975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24">
         <v>43105</v>
       </c>
@@ -20061,7 +20023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24">
         <v>43106</v>
       </c>
@@ -20109,7 +20071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" s="24">
         <v>43107</v>
       </c>
@@ -20157,7 +20119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B24" s="24">
         <v>43108</v>
       </c>
@@ -20205,7 +20167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B25" s="24">
         <v>43109</v>
       </c>
@@ -20253,7 +20215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24">
         <v>43110</v>
       </c>
@@ -20301,7 +20263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24">
         <v>43111</v>
       </c>
@@ -20349,7 +20311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24">
         <v>43112</v>
       </c>
@@ -20397,7 +20359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24">
         <v>43113</v>
       </c>
@@ -20445,7 +20407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B30" s="24">
         <v>43114</v>
       </c>
@@ -20493,7 +20455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30">
         <v>43115</v>
       </c>
@@ -20541,7 +20503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30">
         <v>43116</v>
       </c>
@@ -20589,7 +20551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" s="30">
         <v>43117</v>
       </c>
@@ -20637,7 +20599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B34" s="30">
         <v>43118</v>
       </c>
@@ -20685,7 +20647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B35" s="30">
         <v>43119</v>
       </c>
@@ -20733,7 +20695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B36" s="30">
         <v>43120</v>
       </c>
@@ -20781,7 +20743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B37" s="30">
         <v>43121</v>
       </c>
@@ -20829,7 +20791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B38" s="38">
         <v>43122</v>
       </c>
@@ -20877,7 +20839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B39" s="38">
         <v>43123</v>
       </c>
@@ -20925,7 +20887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B40" s="38">
         <v>43124</v>
       </c>
@@ -20973,7 +20935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B41" s="38">
         <v>43125</v>
       </c>
@@ -21021,7 +20983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B42" s="38">
         <v>43126</v>
       </c>
@@ -21069,7 +21031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B43" s="38">
         <v>43127</v>
       </c>
@@ -21117,7 +21079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B44" s="38">
         <v>43128</v>
       </c>
@@ -21165,7 +21127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B45" s="41">
         <v>43129</v>
       </c>
@@ -21213,7 +21175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B46" s="41">
         <v>43130</v>
       </c>
@@ -21261,7 +21223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" s="41">
         <v>43131</v>
       </c>
@@ -21309,7 +21271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" s="41">
         <v>43132</v>
       </c>
@@ -21357,7 +21319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" s="41">
         <v>43133</v>
       </c>
@@ -21405,7 +21367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" s="41">
         <v>43134</v>
       </c>
@@ -21453,7 +21415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B51" s="41">
         <v>43135</v>
       </c>
@@ -21501,7 +21463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B52" s="41">
         <v>43136</v>
       </c>
@@ -21549,7 +21511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B53" s="41">
         <v>43137</v>
       </c>
@@ -21597,7 +21559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B54" s="41">
         <v>43138</v>
       </c>
@@ -21645,7 +21607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B55" s="41">
         <v>43139</v>
       </c>
@@ -21693,7 +21655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B56" s="41">
         <v>43140</v>
       </c>
@@ -21741,7 +21703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B57" s="41">
         <v>43141</v>
       </c>
@@ -21789,7 +21751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B58" s="41">
         <v>43142</v>
       </c>
@@ -21837,7 +21799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B59" s="41">
         <v>43143</v>
       </c>
@@ -21885,7 +21847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B60" s="41">
         <v>43144</v>
       </c>
@@ -21933,7 +21895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B61" s="41">
         <v>43145</v>
       </c>
@@ -21981,7 +21943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B62" s="41">
         <v>43146</v>
       </c>
@@ -22029,7 +21991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B63" s="41">
         <v>43147</v>
       </c>
@@ -22077,7 +22039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B64" s="41">
         <v>43148</v>
       </c>
@@ -22125,7 +22087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" s="41">
         <v>43149</v>
       </c>
@@ -22173,7 +22135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B66" s="41">
         <v>43150</v>
       </c>
@@ -22221,7 +22183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" s="41">
         <v>43151</v>
       </c>
@@ -22269,7 +22231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B68" s="41">
         <v>43152</v>
       </c>
@@ -22317,7 +22279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" s="41">
         <v>43153</v>
       </c>
@@ -22365,7 +22327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B70" s="41">
         <v>43154</v>
       </c>
@@ -22413,7 +22375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B71" s="41">
         <v>43155</v>
       </c>
@@ -22461,7 +22423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B72" s="41">
         <v>43156</v>
       </c>
@@ -22509,7 +22471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B73" s="41">
         <v>43157</v>
       </c>
@@ -22557,7 +22519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B74" s="41">
         <v>43158</v>
       </c>
@@ -22605,7 +22567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B75" s="41">
         <v>43159</v>
       </c>
@@ -22653,7 +22615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B76" s="41">
         <v>43160</v>
       </c>
@@ -22701,7 +22663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B77" s="41">
         <v>43161</v>
       </c>
@@ -22749,7 +22711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B78" s="41">
         <v>43162</v>
       </c>
@@ -22797,7 +22759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B79" s="41">
         <v>43163</v>
       </c>
@@ -22845,7 +22807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B80" s="41">
         <v>43164</v>
       </c>
@@ -22893,7 +22855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B81" s="41">
         <v>43165</v>
       </c>
@@ -22941,7 +22903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B82" s="41">
         <v>43166</v>
       </c>
@@ -22989,7 +22951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B83" s="41">
         <v>43167</v>
       </c>
@@ -23037,7 +22999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B84" s="41">
         <v>43168</v>
       </c>
@@ -23085,7 +23047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B85" s="41">
         <v>43169</v>
       </c>
@@ -23133,7 +23095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" s="41">
         <v>43170</v>
       </c>
@@ -23181,7 +23143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B87" s="41">
         <v>43171</v>
       </c>
@@ -23229,7 +23191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B88" s="41">
         <v>43172</v>
       </c>
@@ -23277,7 +23239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B89" s="41">
         <v>43173</v>
       </c>
@@ -23325,7 +23287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B90" s="41">
         <v>43174</v>
       </c>
@@ -23373,7 +23335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B91" s="41">
         <v>43175</v>
       </c>
@@ -23421,7 +23383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B92" s="41">
         <v>43176</v>
       </c>
@@ -23469,7 +23431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" s="41">
         <v>43177</v>
       </c>
@@ -23517,7 +23479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B94" s="53">
         <v>43178</v>
       </c>
@@ -23565,7 +23527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B95" s="53">
         <v>43179</v>
       </c>
@@ -23613,7 +23575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B96" s="53">
         <v>43180</v>
       </c>
@@ -23661,7 +23623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B97" s="53">
         <v>43181</v>
       </c>
@@ -23709,7 +23671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B98" s="53">
         <v>43182</v>
       </c>
@@ -23757,7 +23719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B99" s="53">
         <v>43183</v>
       </c>
@@ -23805,7 +23767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B100" s="53">
         <v>43184</v>
       </c>
@@ -23853,7 +23815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B101" s="53">
         <v>43185</v>
       </c>
@@ -23901,7 +23863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B102" s="53">
         <v>43186</v>
       </c>
@@ -23949,7 +23911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" s="53">
         <v>43187</v>
       </c>
@@ -23997,7 +23959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" s="53">
         <v>43188</v>
       </c>
@@ -24045,7 +24007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B105" s="53">
         <v>43189</v>
       </c>
@@ -24093,7 +24055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B106" s="53">
         <v>43190</v>
       </c>
@@ -24141,7 +24103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B107" s="53">
         <v>43191</v>
       </c>
@@ -24189,7 +24151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B108" s="53">
         <v>43192</v>
       </c>
@@ -24237,7 +24199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B109" s="53">
         <v>43193</v>
       </c>
@@ -24285,7 +24247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B110" s="53">
         <v>43194</v>
       </c>
@@ -24333,7 +24295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B111" s="53">
         <v>43195</v>
       </c>
@@ -24381,7 +24343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B112" s="53">
         <v>43196</v>
       </c>
@@ -24429,7 +24391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B113" s="53">
         <v>43197</v>
       </c>
@@ -24477,7 +24439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B114" s="53">
         <v>43198</v>
       </c>
@@ -24525,7 +24487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B115" s="53">
         <v>43199</v>
       </c>
@@ -24573,7 +24535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B116" s="53">
         <v>43200</v>
       </c>
@@ -24621,7 +24583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B117" s="53">
         <v>43201</v>
       </c>
@@ -24661,7 +24623,7 @@
         <v>1.9376715646697885E-3</v>
       </c>
       <c r="L117" s="50">
-        <f>C812</f>
+        <f>C819</f>
         <v>0</v>
       </c>
       <c r="M117" s="35">
@@ -24670,7 +24632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B118" s="53">
         <v>43202</v>
       </c>
@@ -24718,7 +24680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B119" s="53">
         <v>43203</v>
       </c>
@@ -24766,7 +24728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B120" s="53">
         <v>43204</v>
       </c>
@@ -24814,7 +24776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B121" s="53">
         <v>43205</v>
       </c>
@@ -24862,7 +24824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B122" s="53">
         <v>43206</v>
       </c>
@@ -24910,7 +24872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B123" s="53">
         <v>43207</v>
       </c>
@@ -24958,7 +24920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B124" s="53">
         <v>43208</v>
       </c>
@@ -25006,7 +24968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B125" s="53">
         <v>43209</v>
       </c>
@@ -25054,7 +25016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B126" s="53">
         <v>43210</v>
       </c>
@@ -25102,7 +25064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B127" s="53">
         <v>43211</v>
       </c>
@@ -25150,7 +25112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B128" s="53">
         <v>43212</v>
       </c>
@@ -25198,7 +25160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" s="53">
         <v>43213</v>
       </c>
@@ -25246,7 +25208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B130" s="53">
         <v>43214</v>
       </c>
@@ -25294,7 +25256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" s="53">
         <v>43215</v>
       </c>
@@ -25342,7 +25304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B132" s="53">
         <v>43216</v>
       </c>
@@ -25390,7 +25352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B133" s="53">
         <v>43217</v>
       </c>
@@ -25438,7 +25400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B134" s="53">
         <v>43218</v>
       </c>
@@ -25486,7 +25448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B135" s="53">
         <v>43219</v>
       </c>
@@ -25534,7 +25496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B136" s="53">
         <v>43220</v>
       </c>
@@ -25582,7 +25544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B137" s="53">
         <v>43221</v>
       </c>
@@ -25630,7 +25592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B138" s="53">
         <v>43222</v>
       </c>
@@ -25678,7 +25640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B139" s="53">
         <v>43223</v>
       </c>
@@ -25726,7 +25688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B140" s="53">
         <v>43224</v>
       </c>
@@ -25774,7 +25736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B141" s="53">
         <v>43225</v>
       </c>
@@ -25822,7 +25784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B142" s="53">
         <v>43226</v>
       </c>
@@ -25870,7 +25832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B143" s="59">
         <v>43227</v>
       </c>
@@ -25918,7 +25880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B144" s="59">
         <v>43228</v>
       </c>
@@ -25966,7 +25928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B145" s="59">
         <v>43229</v>
       </c>
@@ -26014,7 +25976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B146" s="59">
         <v>43230</v>
       </c>
@@ -26062,7 +26024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B147" s="59">
         <v>43231</v>
       </c>
@@ -26110,7 +26072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B148" s="59">
         <v>43232</v>
       </c>
@@ -26158,7 +26120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B149" s="41">
         <v>43233</v>
       </c>
@@ -26206,7 +26168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B150" s="41">
         <v>43234</v>
       </c>
@@ -26254,7 +26216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B151" s="41">
         <v>43235</v>
       </c>
@@ -26302,7 +26264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B152" s="41">
         <v>43236</v>
       </c>
@@ -26350,7 +26312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B153" s="41">
         <v>43237</v>
       </c>
@@ -26398,7 +26360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B154" s="41">
         <v>43238</v>
       </c>
@@ -26446,7 +26408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B155" s="41">
         <v>43239</v>
       </c>
@@ -26494,7 +26456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B156" s="41">
         <v>43240</v>
       </c>
@@ -26542,7 +26504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B157" s="41">
         <v>43241</v>
       </c>
@@ -26590,7 +26552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B158" s="41">
         <v>43242</v>
       </c>
@@ -26638,7 +26600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B159" s="41">
         <v>43243</v>
       </c>
@@ -26686,7 +26648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B160" s="41">
         <v>43244</v>
       </c>
@@ -26734,7 +26696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B161" s="41">
         <v>43245</v>
       </c>
@@ -26782,7 +26744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B162" s="41">
         <v>43246</v>
       </c>
@@ -26830,7 +26792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B163" s="41">
         <v>43247</v>
       </c>
@@ -26878,7 +26840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B164" s="41">
         <v>43248</v>
       </c>
@@ -26926,7 +26888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B165" s="41">
         <v>43249</v>
       </c>
@@ -26974,7 +26936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B166" s="41">
         <v>43250</v>
       </c>
@@ -27022,7 +26984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B167" s="41">
         <v>43251</v>
       </c>
@@ -27070,7 +27032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B168" s="41">
         <v>43252</v>
       </c>
@@ -27118,7 +27080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B169" s="41">
         <v>43253</v>
       </c>
@@ -27166,7 +27128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B170" s="41">
         <v>43254</v>
       </c>
@@ -27214,7 +27176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B171" s="41">
         <v>43255</v>
       </c>
@@ -27262,7 +27224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B172" s="41">
         <v>43256</v>
       </c>
@@ -27310,7 +27272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B173" s="41">
         <v>43257</v>
       </c>
@@ -27358,7 +27320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B174" s="41">
         <v>43258</v>
       </c>
@@ -27406,7 +27368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B175" s="41">
         <v>43259</v>
       </c>
@@ -27454,7 +27416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B176" s="41">
         <v>43260</v>
       </c>
@@ -27502,7 +27464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B177" s="41">
         <v>43261</v>
       </c>
@@ -27550,7 +27512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B178" s="41">
         <v>43262</v>
       </c>
@@ -27598,7 +27560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B179" s="41">
         <v>43263</v>
       </c>
@@ -27646,7 +27608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B180" s="41">
         <v>43264</v>
       </c>
@@ -27694,7 +27656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B181" s="41">
         <v>43265</v>
       </c>
@@ -27742,7 +27704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B182" s="41">
         <v>43266</v>
       </c>
@@ -27790,7 +27752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B183" s="41">
         <v>43267</v>
       </c>
@@ -27838,7 +27800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B184" s="41">
         <v>43268</v>
       </c>
@@ -27886,7 +27848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B185" s="79">
         <v>43269</v>
       </c>
@@ -27934,7 +27896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B186" s="79">
         <v>43270</v>
       </c>
@@ -27982,7 +27944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B187" s="79">
         <v>43271</v>
       </c>
@@ -28030,7 +27992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B188" s="79">
         <v>43272</v>
       </c>
@@ -28078,7 +28040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B189" s="79">
         <v>43273</v>
       </c>
@@ -28126,7 +28088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B190" s="79">
         <v>43274</v>
       </c>
@@ -28174,7 +28136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B191" s="79">
         <v>43275</v>
       </c>
@@ -28222,7 +28184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B192" s="79">
         <v>43276</v>
       </c>
@@ -28270,7 +28232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B193" s="79">
         <v>43277</v>
       </c>
@@ -28318,7 +28280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B194" s="79">
         <v>43278</v>
       </c>
@@ -28366,7 +28328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B195" s="79">
         <v>43279</v>
       </c>
@@ -28414,7 +28376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B196" s="79">
         <v>43280</v>
       </c>
@@ -28462,7 +28424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B197" s="79">
         <v>43281</v>
       </c>
@@ -28510,7 +28472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B198" s="79">
         <v>43282</v>
       </c>
@@ -28558,7 +28520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B199" s="79">
         <v>43283</v>
       </c>
@@ -28606,7 +28568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B200" s="79">
         <v>43284</v>
       </c>
@@ -28654,7 +28616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B201" s="79">
         <v>43285</v>
       </c>
@@ -28702,7 +28664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B202" s="79">
         <v>43286</v>
       </c>
@@ -28750,7 +28712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B203" s="79">
         <v>43287</v>
       </c>
@@ -28798,7 +28760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B204" s="79">
         <v>43288</v>
       </c>
@@ -28846,7 +28808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B205" s="79">
         <v>43289</v>
       </c>
@@ -28894,7 +28856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B206" s="79">
         <v>43290</v>
       </c>
@@ -28942,7 +28904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B207" s="79">
         <v>43291</v>
       </c>
@@ -28990,7 +28952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B208" s="79">
         <v>43292</v>
       </c>
@@ -29038,7 +29000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B209" s="79">
         <v>43293</v>
       </c>
@@ -29086,7 +29048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B210" s="79">
         <v>43294</v>
       </c>
@@ -29134,7 +29096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B211" s="79">
         <v>43295</v>
       </c>
@@ -29182,7 +29144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B212" s="79">
         <v>43296</v>
       </c>
@@ -29230,7 +29192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B213" s="79">
         <v>43297</v>
       </c>
@@ -29278,7 +29240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B214" s="79">
         <v>43298</v>
       </c>
@@ -29326,7 +29288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B215" s="79">
         <v>43299</v>
       </c>
@@ -29374,7 +29336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B216" s="79">
         <v>43300</v>
       </c>
@@ -29422,7 +29384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B217" s="79">
         <v>43301</v>
       </c>
@@ -29470,7 +29432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B218" s="79">
         <v>43302</v>
       </c>
@@ -29518,7 +29480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B219" s="79">
         <v>43303</v>
       </c>
@@ -29566,7 +29528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B220" s="79">
         <v>43304</v>
       </c>
@@ -29614,7 +29576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B221" s="79">
         <v>43305</v>
       </c>
@@ -29662,7 +29624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B222" s="79">
         <v>43306</v>
       </c>
@@ -29710,7 +29672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B223" s="79">
         <v>43307</v>
       </c>
@@ -29758,7 +29720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B224" s="79">
         <v>43308</v>
       </c>
@@ -29806,7 +29768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B225" s="79">
         <v>43309</v>
       </c>
@@ -29854,7 +29816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B226" s="79">
         <v>43310</v>
       </c>
@@ -29902,7 +29864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B227" s="79">
         <v>43311</v>
       </c>
@@ -29950,7 +29912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B228" s="79">
         <v>43312</v>
       </c>
@@ -29998,7 +29960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B229" s="79">
         <v>43313</v>
       </c>
@@ -30046,7 +30008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B230" s="79">
         <v>43314</v>
       </c>
@@ -30094,7 +30056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B231" s="79">
         <v>43315</v>
       </c>
@@ -30142,7 +30104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B232" s="79">
         <v>43316</v>
       </c>
@@ -30190,7 +30152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B233" s="79">
         <v>43317</v>
       </c>
@@ -30238,7 +30200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B234" s="79">
         <v>43318</v>
       </c>
@@ -30286,7 +30248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B235" s="79">
         <v>43319</v>
       </c>
@@ -30334,7 +30296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B236" s="79">
         <v>43320</v>
       </c>
@@ -30382,7 +30344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B237" s="79">
         <v>43321</v>
       </c>
@@ -30430,7 +30392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B238" s="79">
         <v>43322</v>
       </c>
@@ -30478,7 +30440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B239" s="79">
         <v>43323</v>
       </c>
@@ -30526,7 +30488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B240" s="79">
         <v>43324</v>
       </c>
@@ -30574,66 +30536,372 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B241" s="29" t="s">
+    <row r="241" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B241" s="79">
+        <v>43325</v>
+      </c>
+      <c r="C241" s="120">
+        <v>8353</v>
+      </c>
+      <c r="D241" s="120">
+        <v>7784</v>
+      </c>
+      <c r="E241" s="121">
+        <f>Tabla18[Transactions 
+Complete]/Tabla18[Total]</f>
+        <v>0.93188076140308873</v>
+      </c>
+      <c r="F241" s="120">
+        <v>526</v>
+      </c>
+      <c r="G241" s="121">
+        <f>Tabla18[Transactions 
+Failed]/Tabla18[Total]</f>
+        <v>6.2971387525439959E-2</v>
+      </c>
+      <c r="H241" s="120">
+        <v>0</v>
+      </c>
+      <c r="I241" s="121">
+        <f>Tabla18[Transactions 
+In_Prog]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J241" s="120">
+        <v>43</v>
+      </c>
+      <c r="K241" s="121">
+        <f>Tabla18[Transactions 
+Timeout]/Tabla18[Total]</f>
+        <v>5.1478510714713273E-3</v>
+      </c>
+      <c r="L241" s="120">
+        <v>0</v>
+      </c>
+      <c r="M241" s="121">
+        <f>Tabla18[Transactions
+Trans Fail]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B242" s="79">
+        <v>43326</v>
+      </c>
+      <c r="C242" s="120">
+        <v>11435</v>
+      </c>
+      <c r="D242" s="120">
+        <v>10889</v>
+      </c>
+      <c r="E242" s="121">
+        <f>Tabla18[Transactions 
+Complete]/Tabla18[Total]</f>
+        <v>0.9522518583296895</v>
+      </c>
+      <c r="F242" s="120">
+        <v>503</v>
+      </c>
+      <c r="G242" s="121">
+        <f>Tabla18[Transactions 
+Failed]/Tabla18[Total]</f>
+        <v>4.3987756886751203E-2</v>
+      </c>
+      <c r="H242" s="120">
+        <v>0</v>
+      </c>
+      <c r="I242" s="121">
+        <f>Tabla18[Transactions 
+In_Prog]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J242" s="120">
+        <v>43</v>
+      </c>
+      <c r="K242" s="121">
+        <f>Tabla18[Transactions 
+Timeout]/Tabla18[Total]</f>
+        <v>3.7603847835592477E-3</v>
+      </c>
+      <c r="L242" s="120">
+        <v>0</v>
+      </c>
+      <c r="M242" s="121">
+        <f>Tabla18[Transactions
+Trans Fail]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B243" s="79">
+        <v>43327</v>
+      </c>
+      <c r="C243" s="120">
+        <v>14747</v>
+      </c>
+      <c r="D243" s="120">
+        <v>13769</v>
+      </c>
+      <c r="E243" s="121">
+        <f>Tabla18[Transactions 
+Complete]/Tabla18[Total]</f>
+        <v>0.93368142673086052</v>
+      </c>
+      <c r="F243" s="120">
+        <v>930</v>
+      </c>
+      <c r="G243" s="121">
+        <f>Tabla18[Transactions 
+Failed]/Tabla18[Total]</f>
+        <v>6.3063673967586623E-2</v>
+      </c>
+      <c r="H243" s="120">
+        <v>0</v>
+      </c>
+      <c r="I243" s="121">
+        <f>Tabla18[Transactions 
+In_Prog]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J243" s="120">
+        <v>48</v>
+      </c>
+      <c r="K243" s="121">
+        <f>Tabla18[Transactions 
+Timeout]/Tabla18[Total]</f>
+        <v>3.2548993015528581E-3</v>
+      </c>
+      <c r="L243" s="120">
+        <v>0</v>
+      </c>
+      <c r="M243" s="121">
+        <f>Tabla18[Transactions
+Trans Fail]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B244" s="79">
+        <v>43328</v>
+      </c>
+      <c r="C244" s="120">
+        <v>11675</v>
+      </c>
+      <c r="D244" s="120">
+        <v>11194</v>
+      </c>
+      <c r="E244" s="121">
+        <f>Tabla18[Transactions 
+Complete]/Tabla18[Total]</f>
+        <v>0.95880085653104929</v>
+      </c>
+      <c r="F244" s="120">
+        <v>432</v>
+      </c>
+      <c r="G244" s="121">
+        <f>Tabla18[Transactions 
+Failed]/Tabla18[Total]</f>
+        <v>3.7002141327623125E-2</v>
+      </c>
+      <c r="H244" s="120">
+        <v>0</v>
+      </c>
+      <c r="I244" s="121">
+        <f>Tabla18[Transactions 
+In_Prog]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J244" s="120">
+        <v>49</v>
+      </c>
+      <c r="K244" s="121">
+        <f>Tabla18[Transactions 
+Timeout]/Tabla18[Total]</f>
+        <v>4.1970021413276232E-3</v>
+      </c>
+      <c r="L244" s="120">
+        <v>0</v>
+      </c>
+      <c r="M244" s="121">
+        <f>Tabla18[Transactions
+Trans Fail]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B245" s="79">
+        <v>43329</v>
+      </c>
+      <c r="C245" s="120">
+        <v>0.01</v>
+      </c>
+      <c r="D245" s="120"/>
+      <c r="E245" s="121">
+        <f>Tabla18[Transactions 
+Complete]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="F245" s="120"/>
+      <c r="G245" s="121">
+        <f>Tabla18[Transactions 
+Failed]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="H245" s="120"/>
+      <c r="I245" s="121">
+        <f>Tabla18[Transactions 
+In_Prog]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J245" s="120"/>
+      <c r="K245" s="121">
+        <f>Tabla18[Transactions 
+Timeout]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="L245" s="120"/>
+      <c r="M245" s="121">
+        <f>Tabla18[Transactions
+Trans Fail]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B246" s="79">
+        <v>43330</v>
+      </c>
+      <c r="C246" s="120">
+        <v>0.01</v>
+      </c>
+      <c r="D246" s="120"/>
+      <c r="E246" s="121">
+        <f>Tabla18[Transactions 
+Complete]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="F246" s="120"/>
+      <c r="G246" s="121">
+        <f>Tabla18[Transactions 
+Failed]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="H246" s="120"/>
+      <c r="I246" s="121">
+        <f>Tabla18[Transactions 
+In_Prog]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J246" s="120"/>
+      <c r="K246" s="121">
+        <f>Tabla18[Transactions 
+Timeout]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="L246" s="120"/>
+      <c r="M246" s="121">
+        <f>Tabla18[Transactions
+Trans Fail]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B247" s="79">
+        <v>43331</v>
+      </c>
+      <c r="C247" s="120">
+        <v>0.01</v>
+      </c>
+      <c r="D247" s="120"/>
+      <c r="E247" s="121">
+        <f>Tabla18[Transactions 
+Complete]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="F247" s="120"/>
+      <c r="G247" s="121">
+        <f>Tabla18[Transactions 
+Failed]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="H247" s="120"/>
+      <c r="I247" s="121">
+        <f>Tabla18[Transactions 
+In_Prog]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J247" s="120"/>
+      <c r="K247" s="121">
+        <f>Tabla18[Transactions 
+Timeout]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="L247" s="120"/>
+      <c r="M247" s="121">
+        <f>Tabla18[Transactions
+Trans Fail]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="2:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="B248" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C241" s="39">
-        <f>SUM(C234:C240)</f>
-        <v>58030</v>
-      </c>
-      <c r="D241" s="39">
-        <f>SUM(D234:D240)</f>
-        <v>55003</v>
-      </c>
-      <c r="E241" s="36">
-        <f>AVERAGE(E234:E240)</f>
-        <v>0.94074147584843471</v>
-      </c>
-      <c r="F241" s="39">
-        <f>SUM(F234:F240)</f>
-        <v>2485</v>
-      </c>
-      <c r="G241" s="36">
-        <f>AVERAGE(G234:G240)</f>
-        <v>4.000871851893547E-2</v>
-      </c>
-      <c r="H241" s="39">
-        <f>SUM(H234:H240)</f>
-        <v>0</v>
-      </c>
-      <c r="I241" s="36">
-        <f>AVERAGE(I234:I240)</f>
-        <v>0</v>
-      </c>
-      <c r="J241" s="39">
-        <f>SUM(J234:J240)</f>
-        <v>542</v>
-      </c>
-      <c r="K241" s="36">
-        <f>AVERAGE(K234:K240)</f>
-        <v>1.9249805632629829E-2</v>
-      </c>
-      <c r="L241" s="39">
-        <f>SUM(L234:L240)</f>
-        <v>0</v>
-      </c>
-      <c r="M241" s="36">
-        <f>AVERAGE(M234:M240)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E242" s="26"/>
-    </row>
-    <row r="243" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E243" s="26"/>
-    </row>
-    <row r="244" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E244" s="26"/>
-    </row>
-    <row r="245" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E245" s="26"/>
+      <c r="C248" s="39">
+        <f>SUM(C241:C247)</f>
+        <v>46210.030000000006</v>
+      </c>
+      <c r="D248" s="39">
+        <f>SUM(D241:D247)</f>
+        <v>43636</v>
+      </c>
+      <c r="E248" s="36">
+        <f>AVERAGE(E241:E247)</f>
+        <v>0.53951641471352685</v>
+      </c>
+      <c r="F248" s="39">
+        <f>SUM(F241:F247)</f>
+        <v>2391</v>
+      </c>
+      <c r="G248" s="36">
+        <f>AVERAGE(G241:G247)</f>
+        <v>2.9574994243914417E-2</v>
+      </c>
+      <c r="H248" s="39">
+        <f>SUM(H241:H247)</f>
+        <v>0</v>
+      </c>
+      <c r="I248" s="36">
+        <f>AVERAGE(I241:I247)</f>
+        <v>0</v>
+      </c>
+      <c r="J248" s="39">
+        <f>SUM(J241:J247)</f>
+        <v>183</v>
+      </c>
+      <c r="K248" s="36">
+        <f>AVERAGE(K241:K247)</f>
+        <v>2.3371624711301504E-3</v>
+      </c>
+      <c r="L248" s="39">
+        <f>SUM(L241:L247)</f>
+        <v>0</v>
+      </c>
+      <c r="M248" s="36">
+        <f>AVERAGE(M241:M247)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E249" s="26"/>
+    </row>
+    <row r="250" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E250" s="26"/>
+    </row>
+    <row r="251" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E251" s="26"/>
+    </row>
+    <row r="252" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E252" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -30656,12 +30924,12 @@
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="44">
         <v>43101</v>
       </c>
@@ -30699,7 +30967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="47">
         <v>43102</v>
       </c>
@@ -30737,7 +31005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="44">
         <v>43103</v>
       </c>
@@ -30775,7 +31043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="47">
         <v>43104</v>
       </c>
@@ -30813,7 +31081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="44">
         <v>43105</v>
       </c>
@@ -30851,7 +31119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="47">
         <v>43106</v>
       </c>
@@ -30889,7 +31157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="44">
         <v>43107</v>
       </c>
@@ -30927,7 +31195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="47">
         <v>43108</v>
       </c>
@@ -30965,7 +31233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="44">
         <v>43109</v>
       </c>
@@ -31003,7 +31271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="47">
         <v>43110</v>
       </c>
@@ -31041,7 +31309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="44">
         <v>43111</v>
       </c>
@@ -31079,7 +31347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="47">
         <v>43112</v>
       </c>
@@ -31117,7 +31385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="44">
         <v>43113</v>
       </c>
@@ -31155,7 +31423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="47">
         <v>43114</v>
       </c>
@@ -31193,7 +31461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="44">
         <v>43115</v>
       </c>
@@ -31231,7 +31499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="47">
         <v>43116</v>
       </c>
@@ -31269,7 +31537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="44">
         <v>43117</v>
       </c>
@@ -31307,7 +31575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="47">
         <v>43118</v>
       </c>
@@ -31345,7 +31613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="44">
         <v>43119</v>
       </c>
@@ -31383,7 +31651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="47">
         <v>43120</v>
       </c>
@@ -31421,7 +31689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="44">
         <v>43121</v>
       </c>
@@ -31459,7 +31727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="47">
         <v>43122</v>
       </c>
@@ -31497,7 +31765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="44">
         <v>43123</v>
       </c>
@@ -31535,7 +31803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="47">
         <v>43124</v>
       </c>
@@ -31573,7 +31841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="44">
         <v>43125</v>
       </c>
@@ -31611,7 +31879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="47">
         <v>43126</v>
       </c>
@@ -31649,7 +31917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="44">
         <v>43127</v>
       </c>
@@ -31687,7 +31955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="47">
         <v>43128</v>
       </c>
@@ -31725,7 +31993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="44">
         <v>43129</v>
       </c>
@@ -31763,7 +32031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="47">
         <v>43130</v>
       </c>
@@ -31801,7 +32069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="44">
         <v>43131</v>
       </c>
@@ -31839,7 +32107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B32" s="48">
         <f>SUM(B1:B31)</f>
         <v>272552</v>
@@ -31902,25 +32170,25 @@
       <selection activeCell="B15" sqref="B15:M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="33"/>
+    <col min="14" max="16384" width="11.5" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -31936,7 +32204,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -31954,7 +32222,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -31972,7 +32240,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -31988,7 +32256,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -32007,7 +32275,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -32029,7 +32297,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
@@ -32051,7 +32319,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -32073,7 +32341,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -32095,7 +32363,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -32117,7 +32385,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -32136,7 +32404,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -32150,7 +32418,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -32164,7 +32432,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
@@ -32180,7 +32448,7 @@
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
     </row>
-    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
@@ -32229,7 +32497,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -32267,7 +32535,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="41">
         <v>43132</v>
       </c>
@@ -32310,7 +32578,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="41">
         <v>43133</v>
       </c>
@@ -32353,7 +32621,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="41">
         <v>43134</v>
       </c>
@@ -32396,7 +32664,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="41">
         <v>43135</v>
       </c>
@@ -32439,7 +32707,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="41">
         <v>43136</v>
       </c>
@@ -32482,7 +32750,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="41">
         <v>43137</v>
       </c>
@@ -32525,7 +32793,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="41">
         <v>43138</v>
       </c>
@@ -32568,7 +32836,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="41">
         <v>43139</v>
       </c>
@@ -32611,7 +32879,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="41">
         <v>43140</v>
       </c>
@@ -32654,7 +32922,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="41">
         <v>43141</v>
       </c>
@@ -32697,7 +32965,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="41">
         <v>43142</v>
       </c>
@@ -32740,7 +33008,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="41">
         <v>43143</v>
       </c>
@@ -32783,7 +33051,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="41">
         <v>43144</v>
       </c>
@@ -32826,7 +33094,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="41">
         <v>43145</v>
       </c>
@@ -32869,7 +33137,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="41">
         <v>43146</v>
       </c>
@@ -32912,7 +33180,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="41">
         <v>43147</v>
       </c>
@@ -32955,7 +33223,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="41">
         <v>43148</v>
       </c>
@@ -32998,7 +33266,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="41">
         <v>43149</v>
       </c>
@@ -33041,7 +33309,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="41">
         <v>43150</v>
       </c>
@@ -33084,7 +33352,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="41">
         <v>43151</v>
       </c>
@@ -33127,7 +33395,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="41">
         <v>43152</v>
       </c>
@@ -33170,7 +33438,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="41">
         <v>43153</v>
       </c>
@@ -33213,7 +33481,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="41">
         <v>43154</v>
       </c>
@@ -33256,7 +33524,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="41">
         <v>43155</v>
       </c>
@@ -33299,7 +33567,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="41">
         <v>43156</v>
       </c>
@@ -33342,7 +33610,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="41">
         <v>43157</v>
       </c>
@@ -33385,7 +33653,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="41">
         <v>43158</v>
       </c>
@@ -33428,7 +33696,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="41">
         <v>43159</v>
       </c>
@@ -33471,7 +33739,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" ht="24" x14ac:dyDescent="0.2">
       <c r="B45" s="29" t="s">
         <v>26</v>
       </c>
@@ -33520,16 +33788,16 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E46" s="26"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E47" s="26"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E48" s="26"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E49" s="26"/>
     </row>
   </sheetData>
@@ -33556,25 +33824,25 @@
       <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="33"/>
+    <col min="14" max="16384" width="11.5" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -33590,7 +33858,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -33608,7 +33876,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -33626,7 +33894,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -33642,7 +33910,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -33661,7 +33929,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -33683,7 +33951,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
@@ -33705,7 +33973,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -33727,7 +33995,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -33749,7 +34017,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -33771,7 +34039,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -33790,7 +34058,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -33804,7 +34072,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -33818,7 +34086,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
@@ -33834,7 +34102,7 @@
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
     </row>
-    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
@@ -33883,7 +34151,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -33921,7 +34189,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="41">
         <v>43160</v>
       </c>
@@ -33964,7 +34232,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="41">
         <v>43161</v>
       </c>
@@ -34007,7 +34275,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="41">
         <v>43162</v>
       </c>
@@ -34050,7 +34318,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="41">
         <v>43163</v>
       </c>
@@ -34093,7 +34361,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="41">
         <v>43164</v>
       </c>
@@ -34136,7 +34404,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="41">
         <v>43165</v>
       </c>
@@ -34179,7 +34447,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="41">
         <v>43166</v>
       </c>
@@ -34222,7 +34490,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="41">
         <v>43167</v>
       </c>
@@ -34265,7 +34533,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="41">
         <v>43168</v>
       </c>
@@ -34308,7 +34576,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="41">
         <v>43169</v>
       </c>
@@ -34351,7 +34619,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="41">
         <v>43170</v>
       </c>
@@ -34394,7 +34662,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="41">
         <v>43171</v>
       </c>
@@ -34437,7 +34705,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="41">
         <v>43172</v>
       </c>
@@ -34480,7 +34748,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="41">
         <v>43173</v>
       </c>
@@ -34523,7 +34791,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="41">
         <v>43174</v>
       </c>
@@ -34566,7 +34834,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="41">
         <v>43175</v>
       </c>
@@ -34609,7 +34877,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="41">
         <v>43176</v>
       </c>
@@ -34652,7 +34920,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="41">
         <v>43177</v>
       </c>
@@ -34695,7 +34963,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="53">
         <v>43178</v>
       </c>
@@ -34738,7 +35006,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="53">
         <v>43179</v>
       </c>
@@ -34781,7 +35049,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="53">
         <v>43180</v>
       </c>
@@ -34824,7 +35092,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="53">
         <v>43181</v>
       </c>
@@ -34867,7 +35135,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="53">
         <v>43182</v>
       </c>
@@ -34910,7 +35178,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="53">
         <v>43183</v>
       </c>
@@ -34953,7 +35221,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="53">
         <v>43184</v>
       </c>
@@ -34996,7 +35264,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="53">
         <v>43185</v>
       </c>
@@ -35039,7 +35307,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="53">
         <v>43186</v>
       </c>
@@ -35082,7 +35350,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="53">
         <v>43187</v>
       </c>
@@ -35125,7 +35393,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="53">
         <v>43188</v>
       </c>
@@ -35168,7 +35436,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="53">
         <v>43189</v>
       </c>
@@ -35211,7 +35479,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" s="53">
         <v>43190</v>
       </c>
@@ -35254,7 +35522,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" ht="24" x14ac:dyDescent="0.2">
       <c r="B48" s="54" t="s">
         <v>26</v>
       </c>
@@ -35303,16 +35571,16 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E49" s="26"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E51" s="26"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E52" s="26"/>
     </row>
   </sheetData>
@@ -35339,25 +35607,25 @@
       <selection activeCell="B17" sqref="B17:M47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="33"/>
+    <col min="14" max="16384" width="11.5" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -35373,7 +35641,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -35391,7 +35659,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -35409,7 +35677,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -35425,7 +35693,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -35444,7 +35712,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -35466,7 +35734,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
@@ -35488,7 +35756,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -35510,7 +35778,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -35532,7 +35800,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -35554,7 +35822,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -35573,7 +35841,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -35587,7 +35855,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -35601,7 +35869,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
@@ -35617,7 +35885,7 @@
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
     </row>
-    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
@@ -35666,7 +35934,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -35704,7 +35972,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="53">
         <v>43191</v>
       </c>
@@ -35747,7 +36015,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="53">
         <v>43192</v>
       </c>
@@ -35790,7 +36058,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="53">
         <v>43193</v>
       </c>
@@ -35833,7 +36101,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="53">
         <v>43194</v>
       </c>
@@ -35876,7 +36144,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="53">
         <v>43195</v>
       </c>
@@ -35919,7 +36187,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="53">
         <v>43196</v>
       </c>
@@ -35962,7 +36230,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="53">
         <v>43197</v>
       </c>
@@ -36005,7 +36273,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="53">
         <v>43198</v>
       </c>
@@ -36048,7 +36316,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="53">
         <v>43199</v>
       </c>
@@ -36091,7 +36359,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="53">
         <v>43200</v>
       </c>
@@ -36134,7 +36402,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="53">
         <v>43201</v>
       </c>
@@ -36178,7 +36446,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="53">
         <v>43202</v>
       </c>
@@ -36221,7 +36489,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="53">
         <v>43203</v>
       </c>
@@ -36264,7 +36532,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="53">
         <v>43204</v>
       </c>
@@ -36307,7 +36575,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="53">
         <v>43205</v>
       </c>
@@ -36350,7 +36618,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="53">
         <v>43206</v>
       </c>
@@ -36393,7 +36661,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="53">
         <v>43207</v>
       </c>
@@ -36436,7 +36704,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="53">
         <v>43208</v>
       </c>
@@ -36479,7 +36747,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="53">
         <v>43209</v>
       </c>
@@ -36522,7 +36790,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="53">
         <v>43210</v>
       </c>
@@ -36565,7 +36833,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="53">
         <v>43211</v>
       </c>
@@ -36608,7 +36876,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="53">
         <v>43212</v>
       </c>
@@ -36651,7 +36919,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="53">
         <v>43213</v>
       </c>
@@ -36694,7 +36962,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="53">
         <v>43214</v>
       </c>
@@ -36737,7 +37005,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="53">
         <v>43215</v>
       </c>
@@ -36780,7 +37048,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="53">
         <v>43216</v>
       </c>
@@ -36823,7 +37091,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="53">
         <v>43217</v>
       </c>
@@ -36866,7 +37134,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="53">
         <v>43218</v>
       </c>
@@ -36909,7 +37177,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="53">
         <v>43219</v>
       </c>
@@ -36952,7 +37220,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="53">
         <v>43220</v>
       </c>
@@ -36995,7 +37263,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" ht="24" x14ac:dyDescent="0.2">
       <c r="B47" s="54" t="s">
         <v>26</v>
       </c>
@@ -37044,16 +37312,16 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E48" s="26"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E49" s="26"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E51" s="26"/>
     </row>
   </sheetData>
@@ -37080,25 +37348,25 @@
       <selection activeCell="B17" sqref="B17:M48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="33"/>
+    <col min="14" max="16384" width="11.5" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -37114,7 +37382,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -37132,7 +37400,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -37150,7 +37418,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -37166,7 +37434,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -37185,7 +37453,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -37207,7 +37475,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
@@ -37229,7 +37497,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -37251,7 +37519,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -37273,7 +37541,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -37295,7 +37563,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -37314,7 +37582,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -37328,7 +37596,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -37342,7 +37610,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
@@ -37358,7 +37626,7 @@
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
     </row>
-    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
@@ -37407,7 +37675,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -37445,7 +37713,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="53">
         <v>43221</v>
       </c>
@@ -37488,7 +37756,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="53">
         <v>43222</v>
       </c>
@@ -37531,7 +37799,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="53">
         <v>43223</v>
       </c>
@@ -37574,7 +37842,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="53">
         <v>43224</v>
       </c>
@@ -37617,7 +37885,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="53">
         <v>43225</v>
       </c>
@@ -37660,7 +37928,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="53">
         <v>43226</v>
       </c>
@@ -37703,7 +37971,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="59">
         <v>43227</v>
       </c>
@@ -37746,7 +38014,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="59">
         <v>43228</v>
       </c>
@@ -37789,7 +38057,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="59">
         <v>43229</v>
       </c>
@@ -37832,7 +38100,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="59">
         <v>43230</v>
       </c>
@@ -37875,7 +38143,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="59">
         <v>43231</v>
       </c>
@@ -37918,7 +38186,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="59">
         <v>43232</v>
       </c>
@@ -37961,7 +38229,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="41">
         <v>43233</v>
       </c>
@@ -38004,7 +38272,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="41">
         <v>43234</v>
       </c>
@@ -38047,7 +38315,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="41">
         <v>43235</v>
       </c>
@@ -38090,7 +38358,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="41">
         <v>43236</v>
       </c>
@@ -38133,7 +38401,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="41">
         <v>43237</v>
       </c>
@@ -38176,7 +38444,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="41">
         <v>43238</v>
       </c>
@@ -38219,7 +38487,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="41">
         <v>43239</v>
       </c>
@@ -38262,7 +38530,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="41">
         <v>43240</v>
       </c>
@@ -38305,7 +38573,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="41">
         <v>43241</v>
       </c>
@@ -38348,7 +38616,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="41">
         <v>43242</v>
       </c>
@@ -38391,7 +38659,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="41">
         <v>43243</v>
       </c>
@@ -38434,7 +38702,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="41">
         <v>43244</v>
       </c>
@@ -38477,7 +38745,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="41">
         <v>43245</v>
       </c>
@@ -38520,7 +38788,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="41">
         <v>43246</v>
       </c>
@@ -38563,7 +38831,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="41">
         <v>43247</v>
       </c>
@@ -38606,7 +38874,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="41">
         <v>43248</v>
       </c>
@@ -38649,7 +38917,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="41">
         <v>43249</v>
       </c>
@@ -38692,7 +38960,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="41">
         <v>43250</v>
       </c>
@@ -38735,7 +39003,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" s="41">
         <v>43251</v>
       </c>
@@ -38778,7 +39046,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" ht="24" x14ac:dyDescent="0.2">
       <c r="B48" s="56" t="s">
         <v>26</v>
       </c>
@@ -38827,16 +39095,16 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E49" s="26"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E51" s="26"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E52" s="26"/>
     </row>
   </sheetData>
@@ -38863,25 +39131,25 @@
       <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="33"/>
+    <col min="14" max="16384" width="11.5" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -38897,7 +39165,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -38915,7 +39183,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -38933,7 +39201,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -38949,7 +39217,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -38968,7 +39236,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -38990,7 +39258,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
@@ -39012,7 +39280,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -39034,7 +39302,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -39056,7 +39324,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -39078,7 +39346,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -39097,7 +39365,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -39111,7 +39379,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -39125,7 +39393,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
@@ -39141,7 +39409,7 @@
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
     </row>
-    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
@@ -39200,7 +39468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -39238,7 +39506,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="79">
         <v>43252</v>
       </c>
@@ -39286,7 +39554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="79">
         <v>43253</v>
       </c>
@@ -39334,7 +39602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="79">
         <v>43254</v>
       </c>
@@ -39382,7 +39650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="79">
         <v>43255</v>
       </c>
@@ -39430,7 +39698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="79">
         <v>43256</v>
       </c>
@@ -39478,7 +39746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="79">
         <v>43257</v>
       </c>
@@ -39526,7 +39794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="79">
         <v>43258</v>
       </c>
@@ -39574,7 +39842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="79">
         <v>43259</v>
       </c>
@@ -39622,7 +39890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="79">
         <v>43260</v>
       </c>
@@ -39670,7 +39938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="79">
         <v>43261</v>
       </c>
@@ -39718,7 +39986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="79">
         <v>43262</v>
       </c>
@@ -39766,7 +40034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="79">
         <v>43263</v>
       </c>
@@ -39814,7 +40082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B29" s="79">
         <v>43264</v>
       </c>
@@ -39862,7 +40130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="79">
         <v>43265</v>
       </c>
@@ -39910,7 +40178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B31" s="79">
         <v>43266</v>
       </c>
@@ -39958,7 +40226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B32" s="79">
         <v>43267</v>
       </c>
@@ -40006,7 +40274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B33" s="79">
         <v>43268</v>
       </c>
@@ -40054,7 +40322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B34" s="79">
         <v>43269</v>
       </c>
@@ -40102,7 +40370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B35" s="79">
         <v>43270</v>
       </c>
@@ -40150,7 +40418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B36" s="79">
         <v>43271</v>
       </c>
@@ -40198,7 +40466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B37" s="79">
         <v>43272</v>
       </c>
@@ -40246,7 +40514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B38" s="79">
         <v>43273</v>
       </c>
@@ -40294,7 +40562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B39" s="79">
         <v>43274</v>
       </c>
@@ -40342,7 +40610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B40" s="79">
         <v>43275</v>
       </c>
@@ -40390,7 +40658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B41" s="79">
         <v>43276</v>
       </c>
@@ -40438,7 +40706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="79">
         <v>43277</v>
       </c>
@@ -40486,7 +40754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="79">
         <v>43278</v>
       </c>
@@ -40534,7 +40802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="79">
         <v>43279</v>
       </c>
@@ -40582,7 +40850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="79">
         <v>43280</v>
       </c>
@@ -40630,7 +40898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="79">
         <v>43281</v>
       </c>
@@ -40678,7 +40946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" ht="24" x14ac:dyDescent="0.2">
       <c r="B47" s="62" t="s">
         <v>26</v>
       </c>
@@ -40727,16 +40995,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E48" s="26"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E49" s="26"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E51" s="26"/>
     </row>
   </sheetData>
@@ -40760,9 +41028,9 @@
       <selection activeCell="A2" sqref="A2:L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="114">
         <v>43282</v>
       </c>
@@ -40800,7 +41068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="110">
         <v>43283</v>
       </c>
@@ -40838,7 +41106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="114">
         <v>43284</v>
       </c>
@@ -40876,7 +41144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="110">
         <v>43285</v>
       </c>
@@ -40914,7 +41182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="114">
         <v>43286</v>
       </c>
@@ -40952,7 +41220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="110">
         <v>43287</v>
       </c>
@@ -40990,7 +41258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="114">
         <v>43288</v>
       </c>
@@ -41028,7 +41296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="110">
         <v>43289</v>
       </c>
@@ -41066,7 +41334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="114">
         <v>43290</v>
       </c>
@@ -41104,7 +41372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="110">
         <v>43291</v>
       </c>
@@ -41142,7 +41410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="114">
         <v>43292</v>
       </c>
@@ -41180,7 +41448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="110">
         <v>43293</v>
       </c>
@@ -41218,7 +41486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="114">
         <v>43294</v>
       </c>
@@ -41256,7 +41524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="110">
         <v>43295</v>
       </c>
@@ -41294,7 +41562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="114">
         <v>43296</v>
       </c>
@@ -41332,7 +41600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="110">
         <v>43297</v>
       </c>
@@ -41370,7 +41638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="114">
         <v>43298</v>
       </c>
@@ -41408,7 +41676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="110">
         <v>43299</v>
       </c>
@@ -41446,7 +41714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="114">
         <v>43300</v>
       </c>
@@ -41484,7 +41752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="110">
         <v>43301</v>
       </c>
@@ -41522,7 +41790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="114">
         <v>43302</v>
       </c>
@@ -41560,7 +41828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="110">
         <v>43303</v>
       </c>
@@ -41598,7 +41866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="114">
         <v>43304</v>
       </c>
@@ -41636,7 +41904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="110">
         <v>43305</v>
       </c>
@@ -41674,7 +41942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="114">
         <v>43306</v>
       </c>
@@ -41712,7 +41980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="110">
         <v>43307</v>
       </c>
@@ -41750,7 +42018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="114">
         <v>43308</v>
       </c>
@@ -41788,7 +42056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="110">
         <v>43309</v>
       </c>
@@ -41826,7 +42094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="114">
         <v>43310</v>
       </c>
@@ -41864,7 +42132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="110">
         <v>43311</v>
       </c>
@@ -41902,7 +42170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="114">
         <v>43312</v>
       </c>
@@ -41940,7 +42208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="21" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A33" s="116" t="s">
         <v>27</v>
       </c>

--- a/INTE-Performance-JAMU-2018.xlsx
+++ b/INTE-Performance-JAMU-2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirnazertuche/Desktop/ASAP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Lopez\Desktop\ASAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119A7FF2-7A90-954C-A92D-D0374DAB046B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB6A427-9578-4CD9-91AB-BE11B097D261}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="1720" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="1716" windowWidth="25596" windowHeight="14436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAMUPerformance" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,7 @@
     <sheet name="06" sheetId="7" r:id="rId7"/>
     <sheet name="07" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179021" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -150,7 +143,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
@@ -566,13 +559,13 @@
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -623,7 +616,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="4" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -662,7 +655,7 @@
     <xf numFmtId="10" fontId="14" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -733,13 +726,13 @@
     <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -757,7 +750,7 @@
     <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="19" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -919,7 +912,7 @@
     <xf numFmtId="3" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="28" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -942,15 +935,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="40% - Accent5" xfId="4" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
+    <cellStyle name="40% - Énfasis5" xfId="4" builtinId="47"/>
+    <cellStyle name="60% - Énfasis5" xfId="5" builtinId="48"/>
     <cellStyle name="60% - Énfasis6 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Accent5" xfId="3" builtinId="45"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Énfasis5" xfId="3" builtinId="45"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Millares 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
     <cellStyle name="Total" xfId="9" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="164">
@@ -1221,7 +1214,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1229,6 +1222,240 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1694,7 +1921,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1719,7 +1946,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2237,7 +2464,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2262,7 +2489,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2780,7 +3007,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2805,7 +3032,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3323,7 +3550,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3348,7 +3575,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3866,7 +4093,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3891,7 +4118,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3941,240 +4168,6 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4267,7 +4260,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4339,7 +4332,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4381,7 +4374,7 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8353</c:v>
+                  <c:v>8350</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>11435</c:v>
@@ -4393,13 +4386,13 @@
                   <c:v>11675</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01</c:v>
+                  <c:v>6785</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                  <c:v>3774</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.01</c:v>
+                  <c:v>2086</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4433,7 +4426,7 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7784</c:v>
+                  <c:v>7781</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10889</c:v>
@@ -4443,6 +4436,15 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>11194</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3608</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4487,6 +4489,15 @@
                 <c:pt idx="3">
                   <c:v>432</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4528,6 +4539,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4575,6 +4595,15 @@
                 <c:pt idx="3">
                   <c:v>49</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4618,6 +4647,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4684,7 +4722,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530867824"/>
@@ -4743,7 +4781,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530869456"/>
@@ -4785,7 +4823,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -4824,7 +4862,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4854,7 +4892,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4868,7 +4906,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4940,7 +4978,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5105,88 +5143,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>2/1/18</c:v>
+                  <c:v>01/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2/2/18</c:v>
+                  <c:v>02/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2/3/18</c:v>
+                  <c:v>03/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2/4/18</c:v>
+                  <c:v>04/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2/5/18</c:v>
+                  <c:v>05/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2/6/18</c:v>
+                  <c:v>06/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2/7/18</c:v>
+                  <c:v>07/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2/8/18</c:v>
+                  <c:v>08/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2/9/18</c:v>
+                  <c:v>09/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2/10/18</c:v>
+                  <c:v>10/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2/11/18</c:v>
+                  <c:v>11/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2/12/18</c:v>
+                  <c:v>12/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2/13/18</c:v>
+                  <c:v>13/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2/14/18</c:v>
+                  <c:v>14/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2/15/18</c:v>
+                  <c:v>15/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2/16/18</c:v>
+                  <c:v>16/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2/17/18</c:v>
+                  <c:v>17/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2/18/18</c:v>
+                  <c:v>18/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2/19/18</c:v>
+                  <c:v>19/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2/20/18</c:v>
+                  <c:v>20/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2/21/18</c:v>
+                  <c:v>21/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2/22/18</c:v>
+                  <c:v>22/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2/23/18</c:v>
+                  <c:v>23/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2/24/18</c:v>
+                  <c:v>24/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2/25/18</c:v>
+                  <c:v>25/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2/26/18</c:v>
+                  <c:v>26/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2/27/18</c:v>
+                  <c:v>27/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2/28/18</c:v>
+                  <c:v>28/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -5322,88 +5360,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>2/1/18</c:v>
+                  <c:v>01/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2/2/18</c:v>
+                  <c:v>02/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2/3/18</c:v>
+                  <c:v>03/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2/4/18</c:v>
+                  <c:v>04/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2/5/18</c:v>
+                  <c:v>05/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2/6/18</c:v>
+                  <c:v>06/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2/7/18</c:v>
+                  <c:v>07/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2/8/18</c:v>
+                  <c:v>08/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2/9/18</c:v>
+                  <c:v>09/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2/10/18</c:v>
+                  <c:v>10/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2/11/18</c:v>
+                  <c:v>11/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2/12/18</c:v>
+                  <c:v>12/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2/13/18</c:v>
+                  <c:v>13/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2/14/18</c:v>
+                  <c:v>14/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2/15/18</c:v>
+                  <c:v>15/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2/16/18</c:v>
+                  <c:v>16/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2/17/18</c:v>
+                  <c:v>17/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2/18/18</c:v>
+                  <c:v>18/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2/19/18</c:v>
+                  <c:v>19/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2/20/18</c:v>
+                  <c:v>20/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2/21/18</c:v>
+                  <c:v>21/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2/22/18</c:v>
+                  <c:v>22/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2/23/18</c:v>
+                  <c:v>23/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2/24/18</c:v>
+                  <c:v>24/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2/25/18</c:v>
+                  <c:v>25/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2/26/18</c:v>
+                  <c:v>26/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2/27/18</c:v>
+                  <c:v>27/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2/28/18</c:v>
+                  <c:v>28/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -5539,88 +5577,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>2/1/18</c:v>
+                  <c:v>01/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2/2/18</c:v>
+                  <c:v>02/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2/3/18</c:v>
+                  <c:v>03/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2/4/18</c:v>
+                  <c:v>04/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2/5/18</c:v>
+                  <c:v>05/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2/6/18</c:v>
+                  <c:v>06/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2/7/18</c:v>
+                  <c:v>07/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2/8/18</c:v>
+                  <c:v>08/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2/9/18</c:v>
+                  <c:v>09/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2/10/18</c:v>
+                  <c:v>10/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2/11/18</c:v>
+                  <c:v>11/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2/12/18</c:v>
+                  <c:v>12/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2/13/18</c:v>
+                  <c:v>13/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2/14/18</c:v>
+                  <c:v>14/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2/15/18</c:v>
+                  <c:v>15/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2/16/18</c:v>
+                  <c:v>16/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2/17/18</c:v>
+                  <c:v>17/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2/18/18</c:v>
+                  <c:v>18/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2/19/18</c:v>
+                  <c:v>19/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2/20/18</c:v>
+                  <c:v>20/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2/21/18</c:v>
+                  <c:v>21/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2/22/18</c:v>
+                  <c:v>22/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2/23/18</c:v>
+                  <c:v>23/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2/24/18</c:v>
+                  <c:v>24/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2/25/18</c:v>
+                  <c:v>25/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2/26/18</c:v>
+                  <c:v>26/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2/27/18</c:v>
+                  <c:v>27/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2/28/18</c:v>
+                  <c:v>28/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -5758,88 +5796,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>2/1/18</c:v>
+                  <c:v>01/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2/2/18</c:v>
+                  <c:v>02/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2/3/18</c:v>
+                  <c:v>03/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2/4/18</c:v>
+                  <c:v>04/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2/5/18</c:v>
+                  <c:v>05/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2/6/18</c:v>
+                  <c:v>06/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2/7/18</c:v>
+                  <c:v>07/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2/8/18</c:v>
+                  <c:v>08/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2/9/18</c:v>
+                  <c:v>09/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2/10/18</c:v>
+                  <c:v>10/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2/11/18</c:v>
+                  <c:v>11/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2/12/18</c:v>
+                  <c:v>12/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2/13/18</c:v>
+                  <c:v>13/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2/14/18</c:v>
+                  <c:v>14/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2/15/18</c:v>
+                  <c:v>15/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2/16/18</c:v>
+                  <c:v>16/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2/17/18</c:v>
+                  <c:v>17/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2/18/18</c:v>
+                  <c:v>18/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2/19/18</c:v>
+                  <c:v>19/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2/20/18</c:v>
+                  <c:v>20/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2/21/18</c:v>
+                  <c:v>21/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2/22/18</c:v>
+                  <c:v>22/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2/23/18</c:v>
+                  <c:v>23/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2/24/18</c:v>
+                  <c:v>24/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2/25/18</c:v>
+                  <c:v>25/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2/26/18</c:v>
+                  <c:v>26/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2/27/18</c:v>
+                  <c:v>27/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2/28/18</c:v>
+                  <c:v>28/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -5977,88 +6015,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>2/1/18</c:v>
+                  <c:v>01/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2/2/18</c:v>
+                  <c:v>02/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2/3/18</c:v>
+                  <c:v>03/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2/4/18</c:v>
+                  <c:v>04/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2/5/18</c:v>
+                  <c:v>05/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2/6/18</c:v>
+                  <c:v>06/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2/7/18</c:v>
+                  <c:v>07/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2/8/18</c:v>
+                  <c:v>08/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2/9/18</c:v>
+                  <c:v>09/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2/10/18</c:v>
+                  <c:v>10/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2/11/18</c:v>
+                  <c:v>11/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2/12/18</c:v>
+                  <c:v>12/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2/13/18</c:v>
+                  <c:v>13/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2/14/18</c:v>
+                  <c:v>14/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2/15/18</c:v>
+                  <c:v>15/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2/16/18</c:v>
+                  <c:v>16/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2/17/18</c:v>
+                  <c:v>17/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2/18/18</c:v>
+                  <c:v>18/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2/19/18</c:v>
+                  <c:v>19/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2/20/18</c:v>
+                  <c:v>20/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2/21/18</c:v>
+                  <c:v>21/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2/22/18</c:v>
+                  <c:v>22/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2/23/18</c:v>
+                  <c:v>23/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2/24/18</c:v>
+                  <c:v>24/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2/25/18</c:v>
+                  <c:v>25/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2/26/18</c:v>
+                  <c:v>26/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2/27/18</c:v>
+                  <c:v>27/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2/28/18</c:v>
+                  <c:v>28/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -6224,7 +6262,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530864560"/>
@@ -6283,7 +6321,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530865104"/>
@@ -6325,7 +6363,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -6364,7 +6402,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6394,7 +6432,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6408,7 +6446,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6480,7 +6518,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6650,7 +6688,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -6880,7 +6918,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -7110,7 +7148,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -7342,7 +7380,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -7574,7 +7612,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -7836,7 +7874,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="302953280"/>
@@ -7895,7 +7933,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="302951104"/>
@@ -7937,7 +7975,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -7976,7 +8014,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8006,7 +8044,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8020,7 +8058,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8092,7 +8130,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8259,7 +8297,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8483,7 +8521,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8707,7 +8745,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8933,7 +8971,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -9159,7 +9197,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -9415,7 +9453,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593585056"/>
@@ -9474,7 +9512,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593573632"/>
@@ -9516,7 +9554,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -9555,7 +9593,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9585,7 +9623,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9599,7 +9637,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9671,7 +9709,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9841,7 +9879,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -10071,7 +10109,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -10301,7 +10339,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -10533,7 +10571,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -10765,7 +10803,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -11027,7 +11065,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593578528"/>
@@ -11086,7 +11124,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593585600"/>
@@ -11128,7 +11166,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -11167,7 +11205,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11197,7 +11235,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11211,7 +11249,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11283,7 +11321,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11480,7 +11518,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -11703,7 +11741,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -11926,7 +11964,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -12151,7 +12189,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -12376,7 +12414,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -12631,7 +12669,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593574720"/>
@@ -12690,7 +12728,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593574176"/>
@@ -12732,7 +12770,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -12771,7 +12809,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12801,7 +12839,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12815,7 +12853,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12887,7 +12925,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12926,7 +12964,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13152,7 +13190,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13378,7 +13416,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13604,7 +13642,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13832,7 +13870,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -14060,7 +14098,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -14287,7 +14325,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -14321,7 +14359,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530867824"/>
@@ -14379,7 +14417,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530869456"/>
@@ -14421,7 +14459,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -14460,7 +14498,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -14490,7 +14528,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -18713,46 +18751,46 @@
     <sortCondition ref="C16:C146"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="158" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="157" totalsRowDxfId="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="23" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="10">
       <totalsRowFormula>SUM(C241:C247)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="156" totalsRowDxfId="9">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="9">
       <totalsRowFormula>SUM(D241:D247)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="155" totalsRowDxfId="8">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="8">
       <calculatedColumnFormula>Tabla18[Transactions 
 Complete]/Tabla18[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E241:E247)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="154" totalsRowDxfId="7">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="7">
       <totalsRowFormula>SUM(F241:F247)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="153" totalsRowDxfId="6">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="6">
       <calculatedColumnFormula>Tabla18[Transactions 
 Failed]/Tabla18[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G241:G247)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="152" totalsRowDxfId="5">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="5">
       <totalsRowFormula>SUM(H241:H247)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="151" totalsRowDxfId="4">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="4">
       <calculatedColumnFormula>Tabla18[Transactions 
 In_Prog]/Tabla18[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I241:I247)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="150" totalsRowDxfId="3">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="3">
       <totalsRowFormula>SUM(J241:J247)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="149" totalsRowDxfId="2">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="2">
       <calculatedColumnFormula>Tabla18[Transactions 
 Timeout]/Tabla18[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K241:K247)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="148" totalsRowDxfId="1">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="1">
       <totalsRowFormula>SUM(L241:L247)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="147" totalsRowDxfId="0">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="0">
       <calculatedColumnFormula>Tabla18[Transactions
 Trans Fail]/Tabla18[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M241:M247)</totalsRowFormula>
@@ -18763,7 +18801,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla183" displayName="Tabla183" ref="B16:M45" totalsRowCount="1" headerRowDxfId="146" dataDxfId="145" totalsRowDxfId="144">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla183" displayName="Tabla183" ref="B16:M45" totalsRowCount="1" headerRowDxfId="158" dataDxfId="157" totalsRowDxfId="156">
   <autoFilter ref="B16:M44" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0">
       <filters>
@@ -18781,46 +18819,46 @@
     <sortCondition ref="C16:C111"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="143" totalsRowDxfId="142"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="141" totalsRowDxfId="140">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="155" totalsRowDxfId="154"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="153" totalsRowDxfId="152">
       <totalsRowFormula>SUM(C42:C44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="139" totalsRowDxfId="138">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="151" totalsRowDxfId="150">
       <totalsRowFormula>SUM(D42:D44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="137" totalsRowDxfId="136">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="149" totalsRowDxfId="148">
       <calculatedColumnFormula>Tabla183[Transactions 
 Complete]/Tabla183[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E42:E44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="135" totalsRowDxfId="134">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="147" totalsRowDxfId="146">
       <totalsRowFormula>SUM(F42:F44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="133" totalsRowDxfId="132">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="145" totalsRowDxfId="144">
       <calculatedColumnFormula>Tabla183[Transactions 
 Failed]/Tabla183[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G42:G44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="131" totalsRowDxfId="130">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="143" totalsRowDxfId="142">
       <totalsRowFormula>SUM(H42:H44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="129" totalsRowDxfId="128">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="141" totalsRowDxfId="140">
       <calculatedColumnFormula>Tabla183[Transactions 
 In_Prog]/Tabla183[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I42:I44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="127" totalsRowDxfId="126">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="139" totalsRowDxfId="138">
       <totalsRowFormula>SUM(J42:J44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="125" totalsRowDxfId="124">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="137" totalsRowDxfId="136">
       <calculatedColumnFormula>Tabla183[Transactions 
 Timeout]/Tabla183[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K42:K44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="123" totalsRowDxfId="122">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="135" totalsRowDxfId="134">
       <totalsRowFormula>SUM(L42:L44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="121" totalsRowDxfId="120">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="133" totalsRowDxfId="132">
       <calculatedColumnFormula>Tabla183[Transactions
 Trans Fail]/Tabla183[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M42:M44)</totalsRowFormula>
@@ -18831,7 +18869,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla184" displayName="Tabla184" ref="B16:M48" totalsRowCount="1" headerRowDxfId="119" dataDxfId="118" totalsRowDxfId="117">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla184" displayName="Tabla184" ref="B16:M48" totalsRowCount="1" headerRowDxfId="131" dataDxfId="130" totalsRowDxfId="129">
   <autoFilter ref="B16:M47" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0">
       <filters>
@@ -18849,46 +18887,46 @@
     <sortCondition ref="C16:C146"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="116" totalsRowDxfId="115"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="114" totalsRowDxfId="113">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="128" totalsRowDxfId="127"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="126" totalsRowDxfId="125">
       <totalsRowFormula>SUM(C42:C47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="112" totalsRowDxfId="111">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="124" totalsRowDxfId="123">
       <totalsRowFormula>SUM(D42:D47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="110" totalsRowDxfId="109">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="122" totalsRowDxfId="121">
       <calculatedColumnFormula>Tabla184[Transactions 
 Complete]/Tabla184[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E42:E47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="108" totalsRowDxfId="107">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="120" totalsRowDxfId="119">
       <totalsRowFormula>SUM(F42:F47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="106" totalsRowDxfId="105">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="118" totalsRowDxfId="117">
       <calculatedColumnFormula>Tabla184[Transactions 
 Failed]/Tabla184[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G42:G47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="104" totalsRowDxfId="103">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="116" totalsRowDxfId="115">
       <totalsRowFormula>SUM(H42:H47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="102" totalsRowDxfId="101">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="114" totalsRowDxfId="113">
       <calculatedColumnFormula>Tabla184[Transactions 
 In_Prog]/Tabla184[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I42:I47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="100" totalsRowDxfId="99">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="112" totalsRowDxfId="111">
       <totalsRowFormula>SUM(J42:J47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="98" totalsRowDxfId="97">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="110" totalsRowDxfId="109">
       <calculatedColumnFormula>Tabla184[Transactions 
 Timeout]/Tabla184[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K42:K47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="96" totalsRowDxfId="95">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="108" totalsRowDxfId="107">
       <totalsRowFormula>SUM(L42:L47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="94" totalsRowDxfId="93">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="106" totalsRowDxfId="105">
       <calculatedColumnFormula>Tabla184[Transactions
 Trans Fail]/Tabla184[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M42:M47)</totalsRowFormula>
@@ -18899,7 +18937,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla185" displayName="Tabla185" ref="B16:M47" totalsRowCount="1" headerRowDxfId="92" dataDxfId="91" totalsRowDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla185" displayName="Tabla185" ref="B16:M47" totalsRowCount="1" headerRowDxfId="104" dataDxfId="103" totalsRowDxfId="102">
   <autoFilter ref="B16:M46" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0">
       <filters>
@@ -18917,46 +18955,46 @@
     <sortCondition ref="C16:C146"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="89" totalsRowDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="87" totalsRowDxfId="86">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="101" totalsRowDxfId="100"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="99" totalsRowDxfId="98">
       <totalsRowFormula>SUM(C17:C46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="85" totalsRowDxfId="84">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="97" totalsRowDxfId="96">
       <totalsRowFormula>SUM(D17:D46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="83" totalsRowDxfId="82">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="95" totalsRowDxfId="94">
       <calculatedColumnFormula>Tabla185[Transactions 
 Complete]/Tabla185[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E17:E46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="81" totalsRowDxfId="80">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="93" totalsRowDxfId="92">
       <totalsRowFormula>SUM(F17:F46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="79" totalsRowDxfId="78">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="90">
       <calculatedColumnFormula>Tabla185[Transactions 
 Failed]/Tabla185[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G17:G46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="77" totalsRowDxfId="76">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="89" totalsRowDxfId="88">
       <totalsRowFormula>SUM(H17:H46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="75" totalsRowDxfId="74">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="87" totalsRowDxfId="86">
       <calculatedColumnFormula>Tabla185[Transactions 
 In_Prog]/Tabla185[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I17:I46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="73" totalsRowDxfId="72">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="85" totalsRowDxfId="84">
       <totalsRowFormula>SUM(J17:J46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="71" totalsRowDxfId="70">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="83" totalsRowDxfId="82">
       <calculatedColumnFormula>Tabla185[Transactions 
 Timeout]/Tabla185[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K17:K46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="69" totalsRowDxfId="68">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="81" totalsRowDxfId="80">
       <totalsRowFormula>SUM(L17:L46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="66">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="79" totalsRowDxfId="78">
       <calculatedColumnFormula>Tabla185[Transactions
 Trans Fail]/Tabla185[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M17:M46)</totalsRowFormula>
@@ -18967,7 +19005,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla186" displayName="Tabla186" ref="B16:M48" totalsRowCount="1" headerRowDxfId="65" dataDxfId="64" totalsRowDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla186" displayName="Tabla186" ref="B16:M48" totalsRowCount="1" headerRowDxfId="77" dataDxfId="76" totalsRowDxfId="75">
   <autoFilter ref="B16:M47" xr:uid="{00000000-0009-0000-0100-000005000000}">
     <filterColumn colId="0">
       <filters>
@@ -18985,46 +19023,46 @@
     <sortCondition ref="C16:C146"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="59">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="72" totalsRowDxfId="71">
       <totalsRowFormula>SUM(C17:C47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="57">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="70" totalsRowDxfId="69">
       <totalsRowFormula>SUM(D17:D47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="55">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="68" totalsRowDxfId="67">
       <calculatedColumnFormula>Tabla186[Transactions 
 Complete]/Tabla186[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E17:E47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="53">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="66" totalsRowDxfId="65">
       <totalsRowFormula>SUM(F17:F47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="51">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="63">
       <calculatedColumnFormula>Tabla186[Transactions 
 Failed]/Tabla186[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G17:G47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="49">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="62" totalsRowDxfId="61">
       <totalsRowFormula>SUM(H17:H47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="47">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="59">
       <calculatedColumnFormula>Tabla186[Transactions 
 In_Prog]/Tabla186[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I17:I47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="45">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="57">
       <totalsRowFormula>SUM(J17:J47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="43">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="55">
       <calculatedColumnFormula>Tabla186[Transactions 
 Timeout]/Tabla186[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K17:K47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="41">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="53">
       <totalsRowFormula>SUM(L17:L47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="39">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="51">
       <calculatedColumnFormula>Tabla186[Transactions
 Trans Fail]/Tabla186[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M17:M47)</totalsRowFormula>
@@ -19035,7 +19073,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla187" displayName="Tabla187" ref="B16:M47" totalsRowCount="1" headerRowDxfId="38" dataDxfId="37" totalsRowDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla187" displayName="Tabla187" ref="B16:M47" totalsRowCount="1" headerRowDxfId="50" dataDxfId="49" totalsRowDxfId="48">
   <autoFilter ref="B16:M46" xr:uid="{00000000-0009-0000-0100-000006000000}">
     <filterColumn colId="0">
       <filters>
@@ -19053,46 +19091,46 @@
     <sortCondition ref="C16:C146"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="44">
       <totalsRowFormula>SUM(C17:C46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="42">
       <totalsRowFormula>SUM(D17:D46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40">
       <calculatedColumnFormula>Tabla187[Transactions 
 Complete]/Tabla187[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E17:E46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38">
       <totalsRowFormula>SUM(F17:F46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36">
       <calculatedColumnFormula>Tabla187[Transactions 
 Failed]/Tabla187[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G17:G46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34">
       <totalsRowFormula>SUM(H17:H46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
       <calculatedColumnFormula>Tabla187[Transactions 
 In_Prog]/Tabla187[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I41:I46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
       <totalsRowFormula>SUM(J17:J46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>Tabla187[Transactions 
 Timeout]/Tabla187[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K17:K46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
       <totalsRowFormula>SUM(L17:L46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
       <calculatedColumnFormula>Tabla187[Transactions
 Trans Fail]/Tabla187[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M17:M46)</totalsRowFormula>
@@ -19404,29 +19442,29 @@
   </sheetPr>
   <dimension ref="B1:M252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L244" sqref="L244"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B241" sqref="B241:M248"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="1"/>
+    <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -19442,7 +19480,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -19460,7 +19498,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -19478,7 +19516,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -19494,13 +19532,13 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="13">
         <f>SUM(C6:C10)</f>
-        <v>1916199</v>
+        <v>1928841</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -19513,17 +19551,17 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="13">
         <f>D15</f>
-        <v>1734635</v>
+        <v>1746569</v>
       </c>
       <c r="D6" s="14">
         <f>C6/C5</f>
-        <v>0.9052478369939656</v>
+        <v>0.90550180134080516</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -19535,17 +19573,17 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="13">
         <f>F15</f>
-        <v>118100</v>
+        <v>118673</v>
       </c>
       <c r="D7" s="14">
         <f>C7/C5</f>
-        <v>6.1632429617174418E-2</v>
+        <v>6.1525548243738078E-2</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -19557,7 +19595,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -19567,7 +19605,7 @@
       </c>
       <c r="D8" s="14">
         <f>C8/C5</f>
-        <v>1.1481062248753914E-5</v>
+        <v>1.14058131281946E-5</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -19579,17 +19617,17 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="13">
         <f>J15</f>
-        <v>63442</v>
+        <v>63577</v>
       </c>
       <c r="D9" s="14">
         <f>C9/C5</f>
-        <v>3.3108252326611173E-2</v>
+        <v>3.2961244602328549E-2</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -19601,7 +19639,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -19623,13 +19661,13 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="15">
         <f>SUM(C6:C10)</f>
-        <v>1916199</v>
+        <v>1928841</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -19642,7 +19680,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -19656,7 +19694,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -19670,7 +19708,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
@@ -19686,33 +19724,33 @@
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
     </row>
-    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="17">
         <f>SUM(Tabla18[Total])</f>
-        <v>1916204.1</v>
+        <v>1928846.07</v>
       </c>
       <c r="D15" s="17">
         <f>SUM(Tabla18[Transactions 
 Complete])</f>
-        <v>1734635</v>
+        <v>1746569</v>
       </c>
       <c r="E15" s="18">
         <f>AVERAGE(Tabla18[%
 Complete])</f>
-        <v>0.87560512989438366</v>
+        <v>0.88792933792864226</v>
       </c>
       <c r="F15" s="17">
         <f>SUM(Tabla18[Transactions 
 Failed])</f>
-        <v>118100</v>
+        <v>118673</v>
       </c>
       <c r="G15" s="18">
         <f>AVERAGE(Tabla18[% 
 Failed])</f>
-        <v>5.0320112455838534E-2</v>
+        <v>5.0813086137549993E-2</v>
       </c>
       <c r="H15" s="17">
         <f>SUM(Tabla18[Transactions 
@@ -19727,12 +19765,12 @@
       <c r="J15" s="17">
         <f>SUM(Tabla18[Transactions 
 Timeout])</f>
-        <v>63442</v>
+        <v>63577</v>
       </c>
       <c r="K15" s="18">
         <f>AVERAGE(Tabla18[%
 Timeout])</f>
-        <v>3.0766393340503833E-2</v>
+        <v>3.0936224611546881E-2</v>
       </c>
       <c r="L15" s="17">
         <f>SUM(Tabla18[Transactions
@@ -19745,7 +19783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -19783,7 +19821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17" s="24">
         <v>43101</v>
       </c>
@@ -19831,7 +19869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B18" s="24">
         <v>43102</v>
       </c>
@@ -19879,7 +19917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19" s="24">
         <v>43103</v>
       </c>
@@ -19927,7 +19965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" s="24">
         <v>43104</v>
       </c>
@@ -19975,7 +20013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="24">
         <v>43105</v>
       </c>
@@ -20023,7 +20061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" s="24">
         <v>43106</v>
       </c>
@@ -20071,7 +20109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24">
         <v>43107</v>
       </c>
@@ -20119,7 +20157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B24" s="24">
         <v>43108</v>
       </c>
@@ -20167,7 +20205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B25" s="24">
         <v>43109</v>
       </c>
@@ -20215,7 +20253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" s="24">
         <v>43110</v>
       </c>
@@ -20263,7 +20301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" s="24">
         <v>43111</v>
       </c>
@@ -20311,7 +20349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B28" s="24">
         <v>43112</v>
       </c>
@@ -20359,7 +20397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B29" s="24">
         <v>43113</v>
       </c>
@@ -20407,7 +20445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B30" s="24">
         <v>43114</v>
       </c>
@@ -20455,7 +20493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B31" s="30">
         <v>43115</v>
       </c>
@@ -20503,7 +20541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B32" s="30">
         <v>43116</v>
       </c>
@@ -20551,7 +20589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33" s="30">
         <v>43117</v>
       </c>
@@ -20599,7 +20637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B34" s="30">
         <v>43118</v>
       </c>
@@ -20647,7 +20685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" s="30">
         <v>43119</v>
       </c>
@@ -20695,7 +20733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" s="30">
         <v>43120</v>
       </c>
@@ -20743,7 +20781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" s="30">
         <v>43121</v>
       </c>
@@ -20791,7 +20829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" s="38">
         <v>43122</v>
       </c>
@@ -20839,7 +20877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39" s="38">
         <v>43123</v>
       </c>
@@ -20887,7 +20925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B40" s="38">
         <v>43124</v>
       </c>
@@ -20935,7 +20973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" s="38">
         <v>43125</v>
       </c>
@@ -20983,7 +21021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" s="38">
         <v>43126</v>
       </c>
@@ -21031,7 +21069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" s="38">
         <v>43127</v>
       </c>
@@ -21079,7 +21117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" s="38">
         <v>43128</v>
       </c>
@@ -21127,7 +21165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" s="41">
         <v>43129</v>
       </c>
@@ -21175,7 +21213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46" s="41">
         <v>43130</v>
       </c>
@@ -21223,7 +21261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B47" s="41">
         <v>43131</v>
       </c>
@@ -21271,7 +21309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" s="41">
         <v>43132</v>
       </c>
@@ -21319,7 +21357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B49" s="41">
         <v>43133</v>
       </c>
@@ -21367,7 +21405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B50" s="41">
         <v>43134</v>
       </c>
@@ -21415,7 +21453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B51" s="41">
         <v>43135</v>
       </c>
@@ -21463,7 +21501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B52" s="41">
         <v>43136</v>
       </c>
@@ -21511,7 +21549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B53" s="41">
         <v>43137</v>
       </c>
@@ -21559,7 +21597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B54" s="41">
         <v>43138</v>
       </c>
@@ -21607,7 +21645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B55" s="41">
         <v>43139</v>
       </c>
@@ -21655,7 +21693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B56" s="41">
         <v>43140</v>
       </c>
@@ -21703,7 +21741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B57" s="41">
         <v>43141</v>
       </c>
@@ -21751,7 +21789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B58" s="41">
         <v>43142</v>
       </c>
@@ -21799,7 +21837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B59" s="41">
         <v>43143</v>
       </c>
@@ -21847,7 +21885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B60" s="41">
         <v>43144</v>
       </c>
@@ -21895,7 +21933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B61" s="41">
         <v>43145</v>
       </c>
@@ -21943,7 +21981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B62" s="41">
         <v>43146</v>
       </c>
@@ -21991,7 +22029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B63" s="41">
         <v>43147</v>
       </c>
@@ -22039,7 +22077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B64" s="41">
         <v>43148</v>
       </c>
@@ -22087,7 +22125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B65" s="41">
         <v>43149</v>
       </c>
@@ -22135,7 +22173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B66" s="41">
         <v>43150</v>
       </c>
@@ -22183,7 +22221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B67" s="41">
         <v>43151</v>
       </c>
@@ -22231,7 +22269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B68" s="41">
         <v>43152</v>
       </c>
@@ -22279,7 +22317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B69" s="41">
         <v>43153</v>
       </c>
@@ -22327,7 +22365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B70" s="41">
         <v>43154</v>
       </c>
@@ -22375,7 +22413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B71" s="41">
         <v>43155</v>
       </c>
@@ -22423,7 +22461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B72" s="41">
         <v>43156</v>
       </c>
@@ -22471,7 +22509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B73" s="41">
         <v>43157</v>
       </c>
@@ -22519,7 +22557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B74" s="41">
         <v>43158</v>
       </c>
@@ -22567,7 +22605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B75" s="41">
         <v>43159</v>
       </c>
@@ -22615,7 +22653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B76" s="41">
         <v>43160</v>
       </c>
@@ -22663,7 +22701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B77" s="41">
         <v>43161</v>
       </c>
@@ -22711,7 +22749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B78" s="41">
         <v>43162</v>
       </c>
@@ -22759,7 +22797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B79" s="41">
         <v>43163</v>
       </c>
@@ -22807,7 +22845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B80" s="41">
         <v>43164</v>
       </c>
@@ -22855,7 +22893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B81" s="41">
         <v>43165</v>
       </c>
@@ -22903,7 +22941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B82" s="41">
         <v>43166</v>
       </c>
@@ -22951,7 +22989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B83" s="41">
         <v>43167</v>
       </c>
@@ -22999,7 +23037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B84" s="41">
         <v>43168</v>
       </c>
@@ -23047,7 +23085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B85" s="41">
         <v>43169</v>
       </c>
@@ -23095,7 +23133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B86" s="41">
         <v>43170</v>
       </c>
@@ -23143,7 +23181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B87" s="41">
         <v>43171</v>
       </c>
@@ -23191,7 +23229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B88" s="41">
         <v>43172</v>
       </c>
@@ -23239,7 +23277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B89" s="41">
         <v>43173</v>
       </c>
@@ -23287,7 +23325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B90" s="41">
         <v>43174</v>
       </c>
@@ -23335,7 +23373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B91" s="41">
         <v>43175</v>
       </c>
@@ -23383,7 +23421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B92" s="41">
         <v>43176</v>
       </c>
@@ -23431,7 +23469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B93" s="41">
         <v>43177</v>
       </c>
@@ -23479,7 +23517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B94" s="53">
         <v>43178</v>
       </c>
@@ -23527,7 +23565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B95" s="53">
         <v>43179</v>
       </c>
@@ -23575,7 +23613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B96" s="53">
         <v>43180</v>
       </c>
@@ -23623,7 +23661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B97" s="53">
         <v>43181</v>
       </c>
@@ -23671,7 +23709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B98" s="53">
         <v>43182</v>
       </c>
@@ -23719,7 +23757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B99" s="53">
         <v>43183</v>
       </c>
@@ -23767,7 +23805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B100" s="53">
         <v>43184</v>
       </c>
@@ -23815,7 +23853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B101" s="53">
         <v>43185</v>
       </c>
@@ -23863,7 +23901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B102" s="53">
         <v>43186</v>
       </c>
@@ -23911,7 +23949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B103" s="53">
         <v>43187</v>
       </c>
@@ -23959,7 +23997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B104" s="53">
         <v>43188</v>
       </c>
@@ -24007,7 +24045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B105" s="53">
         <v>43189</v>
       </c>
@@ -24055,7 +24093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B106" s="53">
         <v>43190</v>
       </c>
@@ -24103,7 +24141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B107" s="53">
         <v>43191</v>
       </c>
@@ -24151,7 +24189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B108" s="53">
         <v>43192</v>
       </c>
@@ -24199,7 +24237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B109" s="53">
         <v>43193</v>
       </c>
@@ -24247,7 +24285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B110" s="53">
         <v>43194</v>
       </c>
@@ -24295,7 +24333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B111" s="53">
         <v>43195</v>
       </c>
@@ -24343,7 +24381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B112" s="53">
         <v>43196</v>
       </c>
@@ -24391,7 +24429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B113" s="53">
         <v>43197</v>
       </c>
@@ -24439,7 +24477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B114" s="53">
         <v>43198</v>
       </c>
@@ -24487,7 +24525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B115" s="53">
         <v>43199</v>
       </c>
@@ -24535,7 +24573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B116" s="53">
         <v>43200</v>
       </c>
@@ -24583,7 +24621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B117" s="53">
         <v>43201</v>
       </c>
@@ -24632,7 +24670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B118" s="53">
         <v>43202</v>
       </c>
@@ -24680,7 +24718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B119" s="53">
         <v>43203</v>
       </c>
@@ -24728,7 +24766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B120" s="53">
         <v>43204</v>
       </c>
@@ -24776,7 +24814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B121" s="53">
         <v>43205</v>
       </c>
@@ -24824,7 +24862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B122" s="53">
         <v>43206</v>
       </c>
@@ -24872,7 +24910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B123" s="53">
         <v>43207</v>
       </c>
@@ -24920,7 +24958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B124" s="53">
         <v>43208</v>
       </c>
@@ -24968,7 +25006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B125" s="53">
         <v>43209</v>
       </c>
@@ -25016,7 +25054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B126" s="53">
         <v>43210</v>
       </c>
@@ -25064,7 +25102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B127" s="53">
         <v>43211</v>
       </c>
@@ -25112,7 +25150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B128" s="53">
         <v>43212</v>
       </c>
@@ -25160,7 +25198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B129" s="53">
         <v>43213</v>
       </c>
@@ -25208,7 +25246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B130" s="53">
         <v>43214</v>
       </c>
@@ -25256,7 +25294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B131" s="53">
         <v>43215</v>
       </c>
@@ -25304,7 +25342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B132" s="53">
         <v>43216</v>
       </c>
@@ -25352,7 +25390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B133" s="53">
         <v>43217</v>
       </c>
@@ -25400,7 +25438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B134" s="53">
         <v>43218</v>
       </c>
@@ -25448,7 +25486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B135" s="53">
         <v>43219</v>
       </c>
@@ -25496,7 +25534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B136" s="53">
         <v>43220</v>
       </c>
@@ -25544,7 +25582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B137" s="53">
         <v>43221</v>
       </c>
@@ -25592,7 +25630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B138" s="53">
         <v>43222</v>
       </c>
@@ -25640,7 +25678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B139" s="53">
         <v>43223</v>
       </c>
@@ -25688,7 +25726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B140" s="53">
         <v>43224</v>
       </c>
@@ -25736,7 +25774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B141" s="53">
         <v>43225</v>
       </c>
@@ -25784,7 +25822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B142" s="53">
         <v>43226</v>
       </c>
@@ -25832,7 +25870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B143" s="59">
         <v>43227</v>
       </c>
@@ -25880,7 +25918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B144" s="59">
         <v>43228</v>
       </c>
@@ -25928,7 +25966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B145" s="59">
         <v>43229</v>
       </c>
@@ -25976,7 +26014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B146" s="59">
         <v>43230</v>
       </c>
@@ -26024,7 +26062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B147" s="59">
         <v>43231</v>
       </c>
@@ -26072,7 +26110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B148" s="59">
         <v>43232</v>
       </c>
@@ -26120,7 +26158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B149" s="41">
         <v>43233</v>
       </c>
@@ -26168,7 +26206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B150" s="41">
         <v>43234</v>
       </c>
@@ -26216,7 +26254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B151" s="41">
         <v>43235</v>
       </c>
@@ -26264,7 +26302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B152" s="41">
         <v>43236</v>
       </c>
@@ -26312,7 +26350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B153" s="41">
         <v>43237</v>
       </c>
@@ -26360,7 +26398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B154" s="41">
         <v>43238</v>
       </c>
@@ -26408,7 +26446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B155" s="41">
         <v>43239</v>
       </c>
@@ -26456,7 +26494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B156" s="41">
         <v>43240</v>
       </c>
@@ -26504,7 +26542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B157" s="41">
         <v>43241</v>
       </c>
@@ -26552,7 +26590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B158" s="41">
         <v>43242</v>
       </c>
@@ -26600,7 +26638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B159" s="41">
         <v>43243</v>
       </c>
@@ -26648,7 +26686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B160" s="41">
         <v>43244</v>
       </c>
@@ -26696,7 +26734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B161" s="41">
         <v>43245</v>
       </c>
@@ -26744,7 +26782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B162" s="41">
         <v>43246</v>
       </c>
@@ -26792,7 +26830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B163" s="41">
         <v>43247</v>
       </c>
@@ -26840,7 +26878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B164" s="41">
         <v>43248</v>
       </c>
@@ -26888,7 +26926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B165" s="41">
         <v>43249</v>
       </c>
@@ -26936,7 +26974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B166" s="41">
         <v>43250</v>
       </c>
@@ -26984,7 +27022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B167" s="41">
         <v>43251</v>
       </c>
@@ -27032,7 +27070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B168" s="41">
         <v>43252</v>
       </c>
@@ -27080,7 +27118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B169" s="41">
         <v>43253</v>
       </c>
@@ -27128,7 +27166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B170" s="41">
         <v>43254</v>
       </c>
@@ -27176,7 +27214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B171" s="41">
         <v>43255</v>
       </c>
@@ -27224,7 +27262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B172" s="41">
         <v>43256</v>
       </c>
@@ -27272,7 +27310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B173" s="41">
         <v>43257</v>
       </c>
@@ -27320,7 +27358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B174" s="41">
         <v>43258</v>
       </c>
@@ -27368,7 +27406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B175" s="41">
         <v>43259</v>
       </c>
@@ -27416,7 +27454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B176" s="41">
         <v>43260</v>
       </c>
@@ -27464,7 +27502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B177" s="41">
         <v>43261</v>
       </c>
@@ -27512,7 +27550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B178" s="41">
         <v>43262</v>
       </c>
@@ -27560,7 +27598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B179" s="41">
         <v>43263</v>
       </c>
@@ -27608,7 +27646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B180" s="41">
         <v>43264</v>
       </c>
@@ -27656,7 +27694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B181" s="41">
         <v>43265</v>
       </c>
@@ -27704,7 +27742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B182" s="41">
         <v>43266</v>
       </c>
@@ -27752,7 +27790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B183" s="41">
         <v>43267</v>
       </c>
@@ -27800,7 +27838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B184" s="41">
         <v>43268</v>
       </c>
@@ -27848,7 +27886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B185" s="79">
         <v>43269</v>
       </c>
@@ -27896,7 +27934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B186" s="79">
         <v>43270</v>
       </c>
@@ -27944,7 +27982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B187" s="79">
         <v>43271</v>
       </c>
@@ -27992,7 +28030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B188" s="79">
         <v>43272</v>
       </c>
@@ -28040,7 +28078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B189" s="79">
         <v>43273</v>
       </c>
@@ -28088,7 +28126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B190" s="79">
         <v>43274</v>
       </c>
@@ -28136,7 +28174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B191" s="79">
         <v>43275</v>
       </c>
@@ -28184,7 +28222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B192" s="79">
         <v>43276</v>
       </c>
@@ -28232,7 +28270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B193" s="79">
         <v>43277</v>
       </c>
@@ -28280,7 +28318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B194" s="79">
         <v>43278</v>
       </c>
@@ -28328,7 +28366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B195" s="79">
         <v>43279</v>
       </c>
@@ -28376,7 +28414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B196" s="79">
         <v>43280</v>
       </c>
@@ -28424,7 +28462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B197" s="79">
         <v>43281</v>
       </c>
@@ -28472,7 +28510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B198" s="79">
         <v>43282</v>
       </c>
@@ -28520,7 +28558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B199" s="79">
         <v>43283</v>
       </c>
@@ -28568,7 +28606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B200" s="79">
         <v>43284</v>
       </c>
@@ -28616,7 +28654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B201" s="79">
         <v>43285</v>
       </c>
@@ -28664,7 +28702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B202" s="79">
         <v>43286</v>
       </c>
@@ -28712,7 +28750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B203" s="79">
         <v>43287</v>
       </c>
@@ -28760,7 +28798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B204" s="79">
         <v>43288</v>
       </c>
@@ -28808,7 +28846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B205" s="79">
         <v>43289</v>
       </c>
@@ -28856,7 +28894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B206" s="79">
         <v>43290</v>
       </c>
@@ -28904,7 +28942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B207" s="79">
         <v>43291</v>
       </c>
@@ -28952,7 +28990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B208" s="79">
         <v>43292</v>
       </c>
@@ -29000,7 +29038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B209" s="79">
         <v>43293</v>
       </c>
@@ -29048,7 +29086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B210" s="79">
         <v>43294</v>
       </c>
@@ -29096,7 +29134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B211" s="79">
         <v>43295</v>
       </c>
@@ -29144,7 +29182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B212" s="79">
         <v>43296</v>
       </c>
@@ -29192,7 +29230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B213" s="79">
         <v>43297</v>
       </c>
@@ -29240,7 +29278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B214" s="79">
         <v>43298</v>
       </c>
@@ -29288,7 +29326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B215" s="79">
         <v>43299</v>
       </c>
@@ -29336,7 +29374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B216" s="79">
         <v>43300</v>
       </c>
@@ -29384,7 +29422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B217" s="79">
         <v>43301</v>
       </c>
@@ -29432,7 +29470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B218" s="79">
         <v>43302</v>
       </c>
@@ -29480,7 +29518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B219" s="79">
         <v>43303</v>
       </c>
@@ -29528,7 +29566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B220" s="79">
         <v>43304</v>
       </c>
@@ -29576,7 +29614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B221" s="79">
         <v>43305</v>
       </c>
@@ -29624,7 +29662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B222" s="79">
         <v>43306</v>
       </c>
@@ -29672,7 +29710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B223" s="79">
         <v>43307</v>
       </c>
@@ -29720,7 +29758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B224" s="79">
         <v>43308</v>
       </c>
@@ -29768,7 +29806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B225" s="79">
         <v>43309</v>
       </c>
@@ -29816,7 +29854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B226" s="79">
         <v>43310</v>
       </c>
@@ -29864,7 +29902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B227" s="79">
         <v>43311</v>
       </c>
@@ -29912,7 +29950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B228" s="79">
         <v>43312</v>
       </c>
@@ -29960,7 +29998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B229" s="79">
         <v>43313</v>
       </c>
@@ -30008,7 +30046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B230" s="79">
         <v>43314</v>
       </c>
@@ -30056,7 +30094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B231" s="79">
         <v>43315</v>
       </c>
@@ -30104,7 +30142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B232" s="79">
         <v>43316</v>
       </c>
@@ -30152,7 +30190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B233" s="79">
         <v>43317</v>
       </c>
@@ -30200,7 +30238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B234" s="79">
         <v>43318</v>
       </c>
@@ -30248,7 +30286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B235" s="79">
         <v>43319</v>
       </c>
@@ -30296,7 +30334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B236" s="79">
         <v>43320</v>
       </c>
@@ -30344,7 +30382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B237" s="79">
         <v>43321</v>
       </c>
@@ -30392,7 +30430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B238" s="79">
         <v>43322</v>
       </c>
@@ -30440,7 +30478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B239" s="79">
         <v>43323</v>
       </c>
@@ -30488,7 +30526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B240" s="79">
         <v>43324</v>
       </c>
@@ -30536,20 +30574,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B241" s="79">
         <v>43325</v>
       </c>
       <c r="C241" s="120">
-        <v>8353</v>
+        <v>8350</v>
       </c>
       <c r="D241" s="120">
-        <v>7784</v>
+        <v>7781</v>
       </c>
       <c r="E241" s="121">
         <f>Tabla18[Transactions 
 Complete]/Tabla18[Total]</f>
-        <v>0.93188076140308873</v>
+        <v>0.9318562874251497</v>
       </c>
       <c r="F241" s="120">
         <v>526</v>
@@ -30557,7 +30595,7 @@
       <c r="G241" s="121">
         <f>Tabla18[Transactions 
 Failed]/Tabla18[Total]</f>
-        <v>6.2971387525439959E-2</v>
+        <v>6.2994011976047898E-2</v>
       </c>
       <c r="H241" s="120">
         <v>0</v>
@@ -30573,7 +30611,7 @@
       <c r="K241" s="121">
         <f>Tabla18[Transactions 
 Timeout]/Tabla18[Total]</f>
-        <v>5.1478510714713273E-3</v>
+        <v>5.1497005988023949E-3</v>
       </c>
       <c r="L241" s="120">
         <v>0</v>
@@ -30584,7 +30622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B242" s="79">
         <v>43326</v>
       </c>
@@ -30632,7 +30670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B243" s="79">
         <v>43327</v>
       </c>
@@ -30680,7 +30718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B244" s="79">
         <v>43328</v>
       </c>
@@ -30728,143 +30766,173 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B245" s="79">
         <v>43329</v>
       </c>
       <c r="C245" s="120">
-        <v>0.01</v>
-      </c>
-      <c r="D245" s="120"/>
+        <v>6785</v>
+      </c>
+      <c r="D245" s="120">
+        <v>6331</v>
+      </c>
       <c r="E245" s="121">
         <f>Tabla18[Transactions 
 Complete]/Tabla18[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="F245" s="120"/>
+        <v>0.93308769344141484</v>
+      </c>
+      <c r="F245" s="120">
+        <v>405</v>
+      </c>
       <c r="G245" s="121">
         <f>Tabla18[Transactions 
 Failed]/Tabla18[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="H245" s="120"/>
+        <v>5.9690493736182758E-2</v>
+      </c>
+      <c r="H245" s="120">
+        <v>0</v>
+      </c>
       <c r="I245" s="121">
         <f>Tabla18[Transactions 
 In_Prog]/Tabla18[Total]</f>
         <v>0</v>
       </c>
-      <c r="J245" s="120"/>
+      <c r="J245" s="120">
+        <v>49</v>
+      </c>
       <c r="K245" s="121">
         <f>Tabla18[Transactions 
 Timeout]/Tabla18[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="L245" s="120"/>
+        <v>7.2218128224023582E-3</v>
+      </c>
+      <c r="L245" s="120">
+        <v>0</v>
+      </c>
       <c r="M245" s="121">
         <f>Tabla18[Transactions
 Trans Fail]/Tabla18[Total]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B246" s="79">
         <v>43330</v>
       </c>
       <c r="C246" s="120">
-        <v>0.01</v>
-      </c>
-      <c r="D246" s="120"/>
+        <v>3774</v>
+      </c>
+      <c r="D246" s="120">
+        <v>3608</v>
+      </c>
       <c r="E246" s="121">
         <f>Tabla18[Transactions 
 Complete]/Tabla18[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="F246" s="120"/>
+        <v>0.95601483836777956</v>
+      </c>
+      <c r="F246" s="120">
+        <v>123</v>
+      </c>
       <c r="G246" s="121">
         <f>Tabla18[Transactions 
 Failed]/Tabla18[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="H246" s="120"/>
+        <v>3.259141494435612E-2</v>
+      </c>
+      <c r="H246" s="120">
+        <v>0</v>
+      </c>
       <c r="I246" s="121">
         <f>Tabla18[Transactions 
 In_Prog]/Tabla18[Total]</f>
         <v>0</v>
       </c>
-      <c r="J246" s="120"/>
+      <c r="J246" s="120">
+        <v>43</v>
+      </c>
       <c r="K246" s="121">
         <f>Tabla18[Transactions 
 Timeout]/Tabla18[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="L246" s="120"/>
+        <v>1.1393746687864335E-2</v>
+      </c>
+      <c r="L246" s="120">
+        <v>0</v>
+      </c>
       <c r="M246" s="121">
         <f>Tabla18[Transactions
 Trans Fail]/Tabla18[Total]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B247" s="79">
         <v>43331</v>
       </c>
       <c r="C247" s="120">
-        <v>0.01</v>
-      </c>
-      <c r="D247" s="120"/>
+        <v>2086</v>
+      </c>
+      <c r="D247" s="120">
+        <v>1998</v>
+      </c>
       <c r="E247" s="121">
         <f>Tabla18[Transactions 
 Complete]/Tabla18[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="F247" s="120"/>
+        <v>0.95781399808245449</v>
+      </c>
+      <c r="F247" s="120">
+        <v>45</v>
+      </c>
       <c r="G247" s="121">
         <f>Tabla18[Transactions 
 Failed]/Tabla18[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="H247" s="120"/>
+        <v>2.1572387344199424E-2</v>
+      </c>
+      <c r="H247" s="120">
+        <v>0</v>
+      </c>
       <c r="I247" s="121">
         <f>Tabla18[Transactions 
 In_Prog]/Tabla18[Total]</f>
         <v>0</v>
       </c>
-      <c r="J247" s="120"/>
+      <c r="J247" s="120">
+        <v>43</v>
+      </c>
       <c r="K247" s="121">
         <f>Tabla18[Transactions 
 Timeout]/Tabla18[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="L247" s="120"/>
+        <v>2.0613614573346116E-2</v>
+      </c>
+      <c r="L247" s="120">
+        <v>0</v>
+      </c>
       <c r="M247" s="121">
         <f>Tabla18[Transactions
 Trans Fail]/Tabla18[Total]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="2:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B248" s="29" t="s">
         <v>26</v>
       </c>
       <c r="C248" s="39">
         <f>SUM(C241:C247)</f>
-        <v>46210.030000000006</v>
+        <v>58852</v>
       </c>
       <c r="D248" s="39">
         <f>SUM(D241:D247)</f>
-        <v>43636</v>
+        <v>55570</v>
       </c>
       <c r="E248" s="36">
         <f>AVERAGE(E241:E247)</f>
-        <v>0.53951641471352685</v>
+        <v>0.94621527984405684</v>
       </c>
       <c r="F248" s="39">
         <f>SUM(F241:F247)</f>
-        <v>2391</v>
+        <v>2964</v>
       </c>
       <c r="G248" s="36">
         <f>AVERAGE(G241:G247)</f>
-        <v>2.9574994243914417E-2</v>
+        <v>4.5843125740392447E-2</v>
       </c>
       <c r="H248" s="39">
         <f>SUM(H241:H247)</f>
@@ -30876,11 +30944,11 @@
       </c>
       <c r="J248" s="39">
         <f>SUM(J241:J247)</f>
-        <v>183</v>
+        <v>318</v>
       </c>
       <c r="K248" s="36">
         <f>AVERAGE(K241:K247)</f>
-        <v>2.3371624711301504E-3</v>
+        <v>7.9415944155507047E-3</v>
       </c>
       <c r="L248" s="39">
         <f>SUM(L241:L247)</f>
@@ -30891,16 +30959,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E249" s="26"/>
     </row>
-    <row r="250" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E250" s="26"/>
     </row>
-    <row r="251" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E251" s="26"/>
     </row>
-    <row r="252" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E252" s="26"/>
     </row>
   </sheetData>
@@ -30924,12 +30992,12 @@
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="44">
         <v>43101</v>
       </c>
@@ -30967,7 +31035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="47">
         <v>43102</v>
       </c>
@@ -31005,7 +31073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="44">
         <v>43103</v>
       </c>
@@ -31043,7 +31111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="47">
         <v>43104</v>
       </c>
@@ -31081,7 +31149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="44">
         <v>43105</v>
       </c>
@@ -31119,7 +31187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="47">
         <v>43106</v>
       </c>
@@ -31157,7 +31225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="44">
         <v>43107</v>
       </c>
@@ -31195,7 +31263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="47">
         <v>43108</v>
       </c>
@@ -31233,7 +31301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="44">
         <v>43109</v>
       </c>
@@ -31271,7 +31339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="47">
         <v>43110</v>
       </c>
@@ -31309,7 +31377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="44">
         <v>43111</v>
       </c>
@@ -31347,7 +31415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="47">
         <v>43112</v>
       </c>
@@ -31385,7 +31453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="44">
         <v>43113</v>
       </c>
@@ -31423,7 +31491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="47">
         <v>43114</v>
       </c>
@@ -31461,7 +31529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="44">
         <v>43115</v>
       </c>
@@ -31499,7 +31567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="47">
         <v>43116</v>
       </c>
@@ -31537,7 +31605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="44">
         <v>43117</v>
       </c>
@@ -31575,7 +31643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="47">
         <v>43118</v>
       </c>
@@ -31613,7 +31681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="44">
         <v>43119</v>
       </c>
@@ -31651,7 +31719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="47">
         <v>43120</v>
       </c>
@@ -31689,7 +31757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="44">
         <v>43121</v>
       </c>
@@ -31727,7 +31795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="47">
         <v>43122</v>
       </c>
@@ -31765,7 +31833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="44">
         <v>43123</v>
       </c>
@@ -31803,7 +31871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="47">
         <v>43124</v>
       </c>
@@ -31841,7 +31909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="44">
         <v>43125</v>
       </c>
@@ -31879,7 +31947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="47">
         <v>43126</v>
       </c>
@@ -31917,7 +31985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="44">
         <v>43127</v>
       </c>
@@ -31955,7 +32023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="47">
         <v>43128</v>
       </c>
@@ -31993,7 +32061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="44">
         <v>43129</v>
       </c>
@@ -32031,7 +32099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="47">
         <v>43130</v>
       </c>
@@ -32069,7 +32137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="44">
         <v>43131</v>
       </c>
@@ -32107,7 +32175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B32" s="48">
         <f>SUM(B1:B31)</f>
         <v>272552</v>
@@ -32170,25 +32238,25 @@
       <selection activeCell="B15" sqref="B15:M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="33"/>
+    <col min="14" max="16384" width="11.44140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -32204,7 +32272,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -32222,7 +32290,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -32240,7 +32308,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -32256,7 +32324,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -32275,7 +32343,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -32297,7 +32365,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
@@ -32319,7 +32387,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -32341,7 +32409,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -32363,7 +32431,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -32385,7 +32453,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -32404,7 +32472,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -32418,7 +32486,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -32432,7 +32500,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
@@ -32448,7 +32516,7 @@
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
     </row>
-    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
@@ -32497,7 +32565,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -32535,7 +32603,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="41">
         <v>43132</v>
       </c>
@@ -32578,7 +32646,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="41">
         <v>43133</v>
       </c>
@@ -32621,7 +32689,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="41">
         <v>43134</v>
       </c>
@@ -32664,7 +32732,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="41">
         <v>43135</v>
       </c>
@@ -32707,7 +32775,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="41">
         <v>43136</v>
       </c>
@@ -32750,7 +32818,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="41">
         <v>43137</v>
       </c>
@@ -32793,7 +32861,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="41">
         <v>43138</v>
       </c>
@@ -32836,7 +32904,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="41">
         <v>43139</v>
       </c>
@@ -32879,7 +32947,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="41">
         <v>43140</v>
       </c>
@@ -32922,7 +32990,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="41">
         <v>43141</v>
       </c>
@@ -32965,7 +33033,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="41">
         <v>43142</v>
       </c>
@@ -33008,7 +33076,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="41">
         <v>43143</v>
       </c>
@@ -33051,7 +33119,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="41">
         <v>43144</v>
       </c>
@@ -33094,7 +33162,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="41">
         <v>43145</v>
       </c>
@@ -33137,7 +33205,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="41">
         <v>43146</v>
       </c>
@@ -33180,7 +33248,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="41">
         <v>43147</v>
       </c>
@@ -33223,7 +33291,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="41">
         <v>43148</v>
       </c>
@@ -33266,7 +33334,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="41">
         <v>43149</v>
       </c>
@@ -33309,7 +33377,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="41">
         <v>43150</v>
       </c>
@@ -33352,7 +33420,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="41">
         <v>43151</v>
       </c>
@@ -33395,7 +33463,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="41">
         <v>43152</v>
       </c>
@@ -33438,7 +33506,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="41">
         <v>43153</v>
       </c>
@@ -33481,7 +33549,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="41">
         <v>43154</v>
       </c>
@@ -33524,7 +33592,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="41">
         <v>43155</v>
       </c>
@@ -33567,7 +33635,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="41">
         <v>43156</v>
       </c>
@@ -33610,7 +33678,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="41">
         <v>43157</v>
       </c>
@@ -33653,7 +33721,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="41">
         <v>43158</v>
       </c>
@@ -33696,7 +33764,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="41">
         <v>43159</v>
       </c>
@@ -33739,7 +33807,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B45" s="29" t="s">
         <v>26</v>
       </c>
@@ -33788,16 +33856,16 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E46" s="26"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E47" s="26"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E48" s="26"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E49" s="26"/>
     </row>
   </sheetData>
@@ -33824,25 +33892,25 @@
       <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="33"/>
+    <col min="14" max="16384" width="11.44140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -33858,7 +33926,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -33876,7 +33944,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -33894,7 +33962,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -33910,7 +33978,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -33929,7 +33997,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -33951,7 +34019,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
@@ -33973,7 +34041,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -33995,7 +34063,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -34017,7 +34085,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -34039,7 +34107,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -34058,7 +34126,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -34072,7 +34140,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -34086,7 +34154,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
@@ -34102,7 +34170,7 @@
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
     </row>
-    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
@@ -34151,7 +34219,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -34189,7 +34257,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="41">
         <v>43160</v>
       </c>
@@ -34232,7 +34300,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="41">
         <v>43161</v>
       </c>
@@ -34275,7 +34343,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="41">
         <v>43162</v>
       </c>
@@ -34318,7 +34386,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="41">
         <v>43163</v>
       </c>
@@ -34361,7 +34429,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="41">
         <v>43164</v>
       </c>
@@ -34404,7 +34472,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="41">
         <v>43165</v>
       </c>
@@ -34447,7 +34515,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="41">
         <v>43166</v>
       </c>
@@ -34490,7 +34558,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="41">
         <v>43167</v>
       </c>
@@ -34533,7 +34601,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="41">
         <v>43168</v>
       </c>
@@ -34576,7 +34644,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="41">
         <v>43169</v>
       </c>
@@ -34619,7 +34687,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="41">
         <v>43170</v>
       </c>
@@ -34662,7 +34730,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="41">
         <v>43171</v>
       </c>
@@ -34705,7 +34773,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="41">
         <v>43172</v>
       </c>
@@ -34748,7 +34816,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="41">
         <v>43173</v>
       </c>
@@ -34791,7 +34859,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="41">
         <v>43174</v>
       </c>
@@ -34834,7 +34902,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="41">
         <v>43175</v>
       </c>
@@ -34877,7 +34945,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="41">
         <v>43176</v>
       </c>
@@ -34920,7 +34988,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="41">
         <v>43177</v>
       </c>
@@ -34963,7 +35031,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="53">
         <v>43178</v>
       </c>
@@ -35006,7 +35074,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="53">
         <v>43179</v>
       </c>
@@ -35049,7 +35117,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="53">
         <v>43180</v>
       </c>
@@ -35092,7 +35160,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="53">
         <v>43181</v>
       </c>
@@ -35135,7 +35203,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="53">
         <v>43182</v>
       </c>
@@ -35178,7 +35246,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="53">
         <v>43183</v>
       </c>
@@ -35221,7 +35289,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="53">
         <v>43184</v>
       </c>
@@ -35264,7 +35332,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="53">
         <v>43185</v>
       </c>
@@ -35307,7 +35375,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="53">
         <v>43186</v>
       </c>
@@ -35350,7 +35418,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="53">
         <v>43187</v>
       </c>
@@ -35393,7 +35461,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="53">
         <v>43188</v>
       </c>
@@ -35436,7 +35504,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="53">
         <v>43189</v>
       </c>
@@ -35479,7 +35547,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="53">
         <v>43190</v>
       </c>
@@ -35522,7 +35590,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B48" s="54" t="s">
         <v>26</v>
       </c>
@@ -35571,16 +35639,16 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E49" s="26"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E51" s="26"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E52" s="26"/>
     </row>
   </sheetData>
@@ -35607,25 +35675,25 @@
       <selection activeCell="B17" sqref="B17:M47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="33"/>
+    <col min="14" max="16384" width="11.44140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -35641,7 +35709,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -35659,7 +35727,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -35677,7 +35745,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -35693,7 +35761,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -35712,7 +35780,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -35734,7 +35802,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
@@ -35756,7 +35824,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -35778,7 +35846,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -35800,7 +35868,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -35822,7 +35890,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -35841,7 +35909,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -35855,7 +35923,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -35869,7 +35937,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
@@ -35885,7 +35953,7 @@
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
     </row>
-    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
@@ -35934,7 +36002,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -35972,7 +36040,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="53">
         <v>43191</v>
       </c>
@@ -36015,7 +36083,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="53">
         <v>43192</v>
       </c>
@@ -36058,7 +36126,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="53">
         <v>43193</v>
       </c>
@@ -36101,7 +36169,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="53">
         <v>43194</v>
       </c>
@@ -36144,7 +36212,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="53">
         <v>43195</v>
       </c>
@@ -36187,7 +36255,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="53">
         <v>43196</v>
       </c>
@@ -36230,7 +36298,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="53">
         <v>43197</v>
       </c>
@@ -36273,7 +36341,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="53">
         <v>43198</v>
       </c>
@@ -36316,7 +36384,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="53">
         <v>43199</v>
       </c>
@@ -36359,7 +36427,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="53">
         <v>43200</v>
       </c>
@@ -36402,7 +36470,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="53">
         <v>43201</v>
       </c>
@@ -36446,7 +36514,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="53">
         <v>43202</v>
       </c>
@@ -36489,7 +36557,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="53">
         <v>43203</v>
       </c>
@@ -36532,7 +36600,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="53">
         <v>43204</v>
       </c>
@@ -36575,7 +36643,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="53">
         <v>43205</v>
       </c>
@@ -36618,7 +36686,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="53">
         <v>43206</v>
       </c>
@@ -36661,7 +36729,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="53">
         <v>43207</v>
       </c>
@@ -36704,7 +36772,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="53">
         <v>43208</v>
       </c>
@@ -36747,7 +36815,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="53">
         <v>43209</v>
       </c>
@@ -36790,7 +36858,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="53">
         <v>43210</v>
       </c>
@@ -36833,7 +36901,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="53">
         <v>43211</v>
       </c>
@@ -36876,7 +36944,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="53">
         <v>43212</v>
       </c>
@@ -36919,7 +36987,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="53">
         <v>43213</v>
       </c>
@@ -36962,7 +37030,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="53">
         <v>43214</v>
       </c>
@@ -37005,7 +37073,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="53">
         <v>43215</v>
       </c>
@@ -37048,7 +37116,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="53">
         <v>43216</v>
       </c>
@@ -37091,7 +37159,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="53">
         <v>43217</v>
       </c>
@@ -37134,7 +37202,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="53">
         <v>43218</v>
       </c>
@@ -37177,7 +37245,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="53">
         <v>43219</v>
       </c>
@@ -37220,7 +37288,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="53">
         <v>43220</v>
       </c>
@@ -37263,7 +37331,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B47" s="54" t="s">
         <v>26</v>
       </c>
@@ -37312,16 +37380,16 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E48" s="26"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E49" s="26"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E51" s="26"/>
     </row>
   </sheetData>
@@ -37348,25 +37416,25 @@
       <selection activeCell="B17" sqref="B17:M48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="33"/>
+    <col min="14" max="16384" width="11.44140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -37382,7 +37450,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -37400,7 +37468,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -37418,7 +37486,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -37434,7 +37502,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -37453,7 +37521,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -37475,7 +37543,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
@@ -37497,7 +37565,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -37519,7 +37587,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -37541,7 +37609,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -37563,7 +37631,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -37582,7 +37650,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -37596,7 +37664,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -37610,7 +37678,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
@@ -37626,7 +37694,7 @@
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
     </row>
-    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
@@ -37675,7 +37743,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -37713,7 +37781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="53">
         <v>43221</v>
       </c>
@@ -37756,7 +37824,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="53">
         <v>43222</v>
       </c>
@@ -37799,7 +37867,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="53">
         <v>43223</v>
       </c>
@@ -37842,7 +37910,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="53">
         <v>43224</v>
       </c>
@@ -37885,7 +37953,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="53">
         <v>43225</v>
       </c>
@@ -37928,7 +37996,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="53">
         <v>43226</v>
       </c>
@@ -37971,7 +38039,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="59">
         <v>43227</v>
       </c>
@@ -38014,7 +38082,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="59">
         <v>43228</v>
       </c>
@@ -38057,7 +38125,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="59">
         <v>43229</v>
       </c>
@@ -38100,7 +38168,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="59">
         <v>43230</v>
       </c>
@@ -38143,7 +38211,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="59">
         <v>43231</v>
       </c>
@@ -38186,7 +38254,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="59">
         <v>43232</v>
       </c>
@@ -38229,7 +38297,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="41">
         <v>43233</v>
       </c>
@@ -38272,7 +38340,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="41">
         <v>43234</v>
       </c>
@@ -38315,7 +38383,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="41">
         <v>43235</v>
       </c>
@@ -38358,7 +38426,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="41">
         <v>43236</v>
       </c>
@@ -38401,7 +38469,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="41">
         <v>43237</v>
       </c>
@@ -38444,7 +38512,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="41">
         <v>43238</v>
       </c>
@@ -38487,7 +38555,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="41">
         <v>43239</v>
       </c>
@@ -38530,7 +38598,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="41">
         <v>43240</v>
       </c>
@@ -38573,7 +38641,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="41">
         <v>43241</v>
       </c>
@@ -38616,7 +38684,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="41">
         <v>43242</v>
       </c>
@@ -38659,7 +38727,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="41">
         <v>43243</v>
       </c>
@@ -38702,7 +38770,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="41">
         <v>43244</v>
       </c>
@@ -38745,7 +38813,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="41">
         <v>43245</v>
       </c>
@@ -38788,7 +38856,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="41">
         <v>43246</v>
       </c>
@@ -38831,7 +38899,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="41">
         <v>43247</v>
       </c>
@@ -38874,7 +38942,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="41">
         <v>43248</v>
       </c>
@@ -38917,7 +38985,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="41">
         <v>43249</v>
       </c>
@@ -38960,7 +39028,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="41">
         <v>43250</v>
       </c>
@@ -39003,7 +39071,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="41">
         <v>43251</v>
       </c>
@@ -39046,7 +39114,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B48" s="56" t="s">
         <v>26</v>
       </c>
@@ -39095,16 +39163,16 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E49" s="26"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E51" s="26"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E52" s="26"/>
     </row>
   </sheetData>
@@ -39131,25 +39199,25 @@
       <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="33"/>
+    <col min="14" max="16384" width="11.44140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -39165,7 +39233,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -39183,7 +39251,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -39201,7 +39269,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -39217,7 +39285,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -39236,7 +39304,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -39258,7 +39326,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
@@ -39280,7 +39348,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -39302,7 +39370,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -39324,7 +39392,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -39346,7 +39414,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -39365,7 +39433,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -39379,7 +39447,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -39393,7 +39461,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
@@ -39409,7 +39477,7 @@
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
     </row>
-    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
@@ -39468,7 +39536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -39506,7 +39574,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="79">
         <v>43252</v>
       </c>
@@ -39554,7 +39622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="79">
         <v>43253</v>
       </c>
@@ -39602,7 +39670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="79">
         <v>43254</v>
       </c>
@@ -39650,7 +39718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="79">
         <v>43255</v>
       </c>
@@ -39698,7 +39766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="79">
         <v>43256</v>
       </c>
@@ -39746,7 +39814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="79">
         <v>43257</v>
       </c>
@@ -39794,7 +39862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="79">
         <v>43258</v>
       </c>
@@ -39842,7 +39910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="79">
         <v>43259</v>
       </c>
@@ -39890,7 +39958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="79">
         <v>43260</v>
       </c>
@@ -39938,7 +40006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="79">
         <v>43261</v>
       </c>
@@ -39986,7 +40054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="79">
         <v>43262</v>
       </c>
@@ -40034,7 +40102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="79">
         <v>43263</v>
       </c>
@@ -40082,7 +40150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="79">
         <v>43264</v>
       </c>
@@ -40130,7 +40198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="79">
         <v>43265</v>
       </c>
@@ -40178,7 +40246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="79">
         <v>43266</v>
       </c>
@@ -40226,7 +40294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="79">
         <v>43267</v>
       </c>
@@ -40274,7 +40342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="79">
         <v>43268</v>
       </c>
@@ -40322,7 +40390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="79">
         <v>43269</v>
       </c>
@@ -40370,7 +40438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="79">
         <v>43270</v>
       </c>
@@ -40418,7 +40486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="79">
         <v>43271</v>
       </c>
@@ -40466,7 +40534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="79">
         <v>43272</v>
       </c>
@@ -40514,7 +40582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="79">
         <v>43273</v>
       </c>
@@ -40562,7 +40630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="79">
         <v>43274</v>
       </c>
@@ -40610,7 +40678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="79">
         <v>43275</v>
       </c>
@@ -40658,7 +40726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="79">
         <v>43276</v>
       </c>
@@ -40706,7 +40774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="79">
         <v>43277</v>
       </c>
@@ -40754,7 +40822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="79">
         <v>43278</v>
       </c>
@@ -40802,7 +40870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="79">
         <v>43279</v>
       </c>
@@ -40850,7 +40918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="79">
         <v>43280</v>
       </c>
@@ -40898,7 +40966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="79">
         <v>43281</v>
       </c>
@@ -40946,7 +41014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B47" s="62" t="s">
         <v>26</v>
       </c>
@@ -40995,16 +41063,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E48" s="26"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E49" s="26"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E51" s="26"/>
     </row>
   </sheetData>
@@ -41028,9 +41096,9 @@
       <selection activeCell="A2" sqref="A2:L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="114">
         <v>43282</v>
       </c>
@@ -41068,7 +41136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="110">
         <v>43283</v>
       </c>
@@ -41106,7 +41174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="114">
         <v>43284</v>
       </c>
@@ -41144,7 +41212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="110">
         <v>43285</v>
       </c>
@@ -41182,7 +41250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="114">
         <v>43286</v>
       </c>
@@ -41220,7 +41288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="110">
         <v>43287</v>
       </c>
@@ -41258,7 +41326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="114">
         <v>43288</v>
       </c>
@@ -41296,7 +41364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="110">
         <v>43289</v>
       </c>
@@ -41334,7 +41402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="114">
         <v>43290</v>
       </c>
@@ -41372,7 +41440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="110">
         <v>43291</v>
       </c>
@@ -41410,7 +41478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="114">
         <v>43292</v>
       </c>
@@ -41448,7 +41516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="110">
         <v>43293</v>
       </c>
@@ -41486,7 +41554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="114">
         <v>43294</v>
       </c>
@@ -41524,7 +41592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="110">
         <v>43295</v>
       </c>
@@ -41562,7 +41630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="114">
         <v>43296</v>
       </c>
@@ -41600,7 +41668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="110">
         <v>43297</v>
       </c>
@@ -41638,7 +41706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="114">
         <v>43298</v>
       </c>
@@ -41676,7 +41744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="110">
         <v>43299</v>
       </c>
@@ -41714,7 +41782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="114">
         <v>43300</v>
       </c>
@@ -41752,7 +41820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="110">
         <v>43301</v>
       </c>
@@ -41790,7 +41858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="114">
         <v>43302</v>
       </c>
@@ -41828,7 +41896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="110">
         <v>43303</v>
       </c>
@@ -41866,7 +41934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="114">
         <v>43304</v>
       </c>
@@ -41904,7 +41972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="110">
         <v>43305</v>
       </c>
@@ -41942,7 +42010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="114">
         <v>43306</v>
       </c>
@@ -41980,7 +42048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="110">
         <v>43307</v>
       </c>
@@ -42018,7 +42086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="114">
         <v>43308</v>
       </c>
@@ -42056,7 +42124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="110">
         <v>43309</v>
       </c>
@@ -42094,7 +42162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="114">
         <v>43310</v>
       </c>
@@ -42132,7 +42200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="110">
         <v>43311</v>
       </c>
@@ -42170,7 +42238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="114">
         <v>43312</v>
       </c>
@@ -42208,7 +42276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="25" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="21" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A33" s="116" t="s">
         <v>27</v>
       </c>

--- a/INTE-Performance-JAMU-2018.xlsx
+++ b/INTE-Performance-JAMU-2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Lopez\Desktop\ASAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirnazertuche/Desktop/ASAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB6A427-9578-4CD9-91AB-BE11B097D261}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E29099D-CF60-0640-9D5A-6BED12493928}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="1716" windowWidth="25596" windowHeight="14436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAMUPerformance" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,13 @@
     <sheet name="07" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="179021" calcMode="manual"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -143,7 +150,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
@@ -559,13 +566,13 @@
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -616,7 +623,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="4" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -655,7 +662,7 @@
     <xf numFmtId="10" fontId="14" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -726,13 +733,13 @@
     <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -750,7 +757,7 @@
     <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="19" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -912,7 +919,7 @@
     <xf numFmtId="3" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="28" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="28" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -935,15 +942,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="40% - Énfasis5" xfId="4" builtinId="47"/>
-    <cellStyle name="60% - Énfasis5" xfId="5" builtinId="48"/>
+    <cellStyle name="40% - Accent5" xfId="4" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
     <cellStyle name="60% - Énfasis6 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Énfasis5" xfId="3" builtinId="45"/>
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Accent5" xfId="3" builtinId="45"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Millares 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="Total" xfId="9" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="164">
@@ -1214,7 +1221,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1222,240 +1229,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1921,7 +1694,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1946,7 +1719,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2464,7 +2237,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2489,7 +2262,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3007,7 +2780,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3032,7 +2805,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3550,7 +3323,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3575,7 +3348,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4093,7 +3866,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -4118,7 +3891,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4168,6 +3941,240 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4260,7 +4267,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4332,7 +4339,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4369,30 +4376,30 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>JAMUPerformance!$C$241:$C$247</c:f>
+              <c:f>JAMUPerformance!$C$248:$C$254</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8350</c:v>
+                  <c:v>8960</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11435</c:v>
+                  <c:v>8420</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14747</c:v>
+                  <c:v>10656</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11675</c:v>
+                  <c:v>8954</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6785</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3774</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2086</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4421,30 +4428,21 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>JAMUPerformance!$D$241:$D$247</c:f>
+              <c:f>JAMUPerformance!$D$248:$D$254</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7781</c:v>
+                  <c:v>8464</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10889</c:v>
+                  <c:v>7910</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13769</c:v>
+                  <c:v>9962</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11194</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6331</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3608</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1998</c:v>
+                  <c:v>7320</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4473,30 +4471,21 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>JAMUPerformance!$F$241:$F$247</c:f>
+              <c:f>JAMUPerformance!$F$248:$F$254</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>526</c:v>
+                  <c:v>451</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>503</c:v>
+                  <c:v>466</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>930</c:v>
+                  <c:v>651</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>432</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>405</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45</c:v>
+                  <c:v>1586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4525,7 +4514,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>JAMUPerformance!$H$241:$H$247</c:f>
+              <c:f>JAMUPerformance!$H$248:$H$254</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4539,15 +4528,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4579,30 +4559,21 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>JAMUPerformance!$J$241:$J$247</c:f>
+              <c:f>JAMUPerformance!$J$248:$J$254</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4633,7 +4604,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>JAMUPerformance!$L$241:$L$247</c:f>
+              <c:f>JAMUPerformance!$L$248:$L$254</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4647,15 +4618,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4722,7 +4684,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530867824"/>
@@ -4781,7 +4743,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530869456"/>
@@ -4823,7 +4785,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -4862,7 +4824,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4892,7 +4854,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4906,7 +4868,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4978,7 +4940,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5143,88 +5105,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>01/02/2018</c:v>
+                  <c:v>2/1/18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02/02/2018</c:v>
+                  <c:v>2/2/18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>03/02/2018</c:v>
+                  <c:v>2/3/18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/02/2018</c:v>
+                  <c:v>2/4/18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/02/2018</c:v>
+                  <c:v>2/5/18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>06/02/2018</c:v>
+                  <c:v>2/6/18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>07/02/2018</c:v>
+                  <c:v>2/7/18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>08/02/2018</c:v>
+                  <c:v>2/8/18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>09/02/2018</c:v>
+                  <c:v>2/9/18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10/02/2018</c:v>
+                  <c:v>2/10/18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11/02/2018</c:v>
+                  <c:v>2/11/18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12/02/2018</c:v>
+                  <c:v>2/12/18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13/02/2018</c:v>
+                  <c:v>2/13/18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14/02/2018</c:v>
+                  <c:v>2/14/18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15/02/2018</c:v>
+                  <c:v>2/15/18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16/02/2018</c:v>
+                  <c:v>2/16/18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17/02/2018</c:v>
+                  <c:v>2/17/18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18/02/2018</c:v>
+                  <c:v>2/18/18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19/02/2018</c:v>
+                  <c:v>2/19/18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20/02/2018</c:v>
+                  <c:v>2/20/18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21/02/2018</c:v>
+                  <c:v>2/21/18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22/02/2018</c:v>
+                  <c:v>2/22/18</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23/02/2018</c:v>
+                  <c:v>2/23/18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24/02/2018</c:v>
+                  <c:v>2/24/18</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25/02/2018</c:v>
+                  <c:v>2/25/18</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26/02/2018</c:v>
+                  <c:v>2/26/18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27/02/2018</c:v>
+                  <c:v>2/27/18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28/02/2018</c:v>
+                  <c:v>2/28/18</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -5360,88 +5322,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>01/02/2018</c:v>
+                  <c:v>2/1/18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02/02/2018</c:v>
+                  <c:v>2/2/18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>03/02/2018</c:v>
+                  <c:v>2/3/18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/02/2018</c:v>
+                  <c:v>2/4/18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/02/2018</c:v>
+                  <c:v>2/5/18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>06/02/2018</c:v>
+                  <c:v>2/6/18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>07/02/2018</c:v>
+                  <c:v>2/7/18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>08/02/2018</c:v>
+                  <c:v>2/8/18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>09/02/2018</c:v>
+                  <c:v>2/9/18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10/02/2018</c:v>
+                  <c:v>2/10/18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11/02/2018</c:v>
+                  <c:v>2/11/18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12/02/2018</c:v>
+                  <c:v>2/12/18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13/02/2018</c:v>
+                  <c:v>2/13/18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14/02/2018</c:v>
+                  <c:v>2/14/18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15/02/2018</c:v>
+                  <c:v>2/15/18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16/02/2018</c:v>
+                  <c:v>2/16/18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17/02/2018</c:v>
+                  <c:v>2/17/18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18/02/2018</c:v>
+                  <c:v>2/18/18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19/02/2018</c:v>
+                  <c:v>2/19/18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20/02/2018</c:v>
+                  <c:v>2/20/18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21/02/2018</c:v>
+                  <c:v>2/21/18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22/02/2018</c:v>
+                  <c:v>2/22/18</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23/02/2018</c:v>
+                  <c:v>2/23/18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24/02/2018</c:v>
+                  <c:v>2/24/18</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25/02/2018</c:v>
+                  <c:v>2/25/18</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26/02/2018</c:v>
+                  <c:v>2/26/18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27/02/2018</c:v>
+                  <c:v>2/27/18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28/02/2018</c:v>
+                  <c:v>2/28/18</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -5577,88 +5539,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>01/02/2018</c:v>
+                  <c:v>2/1/18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02/02/2018</c:v>
+                  <c:v>2/2/18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>03/02/2018</c:v>
+                  <c:v>2/3/18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/02/2018</c:v>
+                  <c:v>2/4/18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/02/2018</c:v>
+                  <c:v>2/5/18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>06/02/2018</c:v>
+                  <c:v>2/6/18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>07/02/2018</c:v>
+                  <c:v>2/7/18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>08/02/2018</c:v>
+                  <c:v>2/8/18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>09/02/2018</c:v>
+                  <c:v>2/9/18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10/02/2018</c:v>
+                  <c:v>2/10/18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11/02/2018</c:v>
+                  <c:v>2/11/18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12/02/2018</c:v>
+                  <c:v>2/12/18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13/02/2018</c:v>
+                  <c:v>2/13/18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14/02/2018</c:v>
+                  <c:v>2/14/18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15/02/2018</c:v>
+                  <c:v>2/15/18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16/02/2018</c:v>
+                  <c:v>2/16/18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17/02/2018</c:v>
+                  <c:v>2/17/18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18/02/2018</c:v>
+                  <c:v>2/18/18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19/02/2018</c:v>
+                  <c:v>2/19/18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20/02/2018</c:v>
+                  <c:v>2/20/18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21/02/2018</c:v>
+                  <c:v>2/21/18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22/02/2018</c:v>
+                  <c:v>2/22/18</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23/02/2018</c:v>
+                  <c:v>2/23/18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24/02/2018</c:v>
+                  <c:v>2/24/18</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25/02/2018</c:v>
+                  <c:v>2/25/18</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26/02/2018</c:v>
+                  <c:v>2/26/18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27/02/2018</c:v>
+                  <c:v>2/27/18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28/02/2018</c:v>
+                  <c:v>2/28/18</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -5796,88 +5758,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>01/02/2018</c:v>
+                  <c:v>2/1/18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02/02/2018</c:v>
+                  <c:v>2/2/18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>03/02/2018</c:v>
+                  <c:v>2/3/18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/02/2018</c:v>
+                  <c:v>2/4/18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/02/2018</c:v>
+                  <c:v>2/5/18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>06/02/2018</c:v>
+                  <c:v>2/6/18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>07/02/2018</c:v>
+                  <c:v>2/7/18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>08/02/2018</c:v>
+                  <c:v>2/8/18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>09/02/2018</c:v>
+                  <c:v>2/9/18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10/02/2018</c:v>
+                  <c:v>2/10/18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11/02/2018</c:v>
+                  <c:v>2/11/18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12/02/2018</c:v>
+                  <c:v>2/12/18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13/02/2018</c:v>
+                  <c:v>2/13/18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14/02/2018</c:v>
+                  <c:v>2/14/18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15/02/2018</c:v>
+                  <c:v>2/15/18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16/02/2018</c:v>
+                  <c:v>2/16/18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17/02/2018</c:v>
+                  <c:v>2/17/18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18/02/2018</c:v>
+                  <c:v>2/18/18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19/02/2018</c:v>
+                  <c:v>2/19/18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20/02/2018</c:v>
+                  <c:v>2/20/18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21/02/2018</c:v>
+                  <c:v>2/21/18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22/02/2018</c:v>
+                  <c:v>2/22/18</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23/02/2018</c:v>
+                  <c:v>2/23/18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24/02/2018</c:v>
+                  <c:v>2/24/18</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25/02/2018</c:v>
+                  <c:v>2/25/18</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26/02/2018</c:v>
+                  <c:v>2/26/18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27/02/2018</c:v>
+                  <c:v>2/27/18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28/02/2018</c:v>
+                  <c:v>2/28/18</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -6015,88 +5977,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>01/02/2018</c:v>
+                  <c:v>2/1/18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02/02/2018</c:v>
+                  <c:v>2/2/18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>03/02/2018</c:v>
+                  <c:v>2/3/18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/02/2018</c:v>
+                  <c:v>2/4/18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/02/2018</c:v>
+                  <c:v>2/5/18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>06/02/2018</c:v>
+                  <c:v>2/6/18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>07/02/2018</c:v>
+                  <c:v>2/7/18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>08/02/2018</c:v>
+                  <c:v>2/8/18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>09/02/2018</c:v>
+                  <c:v>2/9/18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10/02/2018</c:v>
+                  <c:v>2/10/18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11/02/2018</c:v>
+                  <c:v>2/11/18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12/02/2018</c:v>
+                  <c:v>2/12/18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13/02/2018</c:v>
+                  <c:v>2/13/18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14/02/2018</c:v>
+                  <c:v>2/14/18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15/02/2018</c:v>
+                  <c:v>2/15/18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16/02/2018</c:v>
+                  <c:v>2/16/18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17/02/2018</c:v>
+                  <c:v>2/17/18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18/02/2018</c:v>
+                  <c:v>2/18/18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19/02/2018</c:v>
+                  <c:v>2/19/18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20/02/2018</c:v>
+                  <c:v>2/20/18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21/02/2018</c:v>
+                  <c:v>2/21/18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22/02/2018</c:v>
+                  <c:v>2/22/18</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23/02/2018</c:v>
+                  <c:v>2/23/18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24/02/2018</c:v>
+                  <c:v>2/24/18</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25/02/2018</c:v>
+                  <c:v>2/25/18</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26/02/2018</c:v>
+                  <c:v>2/26/18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27/02/2018</c:v>
+                  <c:v>2/27/18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28/02/2018</c:v>
+                  <c:v>2/28/18</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -6262,7 +6224,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530864560"/>
@@ -6321,7 +6283,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530865104"/>
@@ -6363,7 +6325,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -6402,7 +6364,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6432,7 +6394,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6446,7 +6408,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6518,7 +6480,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6688,7 +6650,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -6918,7 +6880,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -7148,7 +7110,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -7380,7 +7342,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -7612,7 +7574,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -7874,7 +7836,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="302953280"/>
@@ -7933,7 +7895,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="302951104"/>
@@ -7975,7 +7937,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -8014,7 +7976,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8044,7 +8006,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8058,7 +8020,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8130,7 +8092,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8297,7 +8259,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8521,7 +8483,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8745,7 +8707,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8971,7 +8933,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -9197,7 +9159,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -9453,7 +9415,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593585056"/>
@@ -9512,7 +9474,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593573632"/>
@@ -9554,7 +9516,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -9593,7 +9555,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9623,7 +9585,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9637,7 +9599,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9709,7 +9671,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9879,7 +9841,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -10109,7 +10071,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -10339,7 +10301,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -10571,7 +10533,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -10803,7 +10765,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -11065,7 +11027,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593578528"/>
@@ -11124,7 +11086,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593585600"/>
@@ -11166,7 +11128,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -11205,7 +11167,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11235,7 +11197,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11249,7 +11211,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11321,7 +11283,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11518,7 +11480,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -11741,7 +11703,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -11964,7 +11926,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -12189,7 +12151,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -12414,7 +12376,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -12669,7 +12631,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593574720"/>
@@ -12728,7 +12690,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593574176"/>
@@ -12770,7 +12732,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -12809,7 +12771,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12839,7 +12801,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12853,7 +12815,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12925,7 +12887,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12964,7 +12926,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13190,7 +13152,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13416,7 +13378,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13642,7 +13604,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13870,7 +13832,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -14098,7 +14060,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -14325,7 +14287,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -14359,7 +14321,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530867824"/>
@@ -14417,7 +14379,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530869456"/>
@@ -14459,7 +14421,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -14498,7 +14460,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -14528,7 +14490,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -18437,13 +18399,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28140</xdr:colOff>
-      <xdr:row>248</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>143435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>18055</xdr:colOff>
-      <xdr:row>276</xdr:row>
+      <xdr:row>283</xdr:row>
       <xdr:rowOff>31376</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -18733,8 +18695,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla18" displayName="Tabla18" ref="B16:M248" totalsRowCount="1" headerRowDxfId="161" dataDxfId="160" totalsRowDxfId="159">
-  <autoFilter ref="B16:M247" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla18" displayName="Tabla18" ref="B16:M255" totalsRowCount="1" headerRowDxfId="161" dataDxfId="160" totalsRowDxfId="159">
+  <autoFilter ref="B16:M254" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2016" month="5" day="9" dateTimeGrouping="day"/>
@@ -18751,49 +18713,49 @@
     <sortCondition ref="C16:C146"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="23" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="10">
-      <totalsRowFormula>SUM(C241:C247)</totalsRowFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="158" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="157" totalsRowDxfId="10">
+      <totalsRowFormula>SUM(C248:C254)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="9">
-      <totalsRowFormula>SUM(D241:D247)</totalsRowFormula>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="156" totalsRowDxfId="9">
+      <totalsRowFormula>SUM(D248:D254)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="8">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="155" totalsRowDxfId="8">
       <calculatedColumnFormula>Tabla18[Transactions 
 Complete]/Tabla18[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(E241:E247)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(E248:E254)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="7">
-      <totalsRowFormula>SUM(F241:F247)</totalsRowFormula>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="154" totalsRowDxfId="7">
+      <totalsRowFormula>SUM(F248:F254)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="6">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="153" totalsRowDxfId="6">
       <calculatedColumnFormula>Tabla18[Transactions 
 Failed]/Tabla18[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(G241:G247)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(G248:G254)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="5">
-      <totalsRowFormula>SUM(H241:H247)</totalsRowFormula>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="152" totalsRowDxfId="5">
+      <totalsRowFormula>SUM(H248:H254)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="4">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="151" totalsRowDxfId="4">
       <calculatedColumnFormula>Tabla18[Transactions 
 In_Prog]/Tabla18[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(I241:I247)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(I248:I254)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="3">
-      <totalsRowFormula>SUM(J241:J247)</totalsRowFormula>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="150" totalsRowDxfId="3">
+      <totalsRowFormula>SUM(J248:J254)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="2">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="149" totalsRowDxfId="2">
       <calculatedColumnFormula>Tabla18[Transactions 
 Timeout]/Tabla18[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(K241:K247)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(K248:K254)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="1">
-      <totalsRowFormula>SUM(L241:L247)</totalsRowFormula>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="148" totalsRowDxfId="1">
+      <totalsRowFormula>SUM(L248:L254)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="0">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="147" totalsRowDxfId="0">
       <calculatedColumnFormula>Tabla18[Transactions
 Trans Fail]/Tabla18[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(M241:M247)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(M248:M254)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -18801,7 +18763,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla183" displayName="Tabla183" ref="B16:M45" totalsRowCount="1" headerRowDxfId="158" dataDxfId="157" totalsRowDxfId="156">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla183" displayName="Tabla183" ref="B16:M45" totalsRowCount="1" headerRowDxfId="146" dataDxfId="145" totalsRowDxfId="144">
   <autoFilter ref="B16:M44" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0">
       <filters>
@@ -18819,46 +18781,46 @@
     <sortCondition ref="C16:C111"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="155" totalsRowDxfId="154"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="153" totalsRowDxfId="152">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="143" totalsRowDxfId="142"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="141" totalsRowDxfId="140">
       <totalsRowFormula>SUM(C42:C44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="151" totalsRowDxfId="150">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="139" totalsRowDxfId="138">
       <totalsRowFormula>SUM(D42:D44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="149" totalsRowDxfId="148">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="137" totalsRowDxfId="136">
       <calculatedColumnFormula>Tabla183[Transactions 
 Complete]/Tabla183[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E42:E44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="147" totalsRowDxfId="146">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="135" totalsRowDxfId="134">
       <totalsRowFormula>SUM(F42:F44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="145" totalsRowDxfId="144">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="133" totalsRowDxfId="132">
       <calculatedColumnFormula>Tabla183[Transactions 
 Failed]/Tabla183[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G42:G44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="143" totalsRowDxfId="142">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="131" totalsRowDxfId="130">
       <totalsRowFormula>SUM(H42:H44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="141" totalsRowDxfId="140">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="129" totalsRowDxfId="128">
       <calculatedColumnFormula>Tabla183[Transactions 
 In_Prog]/Tabla183[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I42:I44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="139" totalsRowDxfId="138">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="127" totalsRowDxfId="126">
       <totalsRowFormula>SUM(J42:J44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="137" totalsRowDxfId="136">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="125" totalsRowDxfId="124">
       <calculatedColumnFormula>Tabla183[Transactions 
 Timeout]/Tabla183[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K42:K44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="135" totalsRowDxfId="134">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="123" totalsRowDxfId="122">
       <totalsRowFormula>SUM(L42:L44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="133" totalsRowDxfId="132">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="121" totalsRowDxfId="120">
       <calculatedColumnFormula>Tabla183[Transactions
 Trans Fail]/Tabla183[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M42:M44)</totalsRowFormula>
@@ -18869,7 +18831,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla184" displayName="Tabla184" ref="B16:M48" totalsRowCount="1" headerRowDxfId="131" dataDxfId="130" totalsRowDxfId="129">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla184" displayName="Tabla184" ref="B16:M48" totalsRowCount="1" headerRowDxfId="119" dataDxfId="118" totalsRowDxfId="117">
   <autoFilter ref="B16:M47" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0">
       <filters>
@@ -18887,46 +18849,46 @@
     <sortCondition ref="C16:C146"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="128" totalsRowDxfId="127"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="126" totalsRowDxfId="125">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="116" totalsRowDxfId="115"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="114" totalsRowDxfId="113">
       <totalsRowFormula>SUM(C42:C47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="124" totalsRowDxfId="123">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="112" totalsRowDxfId="111">
       <totalsRowFormula>SUM(D42:D47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="122" totalsRowDxfId="121">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="110" totalsRowDxfId="109">
       <calculatedColumnFormula>Tabla184[Transactions 
 Complete]/Tabla184[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E42:E47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="120" totalsRowDxfId="119">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="108" totalsRowDxfId="107">
       <totalsRowFormula>SUM(F42:F47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="118" totalsRowDxfId="117">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="106" totalsRowDxfId="105">
       <calculatedColumnFormula>Tabla184[Transactions 
 Failed]/Tabla184[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G42:G47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="116" totalsRowDxfId="115">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="104" totalsRowDxfId="103">
       <totalsRowFormula>SUM(H42:H47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="114" totalsRowDxfId="113">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="102" totalsRowDxfId="101">
       <calculatedColumnFormula>Tabla184[Transactions 
 In_Prog]/Tabla184[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I42:I47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="112" totalsRowDxfId="111">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="100" totalsRowDxfId="99">
       <totalsRowFormula>SUM(J42:J47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="110" totalsRowDxfId="109">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="98" totalsRowDxfId="97">
       <calculatedColumnFormula>Tabla184[Transactions 
 Timeout]/Tabla184[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K42:K47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="108" totalsRowDxfId="107">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="96" totalsRowDxfId="95">
       <totalsRowFormula>SUM(L42:L47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="106" totalsRowDxfId="105">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="94" totalsRowDxfId="93">
       <calculatedColumnFormula>Tabla184[Transactions
 Trans Fail]/Tabla184[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M42:M47)</totalsRowFormula>
@@ -18937,7 +18899,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla185" displayName="Tabla185" ref="B16:M47" totalsRowCount="1" headerRowDxfId="104" dataDxfId="103" totalsRowDxfId="102">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla185" displayName="Tabla185" ref="B16:M47" totalsRowCount="1" headerRowDxfId="92" dataDxfId="91" totalsRowDxfId="90">
   <autoFilter ref="B16:M46" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0">
       <filters>
@@ -18955,46 +18917,46 @@
     <sortCondition ref="C16:C146"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="101" totalsRowDxfId="100"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="99" totalsRowDxfId="98">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="89" totalsRowDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="87" totalsRowDxfId="86">
       <totalsRowFormula>SUM(C17:C46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="97" totalsRowDxfId="96">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="85" totalsRowDxfId="84">
       <totalsRowFormula>SUM(D17:D46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="95" totalsRowDxfId="94">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="83" totalsRowDxfId="82">
       <calculatedColumnFormula>Tabla185[Transactions 
 Complete]/Tabla185[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E17:E46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="93" totalsRowDxfId="92">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="81" totalsRowDxfId="80">
       <totalsRowFormula>SUM(F17:F46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="90">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="79" totalsRowDxfId="78">
       <calculatedColumnFormula>Tabla185[Transactions 
 Failed]/Tabla185[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G17:G46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="89" totalsRowDxfId="88">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="77" totalsRowDxfId="76">
       <totalsRowFormula>SUM(H17:H46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="87" totalsRowDxfId="86">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="75" totalsRowDxfId="74">
       <calculatedColumnFormula>Tabla185[Transactions 
 In_Prog]/Tabla185[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I17:I46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="85" totalsRowDxfId="84">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="73" totalsRowDxfId="72">
       <totalsRowFormula>SUM(J17:J46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="83" totalsRowDxfId="82">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="71" totalsRowDxfId="70">
       <calculatedColumnFormula>Tabla185[Transactions 
 Timeout]/Tabla185[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K17:K46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="81" totalsRowDxfId="80">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="69" totalsRowDxfId="68">
       <totalsRowFormula>SUM(L17:L46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="79" totalsRowDxfId="78">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="66">
       <calculatedColumnFormula>Tabla185[Transactions
 Trans Fail]/Tabla185[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M17:M46)</totalsRowFormula>
@@ -19005,7 +18967,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla186" displayName="Tabla186" ref="B16:M48" totalsRowCount="1" headerRowDxfId="77" dataDxfId="76" totalsRowDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla186" displayName="Tabla186" ref="B16:M48" totalsRowCount="1" headerRowDxfId="65" dataDxfId="64" totalsRowDxfId="63">
   <autoFilter ref="B16:M47" xr:uid="{00000000-0009-0000-0100-000005000000}">
     <filterColumn colId="0">
       <filters>
@@ -19023,46 +18985,46 @@
     <sortCondition ref="C16:C146"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="72" totalsRowDxfId="71">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="59">
       <totalsRowFormula>SUM(C17:C47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="70" totalsRowDxfId="69">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="57">
       <totalsRowFormula>SUM(D17:D47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="68" totalsRowDxfId="67">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="55">
       <calculatedColumnFormula>Tabla186[Transactions 
 Complete]/Tabla186[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E17:E47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="66" totalsRowDxfId="65">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="53">
       <totalsRowFormula>SUM(F17:F47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="63">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="51">
       <calculatedColumnFormula>Tabla186[Transactions 
 Failed]/Tabla186[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G17:G47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="62" totalsRowDxfId="61">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="49">
       <totalsRowFormula>SUM(H17:H47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="59">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="47">
       <calculatedColumnFormula>Tabla186[Transactions 
 In_Prog]/Tabla186[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I17:I47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="57">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="45">
       <totalsRowFormula>SUM(J17:J47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="55">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="43">
       <calculatedColumnFormula>Tabla186[Transactions 
 Timeout]/Tabla186[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K17:K47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="53">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="41">
       <totalsRowFormula>SUM(L17:L47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="51">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="39">
       <calculatedColumnFormula>Tabla186[Transactions
 Trans Fail]/Tabla186[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M17:M47)</totalsRowFormula>
@@ -19073,7 +19035,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla187" displayName="Tabla187" ref="B16:M47" totalsRowCount="1" headerRowDxfId="50" dataDxfId="49" totalsRowDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla187" displayName="Tabla187" ref="B16:M47" totalsRowCount="1" headerRowDxfId="38" dataDxfId="37" totalsRowDxfId="36">
   <autoFilter ref="B16:M46" xr:uid="{00000000-0009-0000-0100-000006000000}">
     <filterColumn colId="0">
       <filters>
@@ -19091,46 +19053,46 @@
     <sortCondition ref="C16:C146"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="47" totalsRowDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="44">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
       <totalsRowFormula>SUM(C17:C46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="42">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
       <totalsRowFormula>SUM(D17:D46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>Tabla187[Transactions 
 Complete]/Tabla187[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E17:E46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
       <totalsRowFormula>SUM(F17:F46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
       <calculatedColumnFormula>Tabla187[Transactions 
 Failed]/Tabla187[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G17:G46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
       <totalsRowFormula>SUM(H17:H46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>Tabla187[Transactions 
 In_Prog]/Tabla187[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I41:I46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
       <totalsRowFormula>SUM(J17:J46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>Tabla187[Transactions 
 Timeout]/Tabla187[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K17:K46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
       <totalsRowFormula>SUM(L17:L46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>Tabla187[Transactions
 Trans Fail]/Tabla187[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M17:M46)</totalsRowFormula>
@@ -19440,31 +19402,31 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="B1:M252"/>
+  <dimension ref="B1:M259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B241" sqref="B241:M248"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N250" sqref="N250"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="1"/>
+    <col min="14" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -19480,7 +19442,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -19498,7 +19460,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -19516,7 +19478,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -19532,13 +19494,13 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="13">
         <f>SUM(C6:C10)</f>
-        <v>1928841</v>
+        <v>1965831</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -19551,17 +19513,17 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="13">
         <f>D15</f>
-        <v>1746569</v>
+        <v>1780225</v>
       </c>
       <c r="D6" s="14">
         <f>C6/C5</f>
-        <v>0.90550180134080516</v>
+        <v>0.90558394897628536</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -19573,17 +19535,17 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="13">
         <f>F15</f>
-        <v>118673</v>
+        <v>121827</v>
       </c>
       <c r="D7" s="14">
         <f>C7/C5</f>
-        <v>6.1525548243738078E-2</v>
+        <v>6.1972265164197737E-2</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -19595,7 +19557,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -19605,7 +19567,7 @@
       </c>
       <c r="D8" s="14">
         <f>C8/C5</f>
-        <v>1.14058131281946E-5</v>
+        <v>1.1191195987854501E-5</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -19617,17 +19579,17 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="13">
         <f>J15</f>
-        <v>63577</v>
+        <v>63757</v>
       </c>
       <c r="D9" s="14">
         <f>C9/C5</f>
-        <v>3.2961244602328549E-2</v>
+        <v>3.243259466352906E-2</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -19639,7 +19601,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -19661,13 +19623,13 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="15">
         <f>SUM(C6:C10)</f>
-        <v>1928841</v>
+        <v>1965831</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -19680,7 +19642,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -19694,7 +19656,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -19708,7 +19670,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
@@ -19724,33 +19686,33 @@
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
     </row>
-    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="17">
         <f>SUM(Tabla18[Total])</f>
-        <v>1928846.07</v>
+        <v>1965836.1</v>
       </c>
       <c r="D15" s="17">
         <f>SUM(Tabla18[Transactions 
 Complete])</f>
-        <v>1746569</v>
+        <v>1780225</v>
       </c>
       <c r="E15" s="18">
         <f>AVERAGE(Tabla18[%
 Complete])</f>
-        <v>0.88792933792864226</v>
+        <v>0.87709299977468635</v>
       </c>
       <c r="F15" s="17">
         <f>SUM(Tabla18[Transactions 
 Failed])</f>
-        <v>118673</v>
+        <v>121827</v>
       </c>
       <c r="G15" s="18">
         <f>AVERAGE(Tabla18[% 
 Failed])</f>
-        <v>5.0813086137549993E-2</v>
+        <v>5.0763537900676982E-2</v>
       </c>
       <c r="H15" s="17">
         <f>SUM(Tabla18[Transactions 
@@ -19760,17 +19722,17 @@
       <c r="I15" s="18">
         <f>AVERAGE(Tabla18[%
 In_Prog])</f>
-        <v>1.3355685137919065E-5</v>
+        <v>1.2962870869156738E-5</v>
       </c>
       <c r="J15" s="17">
         <f>SUM(Tabla18[Transactions 
 Timeout])</f>
-        <v>63577</v>
+        <v>63757</v>
       </c>
       <c r="K15" s="18">
         <f>AVERAGE(Tabla18[%
 Timeout])</f>
-        <v>3.0936224611546881E-2</v>
+        <v>3.0108873436223937E-2</v>
       </c>
       <c r="L15" s="17">
         <f>SUM(Tabla18[Transactions
@@ -19783,7 +19745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -19821,7 +19783,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24">
         <v>43101</v>
       </c>
@@ -19869,7 +19831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24">
         <v>43102</v>
       </c>
@@ -19917,7 +19879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24">
         <v>43103</v>
       </c>
@@ -19965,7 +19927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24">
         <v>43104</v>
       </c>
@@ -20013,7 +19975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24">
         <v>43105</v>
       </c>
@@ -20061,7 +20023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24">
         <v>43106</v>
       </c>
@@ -20109,7 +20071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" s="24">
         <v>43107</v>
       </c>
@@ -20157,7 +20119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B24" s="24">
         <v>43108</v>
       </c>
@@ -20205,7 +20167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B25" s="24">
         <v>43109</v>
       </c>
@@ -20253,7 +20215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24">
         <v>43110</v>
       </c>
@@ -20301,7 +20263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24">
         <v>43111</v>
       </c>
@@ -20349,7 +20311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24">
         <v>43112</v>
       </c>
@@ -20397,7 +20359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24">
         <v>43113</v>
       </c>
@@ -20445,7 +20407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B30" s="24">
         <v>43114</v>
       </c>
@@ -20493,7 +20455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30">
         <v>43115</v>
       </c>
@@ -20541,7 +20503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30">
         <v>43116</v>
       </c>
@@ -20589,7 +20551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" s="30">
         <v>43117</v>
       </c>
@@ -20637,7 +20599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B34" s="30">
         <v>43118</v>
       </c>
@@ -20685,7 +20647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B35" s="30">
         <v>43119</v>
       </c>
@@ -20733,7 +20695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B36" s="30">
         <v>43120</v>
       </c>
@@ -20781,7 +20743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B37" s="30">
         <v>43121</v>
       </c>
@@ -20829,7 +20791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B38" s="38">
         <v>43122</v>
       </c>
@@ -20877,7 +20839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B39" s="38">
         <v>43123</v>
       </c>
@@ -20925,7 +20887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B40" s="38">
         <v>43124</v>
       </c>
@@ -20973,7 +20935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B41" s="38">
         <v>43125</v>
       </c>
@@ -21021,7 +20983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B42" s="38">
         <v>43126</v>
       </c>
@@ -21069,7 +21031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B43" s="38">
         <v>43127</v>
       </c>
@@ -21117,7 +21079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B44" s="38">
         <v>43128</v>
       </c>
@@ -21165,7 +21127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B45" s="41">
         <v>43129</v>
       </c>
@@ -21213,7 +21175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B46" s="41">
         <v>43130</v>
       </c>
@@ -21261,7 +21223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" s="41">
         <v>43131</v>
       </c>
@@ -21309,7 +21271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" s="41">
         <v>43132</v>
       </c>
@@ -21357,7 +21319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" s="41">
         <v>43133</v>
       </c>
@@ -21405,7 +21367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" s="41">
         <v>43134</v>
       </c>
@@ -21453,7 +21415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B51" s="41">
         <v>43135</v>
       </c>
@@ -21501,7 +21463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B52" s="41">
         <v>43136</v>
       </c>
@@ -21549,7 +21511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B53" s="41">
         <v>43137</v>
       </c>
@@ -21597,7 +21559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B54" s="41">
         <v>43138</v>
       </c>
@@ -21645,7 +21607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B55" s="41">
         <v>43139</v>
       </c>
@@ -21693,7 +21655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B56" s="41">
         <v>43140</v>
       </c>
@@ -21741,7 +21703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B57" s="41">
         <v>43141</v>
       </c>
@@ -21789,7 +21751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B58" s="41">
         <v>43142</v>
       </c>
@@ -21837,7 +21799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B59" s="41">
         <v>43143</v>
       </c>
@@ -21885,7 +21847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B60" s="41">
         <v>43144</v>
       </c>
@@ -21933,7 +21895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B61" s="41">
         <v>43145</v>
       </c>
@@ -21981,7 +21943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B62" s="41">
         <v>43146</v>
       </c>
@@ -22029,7 +21991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B63" s="41">
         <v>43147</v>
       </c>
@@ -22077,7 +22039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B64" s="41">
         <v>43148</v>
       </c>
@@ -22125,7 +22087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" s="41">
         <v>43149</v>
       </c>
@@ -22173,7 +22135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B66" s="41">
         <v>43150</v>
       </c>
@@ -22221,7 +22183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" s="41">
         <v>43151</v>
       </c>
@@ -22269,7 +22231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B68" s="41">
         <v>43152</v>
       </c>
@@ -22317,7 +22279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" s="41">
         <v>43153</v>
       </c>
@@ -22365,7 +22327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B70" s="41">
         <v>43154</v>
       </c>
@@ -22413,7 +22375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B71" s="41">
         <v>43155</v>
       </c>
@@ -22461,7 +22423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B72" s="41">
         <v>43156</v>
       </c>
@@ -22509,7 +22471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B73" s="41">
         <v>43157</v>
       </c>
@@ -22557,7 +22519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B74" s="41">
         <v>43158</v>
       </c>
@@ -22605,7 +22567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B75" s="41">
         <v>43159</v>
       </c>
@@ -22653,7 +22615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B76" s="41">
         <v>43160</v>
       </c>
@@ -22701,7 +22663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B77" s="41">
         <v>43161</v>
       </c>
@@ -22749,7 +22711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B78" s="41">
         <v>43162</v>
       </c>
@@ -22797,7 +22759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B79" s="41">
         <v>43163</v>
       </c>
@@ -22845,7 +22807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B80" s="41">
         <v>43164</v>
       </c>
@@ -22893,7 +22855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B81" s="41">
         <v>43165</v>
       </c>
@@ -22941,7 +22903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B82" s="41">
         <v>43166</v>
       </c>
@@ -22989,7 +22951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B83" s="41">
         <v>43167</v>
       </c>
@@ -23037,7 +22999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B84" s="41">
         <v>43168</v>
       </c>
@@ -23085,7 +23047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B85" s="41">
         <v>43169</v>
       </c>
@@ -23133,7 +23095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" s="41">
         <v>43170</v>
       </c>
@@ -23181,7 +23143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B87" s="41">
         <v>43171</v>
       </c>
@@ -23229,7 +23191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B88" s="41">
         <v>43172</v>
       </c>
@@ -23277,7 +23239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B89" s="41">
         <v>43173</v>
       </c>
@@ -23325,7 +23287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B90" s="41">
         <v>43174</v>
       </c>
@@ -23373,7 +23335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B91" s="41">
         <v>43175</v>
       </c>
@@ -23421,7 +23383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B92" s="41">
         <v>43176</v>
       </c>
@@ -23469,7 +23431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" s="41">
         <v>43177</v>
       </c>
@@ -23517,7 +23479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B94" s="53">
         <v>43178</v>
       </c>
@@ -23565,7 +23527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B95" s="53">
         <v>43179</v>
       </c>
@@ -23613,7 +23575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B96" s="53">
         <v>43180</v>
       </c>
@@ -23661,7 +23623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B97" s="53">
         <v>43181</v>
       </c>
@@ -23709,7 +23671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B98" s="53">
         <v>43182</v>
       </c>
@@ -23757,7 +23719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B99" s="53">
         <v>43183</v>
       </c>
@@ -23805,7 +23767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B100" s="53">
         <v>43184</v>
       </c>
@@ -23853,7 +23815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B101" s="53">
         <v>43185</v>
       </c>
@@ -23901,7 +23863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B102" s="53">
         <v>43186</v>
       </c>
@@ -23949,7 +23911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" s="53">
         <v>43187</v>
       </c>
@@ -23997,7 +23959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" s="53">
         <v>43188</v>
       </c>
@@ -24045,7 +24007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B105" s="53">
         <v>43189</v>
       </c>
@@ -24093,7 +24055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B106" s="53">
         <v>43190</v>
       </c>
@@ -24141,7 +24103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B107" s="53">
         <v>43191</v>
       </c>
@@ -24189,7 +24151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B108" s="53">
         <v>43192</v>
       </c>
@@ -24237,7 +24199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B109" s="53">
         <v>43193</v>
       </c>
@@ -24285,7 +24247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B110" s="53">
         <v>43194</v>
       </c>
@@ -24333,7 +24295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B111" s="53">
         <v>43195</v>
       </c>
@@ -24381,7 +24343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B112" s="53">
         <v>43196</v>
       </c>
@@ -24429,7 +24391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B113" s="53">
         <v>43197</v>
       </c>
@@ -24477,7 +24439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B114" s="53">
         <v>43198</v>
       </c>
@@ -24525,7 +24487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B115" s="53">
         <v>43199</v>
       </c>
@@ -24573,7 +24535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B116" s="53">
         <v>43200</v>
       </c>
@@ -24621,7 +24583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B117" s="53">
         <v>43201</v>
       </c>
@@ -24661,7 +24623,7 @@
         <v>1.9376715646697885E-3</v>
       </c>
       <c r="L117" s="50">
-        <f>C819</f>
+        <f>C826</f>
         <v>0</v>
       </c>
       <c r="M117" s="35">
@@ -24670,7 +24632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B118" s="53">
         <v>43202</v>
       </c>
@@ -24718,7 +24680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B119" s="53">
         <v>43203</v>
       </c>
@@ -24766,7 +24728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B120" s="53">
         <v>43204</v>
       </c>
@@ -24814,7 +24776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B121" s="53">
         <v>43205</v>
       </c>
@@ -24862,7 +24824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B122" s="53">
         <v>43206</v>
       </c>
@@ -24910,7 +24872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B123" s="53">
         <v>43207</v>
       </c>
@@ -24958,7 +24920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B124" s="53">
         <v>43208</v>
       </c>
@@ -25006,7 +24968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B125" s="53">
         <v>43209</v>
       </c>
@@ -25054,7 +25016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B126" s="53">
         <v>43210</v>
       </c>
@@ -25102,7 +25064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B127" s="53">
         <v>43211</v>
       </c>
@@ -25150,7 +25112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B128" s="53">
         <v>43212</v>
       </c>
@@ -25198,7 +25160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" s="53">
         <v>43213</v>
       </c>
@@ -25246,7 +25208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B130" s="53">
         <v>43214</v>
       </c>
@@ -25294,7 +25256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" s="53">
         <v>43215</v>
       </c>
@@ -25342,7 +25304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B132" s="53">
         <v>43216</v>
       </c>
@@ -25390,7 +25352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B133" s="53">
         <v>43217</v>
       </c>
@@ -25438,7 +25400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B134" s="53">
         <v>43218</v>
       </c>
@@ -25486,7 +25448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B135" s="53">
         <v>43219</v>
       </c>
@@ -25534,7 +25496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B136" s="53">
         <v>43220</v>
       </c>
@@ -25582,7 +25544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B137" s="53">
         <v>43221</v>
       </c>
@@ -25630,7 +25592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B138" s="53">
         <v>43222</v>
       </c>
@@ -25678,7 +25640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B139" s="53">
         <v>43223</v>
       </c>
@@ -25726,7 +25688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B140" s="53">
         <v>43224</v>
       </c>
@@ -25774,7 +25736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B141" s="53">
         <v>43225</v>
       </c>
@@ -25822,7 +25784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B142" s="53">
         <v>43226</v>
       </c>
@@ -25870,7 +25832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B143" s="59">
         <v>43227</v>
       </c>
@@ -25918,7 +25880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B144" s="59">
         <v>43228</v>
       </c>
@@ -25966,7 +25928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B145" s="59">
         <v>43229</v>
       </c>
@@ -26014,7 +25976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B146" s="59">
         <v>43230</v>
       </c>
@@ -26062,7 +26024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B147" s="59">
         <v>43231</v>
       </c>
@@ -26110,7 +26072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B148" s="59">
         <v>43232</v>
       </c>
@@ -26158,7 +26120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B149" s="41">
         <v>43233</v>
       </c>
@@ -26206,7 +26168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B150" s="41">
         <v>43234</v>
       </c>
@@ -26254,7 +26216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B151" s="41">
         <v>43235</v>
       </c>
@@ -26302,7 +26264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B152" s="41">
         <v>43236</v>
       </c>
@@ -26350,7 +26312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B153" s="41">
         <v>43237</v>
       </c>
@@ -26398,7 +26360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B154" s="41">
         <v>43238</v>
       </c>
@@ -26446,7 +26408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B155" s="41">
         <v>43239</v>
       </c>
@@ -26494,7 +26456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B156" s="41">
         <v>43240</v>
       </c>
@@ -26542,7 +26504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B157" s="41">
         <v>43241</v>
       </c>
@@ -26590,7 +26552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B158" s="41">
         <v>43242</v>
       </c>
@@ -26638,7 +26600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B159" s="41">
         <v>43243</v>
       </c>
@@ -26686,7 +26648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B160" s="41">
         <v>43244</v>
       </c>
@@ -26734,7 +26696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B161" s="41">
         <v>43245</v>
       </c>
@@ -26782,7 +26744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B162" s="41">
         <v>43246</v>
       </c>
@@ -26830,7 +26792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B163" s="41">
         <v>43247</v>
       </c>
@@ -26878,7 +26840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B164" s="41">
         <v>43248</v>
       </c>
@@ -26926,7 +26888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B165" s="41">
         <v>43249</v>
       </c>
@@ -26974,7 +26936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B166" s="41">
         <v>43250</v>
       </c>
@@ -27022,7 +26984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B167" s="41">
         <v>43251</v>
       </c>
@@ -27070,7 +27032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B168" s="41">
         <v>43252</v>
       </c>
@@ -27118,7 +27080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B169" s="41">
         <v>43253</v>
       </c>
@@ -27166,7 +27128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B170" s="41">
         <v>43254</v>
       </c>
@@ -27214,7 +27176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B171" s="41">
         <v>43255</v>
       </c>
@@ -27262,7 +27224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B172" s="41">
         <v>43256</v>
       </c>
@@ -27310,7 +27272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B173" s="41">
         <v>43257</v>
       </c>
@@ -27358,7 +27320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B174" s="41">
         <v>43258</v>
       </c>
@@ -27406,7 +27368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B175" s="41">
         <v>43259</v>
       </c>
@@ -27454,7 +27416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B176" s="41">
         <v>43260</v>
       </c>
@@ -27502,7 +27464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B177" s="41">
         <v>43261</v>
       </c>
@@ -27550,7 +27512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B178" s="41">
         <v>43262</v>
       </c>
@@ -27598,7 +27560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B179" s="41">
         <v>43263</v>
       </c>
@@ -27646,7 +27608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B180" s="41">
         <v>43264</v>
       </c>
@@ -27694,7 +27656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B181" s="41">
         <v>43265</v>
       </c>
@@ -27742,7 +27704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B182" s="41">
         <v>43266</v>
       </c>
@@ -27790,7 +27752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B183" s="41">
         <v>43267</v>
       </c>
@@ -27838,7 +27800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B184" s="41">
         <v>43268</v>
       </c>
@@ -27886,7 +27848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B185" s="79">
         <v>43269</v>
       </c>
@@ -27934,7 +27896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B186" s="79">
         <v>43270</v>
       </c>
@@ -27982,7 +27944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B187" s="79">
         <v>43271</v>
       </c>
@@ -28030,7 +27992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B188" s="79">
         <v>43272</v>
       </c>
@@ -28078,7 +28040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B189" s="79">
         <v>43273</v>
       </c>
@@ -28126,7 +28088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B190" s="79">
         <v>43274</v>
       </c>
@@ -28174,7 +28136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B191" s="79">
         <v>43275</v>
       </c>
@@ -28222,7 +28184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B192" s="79">
         <v>43276</v>
       </c>
@@ -28270,7 +28232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B193" s="79">
         <v>43277</v>
       </c>
@@ -28318,7 +28280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B194" s="79">
         <v>43278</v>
       </c>
@@ -28366,7 +28328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B195" s="79">
         <v>43279</v>
       </c>
@@ -28414,7 +28376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B196" s="79">
         <v>43280</v>
       </c>
@@ -28462,7 +28424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B197" s="79">
         <v>43281</v>
       </c>
@@ -28510,7 +28472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B198" s="79">
         <v>43282</v>
       </c>
@@ -28558,7 +28520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B199" s="79">
         <v>43283</v>
       </c>
@@ -28606,7 +28568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B200" s="79">
         <v>43284</v>
       </c>
@@ -28654,7 +28616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B201" s="79">
         <v>43285</v>
       </c>
@@ -28702,7 +28664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B202" s="79">
         <v>43286</v>
       </c>
@@ -28750,7 +28712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B203" s="79">
         <v>43287</v>
       </c>
@@ -28798,7 +28760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B204" s="79">
         <v>43288</v>
       </c>
@@ -28846,7 +28808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B205" s="79">
         <v>43289</v>
       </c>
@@ -28894,7 +28856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B206" s="79">
         <v>43290</v>
       </c>
@@ -28942,7 +28904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B207" s="79">
         <v>43291</v>
       </c>
@@ -28990,7 +28952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B208" s="79">
         <v>43292</v>
       </c>
@@ -29038,7 +29000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B209" s="79">
         <v>43293</v>
       </c>
@@ -29086,7 +29048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B210" s="79">
         <v>43294</v>
       </c>
@@ -29134,7 +29096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B211" s="79">
         <v>43295</v>
       </c>
@@ -29182,7 +29144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B212" s="79">
         <v>43296</v>
       </c>
@@ -29230,7 +29192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B213" s="79">
         <v>43297</v>
       </c>
@@ -29278,7 +29240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B214" s="79">
         <v>43298</v>
       </c>
@@ -29326,7 +29288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B215" s="79">
         <v>43299</v>
       </c>
@@ -29374,7 +29336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B216" s="79">
         <v>43300</v>
       </c>
@@ -29422,7 +29384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B217" s="79">
         <v>43301</v>
       </c>
@@ -29470,7 +29432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B218" s="79">
         <v>43302</v>
       </c>
@@ -29518,7 +29480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B219" s="79">
         <v>43303</v>
       </c>
@@ -29566,7 +29528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B220" s="79">
         <v>43304</v>
       </c>
@@ -29614,7 +29576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B221" s="79">
         <v>43305</v>
       </c>
@@ -29662,7 +29624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B222" s="79">
         <v>43306</v>
       </c>
@@ -29710,7 +29672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B223" s="79">
         <v>43307</v>
       </c>
@@ -29758,7 +29720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B224" s="79">
         <v>43308</v>
       </c>
@@ -29806,7 +29768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B225" s="79">
         <v>43309</v>
       </c>
@@ -29854,7 +29816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B226" s="79">
         <v>43310</v>
       </c>
@@ -29902,7 +29864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B227" s="79">
         <v>43311</v>
       </c>
@@ -29950,7 +29912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B228" s="79">
         <v>43312</v>
       </c>
@@ -29998,7 +29960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B229" s="79">
         <v>43313</v>
       </c>
@@ -30046,7 +30008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B230" s="79">
         <v>43314</v>
       </c>
@@ -30094,7 +30056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B231" s="79">
         <v>43315</v>
       </c>
@@ -30142,7 +30104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B232" s="79">
         <v>43316</v>
       </c>
@@ -30190,7 +30152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B233" s="79">
         <v>43317</v>
       </c>
@@ -30238,7 +30200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B234" s="79">
         <v>43318</v>
       </c>
@@ -30286,7 +30248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B235" s="79">
         <v>43319</v>
       </c>
@@ -30334,7 +30296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B236" s="79">
         <v>43320</v>
       </c>
@@ -30382,7 +30344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B237" s="79">
         <v>43321</v>
       </c>
@@ -30430,7 +30392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B238" s="79">
         <v>43322</v>
       </c>
@@ -30478,7 +30440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B239" s="79">
         <v>43323</v>
       </c>
@@ -30526,7 +30488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B240" s="79">
         <v>43324</v>
       </c>
@@ -30574,7 +30536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B241" s="79">
         <v>43325</v>
       </c>
@@ -30622,7 +30584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B242" s="79">
         <v>43326</v>
       </c>
@@ -30670,7 +30632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B243" s="79">
         <v>43327</v>
       </c>
@@ -30718,7 +30680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B244" s="79">
         <v>43328</v>
       </c>
@@ -30766,7 +30728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B245" s="79">
         <v>43329</v>
       </c>
@@ -30814,7 +30776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B246" s="79">
         <v>43330</v>
       </c>
@@ -30862,7 +30824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B247" s="79">
         <v>43331</v>
       </c>
@@ -30910,66 +30872,372 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B248" s="29" t="s">
+    <row r="248" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B248" s="79">
+        <v>43332</v>
+      </c>
+      <c r="C248" s="120">
+        <v>8960</v>
+      </c>
+      <c r="D248" s="120">
+        <v>8464</v>
+      </c>
+      <c r="E248" s="121">
+        <f>Tabla18[Transactions 
+Complete]/Tabla18[Total]</f>
+        <v>0.94464285714285712</v>
+      </c>
+      <c r="F248" s="120">
+        <v>451</v>
+      </c>
+      <c r="G248" s="121">
+        <f>Tabla18[Transactions 
+Failed]/Tabla18[Total]</f>
+        <v>5.033482142857143E-2</v>
+      </c>
+      <c r="H248" s="120">
+        <v>0</v>
+      </c>
+      <c r="I248" s="121">
+        <f>Tabla18[Transactions 
+In_Prog]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J248" s="120">
+        <v>45</v>
+      </c>
+      <c r="K248" s="121">
+        <f>Tabla18[Transactions 
+Timeout]/Tabla18[Total]</f>
+        <v>5.0223214285714289E-3</v>
+      </c>
+      <c r="L248" s="120">
+        <v>0</v>
+      </c>
+      <c r="M248" s="121">
+        <f>Tabla18[Transactions
+Trans Fail]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B249" s="79">
+        <v>43333</v>
+      </c>
+      <c r="C249" s="120">
+        <v>8420</v>
+      </c>
+      <c r="D249" s="120">
+        <v>7910</v>
+      </c>
+      <c r="E249" s="121">
+        <f>Tabla18[Transactions 
+Complete]/Tabla18[Total]</f>
+        <v>0.93942992874109266</v>
+      </c>
+      <c r="F249" s="120">
+        <v>466</v>
+      </c>
+      <c r="G249" s="121">
+        <f>Tabla18[Transactions 
+Failed]/Tabla18[Total]</f>
+        <v>5.5344418052256532E-2</v>
+      </c>
+      <c r="H249" s="120">
+        <v>0</v>
+      </c>
+      <c r="I249" s="121">
+        <f>Tabla18[Transactions 
+In_Prog]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J249" s="120">
+        <v>44</v>
+      </c>
+      <c r="K249" s="121">
+        <f>Tabla18[Transactions 
+Timeout]/Tabla18[Total]</f>
+        <v>5.2256532066508312E-3</v>
+      </c>
+      <c r="L249" s="120">
+        <v>0</v>
+      </c>
+      <c r="M249" s="121">
+        <f>Tabla18[Transactions
+Trans Fail]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B250" s="79">
+        <v>43334</v>
+      </c>
+      <c r="C250" s="120">
+        <v>10656</v>
+      </c>
+      <c r="D250" s="120">
+        <v>9962</v>
+      </c>
+      <c r="E250" s="121">
+        <f>Tabla18[Transactions 
+Complete]/Tabla18[Total]</f>
+        <v>0.93487237237237242</v>
+      </c>
+      <c r="F250" s="120">
+        <v>651</v>
+      </c>
+      <c r="G250" s="121">
+        <f>Tabla18[Transactions 
+Failed]/Tabla18[Total]</f>
+        <v>6.1092342342342343E-2</v>
+      </c>
+      <c r="H250" s="120">
+        <v>0</v>
+      </c>
+      <c r="I250" s="121">
+        <f>Tabla18[Transactions 
+In_Prog]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J250" s="120">
+        <v>43</v>
+      </c>
+      <c r="K250" s="121">
+        <f>Tabla18[Transactions 
+Timeout]/Tabla18[Total]</f>
+        <v>4.0352852852852854E-3</v>
+      </c>
+      <c r="L250" s="120">
+        <v>0</v>
+      </c>
+      <c r="M250" s="121">
+        <f>Tabla18[Transactions
+Trans Fail]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B251" s="79">
+        <v>43335</v>
+      </c>
+      <c r="C251" s="120">
+        <v>8954</v>
+      </c>
+      <c r="D251" s="120">
+        <v>7320</v>
+      </c>
+      <c r="E251" s="121">
+        <f>Tabla18[Transactions 
+Complete]/Tabla18[Total]</f>
+        <v>0.81751172660263571</v>
+      </c>
+      <c r="F251" s="120">
+        <v>1586</v>
+      </c>
+      <c r="G251" s="121">
+        <f>Tabla18[Transactions 
+Failed]/Tabla18[Total]</f>
+        <v>0.17712754076390441</v>
+      </c>
+      <c r="H251" s="120">
+        <v>0</v>
+      </c>
+      <c r="I251" s="121">
+        <f>Tabla18[Transactions 
+In_Prog]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J251" s="120">
+        <v>48</v>
+      </c>
+      <c r="K251" s="121">
+        <f>Tabla18[Transactions 
+Timeout]/Tabla18[Total]</f>
+        <v>5.3607326334599061E-3</v>
+      </c>
+      <c r="L251" s="120">
+        <v>0</v>
+      </c>
+      <c r="M251" s="121">
+        <f>Tabla18[Transactions
+Trans Fail]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B252" s="79">
+        <v>43336</v>
+      </c>
+      <c r="C252" s="120">
+        <v>0.01</v>
+      </c>
+      <c r="D252" s="120"/>
+      <c r="E252" s="121">
+        <f>Tabla18[Transactions 
+Complete]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="F252" s="120"/>
+      <c r="G252" s="121">
+        <f>Tabla18[Transactions 
+Failed]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="H252" s="120"/>
+      <c r="I252" s="121">
+        <f>Tabla18[Transactions 
+In_Prog]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J252" s="120"/>
+      <c r="K252" s="121">
+        <f>Tabla18[Transactions 
+Timeout]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="L252" s="120"/>
+      <c r="M252" s="121">
+        <f>Tabla18[Transactions
+Trans Fail]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B253" s="79">
+        <v>43337</v>
+      </c>
+      <c r="C253" s="120">
+        <v>0.01</v>
+      </c>
+      <c r="D253" s="120"/>
+      <c r="E253" s="121">
+        <f>Tabla18[Transactions 
+Complete]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="F253" s="120"/>
+      <c r="G253" s="121">
+        <f>Tabla18[Transactions 
+Failed]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="H253" s="120"/>
+      <c r="I253" s="121">
+        <f>Tabla18[Transactions 
+In_Prog]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J253" s="120"/>
+      <c r="K253" s="121">
+        <f>Tabla18[Transactions 
+Timeout]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="L253" s="120"/>
+      <c r="M253" s="121">
+        <f>Tabla18[Transactions
+Trans Fail]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B254" s="79">
+        <v>43338</v>
+      </c>
+      <c r="C254" s="120">
+        <v>0.01</v>
+      </c>
+      <c r="D254" s="120"/>
+      <c r="E254" s="121">
+        <f>Tabla18[Transactions 
+Complete]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="F254" s="120"/>
+      <c r="G254" s="121">
+        <f>Tabla18[Transactions 
+Failed]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="H254" s="120"/>
+      <c r="I254" s="121">
+        <f>Tabla18[Transactions 
+In_Prog]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J254" s="120"/>
+      <c r="K254" s="121">
+        <f>Tabla18[Transactions 
+Timeout]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="L254" s="120"/>
+      <c r="M254" s="121">
+        <f>Tabla18[Transactions
+Trans Fail]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="2:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="B255" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C248" s="39">
-        <f>SUM(C241:C247)</f>
-        <v>58852</v>
-      </c>
-      <c r="D248" s="39">
-        <f>SUM(D241:D247)</f>
-        <v>55570</v>
-      </c>
-      <c r="E248" s="36">
-        <f>AVERAGE(E241:E247)</f>
-        <v>0.94621527984405684</v>
-      </c>
-      <c r="F248" s="39">
-        <f>SUM(F241:F247)</f>
-        <v>2964</v>
-      </c>
-      <c r="G248" s="36">
-        <f>AVERAGE(G241:G247)</f>
-        <v>4.5843125740392447E-2</v>
-      </c>
-      <c r="H248" s="39">
-        <f>SUM(H241:H247)</f>
-        <v>0</v>
-      </c>
-      <c r="I248" s="36">
-        <f>AVERAGE(I241:I247)</f>
-        <v>0</v>
-      </c>
-      <c r="J248" s="39">
-        <f>SUM(J241:J247)</f>
-        <v>318</v>
-      </c>
-      <c r="K248" s="36">
-        <f>AVERAGE(K241:K247)</f>
-        <v>7.9415944155507047E-3</v>
-      </c>
-      <c r="L248" s="39">
-        <f>SUM(L241:L247)</f>
-        <v>0</v>
-      </c>
-      <c r="M248" s="36">
-        <f>AVERAGE(M241:M247)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E249" s="26"/>
-    </row>
-    <row r="250" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E250" s="26"/>
-    </row>
-    <row r="251" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E251" s="26"/>
-    </row>
-    <row r="252" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E252" s="26"/>
+      <c r="C255" s="39">
+        <f>SUM(C248:C254)</f>
+        <v>36990.030000000006</v>
+      </c>
+      <c r="D255" s="39">
+        <f>SUM(D248:D254)</f>
+        <v>33656</v>
+      </c>
+      <c r="E255" s="36">
+        <f>AVERAGE(E248:E254)</f>
+        <v>0.51949384069413684</v>
+      </c>
+      <c r="F255" s="39">
+        <f>SUM(F248:F254)</f>
+        <v>3154</v>
+      </c>
+      <c r="G255" s="36">
+        <f>AVERAGE(G248:G254)</f>
+        <v>4.9128446083867815E-2</v>
+      </c>
+      <c r="H255" s="39">
+        <f>SUM(H248:H254)</f>
+        <v>0</v>
+      </c>
+      <c r="I255" s="36">
+        <f>AVERAGE(I248:I254)</f>
+        <v>0</v>
+      </c>
+      <c r="J255" s="39">
+        <f>SUM(J248:J254)</f>
+        <v>180</v>
+      </c>
+      <c r="K255" s="36">
+        <f>AVERAGE(K248:K254)</f>
+        <v>2.8062846505667789E-3</v>
+      </c>
+      <c r="L255" s="39">
+        <f>SUM(L248:L254)</f>
+        <v>0</v>
+      </c>
+      <c r="M255" s="36">
+        <f>AVERAGE(M248:M254)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E256" s="26"/>
+    </row>
+    <row r="257" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E257" s="26"/>
+    </row>
+    <row r="258" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E258" s="26"/>
+    </row>
+    <row r="259" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E259" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -30992,12 +31260,12 @@
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="44">
         <v>43101</v>
       </c>
@@ -31035,7 +31303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="47">
         <v>43102</v>
       </c>
@@ -31073,7 +31341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="44">
         <v>43103</v>
       </c>
@@ -31111,7 +31379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="47">
         <v>43104</v>
       </c>
@@ -31149,7 +31417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="44">
         <v>43105</v>
       </c>
@@ -31187,7 +31455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="47">
         <v>43106</v>
       </c>
@@ -31225,7 +31493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="44">
         <v>43107</v>
       </c>
@@ -31263,7 +31531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="47">
         <v>43108</v>
       </c>
@@ -31301,7 +31569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="44">
         <v>43109</v>
       </c>
@@ -31339,7 +31607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="47">
         <v>43110</v>
       </c>
@@ -31377,7 +31645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="44">
         <v>43111</v>
       </c>
@@ -31415,7 +31683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="47">
         <v>43112</v>
       </c>
@@ -31453,7 +31721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="44">
         <v>43113</v>
       </c>
@@ -31491,7 +31759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="47">
         <v>43114</v>
       </c>
@@ -31529,7 +31797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="44">
         <v>43115</v>
       </c>
@@ -31567,7 +31835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="47">
         <v>43116</v>
       </c>
@@ -31605,7 +31873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="44">
         <v>43117</v>
       </c>
@@ -31643,7 +31911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="47">
         <v>43118</v>
       </c>
@@ -31681,7 +31949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="44">
         <v>43119</v>
       </c>
@@ -31719,7 +31987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="47">
         <v>43120</v>
       </c>
@@ -31757,7 +32025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="44">
         <v>43121</v>
       </c>
@@ -31795,7 +32063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="47">
         <v>43122</v>
       </c>
@@ -31833,7 +32101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="44">
         <v>43123</v>
       </c>
@@ -31871,7 +32139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="47">
         <v>43124</v>
       </c>
@@ -31909,7 +32177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="44">
         <v>43125</v>
       </c>
@@ -31947,7 +32215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="47">
         <v>43126</v>
       </c>
@@ -31985,7 +32253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="44">
         <v>43127</v>
       </c>
@@ -32023,7 +32291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="47">
         <v>43128</v>
       </c>
@@ -32061,7 +32329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="44">
         <v>43129</v>
       </c>
@@ -32099,7 +32367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="47">
         <v>43130</v>
       </c>
@@ -32137,7 +32405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="44">
         <v>43131</v>
       </c>
@@ -32175,7 +32443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B32" s="48">
         <f>SUM(B1:B31)</f>
         <v>272552</v>
@@ -32238,25 +32506,25 @@
       <selection activeCell="B15" sqref="B15:M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="33"/>
+    <col min="14" max="16384" width="11.5" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -32272,7 +32540,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -32290,7 +32558,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -32308,7 +32576,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -32324,7 +32592,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -32343,7 +32611,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -32365,7 +32633,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
@@ -32387,7 +32655,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -32409,7 +32677,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -32431,7 +32699,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -32453,7 +32721,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -32472,7 +32740,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -32486,7 +32754,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -32500,7 +32768,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
@@ -32516,7 +32784,7 @@
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
     </row>
-    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
@@ -32565,7 +32833,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -32603,7 +32871,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="41">
         <v>43132</v>
       </c>
@@ -32646,7 +32914,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="41">
         <v>43133</v>
       </c>
@@ -32689,7 +32957,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="41">
         <v>43134</v>
       </c>
@@ -32732,7 +33000,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="41">
         <v>43135</v>
       </c>
@@ -32775,7 +33043,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="41">
         <v>43136</v>
       </c>
@@ -32818,7 +33086,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="41">
         <v>43137</v>
       </c>
@@ -32861,7 +33129,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="41">
         <v>43138</v>
       </c>
@@ -32904,7 +33172,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="41">
         <v>43139</v>
       </c>
@@ -32947,7 +33215,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="41">
         <v>43140</v>
       </c>
@@ -32990,7 +33258,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="41">
         <v>43141</v>
       </c>
@@ -33033,7 +33301,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="41">
         <v>43142</v>
       </c>
@@ -33076,7 +33344,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="41">
         <v>43143</v>
       </c>
@@ -33119,7 +33387,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="41">
         <v>43144</v>
       </c>
@@ -33162,7 +33430,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="41">
         <v>43145</v>
       </c>
@@ -33205,7 +33473,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="41">
         <v>43146</v>
       </c>
@@ -33248,7 +33516,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="41">
         <v>43147</v>
       </c>
@@ -33291,7 +33559,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="41">
         <v>43148</v>
       </c>
@@ -33334,7 +33602,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="41">
         <v>43149</v>
       </c>
@@ -33377,7 +33645,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="41">
         <v>43150</v>
       </c>
@@ -33420,7 +33688,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="41">
         <v>43151</v>
       </c>
@@ -33463,7 +33731,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="41">
         <v>43152</v>
       </c>
@@ -33506,7 +33774,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="41">
         <v>43153</v>
       </c>
@@ -33549,7 +33817,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="41">
         <v>43154</v>
       </c>
@@ -33592,7 +33860,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="41">
         <v>43155</v>
       </c>
@@ -33635,7 +33903,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="41">
         <v>43156</v>
       </c>
@@ -33678,7 +33946,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="41">
         <v>43157</v>
       </c>
@@ -33721,7 +33989,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="41">
         <v>43158</v>
       </c>
@@ -33764,7 +34032,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="41">
         <v>43159</v>
       </c>
@@ -33807,7 +34075,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" ht="24" x14ac:dyDescent="0.2">
       <c r="B45" s="29" t="s">
         <v>26</v>
       </c>
@@ -33856,16 +34124,16 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E46" s="26"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E47" s="26"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E48" s="26"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E49" s="26"/>
     </row>
   </sheetData>
@@ -33892,25 +34160,25 @@
       <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="33"/>
+    <col min="14" max="16384" width="11.5" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -33926,7 +34194,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -33944,7 +34212,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -33962,7 +34230,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -33978,7 +34246,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -33997,7 +34265,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -34019,7 +34287,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
@@ -34041,7 +34309,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -34063,7 +34331,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -34085,7 +34353,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -34107,7 +34375,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -34126,7 +34394,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -34140,7 +34408,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -34154,7 +34422,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
@@ -34170,7 +34438,7 @@
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
     </row>
-    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
@@ -34219,7 +34487,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -34257,7 +34525,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="41">
         <v>43160</v>
       </c>
@@ -34300,7 +34568,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="41">
         <v>43161</v>
       </c>
@@ -34343,7 +34611,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="41">
         <v>43162</v>
       </c>
@@ -34386,7 +34654,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="41">
         <v>43163</v>
       </c>
@@ -34429,7 +34697,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="41">
         <v>43164</v>
       </c>
@@ -34472,7 +34740,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="41">
         <v>43165</v>
       </c>
@@ -34515,7 +34783,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="41">
         <v>43166</v>
       </c>
@@ -34558,7 +34826,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="41">
         <v>43167</v>
       </c>
@@ -34601,7 +34869,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="41">
         <v>43168</v>
       </c>
@@ -34644,7 +34912,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="41">
         <v>43169</v>
       </c>
@@ -34687,7 +34955,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="41">
         <v>43170</v>
       </c>
@@ -34730,7 +34998,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="41">
         <v>43171</v>
       </c>
@@ -34773,7 +35041,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="41">
         <v>43172</v>
       </c>
@@ -34816,7 +35084,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="41">
         <v>43173</v>
       </c>
@@ -34859,7 +35127,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="41">
         <v>43174</v>
       </c>
@@ -34902,7 +35170,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="41">
         <v>43175</v>
       </c>
@@ -34945,7 +35213,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="41">
         <v>43176</v>
       </c>
@@ -34988,7 +35256,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="41">
         <v>43177</v>
       </c>
@@ -35031,7 +35299,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="53">
         <v>43178</v>
       </c>
@@ -35074,7 +35342,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="53">
         <v>43179</v>
       </c>
@@ -35117,7 +35385,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="53">
         <v>43180</v>
       </c>
@@ -35160,7 +35428,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="53">
         <v>43181</v>
       </c>
@@ -35203,7 +35471,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="53">
         <v>43182</v>
       </c>
@@ -35246,7 +35514,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="53">
         <v>43183</v>
       </c>
@@ -35289,7 +35557,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="53">
         <v>43184</v>
       </c>
@@ -35332,7 +35600,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="53">
         <v>43185</v>
       </c>
@@ -35375,7 +35643,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="53">
         <v>43186</v>
       </c>
@@ -35418,7 +35686,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="53">
         <v>43187</v>
       </c>
@@ -35461,7 +35729,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="53">
         <v>43188</v>
       </c>
@@ -35504,7 +35772,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="53">
         <v>43189</v>
       </c>
@@ -35547,7 +35815,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" s="53">
         <v>43190</v>
       </c>
@@ -35590,7 +35858,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" ht="24" x14ac:dyDescent="0.2">
       <c r="B48" s="54" t="s">
         <v>26</v>
       </c>
@@ -35639,16 +35907,16 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E49" s="26"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E51" s="26"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E52" s="26"/>
     </row>
   </sheetData>
@@ -35675,25 +35943,25 @@
       <selection activeCell="B17" sqref="B17:M47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="33"/>
+    <col min="14" max="16384" width="11.5" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -35709,7 +35977,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -35727,7 +35995,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -35745,7 +36013,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -35761,7 +36029,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -35780,7 +36048,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -35802,7 +36070,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
@@ -35824,7 +36092,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -35846,7 +36114,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -35868,7 +36136,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -35890,7 +36158,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -35909,7 +36177,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -35923,7 +36191,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -35937,7 +36205,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
@@ -35953,7 +36221,7 @@
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
     </row>
-    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
@@ -36002,7 +36270,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -36040,7 +36308,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="53">
         <v>43191</v>
       </c>
@@ -36083,7 +36351,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="53">
         <v>43192</v>
       </c>
@@ -36126,7 +36394,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="53">
         <v>43193</v>
       </c>
@@ -36169,7 +36437,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="53">
         <v>43194</v>
       </c>
@@ -36212,7 +36480,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="53">
         <v>43195</v>
       </c>
@@ -36255,7 +36523,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="53">
         <v>43196</v>
       </c>
@@ -36298,7 +36566,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="53">
         <v>43197</v>
       </c>
@@ -36341,7 +36609,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="53">
         <v>43198</v>
       </c>
@@ -36384,7 +36652,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="53">
         <v>43199</v>
       </c>
@@ -36427,7 +36695,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="53">
         <v>43200</v>
       </c>
@@ -36470,7 +36738,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="53">
         <v>43201</v>
       </c>
@@ -36514,7 +36782,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="53">
         <v>43202</v>
       </c>
@@ -36557,7 +36825,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="53">
         <v>43203</v>
       </c>
@@ -36600,7 +36868,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="53">
         <v>43204</v>
       </c>
@@ -36643,7 +36911,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="53">
         <v>43205</v>
       </c>
@@ -36686,7 +36954,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="53">
         <v>43206</v>
       </c>
@@ -36729,7 +36997,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="53">
         <v>43207</v>
       </c>
@@ -36772,7 +37040,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="53">
         <v>43208</v>
       </c>
@@ -36815,7 +37083,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="53">
         <v>43209</v>
       </c>
@@ -36858,7 +37126,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="53">
         <v>43210</v>
       </c>
@@ -36901,7 +37169,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="53">
         <v>43211</v>
       </c>
@@ -36944,7 +37212,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="53">
         <v>43212</v>
       </c>
@@ -36987,7 +37255,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="53">
         <v>43213</v>
       </c>
@@ -37030,7 +37298,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="53">
         <v>43214</v>
       </c>
@@ -37073,7 +37341,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="53">
         <v>43215</v>
       </c>
@@ -37116,7 +37384,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="53">
         <v>43216</v>
       </c>
@@ -37159,7 +37427,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="53">
         <v>43217</v>
       </c>
@@ -37202,7 +37470,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="53">
         <v>43218</v>
       </c>
@@ -37245,7 +37513,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="53">
         <v>43219</v>
       </c>
@@ -37288,7 +37556,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="53">
         <v>43220</v>
       </c>
@@ -37331,7 +37599,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" ht="24" x14ac:dyDescent="0.2">
       <c r="B47" s="54" t="s">
         <v>26</v>
       </c>
@@ -37380,16 +37648,16 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E48" s="26"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E49" s="26"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E51" s="26"/>
     </row>
   </sheetData>
@@ -37416,25 +37684,25 @@
       <selection activeCell="B17" sqref="B17:M48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="33"/>
+    <col min="14" max="16384" width="11.5" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -37450,7 +37718,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -37468,7 +37736,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -37486,7 +37754,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -37502,7 +37770,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -37521,7 +37789,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -37543,7 +37811,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
@@ -37565,7 +37833,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -37587,7 +37855,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -37609,7 +37877,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -37631,7 +37899,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -37650,7 +37918,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -37664,7 +37932,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -37678,7 +37946,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
@@ -37694,7 +37962,7 @@
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
     </row>
-    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
@@ -37743,7 +38011,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -37781,7 +38049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="53">
         <v>43221</v>
       </c>
@@ -37824,7 +38092,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="53">
         <v>43222</v>
       </c>
@@ -37867,7 +38135,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="53">
         <v>43223</v>
       </c>
@@ -37910,7 +38178,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="53">
         <v>43224</v>
       </c>
@@ -37953,7 +38221,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="53">
         <v>43225</v>
       </c>
@@ -37996,7 +38264,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="53">
         <v>43226</v>
       </c>
@@ -38039,7 +38307,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="59">
         <v>43227</v>
       </c>
@@ -38082,7 +38350,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="59">
         <v>43228</v>
       </c>
@@ -38125,7 +38393,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="59">
         <v>43229</v>
       </c>
@@ -38168,7 +38436,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="59">
         <v>43230</v>
       </c>
@@ -38211,7 +38479,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="59">
         <v>43231</v>
       </c>
@@ -38254,7 +38522,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="59">
         <v>43232</v>
       </c>
@@ -38297,7 +38565,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="41">
         <v>43233</v>
       </c>
@@ -38340,7 +38608,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="41">
         <v>43234</v>
       </c>
@@ -38383,7 +38651,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="41">
         <v>43235</v>
       </c>
@@ -38426,7 +38694,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="41">
         <v>43236</v>
       </c>
@@ -38469,7 +38737,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="41">
         <v>43237</v>
       </c>
@@ -38512,7 +38780,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="41">
         <v>43238</v>
       </c>
@@ -38555,7 +38823,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="41">
         <v>43239</v>
       </c>
@@ -38598,7 +38866,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="41">
         <v>43240</v>
       </c>
@@ -38641,7 +38909,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="41">
         <v>43241</v>
       </c>
@@ -38684,7 +38952,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="41">
         <v>43242</v>
       </c>
@@ -38727,7 +38995,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="41">
         <v>43243</v>
       </c>
@@ -38770,7 +39038,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="41">
         <v>43244</v>
       </c>
@@ -38813,7 +39081,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="41">
         <v>43245</v>
       </c>
@@ -38856,7 +39124,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="41">
         <v>43246</v>
       </c>
@@ -38899,7 +39167,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="41">
         <v>43247</v>
       </c>
@@ -38942,7 +39210,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="41">
         <v>43248</v>
       </c>
@@ -38985,7 +39253,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="41">
         <v>43249</v>
       </c>
@@ -39028,7 +39296,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="41">
         <v>43250</v>
       </c>
@@ -39071,7 +39339,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" s="41">
         <v>43251</v>
       </c>
@@ -39114,7 +39382,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" ht="24" x14ac:dyDescent="0.2">
       <c r="B48" s="56" t="s">
         <v>26</v>
       </c>
@@ -39163,16 +39431,16 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E49" s="26"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E51" s="26"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E52" s="26"/>
     </row>
   </sheetData>
@@ -39199,25 +39467,25 @@
       <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="33"/>
+    <col min="14" max="16384" width="11.5" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -39233,7 +39501,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -39251,7 +39519,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -39269,7 +39537,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -39285,7 +39553,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -39304,7 +39572,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -39326,7 +39594,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
@@ -39348,7 +39616,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -39370,7 +39638,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -39392,7 +39660,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -39414,7 +39682,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -39433,7 +39701,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -39447,7 +39715,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -39461,7 +39729,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
@@ -39477,7 +39745,7 @@
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
     </row>
-    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
@@ -39536,7 +39804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -39574,7 +39842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="79">
         <v>43252</v>
       </c>
@@ -39622,7 +39890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="79">
         <v>43253</v>
       </c>
@@ -39670,7 +39938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="79">
         <v>43254</v>
       </c>
@@ -39718,7 +39986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="79">
         <v>43255</v>
       </c>
@@ -39766,7 +40034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="79">
         <v>43256</v>
       </c>
@@ -39814,7 +40082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="79">
         <v>43257</v>
       </c>
@@ -39862,7 +40130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="79">
         <v>43258</v>
       </c>
@@ -39910,7 +40178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="79">
         <v>43259</v>
       </c>
@@ -39958,7 +40226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="79">
         <v>43260</v>
       </c>
@@ -40006,7 +40274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="79">
         <v>43261</v>
       </c>
@@ -40054,7 +40322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="79">
         <v>43262</v>
       </c>
@@ -40102,7 +40370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="79">
         <v>43263</v>
       </c>
@@ -40150,7 +40418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B29" s="79">
         <v>43264</v>
       </c>
@@ -40198,7 +40466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="79">
         <v>43265</v>
       </c>
@@ -40246,7 +40514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B31" s="79">
         <v>43266</v>
       </c>
@@ -40294,7 +40562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B32" s="79">
         <v>43267</v>
       </c>
@@ -40342,7 +40610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B33" s="79">
         <v>43268</v>
       </c>
@@ -40390,7 +40658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B34" s="79">
         <v>43269</v>
       </c>
@@ -40438,7 +40706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B35" s="79">
         <v>43270</v>
       </c>
@@ -40486,7 +40754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B36" s="79">
         <v>43271</v>
       </c>
@@ -40534,7 +40802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B37" s="79">
         <v>43272</v>
       </c>
@@ -40582,7 +40850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B38" s="79">
         <v>43273</v>
       </c>
@@ -40630,7 +40898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B39" s="79">
         <v>43274</v>
       </c>
@@ -40678,7 +40946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B40" s="79">
         <v>43275</v>
       </c>
@@ -40726,7 +40994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B41" s="79">
         <v>43276</v>
       </c>
@@ -40774,7 +41042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="79">
         <v>43277</v>
       </c>
@@ -40822,7 +41090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="79">
         <v>43278</v>
       </c>
@@ -40870,7 +41138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="79">
         <v>43279</v>
       </c>
@@ -40918,7 +41186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="79">
         <v>43280</v>
       </c>
@@ -40966,7 +41234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="79">
         <v>43281</v>
       </c>
@@ -41014,7 +41282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" ht="24" x14ac:dyDescent="0.2">
       <c r="B47" s="62" t="s">
         <v>26</v>
       </c>
@@ -41063,16 +41331,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E48" s="26"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E49" s="26"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E51" s="26"/>
     </row>
   </sheetData>
@@ -41096,9 +41364,9 @@
       <selection activeCell="A2" sqref="A2:L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="114">
         <v>43282</v>
       </c>
@@ -41136,7 +41404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="110">
         <v>43283</v>
       </c>
@@ -41174,7 +41442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="114">
         <v>43284</v>
       </c>
@@ -41212,7 +41480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="110">
         <v>43285</v>
       </c>
@@ -41250,7 +41518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="114">
         <v>43286</v>
       </c>
@@ -41288,7 +41556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="110">
         <v>43287</v>
       </c>
@@ -41326,7 +41594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="114">
         <v>43288</v>
       </c>
@@ -41364,7 +41632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="110">
         <v>43289</v>
       </c>
@@ -41402,7 +41670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="114">
         <v>43290</v>
       </c>
@@ -41440,7 +41708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="110">
         <v>43291</v>
       </c>
@@ -41478,7 +41746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="114">
         <v>43292</v>
       </c>
@@ -41516,7 +41784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="110">
         <v>43293</v>
       </c>
@@ -41554,7 +41822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="114">
         <v>43294</v>
       </c>
@@ -41592,7 +41860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="110">
         <v>43295</v>
       </c>
@@ -41630,7 +41898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="114">
         <v>43296</v>
       </c>
@@ -41668,7 +41936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="110">
         <v>43297</v>
       </c>
@@ -41706,7 +41974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="114">
         <v>43298</v>
       </c>
@@ -41744,7 +42012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="110">
         <v>43299</v>
       </c>
@@ -41782,7 +42050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="114">
         <v>43300</v>
       </c>
@@ -41820,7 +42088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="110">
         <v>43301</v>
       </c>
@@ -41858,7 +42126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="114">
         <v>43302</v>
       </c>
@@ -41896,7 +42164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="110">
         <v>43303</v>
       </c>
@@ -41934,7 +42202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="114">
         <v>43304</v>
       </c>
@@ -41972,7 +42240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="110">
         <v>43305</v>
       </c>
@@ -42010,7 +42278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="114">
         <v>43306</v>
       </c>
@@ -42048,7 +42316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="110">
         <v>43307</v>
       </c>
@@ -42086,7 +42354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="114">
         <v>43308</v>
       </c>
@@ -42124,7 +42392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="110">
         <v>43309</v>
       </c>
@@ -42162,7 +42430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="114">
         <v>43310</v>
       </c>
@@ -42200,7 +42468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="110">
         <v>43311</v>
       </c>
@@ -42238,7 +42506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="114">
         <v>43312</v>
       </c>
@@ -42276,7 +42544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="21" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A33" s="116" t="s">
         <v>27</v>
       </c>

--- a/INTE-Performance-JAMU-2018.xlsx
+++ b/INTE-Performance-JAMU-2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirnazertuche/Desktop/ASAP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Lopez\Desktop\ASAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E29099D-CF60-0640-9D5A-6BED12493928}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9422BF8-7B2D-4DA8-9BB4-78418CF478F3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="456" windowWidth="25596" windowHeight="14436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAMUPerformance" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,6 @@
     <sheet name="07" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="179021" calcMode="manual"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -150,7 +143,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
@@ -566,13 +559,13 @@
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -623,7 +616,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="4" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -662,7 +655,7 @@
     <xf numFmtId="10" fontId="14" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -733,13 +726,13 @@
     <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -757,7 +750,7 @@
     <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="19" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -919,7 +912,7 @@
     <xf numFmtId="3" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="28" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -942,15 +935,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="40% - Accent5" xfId="4" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
+    <cellStyle name="40% - Énfasis5" xfId="4" builtinId="47"/>
+    <cellStyle name="60% - Énfasis5" xfId="5" builtinId="48"/>
     <cellStyle name="60% - Énfasis6 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Accent5" xfId="3" builtinId="45"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Énfasis5" xfId="3" builtinId="45"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Millares 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
     <cellStyle name="Total" xfId="9" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="164">
@@ -1221,7 +1214,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1229,6 +1222,240 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1694,7 +1921,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1719,7 +1946,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2237,7 +2464,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2262,7 +2489,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2780,7 +3007,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2805,7 +3032,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3323,7 +3550,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3348,7 +3575,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3866,7 +4093,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3891,7 +4118,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3941,240 +4168,6 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4267,7 +4260,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4339,7 +4332,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4381,7 +4374,7 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8960</c:v>
+                  <c:v>8943</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8420</c:v>
@@ -4393,13 +4386,13 @@
                   <c:v>8954</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01</c:v>
+                  <c:v>9321</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                  <c:v>4901</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.01</c:v>
+                  <c:v>2147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4433,7 +4426,7 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8464</c:v>
+                  <c:v>8447</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7910</c:v>
@@ -4443,6 +4436,15 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7320</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6847</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3683</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4487,6 +4489,15 @@
                 <c:pt idx="3">
                   <c:v>1586</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>2430</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1181</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>207</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4528,6 +4539,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4575,6 +4595,15 @@
                 <c:pt idx="3">
                   <c:v>48</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4618,6 +4647,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4684,7 +4722,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530867824"/>
@@ -4743,7 +4781,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530869456"/>
@@ -4785,7 +4823,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -4824,7 +4862,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4854,7 +4892,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4868,7 +4906,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4940,7 +4978,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5105,88 +5143,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>2/1/18</c:v>
+                  <c:v>01/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2/2/18</c:v>
+                  <c:v>02/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2/3/18</c:v>
+                  <c:v>03/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2/4/18</c:v>
+                  <c:v>04/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2/5/18</c:v>
+                  <c:v>05/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2/6/18</c:v>
+                  <c:v>06/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2/7/18</c:v>
+                  <c:v>07/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2/8/18</c:v>
+                  <c:v>08/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2/9/18</c:v>
+                  <c:v>09/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2/10/18</c:v>
+                  <c:v>10/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2/11/18</c:v>
+                  <c:v>11/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2/12/18</c:v>
+                  <c:v>12/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2/13/18</c:v>
+                  <c:v>13/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2/14/18</c:v>
+                  <c:v>14/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2/15/18</c:v>
+                  <c:v>15/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2/16/18</c:v>
+                  <c:v>16/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2/17/18</c:v>
+                  <c:v>17/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2/18/18</c:v>
+                  <c:v>18/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2/19/18</c:v>
+                  <c:v>19/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2/20/18</c:v>
+                  <c:v>20/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2/21/18</c:v>
+                  <c:v>21/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2/22/18</c:v>
+                  <c:v>22/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2/23/18</c:v>
+                  <c:v>23/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2/24/18</c:v>
+                  <c:v>24/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2/25/18</c:v>
+                  <c:v>25/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2/26/18</c:v>
+                  <c:v>26/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2/27/18</c:v>
+                  <c:v>27/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2/28/18</c:v>
+                  <c:v>28/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -5322,88 +5360,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>2/1/18</c:v>
+                  <c:v>01/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2/2/18</c:v>
+                  <c:v>02/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2/3/18</c:v>
+                  <c:v>03/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2/4/18</c:v>
+                  <c:v>04/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2/5/18</c:v>
+                  <c:v>05/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2/6/18</c:v>
+                  <c:v>06/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2/7/18</c:v>
+                  <c:v>07/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2/8/18</c:v>
+                  <c:v>08/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2/9/18</c:v>
+                  <c:v>09/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2/10/18</c:v>
+                  <c:v>10/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2/11/18</c:v>
+                  <c:v>11/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2/12/18</c:v>
+                  <c:v>12/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2/13/18</c:v>
+                  <c:v>13/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2/14/18</c:v>
+                  <c:v>14/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2/15/18</c:v>
+                  <c:v>15/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2/16/18</c:v>
+                  <c:v>16/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2/17/18</c:v>
+                  <c:v>17/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2/18/18</c:v>
+                  <c:v>18/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2/19/18</c:v>
+                  <c:v>19/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2/20/18</c:v>
+                  <c:v>20/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2/21/18</c:v>
+                  <c:v>21/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2/22/18</c:v>
+                  <c:v>22/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2/23/18</c:v>
+                  <c:v>23/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2/24/18</c:v>
+                  <c:v>24/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2/25/18</c:v>
+                  <c:v>25/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2/26/18</c:v>
+                  <c:v>26/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2/27/18</c:v>
+                  <c:v>27/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2/28/18</c:v>
+                  <c:v>28/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -5539,88 +5577,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>2/1/18</c:v>
+                  <c:v>01/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2/2/18</c:v>
+                  <c:v>02/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2/3/18</c:v>
+                  <c:v>03/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2/4/18</c:v>
+                  <c:v>04/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2/5/18</c:v>
+                  <c:v>05/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2/6/18</c:v>
+                  <c:v>06/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2/7/18</c:v>
+                  <c:v>07/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2/8/18</c:v>
+                  <c:v>08/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2/9/18</c:v>
+                  <c:v>09/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2/10/18</c:v>
+                  <c:v>10/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2/11/18</c:v>
+                  <c:v>11/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2/12/18</c:v>
+                  <c:v>12/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2/13/18</c:v>
+                  <c:v>13/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2/14/18</c:v>
+                  <c:v>14/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2/15/18</c:v>
+                  <c:v>15/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2/16/18</c:v>
+                  <c:v>16/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2/17/18</c:v>
+                  <c:v>17/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2/18/18</c:v>
+                  <c:v>18/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2/19/18</c:v>
+                  <c:v>19/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2/20/18</c:v>
+                  <c:v>20/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2/21/18</c:v>
+                  <c:v>21/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2/22/18</c:v>
+                  <c:v>22/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2/23/18</c:v>
+                  <c:v>23/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2/24/18</c:v>
+                  <c:v>24/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2/25/18</c:v>
+                  <c:v>25/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2/26/18</c:v>
+                  <c:v>26/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2/27/18</c:v>
+                  <c:v>27/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2/28/18</c:v>
+                  <c:v>28/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -5758,88 +5796,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>2/1/18</c:v>
+                  <c:v>01/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2/2/18</c:v>
+                  <c:v>02/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2/3/18</c:v>
+                  <c:v>03/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2/4/18</c:v>
+                  <c:v>04/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2/5/18</c:v>
+                  <c:v>05/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2/6/18</c:v>
+                  <c:v>06/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2/7/18</c:v>
+                  <c:v>07/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2/8/18</c:v>
+                  <c:v>08/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2/9/18</c:v>
+                  <c:v>09/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2/10/18</c:v>
+                  <c:v>10/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2/11/18</c:v>
+                  <c:v>11/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2/12/18</c:v>
+                  <c:v>12/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2/13/18</c:v>
+                  <c:v>13/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2/14/18</c:v>
+                  <c:v>14/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2/15/18</c:v>
+                  <c:v>15/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2/16/18</c:v>
+                  <c:v>16/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2/17/18</c:v>
+                  <c:v>17/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2/18/18</c:v>
+                  <c:v>18/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2/19/18</c:v>
+                  <c:v>19/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2/20/18</c:v>
+                  <c:v>20/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2/21/18</c:v>
+                  <c:v>21/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2/22/18</c:v>
+                  <c:v>22/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2/23/18</c:v>
+                  <c:v>23/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2/24/18</c:v>
+                  <c:v>24/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2/25/18</c:v>
+                  <c:v>25/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2/26/18</c:v>
+                  <c:v>26/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2/27/18</c:v>
+                  <c:v>27/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2/28/18</c:v>
+                  <c:v>28/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -5977,88 +6015,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>2/1/18</c:v>
+                  <c:v>01/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2/2/18</c:v>
+                  <c:v>02/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2/3/18</c:v>
+                  <c:v>03/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2/4/18</c:v>
+                  <c:v>04/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2/5/18</c:v>
+                  <c:v>05/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2/6/18</c:v>
+                  <c:v>06/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2/7/18</c:v>
+                  <c:v>07/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2/8/18</c:v>
+                  <c:v>08/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2/9/18</c:v>
+                  <c:v>09/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2/10/18</c:v>
+                  <c:v>10/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2/11/18</c:v>
+                  <c:v>11/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2/12/18</c:v>
+                  <c:v>12/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2/13/18</c:v>
+                  <c:v>13/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2/14/18</c:v>
+                  <c:v>14/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2/15/18</c:v>
+                  <c:v>15/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2/16/18</c:v>
+                  <c:v>16/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2/17/18</c:v>
+                  <c:v>17/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2/18/18</c:v>
+                  <c:v>18/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2/19/18</c:v>
+                  <c:v>19/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2/20/18</c:v>
+                  <c:v>20/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2/21/18</c:v>
+                  <c:v>21/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2/22/18</c:v>
+                  <c:v>22/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2/23/18</c:v>
+                  <c:v>23/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2/24/18</c:v>
+                  <c:v>24/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2/25/18</c:v>
+                  <c:v>25/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2/26/18</c:v>
+                  <c:v>26/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2/27/18</c:v>
+                  <c:v>27/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2/28/18</c:v>
+                  <c:v>28/02/2018</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -6224,7 +6262,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530864560"/>
@@ -6283,7 +6321,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530865104"/>
@@ -6325,7 +6363,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -6364,7 +6402,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6394,7 +6432,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6408,7 +6446,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6480,7 +6518,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6650,7 +6688,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -6880,7 +6918,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -7110,7 +7148,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -7342,7 +7380,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -7574,7 +7612,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -7836,7 +7874,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="302953280"/>
@@ -7895,7 +7933,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="302951104"/>
@@ -7937,7 +7975,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -7976,7 +8014,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8006,7 +8044,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8020,7 +8058,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8092,7 +8130,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8259,7 +8297,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8483,7 +8521,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8707,7 +8745,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8933,7 +8971,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -9159,7 +9197,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -9415,7 +9453,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593585056"/>
@@ -9474,7 +9512,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593573632"/>
@@ -9516,7 +9554,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -9555,7 +9593,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9585,7 +9623,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9599,7 +9637,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9671,7 +9709,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9841,7 +9879,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -10071,7 +10109,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -10301,7 +10339,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -10533,7 +10571,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -10765,7 +10803,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -11027,7 +11065,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593578528"/>
@@ -11086,7 +11124,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593585600"/>
@@ -11128,7 +11166,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -11167,7 +11205,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11197,7 +11235,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11211,7 +11249,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11283,7 +11321,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11480,7 +11518,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -11703,7 +11741,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -11926,7 +11964,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -12151,7 +12189,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -12376,7 +12414,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -12631,7 +12669,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593574720"/>
@@ -12690,7 +12728,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593574176"/>
@@ -12732,7 +12770,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -12771,7 +12809,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12801,7 +12839,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12815,7 +12853,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12887,7 +12925,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12926,7 +12964,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13152,7 +13190,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13378,7 +13416,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13604,7 +13642,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13832,7 +13870,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -14060,7 +14098,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -14287,7 +14325,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -14321,7 +14359,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530867824"/>
@@ -14379,7 +14417,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530869456"/>
@@ -14421,7 +14459,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -14460,7 +14498,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -14490,7 +14528,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -18397,14 +18435,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28140</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>188160</xdr:colOff>
       <xdr:row>255</xdr:row>
       <xdr:rowOff>143435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>18055</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>810535</xdr:colOff>
       <xdr:row>283</xdr:row>
       <xdr:rowOff>31376</xdr:rowOff>
     </xdr:to>
@@ -18713,46 +18751,46 @@
     <sortCondition ref="C16:C146"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="158" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="157" totalsRowDxfId="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="23" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="10">
       <totalsRowFormula>SUM(C248:C254)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="156" totalsRowDxfId="9">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="9">
       <totalsRowFormula>SUM(D248:D254)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="155" totalsRowDxfId="8">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="8">
       <calculatedColumnFormula>Tabla18[Transactions 
 Complete]/Tabla18[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E248:E254)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="154" totalsRowDxfId="7">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="7">
       <totalsRowFormula>SUM(F248:F254)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="153" totalsRowDxfId="6">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="6">
       <calculatedColumnFormula>Tabla18[Transactions 
 Failed]/Tabla18[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G248:G254)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="152" totalsRowDxfId="5">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="5">
       <totalsRowFormula>SUM(H248:H254)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="151" totalsRowDxfId="4">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="4">
       <calculatedColumnFormula>Tabla18[Transactions 
 In_Prog]/Tabla18[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I248:I254)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="150" totalsRowDxfId="3">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="3">
       <totalsRowFormula>SUM(J248:J254)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="149" totalsRowDxfId="2">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="2">
       <calculatedColumnFormula>Tabla18[Transactions 
 Timeout]/Tabla18[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K248:K254)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="148" totalsRowDxfId="1">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="1">
       <totalsRowFormula>SUM(L248:L254)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="147" totalsRowDxfId="0">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="0">
       <calculatedColumnFormula>Tabla18[Transactions
 Trans Fail]/Tabla18[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M248:M254)</totalsRowFormula>
@@ -18763,7 +18801,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla183" displayName="Tabla183" ref="B16:M45" totalsRowCount="1" headerRowDxfId="146" dataDxfId="145" totalsRowDxfId="144">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla183" displayName="Tabla183" ref="B16:M45" totalsRowCount="1" headerRowDxfId="158" dataDxfId="157" totalsRowDxfId="156">
   <autoFilter ref="B16:M44" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0">
       <filters>
@@ -18781,46 +18819,46 @@
     <sortCondition ref="C16:C111"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="143" totalsRowDxfId="142"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="141" totalsRowDxfId="140">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="155" totalsRowDxfId="154"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="153" totalsRowDxfId="152">
       <totalsRowFormula>SUM(C42:C44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="139" totalsRowDxfId="138">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="151" totalsRowDxfId="150">
       <totalsRowFormula>SUM(D42:D44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="137" totalsRowDxfId="136">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="149" totalsRowDxfId="148">
       <calculatedColumnFormula>Tabla183[Transactions 
 Complete]/Tabla183[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E42:E44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="135" totalsRowDxfId="134">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="147" totalsRowDxfId="146">
       <totalsRowFormula>SUM(F42:F44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="133" totalsRowDxfId="132">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="145" totalsRowDxfId="144">
       <calculatedColumnFormula>Tabla183[Transactions 
 Failed]/Tabla183[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G42:G44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="131" totalsRowDxfId="130">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="143" totalsRowDxfId="142">
       <totalsRowFormula>SUM(H42:H44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="129" totalsRowDxfId="128">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="141" totalsRowDxfId="140">
       <calculatedColumnFormula>Tabla183[Transactions 
 In_Prog]/Tabla183[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I42:I44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="127" totalsRowDxfId="126">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="139" totalsRowDxfId="138">
       <totalsRowFormula>SUM(J42:J44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="125" totalsRowDxfId="124">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="137" totalsRowDxfId="136">
       <calculatedColumnFormula>Tabla183[Transactions 
 Timeout]/Tabla183[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K42:K44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="123" totalsRowDxfId="122">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="135" totalsRowDxfId="134">
       <totalsRowFormula>SUM(L42:L44)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="121" totalsRowDxfId="120">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="133" totalsRowDxfId="132">
       <calculatedColumnFormula>Tabla183[Transactions
 Trans Fail]/Tabla183[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M42:M44)</totalsRowFormula>
@@ -18831,7 +18869,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla184" displayName="Tabla184" ref="B16:M48" totalsRowCount="1" headerRowDxfId="119" dataDxfId="118" totalsRowDxfId="117">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla184" displayName="Tabla184" ref="B16:M48" totalsRowCount="1" headerRowDxfId="131" dataDxfId="130" totalsRowDxfId="129">
   <autoFilter ref="B16:M47" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0">
       <filters>
@@ -18849,46 +18887,46 @@
     <sortCondition ref="C16:C146"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="116" totalsRowDxfId="115"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="114" totalsRowDxfId="113">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="128" totalsRowDxfId="127"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="126" totalsRowDxfId="125">
       <totalsRowFormula>SUM(C42:C47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="112" totalsRowDxfId="111">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="124" totalsRowDxfId="123">
       <totalsRowFormula>SUM(D42:D47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="110" totalsRowDxfId="109">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="122" totalsRowDxfId="121">
       <calculatedColumnFormula>Tabla184[Transactions 
 Complete]/Tabla184[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E42:E47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="108" totalsRowDxfId="107">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="120" totalsRowDxfId="119">
       <totalsRowFormula>SUM(F42:F47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="106" totalsRowDxfId="105">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="118" totalsRowDxfId="117">
       <calculatedColumnFormula>Tabla184[Transactions 
 Failed]/Tabla184[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G42:G47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="104" totalsRowDxfId="103">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="116" totalsRowDxfId="115">
       <totalsRowFormula>SUM(H42:H47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="102" totalsRowDxfId="101">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="114" totalsRowDxfId="113">
       <calculatedColumnFormula>Tabla184[Transactions 
 In_Prog]/Tabla184[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I42:I47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="100" totalsRowDxfId="99">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="112" totalsRowDxfId="111">
       <totalsRowFormula>SUM(J42:J47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="98" totalsRowDxfId="97">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="110" totalsRowDxfId="109">
       <calculatedColumnFormula>Tabla184[Transactions 
 Timeout]/Tabla184[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K42:K47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="96" totalsRowDxfId="95">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="108" totalsRowDxfId="107">
       <totalsRowFormula>SUM(L42:L47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="94" totalsRowDxfId="93">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="106" totalsRowDxfId="105">
       <calculatedColumnFormula>Tabla184[Transactions
 Trans Fail]/Tabla184[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M42:M47)</totalsRowFormula>
@@ -18899,7 +18937,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla185" displayName="Tabla185" ref="B16:M47" totalsRowCount="1" headerRowDxfId="92" dataDxfId="91" totalsRowDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla185" displayName="Tabla185" ref="B16:M47" totalsRowCount="1" headerRowDxfId="104" dataDxfId="103" totalsRowDxfId="102">
   <autoFilter ref="B16:M46" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0">
       <filters>
@@ -18917,46 +18955,46 @@
     <sortCondition ref="C16:C146"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="89" totalsRowDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="87" totalsRowDxfId="86">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="101" totalsRowDxfId="100"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="99" totalsRowDxfId="98">
       <totalsRowFormula>SUM(C17:C46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="85" totalsRowDxfId="84">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="97" totalsRowDxfId="96">
       <totalsRowFormula>SUM(D17:D46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="83" totalsRowDxfId="82">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="95" totalsRowDxfId="94">
       <calculatedColumnFormula>Tabla185[Transactions 
 Complete]/Tabla185[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E17:E46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="81" totalsRowDxfId="80">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="93" totalsRowDxfId="92">
       <totalsRowFormula>SUM(F17:F46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="79" totalsRowDxfId="78">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="90">
       <calculatedColumnFormula>Tabla185[Transactions 
 Failed]/Tabla185[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G17:G46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="77" totalsRowDxfId="76">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="89" totalsRowDxfId="88">
       <totalsRowFormula>SUM(H17:H46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="75" totalsRowDxfId="74">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="87" totalsRowDxfId="86">
       <calculatedColumnFormula>Tabla185[Transactions 
 In_Prog]/Tabla185[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I17:I46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="73" totalsRowDxfId="72">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="85" totalsRowDxfId="84">
       <totalsRowFormula>SUM(J17:J46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="71" totalsRowDxfId="70">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="83" totalsRowDxfId="82">
       <calculatedColumnFormula>Tabla185[Transactions 
 Timeout]/Tabla185[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K17:K46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="69" totalsRowDxfId="68">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="81" totalsRowDxfId="80">
       <totalsRowFormula>SUM(L17:L46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="66">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="79" totalsRowDxfId="78">
       <calculatedColumnFormula>Tabla185[Transactions
 Trans Fail]/Tabla185[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M17:M46)</totalsRowFormula>
@@ -18967,7 +19005,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla186" displayName="Tabla186" ref="B16:M48" totalsRowCount="1" headerRowDxfId="65" dataDxfId="64" totalsRowDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla186" displayName="Tabla186" ref="B16:M48" totalsRowCount="1" headerRowDxfId="77" dataDxfId="76" totalsRowDxfId="75">
   <autoFilter ref="B16:M47" xr:uid="{00000000-0009-0000-0100-000005000000}">
     <filterColumn colId="0">
       <filters>
@@ -18985,46 +19023,46 @@
     <sortCondition ref="C16:C146"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="59">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="72" totalsRowDxfId="71">
       <totalsRowFormula>SUM(C17:C47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="57">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="70" totalsRowDxfId="69">
       <totalsRowFormula>SUM(D17:D47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="55">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="68" totalsRowDxfId="67">
       <calculatedColumnFormula>Tabla186[Transactions 
 Complete]/Tabla186[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E17:E47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="53">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="66" totalsRowDxfId="65">
       <totalsRowFormula>SUM(F17:F47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="51">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="63">
       <calculatedColumnFormula>Tabla186[Transactions 
 Failed]/Tabla186[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G17:G47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="49">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="62" totalsRowDxfId="61">
       <totalsRowFormula>SUM(H17:H47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="47">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="59">
       <calculatedColumnFormula>Tabla186[Transactions 
 In_Prog]/Tabla186[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I17:I47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="45">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="57">
       <totalsRowFormula>SUM(J17:J47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="43">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="55">
       <calculatedColumnFormula>Tabla186[Transactions 
 Timeout]/Tabla186[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K17:K47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="41">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="53">
       <totalsRowFormula>SUM(L17:L47)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="39">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="51">
       <calculatedColumnFormula>Tabla186[Transactions
 Trans Fail]/Tabla186[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M17:M47)</totalsRowFormula>
@@ -19035,7 +19073,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla187" displayName="Tabla187" ref="B16:M47" totalsRowCount="1" headerRowDxfId="38" dataDxfId="37" totalsRowDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla187" displayName="Tabla187" ref="B16:M47" totalsRowCount="1" headerRowDxfId="50" dataDxfId="49" totalsRowDxfId="48">
   <autoFilter ref="B16:M46" xr:uid="{00000000-0009-0000-0100-000006000000}">
     <filterColumn colId="0">
       <filters>
@@ -19053,46 +19091,46 @@
     <sortCondition ref="C16:C146"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="44">
       <totalsRowFormula>SUM(C17:C46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="42">
       <totalsRowFormula>SUM(D17:D46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40">
       <calculatedColumnFormula>Tabla187[Transactions 
 Complete]/Tabla187[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(E17:E46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38">
       <totalsRowFormula>SUM(F17:F46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36">
       <calculatedColumnFormula>Tabla187[Transactions 
 Failed]/Tabla187[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(G17:G46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34">
       <totalsRowFormula>SUM(H17:H46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
       <calculatedColumnFormula>Tabla187[Transactions 
 In_Prog]/Tabla187[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(I41:I46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
       <totalsRowFormula>SUM(J17:J46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>Tabla187[Transactions 
 Timeout]/Tabla187[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(K17:K46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
       <totalsRowFormula>SUM(L17:L46)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
       <calculatedColumnFormula>Tabla187[Transactions
 Trans Fail]/Tabla187[Total]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(M17:M46)</totalsRowFormula>
@@ -19404,29 +19442,29 @@
   </sheetPr>
   <dimension ref="B1:M259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N250" sqref="N250"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B248" sqref="B248:M255"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="1"/>
+    <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -19442,7 +19480,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -19460,7 +19498,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -19478,7 +19516,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -19494,13 +19532,13 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="13">
         <f>SUM(C6:C10)</f>
-        <v>1965831</v>
+        <v>1982183</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -19513,17 +19551,17 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="13">
         <f>D15</f>
-        <v>1780225</v>
+        <v>1792656</v>
       </c>
       <c r="D6" s="14">
         <f>C6/C5</f>
-        <v>0.90558394897628536</v>
+        <v>0.90438471119972275</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -19535,17 +19573,17 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="13">
         <f>F15</f>
-        <v>121827</v>
+        <v>125645</v>
       </c>
       <c r="D7" s="14">
         <f>C7/C5</f>
-        <v>6.1972265164197737E-2</v>
+        <v>6.3387184735213653E-2</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -19557,7 +19595,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -19567,7 +19605,7 @@
       </c>
       <c r="D8" s="14">
         <f>C8/C5</f>
-        <v>1.1191195987854501E-5</v>
+        <v>1.1098874321896617E-5</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -19579,17 +19617,17 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="13">
         <f>J15</f>
-        <v>63757</v>
+        <v>63860</v>
       </c>
       <c r="D9" s="14">
         <f>C9/C5</f>
-        <v>3.243259466352906E-2</v>
+        <v>3.2217005190741721E-2</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -19601,7 +19639,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -19623,13 +19661,13 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="15">
         <f>SUM(C6:C10)</f>
-        <v>1965831</v>
+        <v>1982183</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -19642,7 +19680,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -19656,7 +19694,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -19670,7 +19708,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
@@ -19686,33 +19724,33 @@
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
     </row>
-    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="17">
         <f>SUM(Tabla18[Total])</f>
-        <v>1965836.1</v>
+        <v>1982188.07</v>
       </c>
       <c r="D15" s="17">
         <f>SUM(Tabla18[Transactions 
 Complete])</f>
-        <v>1780225</v>
+        <v>1792656</v>
       </c>
       <c r="E15" s="18">
         <f>AVERAGE(Tabla18[%
 Complete])</f>
-        <v>0.87709299977468635</v>
+        <v>0.88709002262568548</v>
       </c>
       <c r="F15" s="17">
         <f>SUM(Tabla18[Transactions 
 Failed])</f>
-        <v>121827</v>
+        <v>125645</v>
       </c>
       <c r="G15" s="18">
         <f>AVERAGE(Tabla18[% 
 Failed])</f>
-        <v>5.0763537900676982E-2</v>
+        <v>5.3276908300109817E-2</v>
       </c>
       <c r="H15" s="17">
         <f>SUM(Tabla18[Transactions 
@@ -19727,12 +19765,12 @@
       <c r="J15" s="17">
         <f>SUM(Tabla18[Transactions 
 Timeout])</f>
-        <v>63757</v>
+        <v>63860</v>
       </c>
       <c r="K15" s="18">
         <f>AVERAGE(Tabla18[%
 Timeout])</f>
-        <v>3.0108873436223937E-2</v>
+        <v>3.0203522202598632E-2</v>
       </c>
       <c r="L15" s="17">
         <f>SUM(Tabla18[Transactions
@@ -19745,7 +19783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -19783,7 +19821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17" s="24">
         <v>43101</v>
       </c>
@@ -19831,7 +19869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B18" s="24">
         <v>43102</v>
       </c>
@@ -19879,7 +19917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19" s="24">
         <v>43103</v>
       </c>
@@ -19927,7 +19965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" s="24">
         <v>43104</v>
       </c>
@@ -19975,7 +20013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="24">
         <v>43105</v>
       </c>
@@ -20023,7 +20061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" s="24">
         <v>43106</v>
       </c>
@@ -20071,7 +20109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24">
         <v>43107</v>
       </c>
@@ -20119,7 +20157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B24" s="24">
         <v>43108</v>
       </c>
@@ -20167,7 +20205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B25" s="24">
         <v>43109</v>
       </c>
@@ -20215,7 +20253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" s="24">
         <v>43110</v>
       </c>
@@ -20263,7 +20301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" s="24">
         <v>43111</v>
       </c>
@@ -20311,7 +20349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B28" s="24">
         <v>43112</v>
       </c>
@@ -20359,7 +20397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B29" s="24">
         <v>43113</v>
       </c>
@@ -20407,7 +20445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B30" s="24">
         <v>43114</v>
       </c>
@@ -20455,7 +20493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B31" s="30">
         <v>43115</v>
       </c>
@@ -20503,7 +20541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B32" s="30">
         <v>43116</v>
       </c>
@@ -20551,7 +20589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33" s="30">
         <v>43117</v>
       </c>
@@ -20599,7 +20637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B34" s="30">
         <v>43118</v>
       </c>
@@ -20647,7 +20685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" s="30">
         <v>43119</v>
       </c>
@@ -20695,7 +20733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" s="30">
         <v>43120</v>
       </c>
@@ -20743,7 +20781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" s="30">
         <v>43121</v>
       </c>
@@ -20791,7 +20829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" s="38">
         <v>43122</v>
       </c>
@@ -20839,7 +20877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39" s="38">
         <v>43123</v>
       </c>
@@ -20887,7 +20925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B40" s="38">
         <v>43124</v>
       </c>
@@ -20935,7 +20973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" s="38">
         <v>43125</v>
       </c>
@@ -20983,7 +21021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" s="38">
         <v>43126</v>
       </c>
@@ -21031,7 +21069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" s="38">
         <v>43127</v>
       </c>
@@ -21079,7 +21117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" s="38">
         <v>43128</v>
       </c>
@@ -21127,7 +21165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" s="41">
         <v>43129</v>
       </c>
@@ -21175,7 +21213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46" s="41">
         <v>43130</v>
       </c>
@@ -21223,7 +21261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B47" s="41">
         <v>43131</v>
       </c>
@@ -21271,7 +21309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" s="41">
         <v>43132</v>
       </c>
@@ -21319,7 +21357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B49" s="41">
         <v>43133</v>
       </c>
@@ -21367,7 +21405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B50" s="41">
         <v>43134</v>
       </c>
@@ -21415,7 +21453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B51" s="41">
         <v>43135</v>
       </c>
@@ -21463,7 +21501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B52" s="41">
         <v>43136</v>
       </c>
@@ -21511,7 +21549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B53" s="41">
         <v>43137</v>
       </c>
@@ -21559,7 +21597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B54" s="41">
         <v>43138</v>
       </c>
@@ -21607,7 +21645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B55" s="41">
         <v>43139</v>
       </c>
@@ -21655,7 +21693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B56" s="41">
         <v>43140</v>
       </c>
@@ -21703,7 +21741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B57" s="41">
         <v>43141</v>
       </c>
@@ -21751,7 +21789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B58" s="41">
         <v>43142</v>
       </c>
@@ -21799,7 +21837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B59" s="41">
         <v>43143</v>
       </c>
@@ -21847,7 +21885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B60" s="41">
         <v>43144</v>
       </c>
@@ -21895,7 +21933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B61" s="41">
         <v>43145</v>
       </c>
@@ -21943,7 +21981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B62" s="41">
         <v>43146</v>
       </c>
@@ -21991,7 +22029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B63" s="41">
         <v>43147</v>
       </c>
@@ -22039,7 +22077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B64" s="41">
         <v>43148</v>
       </c>
@@ -22087,7 +22125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B65" s="41">
         <v>43149</v>
       </c>
@@ -22135,7 +22173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B66" s="41">
         <v>43150</v>
       </c>
@@ -22183,7 +22221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B67" s="41">
         <v>43151</v>
       </c>
@@ -22231,7 +22269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B68" s="41">
         <v>43152</v>
       </c>
@@ -22279,7 +22317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B69" s="41">
         <v>43153</v>
       </c>
@@ -22327,7 +22365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B70" s="41">
         <v>43154</v>
       </c>
@@ -22375,7 +22413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B71" s="41">
         <v>43155</v>
       </c>
@@ -22423,7 +22461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B72" s="41">
         <v>43156</v>
       </c>
@@ -22471,7 +22509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B73" s="41">
         <v>43157</v>
       </c>
@@ -22519,7 +22557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B74" s="41">
         <v>43158</v>
       </c>
@@ -22567,7 +22605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B75" s="41">
         <v>43159</v>
       </c>
@@ -22615,7 +22653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B76" s="41">
         <v>43160</v>
       </c>
@@ -22663,7 +22701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B77" s="41">
         <v>43161</v>
       </c>
@@ -22711,7 +22749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B78" s="41">
         <v>43162</v>
       </c>
@@ -22759,7 +22797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B79" s="41">
         <v>43163</v>
       </c>
@@ -22807,7 +22845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B80" s="41">
         <v>43164</v>
       </c>
@@ -22855,7 +22893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B81" s="41">
         <v>43165</v>
       </c>
@@ -22903,7 +22941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B82" s="41">
         <v>43166</v>
       </c>
@@ -22951,7 +22989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B83" s="41">
         <v>43167</v>
       </c>
@@ -22999,7 +23037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B84" s="41">
         <v>43168</v>
       </c>
@@ -23047,7 +23085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B85" s="41">
         <v>43169</v>
       </c>
@@ -23095,7 +23133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B86" s="41">
         <v>43170</v>
       </c>
@@ -23143,7 +23181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B87" s="41">
         <v>43171</v>
       </c>
@@ -23191,7 +23229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B88" s="41">
         <v>43172</v>
       </c>
@@ -23239,7 +23277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B89" s="41">
         <v>43173</v>
       </c>
@@ -23287,7 +23325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B90" s="41">
         <v>43174</v>
       </c>
@@ -23335,7 +23373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B91" s="41">
         <v>43175</v>
       </c>
@@ -23383,7 +23421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B92" s="41">
         <v>43176</v>
       </c>
@@ -23431,7 +23469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B93" s="41">
         <v>43177</v>
       </c>
@@ -23479,7 +23517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B94" s="53">
         <v>43178</v>
       </c>
@@ -23527,7 +23565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B95" s="53">
         <v>43179</v>
       </c>
@@ -23575,7 +23613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B96" s="53">
         <v>43180</v>
       </c>
@@ -23623,7 +23661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B97" s="53">
         <v>43181</v>
       </c>
@@ -23671,7 +23709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B98" s="53">
         <v>43182</v>
       </c>
@@ -23719,7 +23757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B99" s="53">
         <v>43183</v>
       </c>
@@ -23767,7 +23805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B100" s="53">
         <v>43184</v>
       </c>
@@ -23815,7 +23853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B101" s="53">
         <v>43185</v>
       </c>
@@ -23863,7 +23901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B102" s="53">
         <v>43186</v>
       </c>
@@ -23911,7 +23949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B103" s="53">
         <v>43187</v>
       </c>
@@ -23959,7 +23997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B104" s="53">
         <v>43188</v>
       </c>
@@ -24007,7 +24045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B105" s="53">
         <v>43189</v>
       </c>
@@ -24055,7 +24093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B106" s="53">
         <v>43190</v>
       </c>
@@ -24103,7 +24141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B107" s="53">
         <v>43191</v>
       </c>
@@ -24151,7 +24189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B108" s="53">
         <v>43192</v>
       </c>
@@ -24199,7 +24237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B109" s="53">
         <v>43193</v>
       </c>
@@ -24247,7 +24285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B110" s="53">
         <v>43194</v>
       </c>
@@ -24295,7 +24333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B111" s="53">
         <v>43195</v>
       </c>
@@ -24343,7 +24381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B112" s="53">
         <v>43196</v>
       </c>
@@ -24391,7 +24429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B113" s="53">
         <v>43197</v>
       </c>
@@ -24439,7 +24477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B114" s="53">
         <v>43198</v>
       </c>
@@ -24487,7 +24525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B115" s="53">
         <v>43199</v>
       </c>
@@ -24535,7 +24573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B116" s="53">
         <v>43200</v>
       </c>
@@ -24583,7 +24621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B117" s="53">
         <v>43201</v>
       </c>
@@ -24632,7 +24670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B118" s="53">
         <v>43202</v>
       </c>
@@ -24680,7 +24718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B119" s="53">
         <v>43203</v>
       </c>
@@ -24728,7 +24766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B120" s="53">
         <v>43204</v>
       </c>
@@ -24776,7 +24814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B121" s="53">
         <v>43205</v>
       </c>
@@ -24824,7 +24862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B122" s="53">
         <v>43206</v>
       </c>
@@ -24872,7 +24910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B123" s="53">
         <v>43207</v>
       </c>
@@ -24920,7 +24958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B124" s="53">
         <v>43208</v>
       </c>
@@ -24968,7 +25006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B125" s="53">
         <v>43209</v>
       </c>
@@ -25016,7 +25054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B126" s="53">
         <v>43210</v>
       </c>
@@ -25064,7 +25102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B127" s="53">
         <v>43211</v>
       </c>
@@ -25112,7 +25150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B128" s="53">
         <v>43212</v>
       </c>
@@ -25160,7 +25198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B129" s="53">
         <v>43213</v>
       </c>
@@ -25208,7 +25246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B130" s="53">
         <v>43214</v>
       </c>
@@ -25256,7 +25294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B131" s="53">
         <v>43215</v>
       </c>
@@ -25304,7 +25342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B132" s="53">
         <v>43216</v>
       </c>
@@ -25352,7 +25390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B133" s="53">
         <v>43217</v>
       </c>
@@ -25400,7 +25438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B134" s="53">
         <v>43218</v>
       </c>
@@ -25448,7 +25486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B135" s="53">
         <v>43219</v>
       </c>
@@ -25496,7 +25534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B136" s="53">
         <v>43220</v>
       </c>
@@ -25544,7 +25582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B137" s="53">
         <v>43221</v>
       </c>
@@ -25592,7 +25630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B138" s="53">
         <v>43222</v>
       </c>
@@ -25640,7 +25678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B139" s="53">
         <v>43223</v>
       </c>
@@ -25688,7 +25726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B140" s="53">
         <v>43224</v>
       </c>
@@ -25736,7 +25774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B141" s="53">
         <v>43225</v>
       </c>
@@ -25784,7 +25822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B142" s="53">
         <v>43226</v>
       </c>
@@ -25832,7 +25870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B143" s="59">
         <v>43227</v>
       </c>
@@ -25880,7 +25918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B144" s="59">
         <v>43228</v>
       </c>
@@ -25928,7 +25966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B145" s="59">
         <v>43229</v>
       </c>
@@ -25976,7 +26014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B146" s="59">
         <v>43230</v>
       </c>
@@ -26024,7 +26062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B147" s="59">
         <v>43231</v>
       </c>
@@ -26072,7 +26110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B148" s="59">
         <v>43232</v>
       </c>
@@ -26120,7 +26158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B149" s="41">
         <v>43233</v>
       </c>
@@ -26168,7 +26206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B150" s="41">
         <v>43234</v>
       </c>
@@ -26216,7 +26254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B151" s="41">
         <v>43235</v>
       </c>
@@ -26264,7 +26302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B152" s="41">
         <v>43236</v>
       </c>
@@ -26312,7 +26350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B153" s="41">
         <v>43237</v>
       </c>
@@ -26360,7 +26398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B154" s="41">
         <v>43238</v>
       </c>
@@ -26408,7 +26446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B155" s="41">
         <v>43239</v>
       </c>
@@ -26456,7 +26494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B156" s="41">
         <v>43240</v>
       </c>
@@ -26504,7 +26542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B157" s="41">
         <v>43241</v>
       </c>
@@ -26552,7 +26590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B158" s="41">
         <v>43242</v>
       </c>
@@ -26600,7 +26638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B159" s="41">
         <v>43243</v>
       </c>
@@ -26648,7 +26686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B160" s="41">
         <v>43244</v>
       </c>
@@ -26696,7 +26734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B161" s="41">
         <v>43245</v>
       </c>
@@ -26744,7 +26782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B162" s="41">
         <v>43246</v>
       </c>
@@ -26792,7 +26830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B163" s="41">
         <v>43247</v>
       </c>
@@ -26840,7 +26878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B164" s="41">
         <v>43248</v>
       </c>
@@ -26888,7 +26926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B165" s="41">
         <v>43249</v>
       </c>
@@ -26936,7 +26974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B166" s="41">
         <v>43250</v>
       </c>
@@ -26984,7 +27022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B167" s="41">
         <v>43251</v>
       </c>
@@ -27032,7 +27070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B168" s="41">
         <v>43252</v>
       </c>
@@ -27080,7 +27118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B169" s="41">
         <v>43253</v>
       </c>
@@ -27128,7 +27166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B170" s="41">
         <v>43254</v>
       </c>
@@ -27176,7 +27214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B171" s="41">
         <v>43255</v>
       </c>
@@ -27224,7 +27262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B172" s="41">
         <v>43256</v>
       </c>
@@ -27272,7 +27310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B173" s="41">
         <v>43257</v>
       </c>
@@ -27320,7 +27358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B174" s="41">
         <v>43258</v>
       </c>
@@ -27368,7 +27406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B175" s="41">
         <v>43259</v>
       </c>
@@ -27416,7 +27454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B176" s="41">
         <v>43260</v>
       </c>
@@ -27464,7 +27502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B177" s="41">
         <v>43261</v>
       </c>
@@ -27512,7 +27550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B178" s="41">
         <v>43262</v>
       </c>
@@ -27560,7 +27598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B179" s="41">
         <v>43263</v>
       </c>
@@ -27608,7 +27646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B180" s="41">
         <v>43264</v>
       </c>
@@ -27656,7 +27694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B181" s="41">
         <v>43265</v>
       </c>
@@ -27704,7 +27742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B182" s="41">
         <v>43266</v>
       </c>
@@ -27752,7 +27790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B183" s="41">
         <v>43267</v>
       </c>
@@ -27800,7 +27838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B184" s="41">
         <v>43268</v>
       </c>
@@ -27848,7 +27886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B185" s="79">
         <v>43269</v>
       </c>
@@ -27896,7 +27934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B186" s="79">
         <v>43270</v>
       </c>
@@ -27944,7 +27982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B187" s="79">
         <v>43271</v>
       </c>
@@ -27992,7 +28030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B188" s="79">
         <v>43272</v>
       </c>
@@ -28040,7 +28078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B189" s="79">
         <v>43273</v>
       </c>
@@ -28088,7 +28126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B190" s="79">
         <v>43274</v>
       </c>
@@ -28136,7 +28174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B191" s="79">
         <v>43275</v>
       </c>
@@ -28184,7 +28222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B192" s="79">
         <v>43276</v>
       </c>
@@ -28232,7 +28270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B193" s="79">
         <v>43277</v>
       </c>
@@ -28280,7 +28318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B194" s="79">
         <v>43278</v>
       </c>
@@ -28328,7 +28366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B195" s="79">
         <v>43279</v>
       </c>
@@ -28376,7 +28414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B196" s="79">
         <v>43280</v>
       </c>
@@ -28424,7 +28462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B197" s="79">
         <v>43281</v>
       </c>
@@ -28472,7 +28510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B198" s="79">
         <v>43282</v>
       </c>
@@ -28520,7 +28558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B199" s="79">
         <v>43283</v>
       </c>
@@ -28568,7 +28606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B200" s="79">
         <v>43284</v>
       </c>
@@ -28616,7 +28654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B201" s="79">
         <v>43285</v>
       </c>
@@ -28664,7 +28702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B202" s="79">
         <v>43286</v>
       </c>
@@ -28712,7 +28750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B203" s="79">
         <v>43287</v>
       </c>
@@ -28760,7 +28798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B204" s="79">
         <v>43288</v>
       </c>
@@ -28808,7 +28846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B205" s="79">
         <v>43289</v>
       </c>
@@ -28856,7 +28894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B206" s="79">
         <v>43290</v>
       </c>
@@ -28904,7 +28942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B207" s="79">
         <v>43291</v>
       </c>
@@ -28952,7 +28990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B208" s="79">
         <v>43292</v>
       </c>
@@ -29000,7 +29038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B209" s="79">
         <v>43293</v>
       </c>
@@ -29048,7 +29086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B210" s="79">
         <v>43294</v>
       </c>
@@ -29096,7 +29134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B211" s="79">
         <v>43295</v>
       </c>
@@ -29144,7 +29182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B212" s="79">
         <v>43296</v>
       </c>
@@ -29192,7 +29230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B213" s="79">
         <v>43297</v>
       </c>
@@ -29240,7 +29278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B214" s="79">
         <v>43298</v>
       </c>
@@ -29288,7 +29326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B215" s="79">
         <v>43299</v>
       </c>
@@ -29336,7 +29374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B216" s="79">
         <v>43300</v>
       </c>
@@ -29384,7 +29422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B217" s="79">
         <v>43301</v>
       </c>
@@ -29432,7 +29470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B218" s="79">
         <v>43302</v>
       </c>
@@ -29480,7 +29518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B219" s="79">
         <v>43303</v>
       </c>
@@ -29528,7 +29566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B220" s="79">
         <v>43304</v>
       </c>
@@ -29576,7 +29614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B221" s="79">
         <v>43305</v>
       </c>
@@ -29624,7 +29662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B222" s="79">
         <v>43306</v>
       </c>
@@ -29672,7 +29710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B223" s="79">
         <v>43307</v>
       </c>
@@ -29720,7 +29758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B224" s="79">
         <v>43308</v>
       </c>
@@ -29768,7 +29806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B225" s="79">
         <v>43309</v>
       </c>
@@ -29816,7 +29854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B226" s="79">
         <v>43310</v>
       </c>
@@ -29864,7 +29902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B227" s="79">
         <v>43311</v>
       </c>
@@ -29912,7 +29950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B228" s="79">
         <v>43312</v>
       </c>
@@ -29960,7 +29998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B229" s="79">
         <v>43313</v>
       </c>
@@ -30008,7 +30046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B230" s="79">
         <v>43314</v>
       </c>
@@ -30056,7 +30094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B231" s="79">
         <v>43315</v>
       </c>
@@ -30104,7 +30142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B232" s="79">
         <v>43316</v>
       </c>
@@ -30152,7 +30190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B233" s="79">
         <v>43317</v>
       </c>
@@ -30200,7 +30238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B234" s="79">
         <v>43318</v>
       </c>
@@ -30248,7 +30286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B235" s="79">
         <v>43319</v>
       </c>
@@ -30296,7 +30334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B236" s="79">
         <v>43320</v>
       </c>
@@ -30344,7 +30382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B237" s="79">
         <v>43321</v>
       </c>
@@ -30392,7 +30430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B238" s="79">
         <v>43322</v>
       </c>
@@ -30440,7 +30478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B239" s="79">
         <v>43323</v>
       </c>
@@ -30488,7 +30526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B240" s="79">
         <v>43324</v>
       </c>
@@ -30536,7 +30574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B241" s="79">
         <v>43325</v>
       </c>
@@ -30584,7 +30622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B242" s="79">
         <v>43326</v>
       </c>
@@ -30632,7 +30670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B243" s="79">
         <v>43327</v>
       </c>
@@ -30680,7 +30718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B244" s="79">
         <v>43328</v>
       </c>
@@ -30728,7 +30766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B245" s="79">
         <v>43329</v>
       </c>
@@ -30776,7 +30814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B246" s="79">
         <v>43330</v>
       </c>
@@ -30824,7 +30862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B247" s="79">
         <v>43331</v>
       </c>
@@ -30872,20 +30910,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B248" s="79">
         <v>43332</v>
       </c>
       <c r="C248" s="120">
-        <v>8960</v>
+        <v>8943</v>
       </c>
       <c r="D248" s="120">
-        <v>8464</v>
+        <v>8447</v>
       </c>
       <c r="E248" s="121">
         <f>Tabla18[Transactions 
 Complete]/Tabla18[Total]</f>
-        <v>0.94464285714285712</v>
+        <v>0.94453762719445378</v>
       </c>
       <c r="F248" s="120">
         <v>451</v>
@@ -30893,7 +30931,7 @@
       <c r="G248" s="121">
         <f>Tabla18[Transactions 
 Failed]/Tabla18[Total]</f>
-        <v>5.033482142857143E-2</v>
+        <v>5.0430504305043047E-2</v>
       </c>
       <c r="H248" s="120">
         <v>0</v>
@@ -30909,7 +30947,7 @@
       <c r="K248" s="121">
         <f>Tabla18[Transactions 
 Timeout]/Tabla18[Total]</f>
-        <v>5.0223214285714289E-3</v>
+        <v>5.0318685005031867E-3</v>
       </c>
       <c r="L248" s="120">
         <v>0</v>
@@ -30920,7 +30958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B249" s="79">
         <v>43333</v>
       </c>
@@ -30968,7 +31006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B250" s="79">
         <v>43334</v>
       </c>
@@ -31016,7 +31054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B251" s="79">
         <v>43335</v>
       </c>
@@ -31064,143 +31102,173 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B252" s="79">
         <v>43336</v>
       </c>
       <c r="C252" s="120">
-        <v>0.01</v>
-      </c>
-      <c r="D252" s="120"/>
+        <v>9321</v>
+      </c>
+      <c r="D252" s="120">
+        <v>6847</v>
+      </c>
       <c r="E252" s="121">
         <f>Tabla18[Transactions 
 Complete]/Tabla18[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="F252" s="120"/>
+        <v>0.73457783499624507</v>
+      </c>
+      <c r="F252" s="120">
+        <v>2430</v>
+      </c>
       <c r="G252" s="121">
         <f>Tabla18[Transactions 
 Failed]/Tabla18[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="H252" s="120"/>
+        <v>0.26070164145477953</v>
+      </c>
+      <c r="H252" s="120">
+        <v>0</v>
+      </c>
       <c r="I252" s="121">
         <f>Tabla18[Transactions 
 In_Prog]/Tabla18[Total]</f>
         <v>0</v>
       </c>
-      <c r="J252" s="120"/>
+      <c r="J252" s="120">
+        <v>44</v>
+      </c>
       <c r="K252" s="121">
         <f>Tabla18[Transactions 
 Timeout]/Tabla18[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="L252" s="120"/>
+        <v>4.7205235489754319E-3</v>
+      </c>
+      <c r="L252" s="120">
+        <v>0</v>
+      </c>
       <c r="M252" s="121">
         <f>Tabla18[Transactions
 Trans Fail]/Tabla18[Total]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B253" s="79">
         <v>43337</v>
       </c>
       <c r="C253" s="120">
-        <v>0.01</v>
-      </c>
-      <c r="D253" s="120"/>
+        <v>4901</v>
+      </c>
+      <c r="D253" s="120">
+        <v>3683</v>
+      </c>
       <c r="E253" s="121">
         <f>Tabla18[Transactions 
 Complete]/Tabla18[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="F253" s="120"/>
+        <v>0.75147928994082835</v>
+      </c>
+      <c r="F253" s="120">
+        <v>1181</v>
+      </c>
       <c r="G253" s="121">
         <f>Tabla18[Transactions 
 Failed]/Tabla18[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="H253" s="120"/>
+        <v>0.24097123036115078</v>
+      </c>
+      <c r="H253" s="120">
+        <v>0</v>
+      </c>
       <c r="I253" s="121">
         <f>Tabla18[Transactions 
 In_Prog]/Tabla18[Total]</f>
         <v>0</v>
       </c>
-      <c r="J253" s="120"/>
+      <c r="J253" s="120">
+        <v>37</v>
+      </c>
       <c r="K253" s="121">
         <f>Tabla18[Transactions 
 Timeout]/Tabla18[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="L253" s="120"/>
+        <v>7.5494796980208117E-3</v>
+      </c>
+      <c r="L253" s="120">
+        <v>0</v>
+      </c>
       <c r="M253" s="121">
         <f>Tabla18[Transactions
 Trans Fail]/Tabla18[Total]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B254" s="79">
         <v>43338</v>
       </c>
       <c r="C254" s="120">
-        <v>0.01</v>
-      </c>
-      <c r="D254" s="120"/>
+        <v>2147</v>
+      </c>
+      <c r="D254" s="120">
+        <v>1918</v>
+      </c>
       <c r="E254" s="121">
         <f>Tabla18[Transactions 
 Complete]/Tabla18[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="F254" s="120"/>
+        <v>0.89333954354913836</v>
+      </c>
+      <c r="F254" s="120">
+        <v>207</v>
+      </c>
       <c r="G254" s="121">
         <f>Tabla18[Transactions 
 Failed]/Tabla18[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="H254" s="120"/>
+        <v>9.6413600372612943E-2</v>
+      </c>
+      <c r="H254" s="120">
+        <v>0</v>
+      </c>
       <c r="I254" s="121">
         <f>Tabla18[Transactions 
 In_Prog]/Tabla18[Total]</f>
         <v>0</v>
       </c>
-      <c r="J254" s="120"/>
+      <c r="J254" s="120">
+        <v>22</v>
+      </c>
       <c r="K254" s="121">
         <f>Tabla18[Transactions 
 Timeout]/Tabla18[Total]</f>
-        <v>0</v>
-      </c>
-      <c r="L254" s="120"/>
+        <v>1.0246856078248719E-2</v>
+      </c>
+      <c r="L254" s="120">
+        <v>0</v>
+      </c>
       <c r="M254" s="121">
         <f>Tabla18[Transactions
 Trans Fail]/Tabla18[Total]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="2:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B255" s="29" t="s">
         <v>26</v>
       </c>
       <c r="C255" s="39">
         <f>SUM(C248:C254)</f>
-        <v>36990.030000000006</v>
+        <v>53342</v>
       </c>
       <c r="D255" s="39">
         <f>SUM(D248:D254)</f>
-        <v>33656</v>
+        <v>46087</v>
       </c>
       <c r="E255" s="36">
         <f>AVERAGE(E248:E254)</f>
-        <v>0.51949384069413684</v>
+        <v>0.85939261762810948</v>
       </c>
       <c r="F255" s="39">
         <f>SUM(F248:F254)</f>
-        <v>3154</v>
+        <v>6972</v>
       </c>
       <c r="G255" s="36">
         <f>AVERAGE(G248:G254)</f>
-        <v>4.9128446083867815E-2</v>
+        <v>0.13458303966458421</v>
       </c>
       <c r="H255" s="39">
         <f>SUM(H248:H254)</f>
@@ -31212,11 +31280,11 @@
       </c>
       <c r="J255" s="39">
         <f>SUM(J248:J254)</f>
-        <v>180</v>
+        <v>283</v>
       </c>
       <c r="K255" s="36">
         <f>AVERAGE(K248:K254)</f>
-        <v>2.8062846505667789E-3</v>
+        <v>6.0243427073063101E-3</v>
       </c>
       <c r="L255" s="39">
         <f>SUM(L248:L254)</f>
@@ -31227,16 +31295,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E256" s="26"/>
     </row>
-    <row r="257" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E257" s="26"/>
     </row>
-    <row r="258" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E258" s="26"/>
     </row>
-    <row r="259" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E259" s="26"/>
     </row>
   </sheetData>
@@ -31260,12 +31328,12 @@
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="44">
         <v>43101</v>
       </c>
@@ -31303,7 +31371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="47">
         <v>43102</v>
       </c>
@@ -31341,7 +31409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="44">
         <v>43103</v>
       </c>
@@ -31379,7 +31447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="47">
         <v>43104</v>
       </c>
@@ -31417,7 +31485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="44">
         <v>43105</v>
       </c>
@@ -31455,7 +31523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="47">
         <v>43106</v>
       </c>
@@ -31493,7 +31561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="44">
         <v>43107</v>
       </c>
@@ -31531,7 +31599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="47">
         <v>43108</v>
       </c>
@@ -31569,7 +31637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="44">
         <v>43109</v>
       </c>
@@ -31607,7 +31675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="47">
         <v>43110</v>
       </c>
@@ -31645,7 +31713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="44">
         <v>43111</v>
       </c>
@@ -31683,7 +31751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="47">
         <v>43112</v>
       </c>
@@ -31721,7 +31789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="44">
         <v>43113</v>
       </c>
@@ -31759,7 +31827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="47">
         <v>43114</v>
       </c>
@@ -31797,7 +31865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="44">
         <v>43115</v>
       </c>
@@ -31835,7 +31903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="47">
         <v>43116</v>
       </c>
@@ -31873,7 +31941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="44">
         <v>43117</v>
       </c>
@@ -31911,7 +31979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="47">
         <v>43118</v>
       </c>
@@ -31949,7 +32017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="44">
         <v>43119</v>
       </c>
@@ -31987,7 +32055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="47">
         <v>43120</v>
       </c>
@@ -32025,7 +32093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="44">
         <v>43121</v>
       </c>
@@ -32063,7 +32131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="47">
         <v>43122</v>
       </c>
@@ -32101,7 +32169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="44">
         <v>43123</v>
       </c>
@@ -32139,7 +32207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="47">
         <v>43124</v>
       </c>
@@ -32177,7 +32245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="44">
         <v>43125</v>
       </c>
@@ -32215,7 +32283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="47">
         <v>43126</v>
       </c>
@@ -32253,7 +32321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="44">
         <v>43127</v>
       </c>
@@ -32291,7 +32359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="47">
         <v>43128</v>
       </c>
@@ -32329,7 +32397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="44">
         <v>43129</v>
       </c>
@@ -32367,7 +32435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="47">
         <v>43130</v>
       </c>
@@ -32405,7 +32473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="44">
         <v>43131</v>
       </c>
@@ -32443,7 +32511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B32" s="48">
         <f>SUM(B1:B31)</f>
         <v>272552</v>
@@ -32506,25 +32574,25 @@
       <selection activeCell="B15" sqref="B15:M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="33"/>
+    <col min="14" max="16384" width="11.44140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -32540,7 +32608,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -32558,7 +32626,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -32576,7 +32644,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -32592,7 +32660,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -32611,7 +32679,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -32633,7 +32701,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
@@ -32655,7 +32723,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -32677,7 +32745,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -32699,7 +32767,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -32721,7 +32789,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -32740,7 +32808,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -32754,7 +32822,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -32768,7 +32836,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
@@ -32784,7 +32852,7 @@
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
     </row>
-    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
@@ -32833,7 +32901,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -32871,7 +32939,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="41">
         <v>43132</v>
       </c>
@@ -32914,7 +32982,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="41">
         <v>43133</v>
       </c>
@@ -32957,7 +33025,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="41">
         <v>43134</v>
       </c>
@@ -33000,7 +33068,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="41">
         <v>43135</v>
       </c>
@@ -33043,7 +33111,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="41">
         <v>43136</v>
       </c>
@@ -33086,7 +33154,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="41">
         <v>43137</v>
       </c>
@@ -33129,7 +33197,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="41">
         <v>43138</v>
       </c>
@@ -33172,7 +33240,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="41">
         <v>43139</v>
       </c>
@@ -33215,7 +33283,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="41">
         <v>43140</v>
       </c>
@@ -33258,7 +33326,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="41">
         <v>43141</v>
       </c>
@@ -33301,7 +33369,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="41">
         <v>43142</v>
       </c>
@@ -33344,7 +33412,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="41">
         <v>43143</v>
       </c>
@@ -33387,7 +33455,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="41">
         <v>43144</v>
       </c>
@@ -33430,7 +33498,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="41">
         <v>43145</v>
       </c>
@@ -33473,7 +33541,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="41">
         <v>43146</v>
       </c>
@@ -33516,7 +33584,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="41">
         <v>43147</v>
       </c>
@@ -33559,7 +33627,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="41">
         <v>43148</v>
       </c>
@@ -33602,7 +33670,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="41">
         <v>43149</v>
       </c>
@@ -33645,7 +33713,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="41">
         <v>43150</v>
       </c>
@@ -33688,7 +33756,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="41">
         <v>43151</v>
       </c>
@@ -33731,7 +33799,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="41">
         <v>43152</v>
       </c>
@@ -33774,7 +33842,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="41">
         <v>43153</v>
       </c>
@@ -33817,7 +33885,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="41">
         <v>43154</v>
       </c>
@@ -33860,7 +33928,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="41">
         <v>43155</v>
       </c>
@@ -33903,7 +33971,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="41">
         <v>43156</v>
       </c>
@@ -33946,7 +34014,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="41">
         <v>43157</v>
       </c>
@@ -33989,7 +34057,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="41">
         <v>43158</v>
       </c>
@@ -34032,7 +34100,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="41">
         <v>43159</v>
       </c>
@@ -34075,7 +34143,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B45" s="29" t="s">
         <v>26</v>
       </c>
@@ -34124,16 +34192,16 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E46" s="26"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E47" s="26"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E48" s="26"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E49" s="26"/>
     </row>
   </sheetData>
@@ -34160,25 +34228,25 @@
       <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="33"/>
+    <col min="14" max="16384" width="11.44140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -34194,7 +34262,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -34212,7 +34280,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -34230,7 +34298,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -34246,7 +34314,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -34265,7 +34333,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -34287,7 +34355,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
@@ -34309,7 +34377,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -34331,7 +34399,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -34353,7 +34421,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -34375,7 +34443,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -34394,7 +34462,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -34408,7 +34476,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -34422,7 +34490,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
@@ -34438,7 +34506,7 @@
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
     </row>
-    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
@@ -34487,7 +34555,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -34525,7 +34593,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="41">
         <v>43160</v>
       </c>
@@ -34568,7 +34636,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="41">
         <v>43161</v>
       </c>
@@ -34611,7 +34679,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="41">
         <v>43162</v>
       </c>
@@ -34654,7 +34722,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="41">
         <v>43163</v>
       </c>
@@ -34697,7 +34765,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="41">
         <v>43164</v>
       </c>
@@ -34740,7 +34808,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="41">
         <v>43165</v>
       </c>
@@ -34783,7 +34851,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="41">
         <v>43166</v>
       </c>
@@ -34826,7 +34894,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="41">
         <v>43167</v>
       </c>
@@ -34869,7 +34937,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="41">
         <v>43168</v>
       </c>
@@ -34912,7 +34980,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="41">
         <v>43169</v>
       </c>
@@ -34955,7 +35023,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="41">
         <v>43170</v>
       </c>
@@ -34998,7 +35066,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="41">
         <v>43171</v>
       </c>
@@ -35041,7 +35109,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="41">
         <v>43172</v>
       </c>
@@ -35084,7 +35152,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="41">
         <v>43173</v>
       </c>
@@ -35127,7 +35195,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="41">
         <v>43174</v>
       </c>
@@ -35170,7 +35238,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="41">
         <v>43175</v>
       </c>
@@ -35213,7 +35281,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="41">
         <v>43176</v>
       </c>
@@ -35256,7 +35324,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="41">
         <v>43177</v>
       </c>
@@ -35299,7 +35367,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="53">
         <v>43178</v>
       </c>
@@ -35342,7 +35410,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="53">
         <v>43179</v>
       </c>
@@ -35385,7 +35453,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="53">
         <v>43180</v>
       </c>
@@ -35428,7 +35496,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="53">
         <v>43181</v>
       </c>
@@ -35471,7 +35539,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="53">
         <v>43182</v>
       </c>
@@ -35514,7 +35582,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="53">
         <v>43183</v>
       </c>
@@ -35557,7 +35625,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="53">
         <v>43184</v>
       </c>
@@ -35600,7 +35668,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="53">
         <v>43185</v>
       </c>
@@ -35643,7 +35711,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="53">
         <v>43186</v>
       </c>
@@ -35686,7 +35754,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="53">
         <v>43187</v>
       </c>
@@ -35729,7 +35797,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="53">
         <v>43188</v>
       </c>
@@ -35772,7 +35840,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="53">
         <v>43189</v>
       </c>
@@ -35815,7 +35883,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="53">
         <v>43190</v>
       </c>
@@ -35858,7 +35926,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B48" s="54" t="s">
         <v>26</v>
       </c>
@@ -35907,16 +35975,16 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E49" s="26"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E51" s="26"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E52" s="26"/>
     </row>
   </sheetData>
@@ -35943,25 +36011,25 @@
       <selection activeCell="B17" sqref="B17:M47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="33"/>
+    <col min="14" max="16384" width="11.44140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -35977,7 +36045,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -35995,7 +36063,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -36013,7 +36081,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -36029,7 +36097,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -36048,7 +36116,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -36070,7 +36138,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
@@ -36092,7 +36160,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -36114,7 +36182,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -36136,7 +36204,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -36158,7 +36226,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -36177,7 +36245,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -36191,7 +36259,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -36205,7 +36273,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
@@ -36221,7 +36289,7 @@
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
     </row>
-    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
@@ -36270,7 +36338,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -36308,7 +36376,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="53">
         <v>43191</v>
       </c>
@@ -36351,7 +36419,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="53">
         <v>43192</v>
       </c>
@@ -36394,7 +36462,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="53">
         <v>43193</v>
       </c>
@@ -36437,7 +36505,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="53">
         <v>43194</v>
       </c>
@@ -36480,7 +36548,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="53">
         <v>43195</v>
       </c>
@@ -36523,7 +36591,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="53">
         <v>43196</v>
       </c>
@@ -36566,7 +36634,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="53">
         <v>43197</v>
       </c>
@@ -36609,7 +36677,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="53">
         <v>43198</v>
       </c>
@@ -36652,7 +36720,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="53">
         <v>43199</v>
       </c>
@@ -36695,7 +36763,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="53">
         <v>43200</v>
       </c>
@@ -36738,7 +36806,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="53">
         <v>43201</v>
       </c>
@@ -36782,7 +36850,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="53">
         <v>43202</v>
       </c>
@@ -36825,7 +36893,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="53">
         <v>43203</v>
       </c>
@@ -36868,7 +36936,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="53">
         <v>43204</v>
       </c>
@@ -36911,7 +36979,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="53">
         <v>43205</v>
       </c>
@@ -36954,7 +37022,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="53">
         <v>43206</v>
       </c>
@@ -36997,7 +37065,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="53">
         <v>43207</v>
       </c>
@@ -37040,7 +37108,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="53">
         <v>43208</v>
       </c>
@@ -37083,7 +37151,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="53">
         <v>43209</v>
       </c>
@@ -37126,7 +37194,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="53">
         <v>43210</v>
       </c>
@@ -37169,7 +37237,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="53">
         <v>43211</v>
       </c>
@@ -37212,7 +37280,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="53">
         <v>43212</v>
       </c>
@@ -37255,7 +37323,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="53">
         <v>43213</v>
       </c>
@@ -37298,7 +37366,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="53">
         <v>43214</v>
       </c>
@@ -37341,7 +37409,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="53">
         <v>43215</v>
       </c>
@@ -37384,7 +37452,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="53">
         <v>43216</v>
       </c>
@@ -37427,7 +37495,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="53">
         <v>43217</v>
       </c>
@@ -37470,7 +37538,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="53">
         <v>43218</v>
       </c>
@@ -37513,7 +37581,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="53">
         <v>43219</v>
       </c>
@@ -37556,7 +37624,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="53">
         <v>43220</v>
       </c>
@@ -37599,7 +37667,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B47" s="54" t="s">
         <v>26</v>
       </c>
@@ -37648,16 +37716,16 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E48" s="26"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E49" s="26"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E51" s="26"/>
     </row>
   </sheetData>
@@ -37684,25 +37752,25 @@
       <selection activeCell="B17" sqref="B17:M48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="33"/>
+    <col min="14" max="16384" width="11.44140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -37718,7 +37786,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -37736,7 +37804,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -37754,7 +37822,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -37770,7 +37838,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -37789,7 +37857,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -37811,7 +37879,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
@@ -37833,7 +37901,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -37855,7 +37923,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -37877,7 +37945,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -37899,7 +37967,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -37918,7 +37986,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -37932,7 +38000,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -37946,7 +38014,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
@@ -37962,7 +38030,7 @@
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
     </row>
-    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
@@ -38011,7 +38079,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -38049,7 +38117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="53">
         <v>43221</v>
       </c>
@@ -38092,7 +38160,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="53">
         <v>43222</v>
       </c>
@@ -38135,7 +38203,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="53">
         <v>43223</v>
       </c>
@@ -38178,7 +38246,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="53">
         <v>43224</v>
       </c>
@@ -38221,7 +38289,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="53">
         <v>43225</v>
       </c>
@@ -38264,7 +38332,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="53">
         <v>43226</v>
       </c>
@@ -38307,7 +38375,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="59">
         <v>43227</v>
       </c>
@@ -38350,7 +38418,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="59">
         <v>43228</v>
       </c>
@@ -38393,7 +38461,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="59">
         <v>43229</v>
       </c>
@@ -38436,7 +38504,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="59">
         <v>43230</v>
       </c>
@@ -38479,7 +38547,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="59">
         <v>43231</v>
       </c>
@@ -38522,7 +38590,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="59">
         <v>43232</v>
       </c>
@@ -38565,7 +38633,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="41">
         <v>43233</v>
       </c>
@@ -38608,7 +38676,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="41">
         <v>43234</v>
       </c>
@@ -38651,7 +38719,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="41">
         <v>43235</v>
       </c>
@@ -38694,7 +38762,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="41">
         <v>43236</v>
       </c>
@@ -38737,7 +38805,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="41">
         <v>43237</v>
       </c>
@@ -38780,7 +38848,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="41">
         <v>43238</v>
       </c>
@@ -38823,7 +38891,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="41">
         <v>43239</v>
       </c>
@@ -38866,7 +38934,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="41">
         <v>43240</v>
       </c>
@@ -38909,7 +38977,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="41">
         <v>43241</v>
       </c>
@@ -38952,7 +39020,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="41">
         <v>43242</v>
       </c>
@@ -38995,7 +39063,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="41">
         <v>43243</v>
       </c>
@@ -39038,7 +39106,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="41">
         <v>43244</v>
       </c>
@@ -39081,7 +39149,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="41">
         <v>43245</v>
       </c>
@@ -39124,7 +39192,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="41">
         <v>43246</v>
       </c>
@@ -39167,7 +39235,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="41">
         <v>43247</v>
       </c>
@@ -39210,7 +39278,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="41">
         <v>43248</v>
       </c>
@@ -39253,7 +39321,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="41">
         <v>43249</v>
       </c>
@@ -39296,7 +39364,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="41">
         <v>43250</v>
       </c>
@@ -39339,7 +39407,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="41">
         <v>43251</v>
       </c>
@@ -39382,7 +39450,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B48" s="56" t="s">
         <v>26</v>
       </c>
@@ -39431,16 +39499,16 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E49" s="26"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E51" s="26"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E52" s="26"/>
     </row>
   </sheetData>
@@ -39467,25 +39535,25 @@
       <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="33"/>
+    <col min="14" max="16384" width="11.44140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -39501,7 +39569,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -39519,7 +39587,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -39537,7 +39605,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -39553,7 +39621,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -39572,7 +39640,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -39594,7 +39662,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
@@ -39616,7 +39684,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -39638,7 +39706,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -39660,7 +39728,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -39682,7 +39750,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -39701,7 +39769,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -39715,7 +39783,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -39729,7 +39797,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
@@ -39745,7 +39813,7 @@
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
     </row>
-    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
@@ -39804,7 +39872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -39842,7 +39910,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="79">
         <v>43252</v>
       </c>
@@ -39890,7 +39958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="79">
         <v>43253</v>
       </c>
@@ -39938,7 +40006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="79">
         <v>43254</v>
       </c>
@@ -39986,7 +40054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="79">
         <v>43255</v>
       </c>
@@ -40034,7 +40102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="79">
         <v>43256</v>
       </c>
@@ -40082,7 +40150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="79">
         <v>43257</v>
       </c>
@@ -40130,7 +40198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="79">
         <v>43258</v>
       </c>
@@ -40178,7 +40246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="79">
         <v>43259</v>
       </c>
@@ -40226,7 +40294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="79">
         <v>43260</v>
       </c>
@@ -40274,7 +40342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="79">
         <v>43261</v>
       </c>
@@ -40322,7 +40390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="79">
         <v>43262</v>
       </c>
@@ -40370,7 +40438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="79">
         <v>43263</v>
       </c>
@@ -40418,7 +40486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="79">
         <v>43264</v>
       </c>
@@ -40466,7 +40534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="79">
         <v>43265</v>
       </c>
@@ -40514,7 +40582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="79">
         <v>43266</v>
       </c>
@@ -40562,7 +40630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="79">
         <v>43267</v>
       </c>
@@ -40610,7 +40678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="79">
         <v>43268</v>
       </c>
@@ -40658,7 +40726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="79">
         <v>43269</v>
       </c>
@@ -40706,7 +40774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="79">
         <v>43270</v>
       </c>
@@ -40754,7 +40822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="79">
         <v>43271</v>
       </c>
@@ -40802,7 +40870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="79">
         <v>43272</v>
       </c>
@@ -40850,7 +40918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="79">
         <v>43273</v>
       </c>
@@ -40898,7 +40966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="79">
         <v>43274</v>
       </c>
@@ -40946,7 +41014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="79">
         <v>43275</v>
       </c>
@@ -40994,7 +41062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="79">
         <v>43276</v>
       </c>
@@ -41042,7 +41110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="79">
         <v>43277</v>
       </c>
@@ -41090,7 +41158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="79">
         <v>43278</v>
       </c>
@@ -41138,7 +41206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="79">
         <v>43279</v>
       </c>
@@ -41186,7 +41254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="79">
         <v>43280</v>
       </c>
@@ -41234,7 +41302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="79">
         <v>43281</v>
       </c>
@@ -41282,7 +41350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B47" s="62" t="s">
         <v>26</v>
       </c>
@@ -41331,16 +41399,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E48" s="26"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E49" s="26"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E51" s="26"/>
     </row>
   </sheetData>
@@ -41364,9 +41432,9 @@
       <selection activeCell="A2" sqref="A2:L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="114">
         <v>43282</v>
       </c>
@@ -41404,7 +41472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="110">
         <v>43283</v>
       </c>
@@ -41442,7 +41510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="114">
         <v>43284</v>
       </c>
@@ -41480,7 +41548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="110">
         <v>43285</v>
       </c>
@@ -41518,7 +41586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="114">
         <v>43286</v>
       </c>
@@ -41556,7 +41624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="110">
         <v>43287</v>
       </c>
@@ -41594,7 +41662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="114">
         <v>43288</v>
       </c>
@@ -41632,7 +41700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="110">
         <v>43289</v>
       </c>
@@ -41670,7 +41738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="114">
         <v>43290</v>
       </c>
@@ -41708,7 +41776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="110">
         <v>43291</v>
       </c>
@@ -41746,7 +41814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="114">
         <v>43292</v>
       </c>
@@ -41784,7 +41852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="110">
         <v>43293</v>
       </c>
@@ -41822,7 +41890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="114">
         <v>43294</v>
       </c>
@@ -41860,7 +41928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="110">
         <v>43295</v>
       </c>
@@ -41898,7 +41966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="114">
         <v>43296</v>
       </c>
@@ -41936,7 +42004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="110">
         <v>43297</v>
       </c>
@@ -41974,7 +42042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="114">
         <v>43298</v>
       </c>
@@ -42012,7 +42080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="110">
         <v>43299</v>
       </c>
@@ -42050,7 +42118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="114">
         <v>43300</v>
       </c>
@@ -42088,7 +42156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="110">
         <v>43301</v>
       </c>
@@ -42126,7 +42194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="114">
         <v>43302</v>
       </c>
@@ -42164,7 +42232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="110">
         <v>43303</v>
       </c>
@@ -42202,7 +42270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="114">
         <v>43304</v>
       </c>
@@ -42240,7 +42308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="110">
         <v>43305</v>
       </c>
@@ -42278,7 +42346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="114">
         <v>43306</v>
       </c>
@@ -42316,7 +42384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="110">
         <v>43307</v>
       </c>
@@ -42354,7 +42422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="114">
         <v>43308</v>
       </c>
@@ -42392,7 +42460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="110">
         <v>43309</v>
       </c>
@@ -42430,7 +42498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="114">
         <v>43310</v>
       </c>
@@ -42468,7 +42536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="110">
         <v>43311</v>
       </c>
@@ -42506,7 +42574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="114">
         <v>43312</v>
       </c>
@@ -42544,7 +42612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="25" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="21" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A33" s="116" t="s">
         <v>27</v>
       </c>

--- a/INTE-Performance-JAMU-2018.xlsx
+++ b/INTE-Performance-JAMU-2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Lopez\Desktop\ASAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirnazertuche/Desktop/ASAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9422BF8-7B2D-4DA8-9BB4-78418CF478F3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5386F98D-6187-4C4C-A682-0081F80E023C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="456" windowWidth="25596" windowHeight="14436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="2640" windowWidth="25600" windowHeight="10360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAMUPerformance" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,13 @@
     <sheet name="07" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="179021" calcMode="manual"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -143,7 +150,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
@@ -559,13 +566,13 @@
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -616,7 +623,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="4" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -655,7 +662,7 @@
     <xf numFmtId="10" fontId="14" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -726,13 +733,13 @@
     <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -750,7 +757,7 @@
     <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="19" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -912,7 +919,7 @@
     <xf numFmtId="3" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="28" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="28" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -935,15 +942,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="40% - Énfasis5" xfId="4" builtinId="47"/>
-    <cellStyle name="60% - Énfasis5" xfId="5" builtinId="48"/>
+    <cellStyle name="40% - Accent5" xfId="4" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
     <cellStyle name="60% - Énfasis6 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Énfasis5" xfId="3" builtinId="45"/>
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Accent5" xfId="3" builtinId="45"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Millares 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="Total" xfId="9" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="164">
@@ -1214,7 +1221,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1448,7 +1455,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1921,7 +1928,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1946,7 +1953,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2464,7 +2471,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2489,7 +2496,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3007,7 +3014,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3032,7 +3039,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3550,7 +3557,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3575,7 +3582,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4093,7 +4100,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -4118,7 +4125,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4260,7 +4267,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4332,7 +4339,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4369,30 +4376,30 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>JAMUPerformance!$C$248:$C$254</c:f>
+              <c:f>JAMUPerformance!$C$255:$C$261</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8943</c:v>
+                  <c:v>13043</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8420</c:v>
+                  <c:v>14275</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10656</c:v>
+                  <c:v>10191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8954</c:v>
+                  <c:v>14040</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9321</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4901</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2147</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4421,30 +4428,21 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>JAMUPerformance!$D$248:$D$254</c:f>
+              <c:f>JAMUPerformance!$D$255:$D$261</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8447</c:v>
+                  <c:v>10562</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7910</c:v>
+                  <c:v>11952</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9962</c:v>
+                  <c:v>7782</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7320</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6847</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3683</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1918</c:v>
+                  <c:v>11972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4473,30 +4471,21 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>JAMUPerformance!$F$248:$F$254</c:f>
+              <c:f>JAMUPerformance!$F$255:$F$261</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>451</c:v>
+                  <c:v>2408</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>466</c:v>
+                  <c:v>2278</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>651</c:v>
+                  <c:v>2362</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1586</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2430</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1181</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>207</c:v>
+                  <c:v>2003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4525,7 +4514,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>JAMUPerformance!$H$248:$H$254</c:f>
+              <c:f>JAMUPerformance!$H$255:$H$261</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4536,18 +4525,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4579,30 +4559,21 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>JAMUPerformance!$J$248:$J$254</c:f>
+              <c:f>JAMUPerformance!$J$255:$J$261</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>44</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>43</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4633,7 +4604,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>JAMUPerformance!$L$248:$L$254</c:f>
+              <c:f>JAMUPerformance!$L$255:$L$261</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4647,15 +4618,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4722,7 +4684,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530867824"/>
@@ -4781,7 +4743,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530869456"/>
@@ -4823,7 +4785,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -4862,7 +4824,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4892,7 +4854,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4906,7 +4868,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4978,7 +4940,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5143,88 +5105,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>01/02/2018</c:v>
+                  <c:v>2/1/18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02/02/2018</c:v>
+                  <c:v>2/2/18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>03/02/2018</c:v>
+                  <c:v>2/3/18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/02/2018</c:v>
+                  <c:v>2/4/18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/02/2018</c:v>
+                  <c:v>2/5/18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>06/02/2018</c:v>
+                  <c:v>2/6/18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>07/02/2018</c:v>
+                  <c:v>2/7/18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>08/02/2018</c:v>
+                  <c:v>2/8/18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>09/02/2018</c:v>
+                  <c:v>2/9/18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10/02/2018</c:v>
+                  <c:v>2/10/18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11/02/2018</c:v>
+                  <c:v>2/11/18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12/02/2018</c:v>
+                  <c:v>2/12/18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13/02/2018</c:v>
+                  <c:v>2/13/18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14/02/2018</c:v>
+                  <c:v>2/14/18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15/02/2018</c:v>
+                  <c:v>2/15/18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16/02/2018</c:v>
+                  <c:v>2/16/18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17/02/2018</c:v>
+                  <c:v>2/17/18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18/02/2018</c:v>
+                  <c:v>2/18/18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19/02/2018</c:v>
+                  <c:v>2/19/18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20/02/2018</c:v>
+                  <c:v>2/20/18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21/02/2018</c:v>
+                  <c:v>2/21/18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22/02/2018</c:v>
+                  <c:v>2/22/18</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23/02/2018</c:v>
+                  <c:v>2/23/18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24/02/2018</c:v>
+                  <c:v>2/24/18</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25/02/2018</c:v>
+                  <c:v>2/25/18</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26/02/2018</c:v>
+                  <c:v>2/26/18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27/02/2018</c:v>
+                  <c:v>2/27/18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28/02/2018</c:v>
+                  <c:v>2/28/18</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -5360,88 +5322,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>01/02/2018</c:v>
+                  <c:v>2/1/18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02/02/2018</c:v>
+                  <c:v>2/2/18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>03/02/2018</c:v>
+                  <c:v>2/3/18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/02/2018</c:v>
+                  <c:v>2/4/18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/02/2018</c:v>
+                  <c:v>2/5/18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>06/02/2018</c:v>
+                  <c:v>2/6/18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>07/02/2018</c:v>
+                  <c:v>2/7/18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>08/02/2018</c:v>
+                  <c:v>2/8/18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>09/02/2018</c:v>
+                  <c:v>2/9/18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10/02/2018</c:v>
+                  <c:v>2/10/18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11/02/2018</c:v>
+                  <c:v>2/11/18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12/02/2018</c:v>
+                  <c:v>2/12/18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13/02/2018</c:v>
+                  <c:v>2/13/18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14/02/2018</c:v>
+                  <c:v>2/14/18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15/02/2018</c:v>
+                  <c:v>2/15/18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16/02/2018</c:v>
+                  <c:v>2/16/18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17/02/2018</c:v>
+                  <c:v>2/17/18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18/02/2018</c:v>
+                  <c:v>2/18/18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19/02/2018</c:v>
+                  <c:v>2/19/18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20/02/2018</c:v>
+                  <c:v>2/20/18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21/02/2018</c:v>
+                  <c:v>2/21/18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22/02/2018</c:v>
+                  <c:v>2/22/18</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23/02/2018</c:v>
+                  <c:v>2/23/18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24/02/2018</c:v>
+                  <c:v>2/24/18</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25/02/2018</c:v>
+                  <c:v>2/25/18</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26/02/2018</c:v>
+                  <c:v>2/26/18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27/02/2018</c:v>
+                  <c:v>2/27/18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28/02/2018</c:v>
+                  <c:v>2/28/18</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -5577,88 +5539,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>01/02/2018</c:v>
+                  <c:v>2/1/18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02/02/2018</c:v>
+                  <c:v>2/2/18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>03/02/2018</c:v>
+                  <c:v>2/3/18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/02/2018</c:v>
+                  <c:v>2/4/18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/02/2018</c:v>
+                  <c:v>2/5/18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>06/02/2018</c:v>
+                  <c:v>2/6/18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>07/02/2018</c:v>
+                  <c:v>2/7/18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>08/02/2018</c:v>
+                  <c:v>2/8/18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>09/02/2018</c:v>
+                  <c:v>2/9/18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10/02/2018</c:v>
+                  <c:v>2/10/18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11/02/2018</c:v>
+                  <c:v>2/11/18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12/02/2018</c:v>
+                  <c:v>2/12/18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13/02/2018</c:v>
+                  <c:v>2/13/18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14/02/2018</c:v>
+                  <c:v>2/14/18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15/02/2018</c:v>
+                  <c:v>2/15/18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16/02/2018</c:v>
+                  <c:v>2/16/18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17/02/2018</c:v>
+                  <c:v>2/17/18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18/02/2018</c:v>
+                  <c:v>2/18/18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19/02/2018</c:v>
+                  <c:v>2/19/18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20/02/2018</c:v>
+                  <c:v>2/20/18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21/02/2018</c:v>
+                  <c:v>2/21/18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22/02/2018</c:v>
+                  <c:v>2/22/18</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23/02/2018</c:v>
+                  <c:v>2/23/18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24/02/2018</c:v>
+                  <c:v>2/24/18</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25/02/2018</c:v>
+                  <c:v>2/25/18</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26/02/2018</c:v>
+                  <c:v>2/26/18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27/02/2018</c:v>
+                  <c:v>2/27/18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28/02/2018</c:v>
+                  <c:v>2/28/18</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -5796,88 +5758,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>01/02/2018</c:v>
+                  <c:v>2/1/18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02/02/2018</c:v>
+                  <c:v>2/2/18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>03/02/2018</c:v>
+                  <c:v>2/3/18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/02/2018</c:v>
+                  <c:v>2/4/18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/02/2018</c:v>
+                  <c:v>2/5/18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>06/02/2018</c:v>
+                  <c:v>2/6/18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>07/02/2018</c:v>
+                  <c:v>2/7/18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>08/02/2018</c:v>
+                  <c:v>2/8/18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>09/02/2018</c:v>
+                  <c:v>2/9/18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10/02/2018</c:v>
+                  <c:v>2/10/18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11/02/2018</c:v>
+                  <c:v>2/11/18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12/02/2018</c:v>
+                  <c:v>2/12/18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13/02/2018</c:v>
+                  <c:v>2/13/18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14/02/2018</c:v>
+                  <c:v>2/14/18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15/02/2018</c:v>
+                  <c:v>2/15/18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16/02/2018</c:v>
+                  <c:v>2/16/18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17/02/2018</c:v>
+                  <c:v>2/17/18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18/02/2018</c:v>
+                  <c:v>2/18/18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19/02/2018</c:v>
+                  <c:v>2/19/18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20/02/2018</c:v>
+                  <c:v>2/20/18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21/02/2018</c:v>
+                  <c:v>2/21/18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22/02/2018</c:v>
+                  <c:v>2/22/18</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23/02/2018</c:v>
+                  <c:v>2/23/18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24/02/2018</c:v>
+                  <c:v>2/24/18</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25/02/2018</c:v>
+                  <c:v>2/25/18</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26/02/2018</c:v>
+                  <c:v>2/26/18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27/02/2018</c:v>
+                  <c:v>2/27/18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28/02/2018</c:v>
+                  <c:v>2/28/18</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -6015,88 +5977,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>01/02/2018</c:v>
+                  <c:v>2/1/18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02/02/2018</c:v>
+                  <c:v>2/2/18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>03/02/2018</c:v>
+                  <c:v>2/3/18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/02/2018</c:v>
+                  <c:v>2/4/18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/02/2018</c:v>
+                  <c:v>2/5/18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>06/02/2018</c:v>
+                  <c:v>2/6/18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>07/02/2018</c:v>
+                  <c:v>2/7/18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>08/02/2018</c:v>
+                  <c:v>2/8/18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>09/02/2018</c:v>
+                  <c:v>2/9/18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10/02/2018</c:v>
+                  <c:v>2/10/18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11/02/2018</c:v>
+                  <c:v>2/11/18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12/02/2018</c:v>
+                  <c:v>2/12/18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13/02/2018</c:v>
+                  <c:v>2/13/18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14/02/2018</c:v>
+                  <c:v>2/14/18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15/02/2018</c:v>
+                  <c:v>2/15/18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16/02/2018</c:v>
+                  <c:v>2/16/18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17/02/2018</c:v>
+                  <c:v>2/17/18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18/02/2018</c:v>
+                  <c:v>2/18/18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19/02/2018</c:v>
+                  <c:v>2/19/18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20/02/2018</c:v>
+                  <c:v>2/20/18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21/02/2018</c:v>
+                  <c:v>2/21/18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22/02/2018</c:v>
+                  <c:v>2/22/18</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23/02/2018</c:v>
+                  <c:v>2/23/18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24/02/2018</c:v>
+                  <c:v>2/24/18</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25/02/2018</c:v>
+                  <c:v>2/25/18</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26/02/2018</c:v>
+                  <c:v>2/26/18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27/02/2018</c:v>
+                  <c:v>2/27/18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28/02/2018</c:v>
+                  <c:v>2/28/18</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -6262,7 +6224,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530864560"/>
@@ -6321,7 +6283,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530865104"/>
@@ -6363,7 +6325,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -6402,7 +6364,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6432,7 +6394,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6446,7 +6408,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6518,7 +6480,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6688,7 +6650,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -6918,7 +6880,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -7148,7 +7110,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -7380,7 +7342,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -7612,7 +7574,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -7874,7 +7836,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="302953280"/>
@@ -7933,7 +7895,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="302951104"/>
@@ -7975,7 +7937,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -8014,7 +7976,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8044,7 +8006,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8058,7 +8020,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8130,7 +8092,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8297,7 +8259,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8521,7 +8483,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8745,7 +8707,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8971,7 +8933,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -9197,7 +9159,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -9453,7 +9415,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593585056"/>
@@ -9512,7 +9474,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593573632"/>
@@ -9554,7 +9516,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -9593,7 +9555,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9623,7 +9585,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9637,7 +9599,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9709,7 +9671,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9879,7 +9841,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -10109,7 +10071,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -10339,7 +10301,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -10571,7 +10533,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -10803,7 +10765,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -11065,7 +11027,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593578528"/>
@@ -11124,7 +11086,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593585600"/>
@@ -11166,7 +11128,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -11205,7 +11167,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11235,7 +11197,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11249,7 +11211,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11321,7 +11283,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11518,7 +11480,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -11741,7 +11703,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -11964,7 +11926,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -12189,7 +12151,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -12414,7 +12376,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -12669,7 +12631,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593574720"/>
@@ -12728,7 +12690,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593574176"/>
@@ -12770,7 +12732,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -12809,7 +12771,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12839,7 +12801,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12853,7 +12815,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12925,7 +12887,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12964,7 +12926,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13190,7 +13152,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13416,7 +13378,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13642,7 +13604,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13870,7 +13832,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -14098,7 +14060,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -14325,7 +14287,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -14359,7 +14321,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530867824"/>
@@ -14417,7 +14379,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530869456"/>
@@ -14459,7 +14421,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -14498,7 +14460,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -14528,7 +14490,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -18437,13 +18399,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>188160</xdr:colOff>
-      <xdr:row>255</xdr:row>
+      <xdr:row>262</xdr:row>
       <xdr:rowOff>143435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>810535</xdr:colOff>
-      <xdr:row>283</xdr:row>
+      <xdr:row>290</xdr:row>
       <xdr:rowOff>31376</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -18733,8 +18695,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla18" displayName="Tabla18" ref="B16:M255" totalsRowCount="1" headerRowDxfId="161" dataDxfId="160" totalsRowDxfId="159">
-  <autoFilter ref="B16:M254" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla18" displayName="Tabla18" ref="B16:M262" totalsRowCount="1" headerRowDxfId="161" dataDxfId="160" totalsRowDxfId="159">
+  <autoFilter ref="B16:M261" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2016" month="5" day="9" dateTimeGrouping="day"/>
@@ -18753,47 +18715,47 @@
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="23" totalsRowDxfId="11"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="10">
-      <totalsRowFormula>SUM(C248:C254)</totalsRowFormula>
+      <totalsRowFormula>SUM(C255:C261)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="9">
-      <totalsRowFormula>SUM(D248:D254)</totalsRowFormula>
+      <totalsRowFormula>SUM(D255:D261)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="8">
       <calculatedColumnFormula>Tabla18[Transactions 
 Complete]/Tabla18[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(E248:E254)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(E255:E261)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="7">
-      <totalsRowFormula>SUM(F248:F254)</totalsRowFormula>
+      <totalsRowFormula>SUM(F255:F261)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="6">
       <calculatedColumnFormula>Tabla18[Transactions 
 Failed]/Tabla18[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(G248:G254)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(G255:G261)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="5">
-      <totalsRowFormula>SUM(H248:H254)</totalsRowFormula>
+      <totalsRowFormula>SUM(H255:H261)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="4">
       <calculatedColumnFormula>Tabla18[Transactions 
 In_Prog]/Tabla18[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(I248:I254)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(I255:I261)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="3">
-      <totalsRowFormula>SUM(J248:J254)</totalsRowFormula>
+      <totalsRowFormula>SUM(J255:J261)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="2">
       <calculatedColumnFormula>Tabla18[Transactions 
 Timeout]/Tabla18[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(K248:K254)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(K255:K261)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="1">
-      <totalsRowFormula>SUM(L248:L254)</totalsRowFormula>
+      <totalsRowFormula>SUM(L255:L261)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="0">
       <calculatedColumnFormula>Tabla18[Transactions
 Trans Fail]/Tabla18[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(M248:M254)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(M255:M261)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -19440,31 +19402,31 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="B1:M259"/>
+  <dimension ref="B1:M266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B248" sqref="B248:M255"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L258" sqref="L258"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="1"/>
+    <col min="14" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -19480,7 +19442,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -19498,7 +19460,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -19516,7 +19478,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -19532,13 +19494,13 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="13">
         <f>SUM(C6:C10)</f>
-        <v>1982183</v>
+        <v>2033732</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -19551,17 +19513,17 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="13">
         <f>D15</f>
-        <v>1792656</v>
+        <v>1834924</v>
       </c>
       <c r="D6" s="14">
         <f>C6/C5</f>
-        <v>0.90438471119972275</v>
+        <v>0.90224474021159129</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -19573,17 +19535,17 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="13">
         <f>F15</f>
-        <v>125645</v>
+        <v>134696</v>
       </c>
       <c r="D7" s="14">
         <f>C7/C5</f>
-        <v>6.3387184735213653E-2</v>
+        <v>6.6230948817248295E-2</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -19595,17 +19557,17 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="13">
         <f>H15</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="14">
         <f>C8/C5</f>
-        <v>1.1098874321896617E-5</v>
+        <v>1.1309258053666854E-5</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -19617,17 +19579,17 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="13">
         <f>J15</f>
-        <v>63860</v>
+        <v>64089</v>
       </c>
       <c r="D9" s="14">
         <f>C9/C5</f>
-        <v>3.2217005190741721E-2</v>
+        <v>3.1513001713106739E-2</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -19639,7 +19601,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -19661,13 +19623,13 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="15">
         <f>SUM(C6:C10)</f>
-        <v>1982183</v>
+        <v>2033732</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -19680,7 +19642,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -19694,7 +19656,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -19708,7 +19670,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
@@ -19724,53 +19686,53 @@
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
     </row>
-    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="17">
         <f>SUM(Tabla18[Total])</f>
-        <v>1982188.07</v>
+        <v>2033737.1</v>
       </c>
       <c r="D15" s="17">
         <f>SUM(Tabla18[Transactions 
 Complete])</f>
-        <v>1792656</v>
+        <v>1834924</v>
       </c>
       <c r="E15" s="18">
         <f>AVERAGE(Tabla18[%
 Complete])</f>
-        <v>0.88709002262568548</v>
+        <v>0.87506448109523272</v>
       </c>
       <c r="F15" s="17">
         <f>SUM(Tabla18[Transactions 
 Failed])</f>
-        <v>125645</v>
+        <v>134696</v>
       </c>
       <c r="G15" s="18">
         <f>AVERAGE(Tabla18[% 
 Failed])</f>
-        <v>5.3276908300109817E-2</v>
+        <v>5.4687922096927896E-2</v>
       </c>
       <c r="H15" s="17">
         <f>SUM(Tabla18[Transactions 
 In_Prog])</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I15" s="18">
         <f>AVERAGE(Tabla18[%
 In_Prog])</f>
-        <v>1.2962870869156738E-5</v>
+        <v>1.2993016588291456E-5</v>
       </c>
       <c r="J15" s="17">
         <f>SUM(Tabla18[Transactions 
 Timeout])</f>
-        <v>63860</v>
+        <v>64089</v>
       </c>
       <c r="K15" s="18">
         <f>AVERAGE(Tabla18[%
 Timeout])</f>
-        <v>3.0203522202598632E-2</v>
+        <v>2.9413595659922971E-2</v>
       </c>
       <c r="L15" s="17">
         <f>SUM(Tabla18[Transactions
@@ -19783,7 +19745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -19821,7 +19783,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24">
         <v>43101</v>
       </c>
@@ -19869,7 +19831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24">
         <v>43102</v>
       </c>
@@ -19917,7 +19879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24">
         <v>43103</v>
       </c>
@@ -19965,7 +19927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24">
         <v>43104</v>
       </c>
@@ -20013,7 +19975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24">
         <v>43105</v>
       </c>
@@ -20061,7 +20023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24">
         <v>43106</v>
       </c>
@@ -20109,7 +20071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" s="24">
         <v>43107</v>
       </c>
@@ -20157,7 +20119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B24" s="24">
         <v>43108</v>
       </c>
@@ -20205,7 +20167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B25" s="24">
         <v>43109</v>
       </c>
@@ -20253,7 +20215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24">
         <v>43110</v>
       </c>
@@ -20301,7 +20263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24">
         <v>43111</v>
       </c>
@@ -20349,7 +20311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24">
         <v>43112</v>
       </c>
@@ -20397,7 +20359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24">
         <v>43113</v>
       </c>
@@ -20445,7 +20407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B30" s="24">
         <v>43114</v>
       </c>
@@ -20493,7 +20455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30">
         <v>43115</v>
       </c>
@@ -20541,7 +20503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30">
         <v>43116</v>
       </c>
@@ -20589,7 +20551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" s="30">
         <v>43117</v>
       </c>
@@ -20637,7 +20599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B34" s="30">
         <v>43118</v>
       </c>
@@ -20685,7 +20647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B35" s="30">
         <v>43119</v>
       </c>
@@ -20733,7 +20695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B36" s="30">
         <v>43120</v>
       </c>
@@ -20781,7 +20743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B37" s="30">
         <v>43121</v>
       </c>
@@ -20829,7 +20791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B38" s="38">
         <v>43122</v>
       </c>
@@ -20877,7 +20839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B39" s="38">
         <v>43123</v>
       </c>
@@ -20925,7 +20887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B40" s="38">
         <v>43124</v>
       </c>
@@ -20973,7 +20935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B41" s="38">
         <v>43125</v>
       </c>
@@ -21021,7 +20983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B42" s="38">
         <v>43126</v>
       </c>
@@ -21069,7 +21031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B43" s="38">
         <v>43127</v>
       </c>
@@ -21117,7 +21079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B44" s="38">
         <v>43128</v>
       </c>
@@ -21165,7 +21127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B45" s="41">
         <v>43129</v>
       </c>
@@ -21213,7 +21175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B46" s="41">
         <v>43130</v>
       </c>
@@ -21261,7 +21223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" s="41">
         <v>43131</v>
       </c>
@@ -21309,7 +21271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" s="41">
         <v>43132</v>
       </c>
@@ -21357,7 +21319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" s="41">
         <v>43133</v>
       </c>
@@ -21405,7 +21367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" s="41">
         <v>43134</v>
       </c>
@@ -21453,7 +21415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B51" s="41">
         <v>43135</v>
       </c>
@@ -21501,7 +21463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B52" s="41">
         <v>43136</v>
       </c>
@@ -21549,7 +21511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B53" s="41">
         <v>43137</v>
       </c>
@@ -21597,7 +21559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B54" s="41">
         <v>43138</v>
       </c>
@@ -21645,7 +21607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B55" s="41">
         <v>43139</v>
       </c>
@@ -21693,7 +21655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B56" s="41">
         <v>43140</v>
       </c>
@@ -21741,7 +21703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B57" s="41">
         <v>43141</v>
       </c>
@@ -21789,7 +21751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B58" s="41">
         <v>43142</v>
       </c>
@@ -21837,7 +21799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B59" s="41">
         <v>43143</v>
       </c>
@@ -21885,7 +21847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B60" s="41">
         <v>43144</v>
       </c>
@@ -21933,7 +21895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B61" s="41">
         <v>43145</v>
       </c>
@@ -21981,7 +21943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B62" s="41">
         <v>43146</v>
       </c>
@@ -22029,7 +21991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B63" s="41">
         <v>43147</v>
       </c>
@@ -22077,7 +22039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B64" s="41">
         <v>43148</v>
       </c>
@@ -22125,7 +22087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" s="41">
         <v>43149</v>
       </c>
@@ -22173,7 +22135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B66" s="41">
         <v>43150</v>
       </c>
@@ -22221,7 +22183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" s="41">
         <v>43151</v>
       </c>
@@ -22269,7 +22231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B68" s="41">
         <v>43152</v>
       </c>
@@ -22317,7 +22279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" s="41">
         <v>43153</v>
       </c>
@@ -22365,7 +22327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B70" s="41">
         <v>43154</v>
       </c>
@@ -22413,7 +22375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B71" s="41">
         <v>43155</v>
       </c>
@@ -22461,7 +22423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B72" s="41">
         <v>43156</v>
       </c>
@@ -22509,7 +22471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B73" s="41">
         <v>43157</v>
       </c>
@@ -22557,7 +22519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B74" s="41">
         <v>43158</v>
       </c>
@@ -22605,7 +22567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B75" s="41">
         <v>43159</v>
       </c>
@@ -22653,7 +22615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B76" s="41">
         <v>43160</v>
       </c>
@@ -22701,7 +22663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B77" s="41">
         <v>43161</v>
       </c>
@@ -22749,7 +22711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B78" s="41">
         <v>43162</v>
       </c>
@@ -22797,7 +22759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B79" s="41">
         <v>43163</v>
       </c>
@@ -22845,7 +22807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B80" s="41">
         <v>43164</v>
       </c>
@@ -22893,7 +22855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B81" s="41">
         <v>43165</v>
       </c>
@@ -22941,7 +22903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B82" s="41">
         <v>43166</v>
       </c>
@@ -22989,7 +22951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B83" s="41">
         <v>43167</v>
       </c>
@@ -23037,7 +22999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B84" s="41">
         <v>43168</v>
       </c>
@@ -23085,7 +23047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B85" s="41">
         <v>43169</v>
       </c>
@@ -23133,7 +23095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" s="41">
         <v>43170</v>
       </c>
@@ -23181,7 +23143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B87" s="41">
         <v>43171</v>
       </c>
@@ -23229,7 +23191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B88" s="41">
         <v>43172</v>
       </c>
@@ -23277,7 +23239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B89" s="41">
         <v>43173</v>
       </c>
@@ -23325,7 +23287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B90" s="41">
         <v>43174</v>
       </c>
@@ -23373,7 +23335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B91" s="41">
         <v>43175</v>
       </c>
@@ -23421,7 +23383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B92" s="41">
         <v>43176</v>
       </c>
@@ -23469,7 +23431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" s="41">
         <v>43177</v>
       </c>
@@ -23517,7 +23479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B94" s="53">
         <v>43178</v>
       </c>
@@ -23565,7 +23527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B95" s="53">
         <v>43179</v>
       </c>
@@ -23613,7 +23575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B96" s="53">
         <v>43180</v>
       </c>
@@ -23661,7 +23623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B97" s="53">
         <v>43181</v>
       </c>
@@ -23709,7 +23671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B98" s="53">
         <v>43182</v>
       </c>
@@ -23757,7 +23719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B99" s="53">
         <v>43183</v>
       </c>
@@ -23805,7 +23767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B100" s="53">
         <v>43184</v>
       </c>
@@ -23853,7 +23815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B101" s="53">
         <v>43185</v>
       </c>
@@ -23901,7 +23863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B102" s="53">
         <v>43186</v>
       </c>
@@ -23949,7 +23911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" s="53">
         <v>43187</v>
       </c>
@@ -23997,7 +23959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" s="53">
         <v>43188</v>
       </c>
@@ -24045,7 +24007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B105" s="53">
         <v>43189</v>
       </c>
@@ -24093,7 +24055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B106" s="53">
         <v>43190</v>
       </c>
@@ -24141,7 +24103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B107" s="53">
         <v>43191</v>
       </c>
@@ -24189,7 +24151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B108" s="53">
         <v>43192</v>
       </c>
@@ -24237,7 +24199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B109" s="53">
         <v>43193</v>
       </c>
@@ -24285,7 +24247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B110" s="53">
         <v>43194</v>
       </c>
@@ -24333,7 +24295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B111" s="53">
         <v>43195</v>
       </c>
@@ -24381,7 +24343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B112" s="53">
         <v>43196</v>
       </c>
@@ -24429,7 +24391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B113" s="53">
         <v>43197</v>
       </c>
@@ -24477,7 +24439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B114" s="53">
         <v>43198</v>
       </c>
@@ -24525,7 +24487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B115" s="53">
         <v>43199</v>
       </c>
@@ -24573,7 +24535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B116" s="53">
         <v>43200</v>
       </c>
@@ -24621,7 +24583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B117" s="53">
         <v>43201</v>
       </c>
@@ -24661,7 +24623,7 @@
         <v>1.9376715646697885E-3</v>
       </c>
       <c r="L117" s="50">
-        <f>C826</f>
+        <f>C833</f>
         <v>0</v>
       </c>
       <c r="M117" s="35">
@@ -24670,7 +24632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B118" s="53">
         <v>43202</v>
       </c>
@@ -24718,7 +24680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B119" s="53">
         <v>43203</v>
       </c>
@@ -24766,7 +24728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B120" s="53">
         <v>43204</v>
       </c>
@@ -24814,7 +24776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B121" s="53">
         <v>43205</v>
       </c>
@@ -24862,7 +24824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B122" s="53">
         <v>43206</v>
       </c>
@@ -24910,7 +24872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B123" s="53">
         <v>43207</v>
       </c>
@@ -24958,7 +24920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B124" s="53">
         <v>43208</v>
       </c>
@@ -25006,7 +24968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B125" s="53">
         <v>43209</v>
       </c>
@@ -25054,7 +25016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B126" s="53">
         <v>43210</v>
       </c>
@@ -25102,7 +25064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B127" s="53">
         <v>43211</v>
       </c>
@@ -25150,7 +25112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B128" s="53">
         <v>43212</v>
       </c>
@@ -25198,7 +25160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" s="53">
         <v>43213</v>
       </c>
@@ -25246,7 +25208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B130" s="53">
         <v>43214</v>
       </c>
@@ -25294,7 +25256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" s="53">
         <v>43215</v>
       </c>
@@ -25342,7 +25304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B132" s="53">
         <v>43216</v>
       </c>
@@ -25390,7 +25352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B133" s="53">
         <v>43217</v>
       </c>
@@ -25438,7 +25400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B134" s="53">
         <v>43218</v>
       </c>
@@ -25486,7 +25448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B135" s="53">
         <v>43219</v>
       </c>
@@ -25534,7 +25496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B136" s="53">
         <v>43220</v>
       </c>
@@ -25582,7 +25544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B137" s="53">
         <v>43221</v>
       </c>
@@ -25630,7 +25592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B138" s="53">
         <v>43222</v>
       </c>
@@ -25678,7 +25640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B139" s="53">
         <v>43223</v>
       </c>
@@ -25726,7 +25688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B140" s="53">
         <v>43224</v>
       </c>
@@ -25774,7 +25736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B141" s="53">
         <v>43225</v>
       </c>
@@ -25822,7 +25784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B142" s="53">
         <v>43226</v>
       </c>
@@ -25870,7 +25832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B143" s="59">
         <v>43227</v>
       </c>
@@ -25918,7 +25880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B144" s="59">
         <v>43228</v>
       </c>
@@ -25966,7 +25928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B145" s="59">
         <v>43229</v>
       </c>
@@ -26014,7 +25976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B146" s="59">
         <v>43230</v>
       </c>
@@ -26062,7 +26024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B147" s="59">
         <v>43231</v>
       </c>
@@ -26110,7 +26072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B148" s="59">
         <v>43232</v>
       </c>
@@ -26158,7 +26120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B149" s="41">
         <v>43233</v>
       </c>
@@ -26206,7 +26168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B150" s="41">
         <v>43234</v>
       </c>
@@ -26254,7 +26216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B151" s="41">
         <v>43235</v>
       </c>
@@ -26302,7 +26264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B152" s="41">
         <v>43236</v>
       </c>
@@ -26350,7 +26312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B153" s="41">
         <v>43237</v>
       </c>
@@ -26398,7 +26360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B154" s="41">
         <v>43238</v>
       </c>
@@ -26446,7 +26408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B155" s="41">
         <v>43239</v>
       </c>
@@ -26494,7 +26456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B156" s="41">
         <v>43240</v>
       </c>
@@ -26542,7 +26504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B157" s="41">
         <v>43241</v>
       </c>
@@ -26590,7 +26552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B158" s="41">
         <v>43242</v>
       </c>
@@ -26638,7 +26600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B159" s="41">
         <v>43243</v>
       </c>
@@ -26686,7 +26648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B160" s="41">
         <v>43244</v>
       </c>
@@ -26734,7 +26696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B161" s="41">
         <v>43245</v>
       </c>
@@ -26782,7 +26744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B162" s="41">
         <v>43246</v>
       </c>
@@ -26830,7 +26792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B163" s="41">
         <v>43247</v>
       </c>
@@ -26878,7 +26840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B164" s="41">
         <v>43248</v>
       </c>
@@ -26926,7 +26888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B165" s="41">
         <v>43249</v>
       </c>
@@ -26974,7 +26936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B166" s="41">
         <v>43250</v>
       </c>
@@ -27022,7 +26984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B167" s="41">
         <v>43251</v>
       </c>
@@ -27070,7 +27032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B168" s="41">
         <v>43252</v>
       </c>
@@ -27118,7 +27080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B169" s="41">
         <v>43253</v>
       </c>
@@ -27166,7 +27128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B170" s="41">
         <v>43254</v>
       </c>
@@ -27214,7 +27176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B171" s="41">
         <v>43255</v>
       </c>
@@ -27262,7 +27224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B172" s="41">
         <v>43256</v>
       </c>
@@ -27310,7 +27272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B173" s="41">
         <v>43257</v>
       </c>
@@ -27358,7 +27320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B174" s="41">
         <v>43258</v>
       </c>
@@ -27406,7 +27368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B175" s="41">
         <v>43259</v>
       </c>
@@ -27454,7 +27416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B176" s="41">
         <v>43260</v>
       </c>
@@ -27502,7 +27464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B177" s="41">
         <v>43261</v>
       </c>
@@ -27550,7 +27512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B178" s="41">
         <v>43262</v>
       </c>
@@ -27598,7 +27560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B179" s="41">
         <v>43263</v>
       </c>
@@ -27646,7 +27608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B180" s="41">
         <v>43264</v>
       </c>
@@ -27694,7 +27656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B181" s="41">
         <v>43265</v>
       </c>
@@ -27742,7 +27704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B182" s="41">
         <v>43266</v>
       </c>
@@ -27790,7 +27752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B183" s="41">
         <v>43267</v>
       </c>
@@ -27838,7 +27800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B184" s="41">
         <v>43268</v>
       </c>
@@ -27886,7 +27848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B185" s="79">
         <v>43269</v>
       </c>
@@ -27934,7 +27896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B186" s="79">
         <v>43270</v>
       </c>
@@ -27982,7 +27944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B187" s="79">
         <v>43271</v>
       </c>
@@ -28030,7 +27992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B188" s="79">
         <v>43272</v>
       </c>
@@ -28078,7 +28040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B189" s="79">
         <v>43273</v>
       </c>
@@ -28126,7 +28088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B190" s="79">
         <v>43274</v>
       </c>
@@ -28174,7 +28136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B191" s="79">
         <v>43275</v>
       </c>
@@ -28222,7 +28184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B192" s="79">
         <v>43276</v>
       </c>
@@ -28270,7 +28232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B193" s="79">
         <v>43277</v>
       </c>
@@ -28318,7 +28280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B194" s="79">
         <v>43278</v>
       </c>
@@ -28366,7 +28328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B195" s="79">
         <v>43279</v>
       </c>
@@ -28414,7 +28376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B196" s="79">
         <v>43280</v>
       </c>
@@ -28462,7 +28424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B197" s="79">
         <v>43281</v>
       </c>
@@ -28510,7 +28472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B198" s="79">
         <v>43282</v>
       </c>
@@ -28558,7 +28520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B199" s="79">
         <v>43283</v>
       </c>
@@ -28606,7 +28568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B200" s="79">
         <v>43284</v>
       </c>
@@ -28654,7 +28616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B201" s="79">
         <v>43285</v>
       </c>
@@ -28702,7 +28664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B202" s="79">
         <v>43286</v>
       </c>
@@ -28750,7 +28712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B203" s="79">
         <v>43287</v>
       </c>
@@ -28798,7 +28760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B204" s="79">
         <v>43288</v>
       </c>
@@ -28846,7 +28808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B205" s="79">
         <v>43289</v>
       </c>
@@ -28894,7 +28856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B206" s="79">
         <v>43290</v>
       </c>
@@ -28942,7 +28904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B207" s="79">
         <v>43291</v>
       </c>
@@ -28990,7 +28952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B208" s="79">
         <v>43292</v>
       </c>
@@ -29038,7 +29000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B209" s="79">
         <v>43293</v>
       </c>
@@ -29086,7 +29048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B210" s="79">
         <v>43294</v>
       </c>
@@ -29134,7 +29096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B211" s="79">
         <v>43295</v>
       </c>
@@ -29182,7 +29144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B212" s="79">
         <v>43296</v>
       </c>
@@ -29230,7 +29192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B213" s="79">
         <v>43297</v>
       </c>
@@ -29278,7 +29240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B214" s="79">
         <v>43298</v>
       </c>
@@ -29326,7 +29288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B215" s="79">
         <v>43299</v>
       </c>
@@ -29374,7 +29336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B216" s="79">
         <v>43300</v>
       </c>
@@ -29422,7 +29384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B217" s="79">
         <v>43301</v>
       </c>
@@ -29470,7 +29432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B218" s="79">
         <v>43302</v>
       </c>
@@ -29518,7 +29480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B219" s="79">
         <v>43303</v>
       </c>
@@ -29566,7 +29528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B220" s="79">
         <v>43304</v>
       </c>
@@ -29614,7 +29576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B221" s="79">
         <v>43305</v>
       </c>
@@ -29662,7 +29624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B222" s="79">
         <v>43306</v>
       </c>
@@ -29710,7 +29672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B223" s="79">
         <v>43307</v>
       </c>
@@ -29758,7 +29720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B224" s="79">
         <v>43308</v>
       </c>
@@ -29806,7 +29768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B225" s="79">
         <v>43309</v>
       </c>
@@ -29854,7 +29816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B226" s="79">
         <v>43310</v>
       </c>
@@ -29902,7 +29864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B227" s="79">
         <v>43311</v>
       </c>
@@ -29950,7 +29912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B228" s="79">
         <v>43312</v>
       </c>
@@ -29998,7 +29960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B229" s="79">
         <v>43313</v>
       </c>
@@ -30046,7 +30008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B230" s="79">
         <v>43314</v>
       </c>
@@ -30094,7 +30056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B231" s="79">
         <v>43315</v>
       </c>
@@ -30142,7 +30104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B232" s="79">
         <v>43316</v>
       </c>
@@ -30190,7 +30152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B233" s="79">
         <v>43317</v>
       </c>
@@ -30238,7 +30200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B234" s="79">
         <v>43318</v>
       </c>
@@ -30286,7 +30248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B235" s="79">
         <v>43319</v>
       </c>
@@ -30334,7 +30296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B236" s="79">
         <v>43320</v>
       </c>
@@ -30382,7 +30344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B237" s="79">
         <v>43321</v>
       </c>
@@ -30430,7 +30392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B238" s="79">
         <v>43322</v>
       </c>
@@ -30478,7 +30440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B239" s="79">
         <v>43323</v>
       </c>
@@ -30526,7 +30488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B240" s="79">
         <v>43324</v>
       </c>
@@ -30574,7 +30536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B241" s="79">
         <v>43325</v>
       </c>
@@ -30622,7 +30584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B242" s="79">
         <v>43326</v>
       </c>
@@ -30670,7 +30632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B243" s="79">
         <v>43327</v>
       </c>
@@ -30718,7 +30680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B244" s="79">
         <v>43328</v>
       </c>
@@ -30766,7 +30728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B245" s="79">
         <v>43329</v>
       </c>
@@ -30814,7 +30776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B246" s="79">
         <v>43330</v>
       </c>
@@ -30862,7 +30824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B247" s="79">
         <v>43331</v>
       </c>
@@ -30910,7 +30872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B248" s="79">
         <v>43332</v>
       </c>
@@ -30958,7 +30920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B249" s="79">
         <v>43333</v>
       </c>
@@ -31006,7 +30968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B250" s="79">
         <v>43334</v>
       </c>
@@ -31054,7 +31016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B251" s="79">
         <v>43335</v>
       </c>
@@ -31102,7 +31064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B252" s="79">
         <v>43336</v>
       </c>
@@ -31150,7 +31112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B253" s="79">
         <v>43337</v>
       </c>
@@ -31198,7 +31160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:13" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B254" s="79">
         <v>43338</v>
       </c>
@@ -31246,66 +31208,372 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B255" s="29" t="s">
+    <row r="255" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B255" s="79">
+        <v>43339</v>
+      </c>
+      <c r="C255" s="120">
+        <v>13043</v>
+      </c>
+      <c r="D255" s="120">
+        <v>10562</v>
+      </c>
+      <c r="E255" s="121">
+        <f>Tabla18[Transactions 
+Complete]/Tabla18[Total]</f>
+        <v>0.80978302537759717</v>
+      </c>
+      <c r="F255" s="120">
+        <v>2408</v>
+      </c>
+      <c r="G255" s="121">
+        <f>Tabla18[Transactions 
+Failed]/Tabla18[Total]</f>
+        <v>0.18462010273710036</v>
+      </c>
+      <c r="H255" s="120">
+        <v>0</v>
+      </c>
+      <c r="I255" s="121">
+        <f>Tabla18[Transactions 
+In_Prog]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J255" s="120">
+        <v>73</v>
+      </c>
+      <c r="K255" s="121">
+        <f>Tabla18[Transactions 
+Timeout]/Tabla18[Total]</f>
+        <v>5.5968718853024613E-3</v>
+      </c>
+      <c r="L255" s="120">
+        <v>0</v>
+      </c>
+      <c r="M255" s="121">
+        <f>Tabla18[Transactions
+Trans Fail]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B256" s="79">
+        <v>43340</v>
+      </c>
+      <c r="C256" s="120">
+        <v>14275</v>
+      </c>
+      <c r="D256" s="120">
+        <v>11952</v>
+      </c>
+      <c r="E256" s="121">
+        <f>Tabla18[Transactions 
+Complete]/Tabla18[Total]</f>
+        <v>0.83726795096322237</v>
+      </c>
+      <c r="F256" s="120">
+        <v>2278</v>
+      </c>
+      <c r="G256" s="121">
+        <f>Tabla18[Transactions 
+Failed]/Tabla18[Total]</f>
+        <v>0.15957968476357268</v>
+      </c>
+      <c r="H256" s="120">
+        <v>0</v>
+      </c>
+      <c r="I256" s="121">
+        <f>Tabla18[Transactions 
+In_Prog]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J256" s="120">
+        <v>45</v>
+      </c>
+      <c r="K256" s="121">
+        <f>Tabla18[Transactions 
+Timeout]/Tabla18[Total]</f>
+        <v>3.1523642732049035E-3</v>
+      </c>
+      <c r="L256" s="120">
+        <v>0</v>
+      </c>
+      <c r="M256" s="121">
+        <f>Tabla18[Transactions
+Trans Fail]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B257" s="79">
+        <v>43341</v>
+      </c>
+      <c r="C257" s="120">
+        <v>10191</v>
+      </c>
+      <c r="D257" s="120">
+        <v>7782</v>
+      </c>
+      <c r="E257" s="121">
+        <f>Tabla18[Transactions 
+Complete]/Tabla18[Total]</f>
+        <v>0.76361495437150428</v>
+      </c>
+      <c r="F257" s="120">
+        <v>2362</v>
+      </c>
+      <c r="G257" s="121">
+        <f>Tabla18[Transactions 
+Failed]/Tabla18[Total]</f>
+        <v>0.23177313315670689</v>
+      </c>
+      <c r="H257" s="120">
+        <v>1</v>
+      </c>
+      <c r="I257" s="121">
+        <f>Tabla18[Transactions 
+In_Prog]/Tabla18[Total]</f>
+        <v>9.8125797272102829E-5</v>
+      </c>
+      <c r="J257" s="120">
+        <v>46</v>
+      </c>
+      <c r="K257" s="121">
+        <f>Tabla18[Transactions 
+Timeout]/Tabla18[Total]</f>
+        <v>4.5137866745167303E-3</v>
+      </c>
+      <c r="L257" s="120">
+        <v>0</v>
+      </c>
+      <c r="M257" s="121">
+        <f>Tabla18[Transactions
+Trans Fail]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B258" s="79">
+        <v>43342</v>
+      </c>
+      <c r="C258" s="120">
+        <v>14040</v>
+      </c>
+      <c r="D258" s="120">
+        <v>11972</v>
+      </c>
+      <c r="E258" s="121">
+        <f>Tabla18[Transactions 
+Complete]/Tabla18[Total]</f>
+        <v>0.85270655270655271</v>
+      </c>
+      <c r="F258" s="120">
+        <v>2003</v>
+      </c>
+      <c r="G258" s="121">
+        <f>Tabla18[Transactions 
+Failed]/Tabla18[Total]</f>
+        <v>0.14266381766381767</v>
+      </c>
+      <c r="H258" s="120">
+        <v>0</v>
+      </c>
+      <c r="I258" s="121">
+        <f>Tabla18[Transactions 
+In_Prog]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J258" s="120">
+        <v>65</v>
+      </c>
+      <c r="K258" s="121">
+        <f>Tabla18[Transactions 
+Timeout]/Tabla18[Total]</f>
+        <v>4.6296296296296294E-3</v>
+      </c>
+      <c r="L258" s="120">
+        <v>0</v>
+      </c>
+      <c r="M258" s="121">
+        <f>Tabla18[Transactions
+Trans Fail]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B259" s="79">
+        <v>43343</v>
+      </c>
+      <c r="C259" s="120">
+        <v>0.01</v>
+      </c>
+      <c r="D259" s="120"/>
+      <c r="E259" s="121">
+        <f>Tabla18[Transactions 
+Complete]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="F259" s="120"/>
+      <c r="G259" s="121">
+        <f>Tabla18[Transactions 
+Failed]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="H259" s="120"/>
+      <c r="I259" s="121">
+        <f>Tabla18[Transactions 
+In_Prog]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J259" s="120"/>
+      <c r="K259" s="121">
+        <f>Tabla18[Transactions 
+Timeout]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="L259" s="120"/>
+      <c r="M259" s="121">
+        <f>Tabla18[Transactions
+Trans Fail]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B260" s="79">
+        <v>43344</v>
+      </c>
+      <c r="C260" s="120">
+        <v>0.01</v>
+      </c>
+      <c r="D260" s="120"/>
+      <c r="E260" s="121">
+        <f>Tabla18[Transactions 
+Complete]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="F260" s="120"/>
+      <c r="G260" s="121">
+        <f>Tabla18[Transactions 
+Failed]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="H260" s="120"/>
+      <c r="I260" s="121">
+        <f>Tabla18[Transactions 
+In_Prog]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J260" s="120"/>
+      <c r="K260" s="121">
+        <f>Tabla18[Transactions 
+Timeout]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="L260" s="120"/>
+      <c r="M260" s="121">
+        <f>Tabla18[Transactions
+Trans Fail]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B261" s="79">
+        <v>43345</v>
+      </c>
+      <c r="C261" s="120">
+        <v>0.01</v>
+      </c>
+      <c r="D261" s="120"/>
+      <c r="E261" s="121">
+        <f>Tabla18[Transactions 
+Complete]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="F261" s="120"/>
+      <c r="G261" s="121">
+        <f>Tabla18[Transactions 
+Failed]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="H261" s="120"/>
+      <c r="I261" s="121">
+        <f>Tabla18[Transactions 
+In_Prog]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="J261" s="120"/>
+      <c r="K261" s="121">
+        <f>Tabla18[Transactions 
+Timeout]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+      <c r="L261" s="120"/>
+      <c r="M261" s="121">
+        <f>Tabla18[Transactions
+Trans Fail]/Tabla18[Total]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="2:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="B262" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C255" s="39">
-        <f>SUM(C248:C254)</f>
-        <v>53342</v>
-      </c>
-      <c r="D255" s="39">
-        <f>SUM(D248:D254)</f>
-        <v>46087</v>
-      </c>
-      <c r="E255" s="36">
-        <f>AVERAGE(E248:E254)</f>
-        <v>0.85939261762810948</v>
-      </c>
-      <c r="F255" s="39">
-        <f>SUM(F248:F254)</f>
-        <v>6972</v>
-      </c>
-      <c r="G255" s="36">
-        <f>AVERAGE(G248:G254)</f>
-        <v>0.13458303966458421</v>
-      </c>
-      <c r="H255" s="39">
-        <f>SUM(H248:H254)</f>
-        <v>0</v>
-      </c>
-      <c r="I255" s="36">
-        <f>AVERAGE(I248:I254)</f>
-        <v>0</v>
-      </c>
-      <c r="J255" s="39">
-        <f>SUM(J248:J254)</f>
-        <v>283</v>
-      </c>
-      <c r="K255" s="36">
-        <f>AVERAGE(K248:K254)</f>
-        <v>6.0243427073063101E-3</v>
-      </c>
-      <c r="L255" s="39">
-        <f>SUM(L248:L254)</f>
-        <v>0</v>
-      </c>
-      <c r="M255" s="36">
-        <f>AVERAGE(M248:M254)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E256" s="26"/>
-    </row>
-    <row r="257" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E257" s="26"/>
-    </row>
-    <row r="258" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E258" s="26"/>
-    </row>
-    <row r="259" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E259" s="26"/>
+      <c r="C262" s="39">
+        <f>SUM(C255:C261)</f>
+        <v>51549.030000000006</v>
+      </c>
+      <c r="D262" s="39">
+        <f>SUM(D255:D261)</f>
+        <v>42268</v>
+      </c>
+      <c r="E262" s="36">
+        <f>AVERAGE(E255:E261)</f>
+        <v>0.46619606905983957</v>
+      </c>
+      <c r="F262" s="39">
+        <f>SUM(F255:F261)</f>
+        <v>9051</v>
+      </c>
+      <c r="G262" s="36">
+        <f>AVERAGE(G255:G261)</f>
+        <v>0.10266239118874251</v>
+      </c>
+      <c r="H262" s="39">
+        <f>SUM(H255:H261)</f>
+        <v>1</v>
+      </c>
+      <c r="I262" s="36">
+        <f>AVERAGE(I255:I261)</f>
+        <v>1.4017971038871832E-5</v>
+      </c>
+      <c r="J262" s="39">
+        <f>SUM(J255:J261)</f>
+        <v>229</v>
+      </c>
+      <c r="K262" s="36">
+        <f>AVERAGE(K255:K261)</f>
+        <v>2.556093208950532E-3</v>
+      </c>
+      <c r="L262" s="39">
+        <f>SUM(L255:L261)</f>
+        <v>0</v>
+      </c>
+      <c r="M262" s="36">
+        <f>AVERAGE(M255:M261)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E263" s="26"/>
+    </row>
+    <row r="264" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E264" s="26"/>
+    </row>
+    <row r="265" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E265" s="26"/>
+    </row>
+    <row r="266" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E266" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -31328,12 +31596,12 @@
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="44">
         <v>43101</v>
       </c>
@@ -31371,7 +31639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="47">
         <v>43102</v>
       </c>
@@ -31409,7 +31677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="44">
         <v>43103</v>
       </c>
@@ -31447,7 +31715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="47">
         <v>43104</v>
       </c>
@@ -31485,7 +31753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="44">
         <v>43105</v>
       </c>
@@ -31523,7 +31791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="47">
         <v>43106</v>
       </c>
@@ -31561,7 +31829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="44">
         <v>43107</v>
       </c>
@@ -31599,7 +31867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="47">
         <v>43108</v>
       </c>
@@ -31637,7 +31905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="44">
         <v>43109</v>
       </c>
@@ -31675,7 +31943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="47">
         <v>43110</v>
       </c>
@@ -31713,7 +31981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="44">
         <v>43111</v>
       </c>
@@ -31751,7 +32019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="47">
         <v>43112</v>
       </c>
@@ -31789,7 +32057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="44">
         <v>43113</v>
       </c>
@@ -31827,7 +32095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="47">
         <v>43114</v>
       </c>
@@ -31865,7 +32133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="44">
         <v>43115</v>
       </c>
@@ -31903,7 +32171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="47">
         <v>43116</v>
       </c>
@@ -31941,7 +32209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="44">
         <v>43117</v>
       </c>
@@ -31979,7 +32247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="47">
         <v>43118</v>
       </c>
@@ -32017,7 +32285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="44">
         <v>43119</v>
       </c>
@@ -32055,7 +32323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="47">
         <v>43120</v>
       </c>
@@ -32093,7 +32361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="44">
         <v>43121</v>
       </c>
@@ -32131,7 +32399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="47">
         <v>43122</v>
       </c>
@@ -32169,7 +32437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="44">
         <v>43123</v>
       </c>
@@ -32207,7 +32475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="47">
         <v>43124</v>
       </c>
@@ -32245,7 +32513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="44">
         <v>43125</v>
       </c>
@@ -32283,7 +32551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="47">
         <v>43126</v>
       </c>
@@ -32321,7 +32589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="44">
         <v>43127</v>
       </c>
@@ -32359,7 +32627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="47">
         <v>43128</v>
       </c>
@@ -32397,7 +32665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="44">
         <v>43129</v>
       </c>
@@ -32435,7 +32703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="47">
         <v>43130</v>
       </c>
@@ -32473,7 +32741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="44">
         <v>43131</v>
       </c>
@@ -32511,7 +32779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B32" s="48">
         <f>SUM(B1:B31)</f>
         <v>272552</v>
@@ -32574,25 +32842,25 @@
       <selection activeCell="B15" sqref="B15:M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="33"/>
+    <col min="14" max="16384" width="11.5" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -32608,7 +32876,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -32626,7 +32894,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -32644,7 +32912,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -32660,7 +32928,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -32679,7 +32947,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -32701,7 +32969,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
@@ -32723,7 +32991,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -32745,7 +33013,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -32767,7 +33035,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -32789,7 +33057,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -32808,7 +33076,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -32822,7 +33090,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -32836,7 +33104,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
@@ -32852,7 +33120,7 @@
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
     </row>
-    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
@@ -32901,7 +33169,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -32939,7 +33207,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="41">
         <v>43132</v>
       </c>
@@ -32982,7 +33250,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="41">
         <v>43133</v>
       </c>
@@ -33025,7 +33293,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="41">
         <v>43134</v>
       </c>
@@ -33068,7 +33336,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="41">
         <v>43135</v>
       </c>
@@ -33111,7 +33379,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="41">
         <v>43136</v>
       </c>
@@ -33154,7 +33422,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="41">
         <v>43137</v>
       </c>
@@ -33197,7 +33465,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="41">
         <v>43138</v>
       </c>
@@ -33240,7 +33508,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="41">
         <v>43139</v>
       </c>
@@ -33283,7 +33551,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="41">
         <v>43140</v>
       </c>
@@ -33326,7 +33594,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="41">
         <v>43141</v>
       </c>
@@ -33369,7 +33637,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="41">
         <v>43142</v>
       </c>
@@ -33412,7 +33680,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="41">
         <v>43143</v>
       </c>
@@ -33455,7 +33723,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="41">
         <v>43144</v>
       </c>
@@ -33498,7 +33766,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="41">
         <v>43145</v>
       </c>
@@ -33541,7 +33809,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="41">
         <v>43146</v>
       </c>
@@ -33584,7 +33852,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="41">
         <v>43147</v>
       </c>
@@ -33627,7 +33895,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="41">
         <v>43148</v>
       </c>
@@ -33670,7 +33938,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="41">
         <v>43149</v>
       </c>
@@ -33713,7 +33981,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="41">
         <v>43150</v>
       </c>
@@ -33756,7 +34024,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="41">
         <v>43151</v>
       </c>
@@ -33799,7 +34067,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="41">
         <v>43152</v>
       </c>
@@ -33842,7 +34110,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="41">
         <v>43153</v>
       </c>
@@ -33885,7 +34153,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="41">
         <v>43154</v>
       </c>
@@ -33928,7 +34196,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="41">
         <v>43155</v>
       </c>
@@ -33971,7 +34239,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="41">
         <v>43156</v>
       </c>
@@ -34014,7 +34282,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="41">
         <v>43157</v>
       </c>
@@ -34057,7 +34325,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="41">
         <v>43158</v>
       </c>
@@ -34100,7 +34368,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="41">
         <v>43159</v>
       </c>
@@ -34143,7 +34411,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" ht="24" x14ac:dyDescent="0.2">
       <c r="B45" s="29" t="s">
         <v>26</v>
       </c>
@@ -34192,16 +34460,16 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E46" s="26"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E47" s="26"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E48" s="26"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E49" s="26"/>
     </row>
   </sheetData>
@@ -34228,25 +34496,25 @@
       <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="33"/>
+    <col min="14" max="16384" width="11.5" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -34262,7 +34530,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -34280,7 +34548,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -34298,7 +34566,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -34314,7 +34582,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -34333,7 +34601,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -34355,7 +34623,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
@@ -34377,7 +34645,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -34399,7 +34667,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -34421,7 +34689,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -34443,7 +34711,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -34462,7 +34730,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -34476,7 +34744,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -34490,7 +34758,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
@@ -34506,7 +34774,7 @@
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
     </row>
-    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
@@ -34555,7 +34823,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -34593,7 +34861,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="41">
         <v>43160</v>
       </c>
@@ -34636,7 +34904,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="41">
         <v>43161</v>
       </c>
@@ -34679,7 +34947,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="41">
         <v>43162</v>
       </c>
@@ -34722,7 +34990,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="41">
         <v>43163</v>
       </c>
@@ -34765,7 +35033,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="41">
         <v>43164</v>
       </c>
@@ -34808,7 +35076,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="41">
         <v>43165</v>
       </c>
@@ -34851,7 +35119,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="41">
         <v>43166</v>
       </c>
@@ -34894,7 +35162,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="41">
         <v>43167</v>
       </c>
@@ -34937,7 +35205,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="41">
         <v>43168</v>
       </c>
@@ -34980,7 +35248,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="41">
         <v>43169</v>
       </c>
@@ -35023,7 +35291,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="41">
         <v>43170</v>
       </c>
@@ -35066,7 +35334,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="41">
         <v>43171</v>
       </c>
@@ -35109,7 +35377,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="41">
         <v>43172</v>
       </c>
@@ -35152,7 +35420,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="41">
         <v>43173</v>
       </c>
@@ -35195,7 +35463,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="41">
         <v>43174</v>
       </c>
@@ -35238,7 +35506,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="41">
         <v>43175</v>
       </c>
@@ -35281,7 +35549,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="41">
         <v>43176</v>
       </c>
@@ -35324,7 +35592,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="41">
         <v>43177</v>
       </c>
@@ -35367,7 +35635,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="53">
         <v>43178</v>
       </c>
@@ -35410,7 +35678,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="53">
         <v>43179</v>
       </c>
@@ -35453,7 +35721,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="53">
         <v>43180</v>
       </c>
@@ -35496,7 +35764,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="53">
         <v>43181</v>
       </c>
@@ -35539,7 +35807,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="53">
         <v>43182</v>
       </c>
@@ -35582,7 +35850,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="53">
         <v>43183</v>
       </c>
@@ -35625,7 +35893,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="53">
         <v>43184</v>
       </c>
@@ -35668,7 +35936,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="53">
         <v>43185</v>
       </c>
@@ -35711,7 +35979,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="53">
         <v>43186</v>
       </c>
@@ -35754,7 +36022,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="53">
         <v>43187</v>
       </c>
@@ -35797,7 +36065,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="53">
         <v>43188</v>
       </c>
@@ -35840,7 +36108,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="53">
         <v>43189</v>
       </c>
@@ -35883,7 +36151,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" s="53">
         <v>43190</v>
       </c>
@@ -35926,7 +36194,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" ht="24" x14ac:dyDescent="0.2">
       <c r="B48" s="54" t="s">
         <v>26</v>
       </c>
@@ -35975,16 +36243,16 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E49" s="26"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E51" s="26"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E52" s="26"/>
     </row>
   </sheetData>
@@ -36011,25 +36279,25 @@
       <selection activeCell="B17" sqref="B17:M47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="33"/>
+    <col min="14" max="16384" width="11.5" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -36045,7 +36313,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -36063,7 +36331,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -36081,7 +36349,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -36097,7 +36365,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -36116,7 +36384,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -36138,7 +36406,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
@@ -36160,7 +36428,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -36182,7 +36450,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -36204,7 +36472,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -36226,7 +36494,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -36245,7 +36513,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -36259,7 +36527,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -36273,7 +36541,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
@@ -36289,7 +36557,7 @@
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
     </row>
-    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
@@ -36338,7 +36606,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -36376,7 +36644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="53">
         <v>43191</v>
       </c>
@@ -36419,7 +36687,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="53">
         <v>43192</v>
       </c>
@@ -36462,7 +36730,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="53">
         <v>43193</v>
       </c>
@@ -36505,7 +36773,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="53">
         <v>43194</v>
       </c>
@@ -36548,7 +36816,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="53">
         <v>43195</v>
       </c>
@@ -36591,7 +36859,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="53">
         <v>43196</v>
       </c>
@@ -36634,7 +36902,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="53">
         <v>43197</v>
       </c>
@@ -36677,7 +36945,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="53">
         <v>43198</v>
       </c>
@@ -36720,7 +36988,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="53">
         <v>43199</v>
       </c>
@@ -36763,7 +37031,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="53">
         <v>43200</v>
       </c>
@@ -36806,7 +37074,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="53">
         <v>43201</v>
       </c>
@@ -36850,7 +37118,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="53">
         <v>43202</v>
       </c>
@@ -36893,7 +37161,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="53">
         <v>43203</v>
       </c>
@@ -36936,7 +37204,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="53">
         <v>43204</v>
       </c>
@@ -36979,7 +37247,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="53">
         <v>43205</v>
       </c>
@@ -37022,7 +37290,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="53">
         <v>43206</v>
       </c>
@@ -37065,7 +37333,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="53">
         <v>43207</v>
       </c>
@@ -37108,7 +37376,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="53">
         <v>43208</v>
       </c>
@@ -37151,7 +37419,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="53">
         <v>43209</v>
       </c>
@@ -37194,7 +37462,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="53">
         <v>43210</v>
       </c>
@@ -37237,7 +37505,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="53">
         <v>43211</v>
       </c>
@@ -37280,7 +37548,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="53">
         <v>43212</v>
       </c>
@@ -37323,7 +37591,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="53">
         <v>43213</v>
       </c>
@@ -37366,7 +37634,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="53">
         <v>43214</v>
       </c>
@@ -37409,7 +37677,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="53">
         <v>43215</v>
       </c>
@@ -37452,7 +37720,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="53">
         <v>43216</v>
       </c>
@@ -37495,7 +37763,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="53">
         <v>43217</v>
       </c>
@@ -37538,7 +37806,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="53">
         <v>43218</v>
       </c>
@@ -37581,7 +37849,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="53">
         <v>43219</v>
       </c>
@@ -37624,7 +37892,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="53">
         <v>43220</v>
       </c>
@@ -37667,7 +37935,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" ht="24" x14ac:dyDescent="0.2">
       <c r="B47" s="54" t="s">
         <v>26</v>
       </c>
@@ -37716,16 +37984,16 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E48" s="26"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E49" s="26"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E51" s="26"/>
     </row>
   </sheetData>
@@ -37752,25 +38020,25 @@
       <selection activeCell="B17" sqref="B17:M48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="33"/>
+    <col min="14" max="16384" width="11.5" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -37786,7 +38054,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -37804,7 +38072,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -37822,7 +38090,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -37838,7 +38106,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -37857,7 +38125,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -37879,7 +38147,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
@@ -37901,7 +38169,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -37923,7 +38191,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -37945,7 +38213,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -37967,7 +38235,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -37986,7 +38254,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -38000,7 +38268,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -38014,7 +38282,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
@@ -38030,7 +38298,7 @@
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
     </row>
-    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
@@ -38079,7 +38347,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -38117,7 +38385,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="53">
         <v>43221</v>
       </c>
@@ -38160,7 +38428,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="53">
         <v>43222</v>
       </c>
@@ -38203,7 +38471,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="53">
         <v>43223</v>
       </c>
@@ -38246,7 +38514,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="53">
         <v>43224</v>
       </c>
@@ -38289,7 +38557,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="53">
         <v>43225</v>
       </c>
@@ -38332,7 +38600,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="53">
         <v>43226</v>
       </c>
@@ -38375,7 +38643,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="59">
         <v>43227</v>
       </c>
@@ -38418,7 +38686,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="59">
         <v>43228</v>
       </c>
@@ -38461,7 +38729,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="59">
         <v>43229</v>
       </c>
@@ -38504,7 +38772,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="59">
         <v>43230</v>
       </c>
@@ -38547,7 +38815,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="59">
         <v>43231</v>
       </c>
@@ -38590,7 +38858,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="59">
         <v>43232</v>
       </c>
@@ -38633,7 +38901,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="41">
         <v>43233</v>
       </c>
@@ -38676,7 +38944,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="41">
         <v>43234</v>
       </c>
@@ -38719,7 +38987,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="41">
         <v>43235</v>
       </c>
@@ -38762,7 +39030,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="41">
         <v>43236</v>
       </c>
@@ -38805,7 +39073,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="41">
         <v>43237</v>
       </c>
@@ -38848,7 +39116,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="41">
         <v>43238</v>
       </c>
@@ -38891,7 +39159,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="41">
         <v>43239</v>
       </c>
@@ -38934,7 +39202,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="41">
         <v>43240</v>
       </c>
@@ -38977,7 +39245,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="41">
         <v>43241</v>
       </c>
@@ -39020,7 +39288,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="41">
         <v>43242</v>
       </c>
@@ -39063,7 +39331,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="41">
         <v>43243</v>
       </c>
@@ -39106,7 +39374,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="41">
         <v>43244</v>
       </c>
@@ -39149,7 +39417,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="41">
         <v>43245</v>
       </c>
@@ -39192,7 +39460,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="41">
         <v>43246</v>
       </c>
@@ -39235,7 +39503,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="41">
         <v>43247</v>
       </c>
@@ -39278,7 +39546,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="41">
         <v>43248</v>
       </c>
@@ -39321,7 +39589,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="41">
         <v>43249</v>
       </c>
@@ -39364,7 +39632,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="41">
         <v>43250</v>
       </c>
@@ -39407,7 +39675,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" s="41">
         <v>43251</v>
       </c>
@@ -39450,7 +39718,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" ht="24" x14ac:dyDescent="0.2">
       <c r="B48" s="56" t="s">
         <v>26</v>
       </c>
@@ -39499,16 +39767,16 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E49" s="26"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E51" s="26"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E52" s="26"/>
     </row>
   </sheetData>
@@ -39535,25 +39803,25 @@
       <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="33"/>
+    <col min="14" max="16384" width="11.5" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -39569,7 +39837,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -39587,7 +39855,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -39605,7 +39873,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -39621,7 +39889,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -39640,7 +39908,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -39662,7 +39930,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
@@ -39684,7 +39952,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -39706,7 +39974,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -39728,7 +39996,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -39750,7 +40018,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
@@ -39769,7 +40037,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -39783,7 +40051,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -39797,7 +40065,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="122" t="s">
         <v>12</v>
       </c>
@@ -39813,7 +40081,7 @@
       <c r="L14" s="122"/>
       <c r="M14" s="122"/>
     </row>
-    <row r="15" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
@@ -39872,7 +40140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" s="19" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
@@ -39910,7 +40178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="79">
         <v>43252</v>
       </c>
@@ -39958,7 +40226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="79">
         <v>43253</v>
       </c>
@@ -40006,7 +40274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="79">
         <v>43254</v>
       </c>
@@ -40054,7 +40322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="79">
         <v>43255</v>
       </c>
@@ -40102,7 +40370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="79">
         <v>43256</v>
       </c>
@@ -40150,7 +40418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="79">
         <v>43257</v>
       </c>
@@ -40198,7 +40466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="79">
         <v>43258</v>
       </c>
@@ -40246,7 +40514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="79">
         <v>43259</v>
       </c>
@@ -40294,7 +40562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="79">
         <v>43260</v>
       </c>
@@ -40342,7 +40610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="79">
         <v>43261</v>
       </c>
@@ -40390,7 +40658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="79">
         <v>43262</v>
       </c>
@@ -40438,7 +40706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="79">
         <v>43263</v>
       </c>
@@ -40486,7 +40754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B29" s="79">
         <v>43264</v>
       </c>
@@ -40534,7 +40802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="79">
         <v>43265</v>
       </c>
@@ -40582,7 +40850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B31" s="79">
         <v>43266</v>
       </c>
@@ -40630,7 +40898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B32" s="79">
         <v>43267</v>
       </c>
@@ -40678,7 +40946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B33" s="79">
         <v>43268</v>
       </c>
@@ -40726,7 +40994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B34" s="79">
         <v>43269</v>
       </c>
@@ -40774,7 +41042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B35" s="79">
         <v>43270</v>
       </c>
@@ -40822,7 +41090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B36" s="79">
         <v>43271</v>
       </c>
@@ -40870,7 +41138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B37" s="79">
         <v>43272</v>
       </c>
@@ -40918,7 +41186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B38" s="79">
         <v>43273</v>
       </c>
@@ -40966,7 +41234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B39" s="79">
         <v>43274</v>
       </c>
@@ -41014,7 +41282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B40" s="79">
         <v>43275</v>
       </c>
@@ -41062,7 +41330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B41" s="79">
         <v>43276</v>
       </c>
@@ -41110,7 +41378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="79">
         <v>43277</v>
       </c>
@@ -41158,7 +41426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="79">
         <v>43278</v>
       </c>
@@ -41206,7 +41474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="79">
         <v>43279</v>
       </c>
@@ -41254,7 +41522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="79">
         <v>43280</v>
       </c>
@@ -41302,7 +41570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="79">
         <v>43281</v>
       </c>
@@ -41350,7 +41618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" ht="24" x14ac:dyDescent="0.2">
       <c r="B47" s="62" t="s">
         <v>26</v>
       </c>
@@ -41399,16 +41667,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E48" s="26"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E49" s="26"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E51" s="26"/>
     </row>
   </sheetData>
@@ -41432,9 +41700,9 @@
       <selection activeCell="A2" sqref="A2:L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="114">
         <v>43282</v>
       </c>
@@ -41472,7 +41740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="110">
         <v>43283</v>
       </c>
@@ -41510,7 +41778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="114">
         <v>43284</v>
       </c>
@@ -41548,7 +41816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="110">
         <v>43285</v>
       </c>
@@ -41586,7 +41854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="114">
         <v>43286</v>
       </c>
@@ -41624,7 +41892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="110">
         <v>43287</v>
       </c>
@@ -41662,7 +41930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="114">
         <v>43288</v>
       </c>
@@ -41700,7 +41968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="110">
         <v>43289</v>
       </c>
@@ -41738,7 +42006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="114">
         <v>43290</v>
       </c>
@@ -41776,7 +42044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="110">
         <v>43291</v>
       </c>
@@ -41814,7 +42082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="114">
         <v>43292</v>
       </c>
@@ -41852,7 +42120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="110">
         <v>43293</v>
       </c>
@@ -41890,7 +42158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="114">
         <v>43294</v>
       </c>
@@ -41928,7 +42196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="110">
         <v>43295</v>
       </c>
@@ -41966,7 +42234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="114">
         <v>43296</v>
       </c>
@@ -42004,7 +42272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="110">
         <v>43297</v>
       </c>
@@ -42042,7 +42310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="114">
         <v>43298</v>
       </c>
@@ -42080,7 +42348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="110">
         <v>43299</v>
       </c>
@@ -42118,7 +42386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="114">
         <v>43300</v>
       </c>
@@ -42156,7 +42424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="110">
         <v>43301</v>
       </c>
@@ -42194,7 +42462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="114">
         <v>43302</v>
       </c>
@@ -42232,7 +42500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="110">
         <v>43303</v>
       </c>
@@ -42270,7 +42538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="114">
         <v>43304</v>
       </c>
@@ -42308,7 +42576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="110">
         <v>43305</v>
       </c>
@@ -42346,7 +42614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="114">
         <v>43306</v>
       </c>
@@ -42384,7 +42652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="110">
         <v>43307</v>
       </c>
@@ -42422,7 +42690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="114">
         <v>43308</v>
       </c>
@@ -42460,7 +42728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="110">
         <v>43309</v>
       </c>
@@ -42498,7 +42766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="114">
         <v>43310</v>
       </c>
@@ -42536,7 +42804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="110">
         <v>43311</v>
       </c>
@@ -42574,7 +42842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="114">
         <v>43312</v>
       </c>
@@ -42612,7 +42880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="21" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A33" s="116" t="s">
         <v>27</v>
       </c>

--- a/INTE-Performance-JAMU-2018.xlsx
+++ b/INTE-Performance-JAMU-2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Lopez\Desktop\ASAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirnazertuche/Desktop/ASAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC3C3FB-9611-44DB-8E35-E0BB098AB459}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C8E024-C26B-734B-A604-67A9AEC423CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="2640" windowWidth="25596" windowHeight="10356" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="3640" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAMUPerformance" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,13 @@
     <sheet name="08" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="179021" calcMode="manual"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -144,7 +151,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
     <font>
@@ -605,13 +612,13 @@
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -662,7 +669,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="4" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -701,7 +708,7 @@
     <xf numFmtId="10" fontId="14" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -772,13 +779,13 @@
     <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -796,7 +803,7 @@
     <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="19" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -958,7 +965,7 @@
     <xf numFmtId="3" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="28" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="28" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -976,9 +983,6 @@
     <xf numFmtId="10" fontId="29" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -988,24 +992,303 @@
     <xf numFmtId="10" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="30" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="40% - Énfasis5" xfId="4" builtinId="47"/>
-    <cellStyle name="60% - Énfasis5" xfId="5" builtinId="48"/>
+    <cellStyle name="40% - Accent5" xfId="4" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
     <cellStyle name="60% - Énfasis6 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Énfasis5" xfId="3" builtinId="45"/>
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Accent5" xfId="3" builtinId="45"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Millares 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="Total" xfId="9" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="164">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1470,7 +1753,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1495,7 +1778,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2013,7 +2296,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2038,7 +2321,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2556,7 +2839,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2581,7 +2864,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3099,7 +3382,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3124,7 +3407,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3642,7 +3925,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3667,7 +3950,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3735,16 +4018,28 @@
         <sz val="8"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3780,7 +4075,120 @@
         <sz val="8"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -3819,410 +4227,9 @@
         <sz val="8"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4319,7 +4326,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4391,7 +4398,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4428,30 +4435,30 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>JAMUPerformance!$C$255:$C$261</c:f>
+              <c:f>JAMUPerformance!$C$262:$C$268</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>13016</c:v>
+                  <c:v>16848</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14275</c:v>
+                  <c:v>10387</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10191</c:v>
+                  <c:v>10964</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14040</c:v>
+                  <c:v>9921</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9737</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4634</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2649</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4480,30 +4487,21 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>JAMUPerformance!$D$255:$D$261</c:f>
+              <c:f>JAMUPerformance!$D$262:$D$268</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>10535</c:v>
+                  <c:v>14385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11952</c:v>
+                  <c:v>8300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7782</c:v>
+                  <c:v>9075</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11972</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7643</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3330</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2355</c:v>
+                  <c:v>8008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4532,30 +4530,21 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>JAMUPerformance!$F$255:$F$261</c:f>
+              <c:f>JAMUPerformance!$F$262:$F$268</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2408</c:v>
+                  <c:v>2423</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2278</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2362</c:v>
+                  <c:v>1835</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1238</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>240</c:v>
+                  <c:v>1843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4584,7 +4573,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>JAMUPerformance!$H$255:$H$261</c:f>
+              <c:f>JAMUPerformance!$H$262:$H$268</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4595,18 +4584,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4638,30 +4618,21 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>JAMUPerformance!$J$255:$J$261</c:f>
+              <c:f>JAMUPerformance!$J$262:$J$268</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>73</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4692,7 +4663,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>JAMUPerformance!$L$255:$L$261</c:f>
+              <c:f>JAMUPerformance!$L$262:$L$268</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4706,15 +4677,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4781,7 +4743,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530867824"/>
@@ -4840,7 +4802,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530869456"/>
@@ -4882,7 +4844,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -4921,7 +4883,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4951,7 +4913,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4965,7 +4927,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5037,7 +4999,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5202,88 +5164,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>01/02/2018</c:v>
+                  <c:v>2/1/18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02/02/2018</c:v>
+                  <c:v>2/2/18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>03/02/2018</c:v>
+                  <c:v>2/3/18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/02/2018</c:v>
+                  <c:v>2/4/18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/02/2018</c:v>
+                  <c:v>2/5/18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>06/02/2018</c:v>
+                  <c:v>2/6/18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>07/02/2018</c:v>
+                  <c:v>2/7/18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>08/02/2018</c:v>
+                  <c:v>2/8/18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>09/02/2018</c:v>
+                  <c:v>2/9/18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10/02/2018</c:v>
+                  <c:v>2/10/18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11/02/2018</c:v>
+                  <c:v>2/11/18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12/02/2018</c:v>
+                  <c:v>2/12/18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13/02/2018</c:v>
+                  <c:v>2/13/18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14/02/2018</c:v>
+                  <c:v>2/14/18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15/02/2018</c:v>
+                  <c:v>2/15/18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16/02/2018</c:v>
+                  <c:v>2/16/18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17/02/2018</c:v>
+                  <c:v>2/17/18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18/02/2018</c:v>
+                  <c:v>2/18/18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19/02/2018</c:v>
+                  <c:v>2/19/18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20/02/2018</c:v>
+                  <c:v>2/20/18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21/02/2018</c:v>
+                  <c:v>2/21/18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22/02/2018</c:v>
+                  <c:v>2/22/18</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23/02/2018</c:v>
+                  <c:v>2/23/18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24/02/2018</c:v>
+                  <c:v>2/24/18</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25/02/2018</c:v>
+                  <c:v>2/25/18</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26/02/2018</c:v>
+                  <c:v>2/26/18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27/02/2018</c:v>
+                  <c:v>2/27/18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28/02/2018</c:v>
+                  <c:v>2/28/18</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -5419,88 +5381,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>01/02/2018</c:v>
+                  <c:v>2/1/18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02/02/2018</c:v>
+                  <c:v>2/2/18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>03/02/2018</c:v>
+                  <c:v>2/3/18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/02/2018</c:v>
+                  <c:v>2/4/18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/02/2018</c:v>
+                  <c:v>2/5/18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>06/02/2018</c:v>
+                  <c:v>2/6/18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>07/02/2018</c:v>
+                  <c:v>2/7/18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>08/02/2018</c:v>
+                  <c:v>2/8/18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>09/02/2018</c:v>
+                  <c:v>2/9/18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10/02/2018</c:v>
+                  <c:v>2/10/18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11/02/2018</c:v>
+                  <c:v>2/11/18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12/02/2018</c:v>
+                  <c:v>2/12/18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13/02/2018</c:v>
+                  <c:v>2/13/18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14/02/2018</c:v>
+                  <c:v>2/14/18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15/02/2018</c:v>
+                  <c:v>2/15/18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16/02/2018</c:v>
+                  <c:v>2/16/18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17/02/2018</c:v>
+                  <c:v>2/17/18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18/02/2018</c:v>
+                  <c:v>2/18/18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19/02/2018</c:v>
+                  <c:v>2/19/18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20/02/2018</c:v>
+                  <c:v>2/20/18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21/02/2018</c:v>
+                  <c:v>2/21/18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22/02/2018</c:v>
+                  <c:v>2/22/18</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23/02/2018</c:v>
+                  <c:v>2/23/18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24/02/2018</c:v>
+                  <c:v>2/24/18</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25/02/2018</c:v>
+                  <c:v>2/25/18</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26/02/2018</c:v>
+                  <c:v>2/26/18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27/02/2018</c:v>
+                  <c:v>2/27/18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28/02/2018</c:v>
+                  <c:v>2/28/18</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -5636,88 +5598,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>01/02/2018</c:v>
+                  <c:v>2/1/18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02/02/2018</c:v>
+                  <c:v>2/2/18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>03/02/2018</c:v>
+                  <c:v>2/3/18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/02/2018</c:v>
+                  <c:v>2/4/18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/02/2018</c:v>
+                  <c:v>2/5/18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>06/02/2018</c:v>
+                  <c:v>2/6/18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>07/02/2018</c:v>
+                  <c:v>2/7/18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>08/02/2018</c:v>
+                  <c:v>2/8/18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>09/02/2018</c:v>
+                  <c:v>2/9/18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10/02/2018</c:v>
+                  <c:v>2/10/18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11/02/2018</c:v>
+                  <c:v>2/11/18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12/02/2018</c:v>
+                  <c:v>2/12/18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13/02/2018</c:v>
+                  <c:v>2/13/18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14/02/2018</c:v>
+                  <c:v>2/14/18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15/02/2018</c:v>
+                  <c:v>2/15/18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16/02/2018</c:v>
+                  <c:v>2/16/18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17/02/2018</c:v>
+                  <c:v>2/17/18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18/02/2018</c:v>
+                  <c:v>2/18/18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19/02/2018</c:v>
+                  <c:v>2/19/18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20/02/2018</c:v>
+                  <c:v>2/20/18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21/02/2018</c:v>
+                  <c:v>2/21/18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22/02/2018</c:v>
+                  <c:v>2/22/18</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23/02/2018</c:v>
+                  <c:v>2/23/18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24/02/2018</c:v>
+                  <c:v>2/24/18</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25/02/2018</c:v>
+                  <c:v>2/25/18</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26/02/2018</c:v>
+                  <c:v>2/26/18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27/02/2018</c:v>
+                  <c:v>2/27/18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28/02/2018</c:v>
+                  <c:v>2/28/18</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -5855,88 +5817,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>01/02/2018</c:v>
+                  <c:v>2/1/18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02/02/2018</c:v>
+                  <c:v>2/2/18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>03/02/2018</c:v>
+                  <c:v>2/3/18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/02/2018</c:v>
+                  <c:v>2/4/18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/02/2018</c:v>
+                  <c:v>2/5/18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>06/02/2018</c:v>
+                  <c:v>2/6/18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>07/02/2018</c:v>
+                  <c:v>2/7/18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>08/02/2018</c:v>
+                  <c:v>2/8/18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>09/02/2018</c:v>
+                  <c:v>2/9/18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10/02/2018</c:v>
+                  <c:v>2/10/18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11/02/2018</c:v>
+                  <c:v>2/11/18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12/02/2018</c:v>
+                  <c:v>2/12/18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13/02/2018</c:v>
+                  <c:v>2/13/18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14/02/2018</c:v>
+                  <c:v>2/14/18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15/02/2018</c:v>
+                  <c:v>2/15/18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16/02/2018</c:v>
+                  <c:v>2/16/18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17/02/2018</c:v>
+                  <c:v>2/17/18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18/02/2018</c:v>
+                  <c:v>2/18/18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19/02/2018</c:v>
+                  <c:v>2/19/18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20/02/2018</c:v>
+                  <c:v>2/20/18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21/02/2018</c:v>
+                  <c:v>2/21/18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22/02/2018</c:v>
+                  <c:v>2/22/18</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23/02/2018</c:v>
+                  <c:v>2/23/18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24/02/2018</c:v>
+                  <c:v>2/24/18</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25/02/2018</c:v>
+                  <c:v>2/25/18</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26/02/2018</c:v>
+                  <c:v>2/26/18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27/02/2018</c:v>
+                  <c:v>2/27/18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28/02/2018</c:v>
+                  <c:v>2/28/18</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -6074,88 +6036,88 @@
               <c:strCache>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>01/02/2018</c:v>
+                  <c:v>2/1/18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02/02/2018</c:v>
+                  <c:v>2/2/18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>03/02/2018</c:v>
+                  <c:v>2/3/18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/02/2018</c:v>
+                  <c:v>2/4/18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>05/02/2018</c:v>
+                  <c:v>2/5/18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>06/02/2018</c:v>
+                  <c:v>2/6/18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>07/02/2018</c:v>
+                  <c:v>2/7/18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>08/02/2018</c:v>
+                  <c:v>2/8/18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>09/02/2018</c:v>
+                  <c:v>2/9/18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10/02/2018</c:v>
+                  <c:v>2/10/18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11/02/2018</c:v>
+                  <c:v>2/11/18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12/02/2018</c:v>
+                  <c:v>2/12/18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13/02/2018</c:v>
+                  <c:v>2/13/18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14/02/2018</c:v>
+                  <c:v>2/14/18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15/02/2018</c:v>
+                  <c:v>2/15/18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16/02/2018</c:v>
+                  <c:v>2/16/18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17/02/2018</c:v>
+                  <c:v>2/17/18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18/02/2018</c:v>
+                  <c:v>2/18/18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19/02/2018</c:v>
+                  <c:v>2/19/18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20/02/2018</c:v>
+                  <c:v>2/20/18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21/02/2018</c:v>
+                  <c:v>2/21/18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22/02/2018</c:v>
+                  <c:v>2/22/18</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23/02/2018</c:v>
+                  <c:v>2/23/18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24/02/2018</c:v>
+                  <c:v>2/24/18</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25/02/2018</c:v>
+                  <c:v>2/25/18</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26/02/2018</c:v>
+                  <c:v>2/26/18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27/02/2018</c:v>
+                  <c:v>2/27/18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28/02/2018</c:v>
+                  <c:v>2/28/18</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>    SUMMARY
@@ -6321,7 +6283,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530864560"/>
@@ -6380,7 +6342,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530865104"/>
@@ -6422,7 +6384,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -6461,7 +6423,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6491,7 +6453,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6505,7 +6467,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6577,7 +6539,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6747,7 +6709,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -6977,7 +6939,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -7207,7 +7169,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -7439,7 +7401,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -7671,7 +7633,7 @@
             <c:numRef>
               <c:f>'03'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43160</c:v>
@@ -7933,7 +7895,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="302953280"/>
@@ -7992,7 +7954,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="302951104"/>
@@ -8034,7 +7996,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -8073,7 +8035,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8103,7 +8065,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8117,7 +8079,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8189,7 +8151,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8356,7 +8318,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8580,7 +8542,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -8804,7 +8766,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -9030,7 +8992,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -9256,7 +9218,7 @@
             <c:numRef>
               <c:f>'04'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43191</c:v>
@@ -9512,7 +9474,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593585056"/>
@@ -9571,7 +9533,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593573632"/>
@@ -9613,7 +9575,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -9652,7 +9614,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9682,7 +9644,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9696,7 +9658,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9768,7 +9730,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9938,7 +9900,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -10168,7 +10130,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -10398,7 +10360,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -10630,7 +10592,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -10862,7 +10824,7 @@
             <c:numRef>
               <c:f>'05'!$B$17:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
@@ -11124,7 +11086,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593578528"/>
@@ -11183,7 +11145,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593585600"/>
@@ -11225,7 +11187,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -11264,7 +11226,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11294,7 +11256,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11308,7 +11270,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11380,7 +11342,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11577,7 +11539,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -11800,7 +11762,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -12023,7 +11985,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -12248,7 +12210,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -12473,7 +12435,7 @@
             <c:numRef>
               <c:f>'06'!$B$17:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43252</c:v>
@@ -12728,7 +12690,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593574720"/>
@@ -12787,7 +12749,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="593574176"/>
@@ -12829,7 +12791,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -12868,7 +12830,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12898,7 +12860,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12912,7 +12874,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12984,7 +12946,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13023,7 +12985,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13249,7 +13211,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13475,7 +13437,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13701,7 +13663,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -13929,7 +13891,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -14157,7 +14119,7 @@
             <c:numRef>
               <c:f>'07'!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43282</c:v>
@@ -14384,7 +14346,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -14418,7 +14380,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530867824"/>
@@ -14476,7 +14438,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530869456"/>
@@ -14518,7 +14480,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -14557,7 +14519,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -14587,7 +14549,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14601,7 +14563,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14673,7 +14635,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14712,7 +14674,7 @@
             <c:numRef>
               <c:f>'08'!$B$2:$B$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43313</c:v>
@@ -14938,7 +14900,7 @@
             <c:numRef>
               <c:f>'08'!$B$2:$B$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43313</c:v>
@@ -15164,7 +15126,7 @@
             <c:numRef>
               <c:f>'08'!$B$2:$B$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43313</c:v>
@@ -15390,7 +15352,7 @@
             <c:numRef>
               <c:f>'08'!$B$2:$B$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43313</c:v>
@@ -15618,7 +15580,7 @@
             <c:numRef>
               <c:f>'08'!$B$2:$B$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43313</c:v>
@@ -15846,7 +15808,7 @@
             <c:numRef>
               <c:f>'08'!$B$2:$B$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43313</c:v>
@@ -16073,7 +16035,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -16107,7 +16069,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530867824"/>
@@ -16165,7 +16127,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530869456"/>
@@ -16207,7 +16169,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -16246,7 +16208,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -16276,7 +16238,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -20741,13 +20703,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>188160</xdr:colOff>
-      <xdr:row>262</xdr:row>
+      <xdr:row>269</xdr:row>
       <xdr:rowOff>143435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>810535</xdr:colOff>
-      <xdr:row>290</xdr:row>
+      <xdr:row>297</xdr:row>
       <xdr:rowOff>31376</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -21080,8 +21042,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla18" displayName="Tabla18" ref="B16:M262" totalsRowCount="1" headerRowDxfId="161" dataDxfId="160" totalsRowDxfId="159">
-  <autoFilter ref="B16:M261" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla18" displayName="Tabla18" ref="B16:M269" totalsRowCount="1" headerRowDxfId="161" dataDxfId="160" totalsRowDxfId="159">
+  <autoFilter ref="B16:M268" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2016" month="5" day="9" dateTimeGrouping="day"/>
@@ -21098,49 +21060,49 @@
     <sortCondition ref="C16:C146"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="158" totalsRowDxfId="157"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="156" totalsRowDxfId="155">
-      <totalsRowFormula>SUM(C255:C261)</totalsRowFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Day" totalsRowLabel="   SUMMARY_x000a_AVERAGE   " dataDxfId="158" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Total" totalsRowFunction="custom" dataDxfId="157" totalsRowDxfId="10">
+      <totalsRowFormula>SUM(C262:C268)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="154" totalsRowDxfId="153">
-      <totalsRowFormula>SUM(D255:D261)</totalsRowFormula>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Transactions _x000a_Complete" totalsRowFunction="custom" dataDxfId="156" totalsRowDxfId="9">
+      <totalsRowFormula>SUM(D262:D268)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="152" totalsRowDxfId="151">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="%_x000a_Complete" totalsRowFunction="custom" dataDxfId="155" totalsRowDxfId="8">
       <calculatedColumnFormula>Tabla18[Transactions 
 Complete]/Tabla18[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(E255:E261)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(E262:E268)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="150" totalsRowDxfId="149">
-      <totalsRowFormula>SUM(F255:F261)</totalsRowFormula>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Transactions _x000a_Failed" totalsRowFunction="custom" dataDxfId="154" totalsRowDxfId="7">
+      <totalsRowFormula>SUM(F262:F268)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="148" totalsRowDxfId="147">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% _x000a_Failed" totalsRowFunction="custom" dataDxfId="153" totalsRowDxfId="6">
       <calculatedColumnFormula>Tabla18[Transactions 
 Failed]/Tabla18[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(G255:G261)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(G262:G268)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="146" totalsRowDxfId="145">
-      <totalsRowFormula>SUM(H255:H261)</totalsRowFormula>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Transactions _x000a_In_Prog" totalsRowFunction="custom" dataDxfId="152" totalsRowDxfId="5">
+      <totalsRowFormula>SUM(H262:H268)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="144" totalsRowDxfId="143">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="%_x000a_In_Prog" totalsRowFunction="custom" dataDxfId="151" totalsRowDxfId="4">
       <calculatedColumnFormula>Tabla18[Transactions 
 In_Prog]/Tabla18[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(I255:I261)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(I262:I268)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="142" totalsRowDxfId="141">
-      <totalsRowFormula>SUM(J255:J261)</totalsRowFormula>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Transactions _x000a_Timeout" totalsRowFunction="custom" dataDxfId="150" totalsRowDxfId="3">
+      <totalsRowFormula>SUM(J262:J268)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="140" totalsRowDxfId="139">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="%_x000a_Timeout" totalsRowFunction="custom" dataDxfId="149" totalsRowDxfId="2">
       <calculatedColumnFormula>Tabla18[Transactions 
 Timeout]/Tabla18[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(K255:K261)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(K262:K268)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="138" totalsRowDxfId="137">
-      <totalsRowFormula>SUM(L255:L261)</totalsRowFormula>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Transactions_x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="148" totalsRowDxfId="1">
+      <totalsRowFormula>SUM(L262:L268)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="136" totalsRowDxfId="135">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="% _x000a_Trans Fail" totalsRowFunction="custom" dataDxfId="147" totalsRowDxfId="0">
       <calculatedColumnFormula>Tabla18[Transactions
 Trans Fail]/Tabla18[Total]</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(M255:M261)</totalsRowFormula>
+      <totalsRowFormula>AVERAGE(M262:M268)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -21148,7 +21110,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" 